--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>交流负荷</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>电网购电功率</t>
+  </si>
+  <si>
+    <t>电网购热功率</t>
   </si>
   <si>
     <t>交流侧逆变器功率</t>
@@ -77,6 +80,15 @@
   </si>
   <si>
     <t>Boiler_1燃气锅炉热功率</t>
+  </si>
+  <si>
+    <t>高品位热功率</t>
+  </si>
+  <si>
+    <t>中品位热功率</t>
+  </si>
+  <si>
+    <t>低品位热功率</t>
   </si>
 </sst>
 </file>
@@ -434,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +516,20 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -522,58 +546,70 @@
         <v>6577.09724371865</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2623.4076</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1269.5682133</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>960</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1250</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>50</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>60.90909090909089</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>289.830021141649</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1246.269090909091</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.879629629629619</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.63888888888886</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>-3.108624468950438e-15</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>300</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>303.0109090909092</v>
       </c>
-      <c r="V2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>1000</v>
+      </c>
+      <c r="X2">
+        <v>2623.4076</v>
+      </c>
+      <c r="Y2">
+        <v>1147.93137090909</v>
+      </c>
+      <c r="Z2">
+        <v>971.175007272727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -590,58 +626,70 @@
         <v>6102.89427999649</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2650.4076</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1269.34694195</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1244.21052631579</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1250</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>60.90909090909089</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>290.859974630021</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1250.69789090909</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.879629629629701</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2.6388888888891</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>3.552713678800501e-15</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>300</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>300.5821090909092</v>
       </c>
-      <c r="V3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>1000</v>
+      </c>
+      <c r="X3">
+        <v>2650.4076</v>
+      </c>
+      <c r="Y3">
+        <v>1156.03137090909</v>
+      </c>
+      <c r="Z3">
+        <v>980.691807272727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -658,58 +706,70 @@
         <v>5628.69131627434</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2677.4076</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1269.1256706</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1528.42105263158</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1250</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>60.90909090909089</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>291.889928118393</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1255.12669090909</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.63888888888899</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>300</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>298.1533090909092</v>
       </c>
-      <c r="V4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>1000</v>
+      </c>
+      <c r="X4">
+        <v>2677.4076</v>
+      </c>
+      <c r="Y4">
+        <v>1164.13137090909</v>
+      </c>
+      <c r="Z4">
+        <v>990.208607272727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -726,58 +786,70 @@
         <v>6354.76405049955</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2704.4076</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1269.1663123</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1812.63157894737</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1250</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>50</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>60.90909090909089</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>292.919881606765</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1259.555490909089</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2.63888888888899</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>300</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>295.7245090909092</v>
       </c>
-      <c r="V5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>1000</v>
+      </c>
+      <c r="X5">
+        <v>2704.4076</v>
+      </c>
+      <c r="Y5">
+        <v>1172.23137090909</v>
+      </c>
+      <c r="Z5">
+        <v>999.725407272727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -794,58 +866,70 @@
         <v>7075.25538937593</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2731.4076</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1269.206954</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2096.84210526316</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1250</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>50</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>60.90909090909089</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>288.3684397463</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1239.98429090909</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.63888888888899</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>300</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>317.2957090909092</v>
       </c>
-      <c r="V6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>1000</v>
+      </c>
+      <c r="X6">
+        <v>2731.4076</v>
+      </c>
+      <c r="Y6">
+        <v>1180.33137090909</v>
+      </c>
+      <c r="Z6">
+        <v>995.242207272727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -862,58 +946,70 @@
         <v>6848.50978566357</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2758.4076</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1269.22133745</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2381.05263157895</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1250</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>50</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>60.90909090909089</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>286.607695560254</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1232.413090909092</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2.63888888888899</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>300</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>326.8669090909092</v>
       </c>
-      <c r="V7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>1000</v>
+      </c>
+      <c r="X7">
+        <v>2758.4076</v>
+      </c>
+      <c r="Y7">
+        <v>1188.43137090909</v>
+      </c>
+      <c r="Z7">
+        <v>997.759007272727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -930,58 +1026,70 @@
         <v>6621.76418195121</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2785.4076</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1269.2357209</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2665.26315789474</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1250</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>60.90909090909089</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>284.846951374207</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1224.84189090909</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2.63888888888899</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>300</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>336.4381090909092</v>
       </c>
-      <c r="V8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>1000</v>
+      </c>
+      <c r="X8">
+        <v>2785.4076</v>
+      </c>
+      <c r="Y8">
+        <v>1196.53137090909</v>
+      </c>
+      <c r="Z8">
+        <v>1000.27580727273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -998,58 +1106,70 @@
         <v>6590.33304301852</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2652.4076</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1269.2726831</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2949.47368421053</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1250</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>50</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>60.90909090909089</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>285.876904862579</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1229.27069090909</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2.63888888888899</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>300</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>334.0093090909092</v>
       </c>
-      <c r="V9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>1000</v>
+      </c>
+      <c r="X9">
+        <v>2652.4076</v>
+      </c>
+      <c r="Y9">
+        <v>1156.63137090909</v>
+      </c>
+      <c r="Z9">
+        <v>961.792607272727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1066,58 +1186,70 @@
         <v>6546.34376455096</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2599.4076</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1269.3096453</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3233.68421052632</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1250</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>50</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>60.90909090909089</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>274.348718816068</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1179.699490909092</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2.63888888888899</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>300</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>343.5805090909092</v>
       </c>
-      <c r="V10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>1000</v>
+      </c>
+      <c r="X10">
+        <v>2599.4076</v>
+      </c>
+      <c r="Y10">
+        <v>1140.73137090909</v>
+      </c>
+      <c r="Z10">
+        <v>940.309407272727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1134,58 +1266,70 @@
         <v>6510.77402866846</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2566.4076</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>1269.5021497</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3517.89473684211</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1250</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>60.90909090909089</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>266.076346723044</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1144.128290909089</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2.63888888888899</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>300</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>353.1517090909092</v>
       </c>
-      <c r="V11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>1000</v>
+      </c>
+      <c r="X11">
+        <v>2566.4076</v>
+      </c>
+      <c r="Y11">
+        <v>1130.83137090909</v>
+      </c>
+      <c r="Z11">
+        <v>924.8262072727269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1202,58 +1346,70 @@
         <v>6486.59964162318</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2493.4076</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1269.6946541</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3802.1052631579</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1250</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>50</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>60.90909090909089</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>269.19932346723</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1157.557090909089</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2.63888888888899</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>300</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>338.7229090909092</v>
       </c>
-      <c r="V12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>1000</v>
+      </c>
+      <c r="X12">
+        <v>2493.4076</v>
+      </c>
+      <c r="Y12">
+        <v>1108.93137090909</v>
+      </c>
+      <c r="Z12">
+        <v>911.343007272727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1270,58 +1426,70 @@
         <v>6691.29154781779</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2420.4076</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1269.63862545</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4086.31578947369</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1250</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>50</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>60.90909090909089</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>263.950207188161</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1134.985890909092</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2.63888888888899</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>300</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>360.2941090909092</v>
       </c>
-      <c r="V13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>1000</v>
+      </c>
+      <c r="X13">
+        <v>2420.4076</v>
+      </c>
+      <c r="Y13">
+        <v>1087.03137090909</v>
+      </c>
+      <c r="Z13">
+        <v>876.859807272727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1338,58 +1506,70 @@
         <v>7098.77415168682</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2447.4076</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>1269.5825968</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4370.52631578948</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1250</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>50</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>60.90909090909089</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>261.49178858351</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1124.414690909093</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2.63888888888899</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>300</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>369.8653090909092</v>
       </c>
-      <c r="V14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>1000</v>
+      </c>
+      <c r="X14">
+        <v>2447.4076</v>
+      </c>
+      <c r="Y14">
+        <v>1095.13137090909</v>
+      </c>
+      <c r="Z14">
+        <v>879.376607272727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1406,58 +1586,70 @@
         <v>6649.01147971436</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2374.4076</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>1269.554253775</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4654.73684210526</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1250</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>50</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>60.90909090909089</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.122170075</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>256.758951374207</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1104.06349090909</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.63888888888899</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>300</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>389.2165090909091</v>
       </c>
-      <c r="V15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>1000</v>
+      </c>
+      <c r="X15">
+        <v>2374.4076</v>
+      </c>
+      <c r="Y15">
+        <v>1073.23137090909</v>
+      </c>
+      <c r="Z15">
+        <v>846.188407272727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1474,58 +1666,70 @@
         <v>6371.97438913725</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2501.4076</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>1269.52591075</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4938.94736842105</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1250</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>50</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>60.90909090909089</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.24434015</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>224.751695560254</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>966.4322909090922</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.879629629629663</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2.63888888888899</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>-1.332267629550188e-15</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>300</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>410.8477090909092</v>
       </c>
-      <c r="V16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>1000</v>
+      </c>
+      <c r="X16">
+        <v>2501.4076</v>
+      </c>
+      <c r="Y16">
+        <v>1111.33137090909</v>
+      </c>
+      <c r="Z16">
+        <v>871.670207272727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1542,58 +1746,70 @@
         <v>6946.36244844674</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2528.4076</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>1268.43368125</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5223.15789473684</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1250</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>50</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>60.90909090909089</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.5096731</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>220.186300211416</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>946.8010909090888</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>85.9827995511083</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>257.948398653325</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>-1.13686837721616e-13</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>300</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>432.4789090909092</v>
       </c>
-      <c r="V17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>1000</v>
+      </c>
+      <c r="X17">
+        <v>2528.4076</v>
+      </c>
+      <c r="Y17">
+        <v>1119.43137090909</v>
+      </c>
+      <c r="Z17">
+        <v>867.152007272727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1610,58 +1826,70 @@
         <v>6771.63353053169</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2555.4076</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>1267.34145175</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5507.36842105263</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1250</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>50</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>60.90909090909089</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2.77500605</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>220.923230443975</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>949.9698909090924</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>166.666666666667</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>500</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>358.049320114861</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>431.3101090909092</v>
       </c>
-      <c r="V18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>1000</v>
+      </c>
+      <c r="X18">
+        <v>2555.4076</v>
+      </c>
+      <c r="Y18">
+        <v>1127.53137090909</v>
+      </c>
+      <c r="Z18">
+        <v>875.933807272727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1678,58 +1906,70 @@
         <v>6780.69293643133</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2582.4076</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>1264.43326875</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5791.57894736842</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1250</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>50</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>60.90909090909089</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>5.9601545</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>220.543881606765</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>948.3386909090896</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>166.666666666667</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>500</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>471.017432000947</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>434.9413090909092</v>
       </c>
-      <c r="V19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>1000</v>
+      </c>
+      <c r="X19">
+        <v>2582.4076</v>
+      </c>
+      <c r="Y19">
+        <v>1135.63137090909</v>
+      </c>
+      <c r="Z19">
+        <v>881.915607272727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1746,58 +1986,70 @@
         <v>6114.54304000538</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2589.4076</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>1261.52508575</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6075.78947368421</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1250</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>50</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>60.90909090909089</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>9.14530295</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>194.955230443975</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>838.3074909090925</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>166.666666666667</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>500</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>583.759607663261</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>446.9725090909092</v>
       </c>
-      <c r="V20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>1000</v>
+      </c>
+      <c r="X20">
+        <v>2589.4076</v>
+      </c>
+      <c r="Y20">
+        <v>1137.73137090909</v>
+      </c>
+      <c r="Z20">
+        <v>876.9974072727269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1814,58 +2066,70 @@
         <v>6065.25036884406</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2536.4076</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>1256.50394117</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>6360</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1250</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>50</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>60.90909090909089</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>13.94484173</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>190.947974630021</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>821.0762909090903</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>166.666666666667</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>500</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>696.27629897425</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>466.2037090909092</v>
       </c>
-      <c r="V21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>1000</v>
+      </c>
+      <c r="X21">
+        <v>2536.4076</v>
+      </c>
+      <c r="Y21">
+        <v>1121.83137090909</v>
+      </c>
+      <c r="Z21">
+        <v>849.8792072727269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1882,58 +2146,70 @@
         <v>6015.95769769326</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2563.4076</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>1251.4827966</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>6644.21052631579</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1250</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>50</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>60.90909090909089</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>18.7443805</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>186.940718816068</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>803.8450909090924</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>166.666666666667</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>500</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>808.567956902618</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>485.4349090909092</v>
       </c>
-      <c r="V22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>1000</v>
+      </c>
+      <c r="X22">
+        <v>2563.4076</v>
+      </c>
+      <c r="Y22">
+        <v>1129.93137090909</v>
+      </c>
+      <c r="Z22">
+        <v>846.7610072727271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1950,58 +2226,70 @@
         <v>5759.74841560268</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2490.4076</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>1243.8455228</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>6928.42105263158</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1250</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>50</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>60.90909090909089</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>26.91668605</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>183.77067230444</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>790.213890909092</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>166.666666666667</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>500</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>920.635031515128</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>501.0661090909092</v>
       </c>
-      <c r="V23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>1000</v>
+      </c>
+      <c r="X23">
+        <v>2490.4076</v>
+      </c>
+      <c r="Y23">
+        <v>1108.03137090909</v>
+      </c>
+      <c r="Z23">
+        <v>815.742807272728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2018,58 +2306,70 @@
         <v>5504.65541258188</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2517.4076</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>1236.208249</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>7212.63157894737</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1250</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>50</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>60.90909090909089</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>35.0889916</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>181.716904862579</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>781.3826909090898</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>166.666666666667</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>500</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1032.47797197841</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>511.8973090909092</v>
       </c>
-      <c r="V24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>1000</v>
+      </c>
+      <c r="X24">
+        <v>2517.4076</v>
+      </c>
+      <c r="Y24">
+        <v>1116.13137090909</v>
+      </c>
+      <c r="Z24">
+        <v>817.5246072727271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2086,58 +2386,70 @@
         <v>5652.3697089503</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2444.4076</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>1230.69663055</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7496.84210526316</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1250</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>50</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>60.90909090909089</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>47.99538765</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>182.732904862579</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>785.7514909090897</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>166.666666666667</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>500</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1144.09722656077</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>509.5285090909092</v>
       </c>
-      <c r="V25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>1000</v>
+      </c>
+      <c r="X25">
+        <v>2444.4076</v>
+      </c>
+      <c r="Y25">
+        <v>1094.23137090909</v>
+      </c>
+      <c r="Z25">
+        <v>797.006407272727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2154,58 +2466,70 @@
         <v>5800.08400531872</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2471.4076</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>1225.1850121</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7781.05263157895</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1250</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>50</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>60.90909090909089</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>60.9017837</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>183.748904862579</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>790.1202909090897</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>166.666666666667</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>500</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1255.49324263397</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>507.1597090909091</v>
       </c>
-      <c r="V26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>1000</v>
+      </c>
+      <c r="X26">
+        <v>2471.4076</v>
+      </c>
+      <c r="Y26">
+        <v>1102.33137090909</v>
+      </c>
+      <c r="Z26">
+        <v>806.488207272727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2222,58 +2546,70 @@
         <v>5687.73198075838</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2398.4076</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>1213.89359807</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>8065.26315789473</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1250</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>50</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>60.90909090909089</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>74.39721408</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>180.782579281184</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>777.3650909090912</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>166.666666666667</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>500</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1366.66646667501</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>521.9149090909092</v>
       </c>
-      <c r="V27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>1000</v>
+      </c>
+      <c r="X27">
+        <v>2398.4076</v>
+      </c>
+      <c r="Y27">
+        <v>1080.43137090909</v>
+      </c>
+      <c r="Z27">
+        <v>775.981007272727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2290,58 +2626,70 @@
         <v>4987.1503793689</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2325.4076</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>645.33607675</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>8349.473684210519</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>692.7338927</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>50</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>60.90909090909089</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>87.89264445000001</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>176.182579281184</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>757.5850909090912</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>166.666666666667</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>500</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1477.61734426798</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>543.6949090909092</v>
       </c>
-      <c r="V28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>1000</v>
+      </c>
+      <c r="X28">
+        <v>2325.4076</v>
+      </c>
+      <c r="Y28">
+        <v>1058.53137090909</v>
+      </c>
+      <c r="Z28">
+        <v>741.376007272727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2358,58 +2706,70 @@
         <v>4301.33064129669</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2352.4076</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>8506.979495603369</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>67.7338927</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>50</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>60.90909090909089</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>110.5464674</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>177.163974630021</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>761.8050909090903</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>166.666666666667</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>500</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1588.34632010576</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>541.4749090909091</v>
       </c>
-      <c r="V29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>1000</v>
+      </c>
+      <c r="X29">
+        <v>2352.4076</v>
+      </c>
+      <c r="Y29">
+        <v>1066.63137090909</v>
+      </c>
+      <c r="Z29">
+        <v>750.771007272727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2426,58 +2786,70 @@
         <v>4294.81203664553</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2379.4076</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>8522.38004383831</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>88.0699695</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>50</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>60.90909090909089</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>133.2002904</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>178.145369978858</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>766.0250909090894</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>166.666666666667</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>500</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1698.85383799186</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>539.2549090909092</v>
       </c>
-      <c r="V30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>1000</v>
+      </c>
+      <c r="X30">
+        <v>2379.4076</v>
+      </c>
+      <c r="Y30">
+        <v>1074.73137090909</v>
+      </c>
+      <c r="Z30">
+        <v>760.166007272727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2494,58 +2866,70 @@
         <v>4582.53761804087</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2306.4076</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>8542.40437374568</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>117.2222367</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>50</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>60.90909090909089</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>160.9459877</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>155.870951374207</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>670.2450909090901</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>166.666666666667</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>500</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1809.1403408422</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>537.0349090909092</v>
       </c>
-      <c r="V31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>1000</v>
+      </c>
+      <c r="X31">
+        <v>2306.4076</v>
+      </c>
+      <c r="Y31">
+        <v>1052.83137090909</v>
+      </c>
+      <c r="Z31">
+        <v>739.561007272727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2562,58 +2946,70 @@
         <v>4893.51901338971</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2333.4076</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>8569.057008616421</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>146.3745039</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>50</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>60.90909090909089</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>188.691685</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>156.852346723044</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>674.4650909090892</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>166.666666666667</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>500</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1919.20627068683</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>534.8149090909092</v>
       </c>
-      <c r="V32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>1000</v>
+      </c>
+      <c r="X32">
+        <v>2333.4076</v>
+      </c>
+      <c r="Y32">
+        <v>1060.93137090909</v>
+      </c>
+      <c r="Z32">
+        <v>748.956007272727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2630,58 +3026,70 @@
         <v>4997.7706739257</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2360.4076</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>3.10675192779084</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>8602.33794845052</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>165.643282277791</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>50</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>60.90909090909089</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>203.3171886</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>157.833742071882</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>678.6850909090925</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>166.666666666667</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>500</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>1.023181539494544e-12</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>2029.05206867177</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>532.5949090909091</v>
       </c>
-      <c r="V33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>1000</v>
+      </c>
+      <c r="X33">
+        <v>2360.4076</v>
+      </c>
+      <c r="Y33">
+        <v>1069.03137090909</v>
+      </c>
+      <c r="Z33">
+        <v>758.351007272727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2698,38 +3106,38 @@
         <v>4759.05150855572</v>
       </c>
       <c r="F34">
+        <v>2287.4076</v>
+      </c>
+      <c r="G34">
         <v>169.763628865</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>8640</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>50</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>60.90909090909089</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>217.9426921</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>158.815137420719</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>682.9050909090917</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
         <v>0</v>
       </c>
@@ -2740,16 +3148,28 @@
         <v>0</v>
       </c>
       <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>2138.67817506074</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>530.3749090909091</v>
       </c>
-      <c r="V34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>1000</v>
+      </c>
+      <c r="X34">
+        <v>2287.4076</v>
+      </c>
+      <c r="Y34">
+        <v>1047.13137090909</v>
+      </c>
+      <c r="Z34">
+        <v>737.746007272727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2766,38 +3186,38 @@
         <v>4748.89996623706</v>
       </c>
       <c r="F35">
+        <v>2214.4076</v>
+      </c>
+      <c r="G35">
         <v>185.8965665325</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>8640</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>50</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>60.90909090909089</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>238.2141986</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>159.796532769556</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>687.1250909090908</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
       <c r="Q35">
         <v>0</v>
       </c>
@@ -2808,16 +3228,28 @@
         <v>0</v>
       </c>
       <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <v>2134.40081871062</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>528.1549090909092</v>
       </c>
-      <c r="V35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>1000</v>
+      </c>
+      <c r="X35">
+        <v>2214.4076</v>
+      </c>
+      <c r="Y35">
+        <v>1025.23137090909</v>
+      </c>
+      <c r="Z35">
+        <v>717.1410072727271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2834,38 +3266,38 @@
         <v>4762.41167982735</v>
       </c>
       <c r="F36">
+        <v>2141.4076</v>
+      </c>
+      <c r="G36">
         <v>202.029504105</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>8640</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>50</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>60.90909090909089</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>258.485705</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>184.441183932347</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>793.0970909090921</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
       <c r="Q36">
         <v>0</v>
       </c>
@@ -2876,16 +3308,28 @@
         <v>0</v>
       </c>
       <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
         <v>2130.1320170732</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>525.9349090909092</v>
       </c>
-      <c r="V36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>1000</v>
+      </c>
+      <c r="X36">
+        <v>2141.4076</v>
+      </c>
+      <c r="Y36">
+        <v>1003.33137090909</v>
+      </c>
+      <c r="Z36">
+        <v>696.536007272727</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2902,38 +3346,38 @@
         <v>5039.72577594246</v>
       </c>
       <c r="F37">
+        <v>2068.4076</v>
+      </c>
+      <c r="G37">
         <v>209.637268455</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>8640</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>50</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>60.90909090909089</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>265.5497535</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>199.363044397463</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>857.2610909090909</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
       <c r="Q37">
         <v>0</v>
       </c>
@@ -2944,16 +3388,28 @@
         <v>0</v>
       </c>
       <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
         <v>2125.87175303905</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>523.7149090909091</v>
       </c>
-      <c r="V37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>1000</v>
+      </c>
+      <c r="X37">
+        <v>2068.4076</v>
+      </c>
+      <c r="Y37">
+        <v>981.431370909091</v>
+      </c>
+      <c r="Z37">
+        <v>675.931007272727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2970,38 +3426,38 @@
         <v>5097.03987215258</v>
       </c>
       <c r="F38">
+        <v>2195.4076</v>
+      </c>
+      <c r="G38">
         <v>217.24503271</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>8640</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>50</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>60.90909090909089</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>272.6138019</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>214.284904862579</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>921.4250909090897</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
       <c r="Q38">
         <v>0</v>
       </c>
@@ -3012,16 +3468,28 @@
         <v>0</v>
       </c>
       <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>2121.62000953297</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>521.4949090909092</v>
       </c>
-      <c r="V38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>1000</v>
+      </c>
+      <c r="X38">
+        <v>2195.4076</v>
+      </c>
+      <c r="Y38">
+        <v>1019.53137090909</v>
+      </c>
+      <c r="Z38">
+        <v>715.326007272727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3038,38 +3506,38 @@
         <v>5075.55569593037</v>
       </c>
       <c r="F39">
+        <v>2280.502</v>
+      </c>
+      <c r="G39">
         <v>231.133860095</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>8640</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>50</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>60.90909090909089</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>286.3972045</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>206.68955602537</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>888.765090909091</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
       <c r="Q39">
         <v>0</v>
       </c>
@@ -3080,16 +3548,28 @@
         <v>0</v>
       </c>
       <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>2117.37676951391</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>519.2749090909092</v>
       </c>
-      <c r="V39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>1000</v>
+      </c>
+      <c r="X39">
+        <v>2280.502</v>
+      </c>
+      <c r="Y39">
+        <v>1045.05969090909</v>
+      </c>
+      <c r="Z39">
+        <v>742.149327272727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3106,38 +3586,38 @@
         <v>5178.50872891549</v>
       </c>
       <c r="F40">
+        <v>2247.272</v>
+      </c>
+      <c r="G40">
         <v>245.022687575</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>8640</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>50</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>60.90909090909089</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>300.1806072</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>223.531416490486</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>961.1850909090898</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
       <c r="Q40">
         <v>0</v>
       </c>
@@ -3148,16 +3628,28 @@
         <v>0</v>
       </c>
       <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
         <v>2113.14201597488</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>512.2549090909092</v>
       </c>
-      <c r="V40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>1000</v>
+      </c>
+      <c r="X40">
+        <v>2247.272</v>
+      </c>
+      <c r="Y40">
+        <v>1035.09069090909</v>
+      </c>
+      <c r="Z40">
+        <v>736.2753272727271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3174,38 +3666,38 @@
         <v>5011.63323525118</v>
       </c>
       <c r="F41">
+        <v>2414.042</v>
+      </c>
+      <c r="G41">
         <v>255.22934403</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>8640</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>50</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>60.90909090909089</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>310.2596386</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>216.862579281184</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>932.5090909090911</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
       <c r="Q41">
         <v>0</v>
       </c>
@@ -3216,16 +3708,28 @@
         <v>0</v>
       </c>
       <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
         <v>2108.91573194293</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>506.4349090909092</v>
       </c>
-      <c r="V41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>1000</v>
+      </c>
+      <c r="X41">
+        <v>2414.042</v>
+      </c>
+      <c r="Y41">
+        <v>1085.12169090909</v>
+      </c>
+      <c r="Z41">
+        <v>789.701327272727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3242,38 +3746,38 @@
         <v>5094.61820670316</v>
       </c>
       <c r="F42">
+        <v>2580.812</v>
+      </c>
+      <c r="G42">
         <v>265.436000485</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>8640</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>50</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>60.90909090909089</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>320.33867</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>260.054207188161</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>1118.233090909092</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
       <c r="Q42">
         <v>0</v>
       </c>
@@ -3284,16 +3788,28 @@
         <v>0</v>
       </c>
       <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
         <v>2104.69790047904</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>486.2149090909091</v>
       </c>
-      <c r="V42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>1000</v>
+      </c>
+      <c r="X42">
+        <v>2580.812</v>
+      </c>
+      <c r="Y42">
+        <v>1135.15269090909</v>
+      </c>
+      <c r="Z42">
+        <v>851.527327272727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3310,38 +3826,38 @@
         <v>5279.17960032938</v>
       </c>
       <c r="F43">
+        <v>2747.582</v>
+      </c>
+      <c r="G43">
         <v>272.4141417425</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>8640</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>50</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>60.90909090909089</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>327.3678127</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>301.593742071882</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>1296.853090909093</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
       <c r="Q43">
         <v>0</v>
       </c>
@@ -3352,16 +3868,28 @@
         <v>0</v>
       </c>
       <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
         <v>2100.48850467809</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>473.1949090909092</v>
       </c>
-      <c r="V43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>1000</v>
+      </c>
+      <c r="X43">
+        <v>2747.582</v>
+      </c>
+      <c r="Y43">
+        <v>1185.18369090909</v>
+      </c>
+      <c r="Z43">
+        <v>909.153327272727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3378,38 +3906,38 @@
         <v>5666.53169163002</v>
       </c>
       <c r="F44">
+        <v>2718.6344</v>
+      </c>
+      <c r="G44">
         <v>279.392283</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>8640</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>50</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>60.90909090909089</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>334.3969554</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>345.923974630021</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>1487.47309090909</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
       <c r="Q44">
         <v>0</v>
       </c>
@@ -3420,16 +3948,28 @@
         <v>0</v>
       </c>
       <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
         <v>2096.28752766873</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>448.1749090909092</v>
       </c>
-      <c r="V44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>1000</v>
+      </c>
+      <c r="X44">
+        <v>2718.6344</v>
+      </c>
+      <c r="Y44">
+        <v>1176.49941090909</v>
+      </c>
+      <c r="Z44">
+        <v>915.064047272727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3446,38 +3986,38 @@
         <v>5422.93830467624</v>
       </c>
       <c r="F45">
+        <v>2877.0659</v>
+      </c>
+      <c r="G45">
         <v>281.3076048375</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>8640</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>50</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>60.90909090909089</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>336.1116997</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>379.245909513742</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>1630.757410909091</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
       <c r="Q45">
         <v>0</v>
       </c>
@@ -3488,16 +4028,28 @@
         <v>0</v>
       </c>
       <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
         <v>2092.09495261339</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>327.9545890909092</v>
       </c>
-      <c r="V45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>1000</v>
+      </c>
+      <c r="X45">
+        <v>2877.0659</v>
+      </c>
+      <c r="Y45">
+        <v>1224.02886090909</v>
+      </c>
+      <c r="Z45">
+        <v>1032.72201727273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3514,38 +4066,38 @@
         <v>5353.31764330386</v>
       </c>
       <c r="F46">
+        <v>3035.4974</v>
+      </c>
+      <c r="G46">
         <v>283.222926675</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>8640</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>50</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>60.90909090909089</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>337.826444</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>386.540569978858</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>1662.124450909089</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
       <c r="Q46">
         <v>0</v>
       </c>
@@ -3556,16 +4108,28 @@
         <v>0</v>
       </c>
       <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
         <v>2087.91076270817</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>319.6515490909092</v>
       </c>
-      <c r="V46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>1000</v>
+      </c>
+      <c r="X46">
+        <v>3035.4974</v>
+      </c>
+      <c r="Y46">
+        <v>1271.55831090909</v>
+      </c>
+      <c r="Z46">
+        <v>1085.09490727273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3582,38 +4146,38 @@
         <v>5680.78188590386</v>
       </c>
       <c r="F47">
+        <v>3193.9289</v>
+      </c>
+      <c r="G47">
         <v>289.571484075</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>8640</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
         <v>50</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>60.90909090909089</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>343.8913157</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>395.353369978858</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>1700.019490909089</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
       <c r="Q47">
         <v>0</v>
       </c>
@@ -3624,16 +4188,28 @@
         <v>0</v>
       </c>
       <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
         <v>2083.73494118275</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>309.6205090909092</v>
       </c>
-      <c r="V47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>1000</v>
+      </c>
+      <c r="X47">
+        <v>3193.9289</v>
+      </c>
+      <c r="Y47">
+        <v>1319.08776090909</v>
+      </c>
+      <c r="Z47">
+        <v>1138.47579727273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3650,38 +4226,38 @@
         <v>5608.24612850386</v>
       </c>
       <c r="F48">
+        <v>3352.3604</v>
+      </c>
+      <c r="G48">
         <v>295.920041475</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>8640</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
         <v>50</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>60.90909090909089</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>349.9561874</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>404.166169978858</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>1737.91453090909</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
       <c r="Q48">
         <v>0</v>
       </c>
@@ -3692,16 +4268,28 @@
         <v>0</v>
       </c>
       <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
         <v>2079.56747130038</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>299.5894690909092</v>
       </c>
-      <c r="V48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>1000</v>
+      </c>
+      <c r="X48">
+        <v>3352.3604</v>
+      </c>
+      <c r="Y48">
+        <v>1366.61721090909</v>
+      </c>
+      <c r="Z48">
+        <v>1191.85668727273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3718,38 +4306,38 @@
         <v>5493.20845085223</v>
       </c>
       <c r="F49">
+        <v>3510.7919</v>
+      </c>
+      <c r="G49">
         <v>302.968472615</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>8640</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>50</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>60.90909090909089</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>354.1797816</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>421.17692346723</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>1811.060770909089</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
@@ -3760,16 +4348,28 @@
         <v>0</v>
       </c>
       <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
         <v>2075.40833635778</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>280.2272290909092</v>
       </c>
-      <c r="V49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>1000</v>
+      </c>
+      <c r="X49">
+        <v>3510.7919</v>
+      </c>
+      <c r="Y49">
+        <v>1414.14666090909</v>
+      </c>
+      <c r="Z49">
+        <v>1250.68077727273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3786,38 +4386,38 @@
         <v>5378.1707732956</v>
       </c>
       <c r="F50">
+        <v>4196.43692</v>
+      </c>
+      <c r="G50">
         <v>310.01690366</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>8640</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>50</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>60.90909090909089</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>358.4033757</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>438.187676955603</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>1884.207010909093</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
       <c r="Q50">
         <v>0</v>
       </c>
@@ -3828,16 +4428,28 @@
         <v>0</v>
       </c>
       <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <v>2071.25751968507</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>260.8649890909092</v>
       </c>
-      <c r="V50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>1000</v>
+      </c>
+      <c r="X50">
+        <v>4196.43692</v>
+      </c>
+      <c r="Y50">
+        <v>1619.84016690909</v>
+      </c>
+      <c r="Z50">
+        <v>1467.66892327273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3854,38 +4466,38 @@
         <v>5242.40375650514</v>
       </c>
       <c r="F51">
+        <v>4312.94948</v>
+      </c>
+      <c r="G51">
         <v>310.99567859</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>8640</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>50</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>60.90909090909089</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>355.4887467</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>453.399435095138</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>1949.617570909094</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
       <c r="Q51">
         <v>0</v>
       </c>
@@ -3896,16 +4508,28 @@
         <v>0</v>
       </c>
       <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
         <v>2067.1150046457</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>243.5504290909092</v>
       </c>
-      <c r="V51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>1000</v>
+      </c>
+      <c r="X51">
+        <v>4312.94948</v>
+      </c>
+      <c r="Y51">
+        <v>1654.79393490909</v>
+      </c>
+      <c r="Z51">
+        <v>1512.72285127273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3922,38 +4546,38 @@
         <v>5095.473949017</v>
       </c>
       <c r="F52">
+        <v>4429.46204</v>
+      </c>
+      <c r="G52">
         <v>311.97445352</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>8640</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>50</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>60.90909090909089</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>352.5741177</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>457.448402536998</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>1967.028130909091</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
       <c r="Q52">
         <v>0</v>
       </c>
@@ -3964,16 +4588,28 @@
         <v>0</v>
       </c>
       <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
         <v>2062.98077463641</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>274.2358690909092</v>
       </c>
-      <c r="V52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52">
+        <v>1000</v>
+      </c>
+      <c r="X52">
+        <v>4429.46204</v>
+      </c>
+      <c r="Y52">
+        <v>1689.74770290909</v>
+      </c>
+      <c r="Z52">
+        <v>1529.77677927273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3990,38 +4626,38 @@
         <v>5207.59150288467</v>
       </c>
       <c r="F53">
+        <v>4545.9746</v>
+      </c>
+      <c r="G53">
         <v>311.94129035</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>8640</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>50</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>60.90909090909089</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>347.5825974</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>469.532793234672</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>2018.991010909089</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
       <c r="Q53">
         <v>0</v>
       </c>
@@ -4032,16 +4668,28 @@
         <v>0</v>
       </c>
       <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
         <v>2058.85481308713</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>260.4809890909092</v>
       </c>
-      <c r="V53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <v>1000</v>
+      </c>
+      <c r="X53">
+        <v>4545.9746</v>
+      </c>
+      <c r="Y53">
+        <v>1724.70147090909</v>
+      </c>
+      <c r="Z53">
+        <v>1572.75422727273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4058,38 +4706,38 @@
         <v>5217.69975452177</v>
       </c>
       <c r="F54">
+        <v>4662.48716</v>
+      </c>
+      <c r="G54">
         <v>311.908127085</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>8640</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>50</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>60.90909090909089</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>342.591077</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>479.607881606765</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>2062.313890909089</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
       <c r="Q54">
         <v>0</v>
       </c>
@@ -4100,16 +4748,28 @@
         <v>0</v>
       </c>
       <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
         <v>2054.73710346096</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>255.3661090909092</v>
       </c>
-      <c r="V54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>1000</v>
+      </c>
+      <c r="X54">
+        <v>4662.48716</v>
+      </c>
+      <c r="Y54">
+        <v>1759.65523890909</v>
+      </c>
+      <c r="Z54">
+        <v>1610.69167527273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4126,38 +4786,38 @@
         <v>5281.08418228351</v>
       </c>
       <c r="F55">
+        <v>4778.99972</v>
+      </c>
+      <c r="G55">
         <v>308.5932063</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>8640</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <v>50</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>60.90909090909089</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>335.3874057</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>489.67738858351</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>2105.612770909093</v>
       </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
       <c r="Q55">
         <v>0</v>
       </c>
@@ -4168,16 +4828,28 @@
         <v>0</v>
       </c>
       <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
         <v>2050.62762925404</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>250.2512290909092</v>
       </c>
-      <c r="V55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <v>1000</v>
+      </c>
+      <c r="X55">
+        <v>4778.99972</v>
+      </c>
+      <c r="Y55">
+        <v>1794.60900690909</v>
+      </c>
+      <c r="Z55">
+        <v>1648.62912327273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4194,38 +4866,38 @@
         <v>5344.46861014025</v>
       </c>
       <c r="F56">
+        <v>4895.51228</v>
+      </c>
+      <c r="G56">
         <v>305.27828542</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>8640</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
         <v>50</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>60.90909090909089</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>328.1837343</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>499.746895560254</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>2148.911650909092</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
       <c r="Q56">
         <v>0</v>
       </c>
@@ -4236,16 +4908,28 @@
         <v>0</v>
       </c>
       <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
         <v>2046.52637399553</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>245.1363490909092</v>
       </c>
-      <c r="V56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <v>1000</v>
+      </c>
+      <c r="X56">
+        <v>4895.51228</v>
+      </c>
+      <c r="Y56">
+        <v>1829.56277490909</v>
+      </c>
+      <c r="Z56">
+        <v>1686.56657127273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4262,58 +4946,70 @@
         <v>5356.0057590525</v>
       </c>
       <c r="F57">
+        <v>5012.02484</v>
+      </c>
+      <c r="G57">
         <v>293.9942409475</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>8640</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>50</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>60.90909090909089</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>317.7163766</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>500</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>2150</v>
       </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
         <v>14.3945309090911</v>
       </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
       <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
         <v>2042.43332124754</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>240.0214690909092</v>
       </c>
-      <c r="V57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <v>1000</v>
+      </c>
+      <c r="X57">
+        <v>5012.02484</v>
+      </c>
+      <c r="Y57">
+        <v>1864.51654290909</v>
+      </c>
+      <c r="Z57">
+        <v>1724.50401927273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4330,58 +5026,70 @@
         <v>3990.93702635798</v>
       </c>
       <c r="F58">
+        <v>5128.5374</v>
+      </c>
+      <c r="G58">
         <v>876.460196475</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>8640</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
         <v>625</v>
       </c>
-      <c r="K58">
-        <v>1000</v>
-      </c>
       <c r="L58">
+        <v>1000</v>
+      </c>
+      <c r="M58">
         <v>1218.181818181818</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>307.2490189</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>67.3972228329811</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>289.8080581818187</v>
       </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
         <v>500</v>
       </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
       <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
         <v>2034.3078845253</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>1624.975941818184</v>
       </c>
-      <c r="V58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <v>1000</v>
+      </c>
+      <c r="X58">
+        <v>5128.5374</v>
+      </c>
+      <c r="Y58">
+        <v>3056.74303818182</v>
+      </c>
+      <c r="Z58">
+        <v>2108.84040545455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4398,58 +5106,70 @@
         <v>3462.21793177118</v>
       </c>
       <c r="F59">
+        <v>5245.04996</v>
+      </c>
+      <c r="G59">
         <v>1465.6544538525</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>8464.561403508769</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>1250</v>
       </c>
-      <c r="K59">
-        <v>1000</v>
-      </c>
       <c r="L59">
+        <v>1000</v>
+      </c>
+      <c r="M59">
         <v>1218.181818181818</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>302.9468869</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>77.8723856236788</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>334.8512581818188</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
         <v>500</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
         <v>1889.88839156327</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>1595.052741818184</v>
       </c>
-      <c r="V59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <v>1000</v>
+      </c>
+      <c r="X59">
+        <v>5245.04996</v>
+      </c>
+      <c r="Y59">
+        <v>3091.69680618182</v>
+      </c>
+      <c r="Z59">
+        <v>2161.24937345455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4466,58 +5186,70 @@
         <v>3518.20697681426</v>
       </c>
       <c r="F60">
+        <v>5238.422</v>
+      </c>
+      <c r="G60">
         <v>1461.098711135</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>8113.68421052632</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <v>1250</v>
       </c>
-      <c r="K60">
-        <v>1000</v>
-      </c>
       <c r="L60">
+        <v>1000</v>
+      </c>
+      <c r="M60">
         <v>1218.181818181818</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>298.6447548</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>79.3056879492601</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>341.0144581818184</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
         <v>500</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
       <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
         <v>1745.75773758716</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>1604.009541818184</v>
       </c>
-      <c r="V60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60">
+        <v>1000</v>
+      </c>
+      <c r="X60">
+        <v>5238.422</v>
+      </c>
+      <c r="Y60">
+        <v>3089.70841818182</v>
+      </c>
+      <c r="Z60">
+        <v>2154.03618545454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4534,58 +5266,70 @@
         <v>3695.54090366327</v>
       </c>
       <c r="F61">
+        <v>5231.79404</v>
+      </c>
+      <c r="G61">
         <v>1440.7553703325</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>7762.80701754386</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
         <v>1250</v>
       </c>
-      <c r="K61">
-        <v>1000</v>
-      </c>
       <c r="L61">
+        <v>1000</v>
+      </c>
+      <c r="M61">
         <v>1218.181818181818</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>275.6811435</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>86.2962739957719</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>371.0739781818191</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
         <v>500</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
       <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
         <v>1601.915344919</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>1599.582021818184</v>
       </c>
-      <c r="V61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <v>1000</v>
+      </c>
+      <c r="X61">
+        <v>5231.79404</v>
+      </c>
+      <c r="Y61">
+        <v>3087.72003018182</v>
+      </c>
+      <c r="Z61">
+        <v>2154.63051745455</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4602,58 +5346,70 @@
         <v>3784.03762130496</v>
       </c>
       <c r="F62">
+        <v>5225.16608</v>
+      </c>
+      <c r="G62">
         <v>1420.412029435</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>7411.9298245614</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
       <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
         <v>1250</v>
       </c>
-      <c r="K62">
-        <v>1000</v>
-      </c>
       <c r="L62">
+        <v>1000</v>
+      </c>
+      <c r="M62">
         <v>1218.181818181818</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>252.7175321</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>104.449650739958</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>449.1334981818194</v>
       </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
         <v>500</v>
       </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
       <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
         <v>1458.36063703618</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>1547.154501818184</v>
       </c>
-      <c r="V62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <v>1000</v>
+      </c>
+      <c r="X62">
+        <v>5225.16608</v>
+      </c>
+      <c r="Y62">
+        <v>3085.73164218182</v>
+      </c>
+      <c r="Z62">
+        <v>2183.22484945455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4670,58 +5426,70 @@
         <v>3873.88519760781</v>
       </c>
       <c r="F63">
+        <v>5218.53812</v>
+      </c>
+      <c r="G63">
         <v>1405.3092345275</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>7061.05263157895</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <v>1250</v>
       </c>
-      <c r="K63">
-        <v>1000</v>
-      </c>
       <c r="L63">
+        <v>1000</v>
+      </c>
+      <c r="M63">
         <v>1218.181818181818</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>236.1373073</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>129.194432135307</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>555.5360581818201</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
         <v>500</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
       <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
         <v>1315.09303856912</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>1466.047941818184</v>
       </c>
-      <c r="V63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <v>1000</v>
+      </c>
+      <c r="X63">
+        <v>5218.53812</v>
+      </c>
+      <c r="Y63">
+        <v>3083.74325418182</v>
+      </c>
+      <c r="Z63">
+        <v>2228.54862145455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4738,58 +5506,70 @@
         <v>3946.98858795914</v>
       </c>
       <c r="F64">
+        <v>5211.91016</v>
+      </c>
+      <c r="G64">
         <v>1390.206439525</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>6710.17543859649</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
         <v>1250</v>
       </c>
-      <c r="K64">
-        <v>1000</v>
-      </c>
       <c r="L64">
+        <v>1000</v>
+      </c>
+      <c r="M64">
         <v>1218.181818181818</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>219.5570824</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>137.195027484144</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>589.9386181818192</v>
       </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
         <v>500</v>
       </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
       <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
         <v>1172.111975299</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>1456.941381818184</v>
       </c>
-      <c r="V64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>1000</v>
+      </c>
+      <c r="X64">
+        <v>5211.91016</v>
+      </c>
+      <c r="Y64">
+        <v>3081.75486618182</v>
+      </c>
+      <c r="Z64">
+        <v>2231.87239345455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4806,58 +5586,70 @@
         <v>3901.33999517816</v>
       </c>
       <c r="F65">
+        <v>5205.2822</v>
+      </c>
+      <c r="G65">
         <v>1377.8696183525</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>6359.29824561404</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
         <v>1250</v>
       </c>
-      <c r="K65">
-        <v>1000</v>
-      </c>
       <c r="L65">
+        <v>1000</v>
+      </c>
+      <c r="M65">
         <v>1218.181818181818</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>205.6733258</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>129.209613530656</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>555.6013381818207</v>
       </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
         <v>500</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
         <v>1029.41687415542</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>1466.030661818184</v>
       </c>
-      <c r="V65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <v>1000</v>
+      </c>
+      <c r="X65">
+        <v>5205.2822</v>
+      </c>
+      <c r="Y65">
+        <v>3079.76647818182</v>
+      </c>
+      <c r="Z65">
+        <v>2224.58192545454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4874,58 +5666,70 @@
         <v>3855.69140249217</v>
       </c>
       <c r="F66">
+        <v>5198.65424</v>
+      </c>
+      <c r="G66">
         <v>1365.532797085</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>6008.42105263158</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
         <v>1250</v>
       </c>
-      <c r="K66">
-        <v>1000</v>
-      </c>
       <c r="L66">
+        <v>1000</v>
+      </c>
+      <c r="M66">
         <v>1218.181818181818</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>191.7895691</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>121.224199577167</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>521.2640581818181</v>
       </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
         <v>500</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
       <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
         <v>887.0071632141299</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>1475.119941818184</v>
       </c>
-      <c r="V66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <v>1000</v>
+      </c>
+      <c r="X66">
+        <v>5198.65424</v>
+      </c>
+      <c r="Y66">
+        <v>3077.77809018182</v>
+      </c>
+      <c r="Z66">
+        <v>2217.29145745455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4942,58 +5746,70 @@
         <v>3796.54785067153</v>
       </c>
       <c r="F67">
+        <v>5192.02628</v>
+      </c>
+      <c r="G67">
         <v>1349.8101163475</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>5657.54385964912</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
         <v>1250</v>
       </c>
-      <c r="K67">
-        <v>1000</v>
-      </c>
       <c r="L67">
+        <v>1000</v>
+      </c>
+      <c r="M67">
         <v>1218.181818181818</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>174.74248</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>96.3579670190277</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>414.3392581818191</v>
       </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
         <v>500</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
       <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
         <v>744.882271694719</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>1556.364741818184</v>
       </c>
-      <c r="V67">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67">
+        <v>1000</v>
+      </c>
+      <c r="X67">
+        <v>5192.02628</v>
+      </c>
+      <c r="Y67">
+        <v>3075.78970218182</v>
+      </c>
+      <c r="Z67">
+        <v>2167.91026945454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5010,58 +5826,70 @@
         <v>3754.1484848024</v>
       </c>
       <c r="F68">
+        <v>5185.39832</v>
+      </c>
+      <c r="G68">
         <v>1334.087435705</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>5306.66666666667</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
       <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
         <v>1250</v>
       </c>
-      <c r="K68">
-        <v>1000</v>
-      </c>
       <c r="L68">
+        <v>1000</v>
+      </c>
+      <c r="M68">
         <v>1218.181818181818</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>157.695391</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>88.2359205073996</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>379.4144581818182</v>
       </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
         <v>500</v>
       </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
       <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
         <v>603.041629958347</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>1565.609541818184</v>
       </c>
-      <c r="V68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <v>1000</v>
+      </c>
+      <c r="X68">
+        <v>5185.39832</v>
+      </c>
+      <c r="Y68">
+        <v>3073.80131418182</v>
+      </c>
+      <c r="Z68">
+        <v>2160.52908145454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5078,58 +5906,70 @@
         <v>3298.92166417973</v>
       </c>
       <c r="F69">
+        <v>5178.77036</v>
+      </c>
+      <c r="G69">
         <v>717.18026563</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>4955.78947368421</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
       <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
         <v>625</v>
       </c>
-      <c r="K69">
-        <v>1000</v>
-      </c>
       <c r="L69">
+        <v>1000</v>
+      </c>
+      <c r="M69">
         <v>1218.181818181818</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>133.7107868</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>71.10192980972531</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>305.7382981818188</v>
       </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
         <v>500</v>
       </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
       <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
         <v>461.484669505448</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>1569.229701818184</v>
       </c>
-      <c r="V69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69">
+        <v>1000</v>
+      </c>
+      <c r="X69">
+        <v>5178.77036</v>
+      </c>
+      <c r="Y69">
+        <v>3071.81292618182</v>
+      </c>
+      <c r="Z69">
+        <v>2156.42893345455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5146,38 +5986,38 @@
         <v>4922.88723256339</v>
       </c>
       <c r="F70">
+        <v>5172.1424</v>
+      </c>
+      <c r="G70">
         <v>100.273095555</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>4780.35087719298</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
         <v>50</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>60.90909090909089</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>109.7261826</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>483.160328118393</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>2077.58941090909</v>
       </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
       <c r="Q70">
         <v>0</v>
       </c>
@@ -5188,16 +6028,28 @@
         <v>0</v>
       </c>
       <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
         <v>320.210822973454</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>227.3225890909092</v>
       </c>
-      <c r="V70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70">
+        <v>1000</v>
+      </c>
+      <c r="X70">
+        <v>5172.1424</v>
+      </c>
+      <c r="Y70">
+        <v>1912.55181090909</v>
+      </c>
+      <c r="Z70">
+        <v>1779.94696727273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5214,38 +6066,38 @@
         <v>5214.26648625793</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>4898.4968</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>4780.35087719298</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>80.49037403</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
       <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
         <v>50</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>60.90909090909089</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>84.68131667999999</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>444.266486257928</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>1910.34589090909</v>
       </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
       <c r="Q71">
         <v>0</v>
       </c>
@@ -5256,16 +6108,28 @@
         <v>0</v>
       </c>
       <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
         <v>319.570401327507</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>324.5341090909092</v>
       </c>
-      <c r="V71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71">
+        <v>1000</v>
+      </c>
+      <c r="X71">
+        <v>4898.4968</v>
+      </c>
+      <c r="Y71">
+        <v>1830.45813090909</v>
+      </c>
+      <c r="Z71">
+        <v>1641.14656727273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5282,38 +6146,38 @@
         <v>5422.11683044397</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>4624.8512</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>4798.65184644612</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>55.43012115</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
       <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
         <v>50</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>60.90909090909089</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>59.63645075</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>422.116830443975</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>1815.102370909093</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
       <c r="Q72">
         <v>0</v>
       </c>
@@ -5324,16 +6188,28 @@
         <v>0</v>
       </c>
       <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
         <v>318.931260524852</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>349.7456290909092</v>
       </c>
-      <c r="V72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72">
+        <v>1000</v>
+      </c>
+      <c r="X72">
+        <v>4624.8512</v>
+      </c>
+      <c r="Y72">
+        <v>1748.36445090909</v>
+      </c>
+      <c r="Z72">
+        <v>1544.34616727273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5350,38 +6226,38 @@
         <v>5505.06008625793</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>4351.2056</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>4811.25490557075</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>43.62240883</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
         <v>50</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>60.90909090909089</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>48.61932768</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>405.060086257928</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>1741.75837090909</v>
       </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
       <c r="Q73">
         <v>0</v>
       </c>
@@ -5392,16 +6268,28 @@
         <v>0</v>
       </c>
       <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
         <v>318.293398003803</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>387.1856290909092</v>
       </c>
-      <c r="V73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73">
+        <v>1000</v>
+      </c>
+      <c r="X73">
+        <v>4351.2056</v>
+      </c>
+      <c r="Y73">
+        <v>1666.27077090909</v>
+      </c>
+      <c r="Z73">
+        <v>1440.41248727273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5418,38 +6306,38 @@
         <v>5588.00334207188</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>3585.8894</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <v>4821.17326378894</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>31.8146965</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
       <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
         <v>50</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>60.90909090909089</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>37.6022046</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>388.003342071882</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>1668.414370909092</v>
       </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
       <c r="Q74">
         <v>0</v>
       </c>
@@ -5460,16 +6348,28 @@
         <v>0</v>
       </c>
       <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
         <v>317.656811207795</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>424.6256290909092</v>
       </c>
-      <c r="V74">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74">
+        <v>1000</v>
+      </c>
+      <c r="X74">
+        <v>3585.8894</v>
+      </c>
+      <c r="Y74">
+        <v>1436.67591090909</v>
+      </c>
+      <c r="Z74">
+        <v>1188.97762727273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5486,38 +6386,38 @@
         <v>5581.21078393235</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>3361.61435</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>4828.40692109841</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>21.03930465</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
       <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
         <v>50</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>60.90909090909089</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>27.74133405</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>381.210783932347</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>1639.206370909092</v>
       </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
       <c r="Q75">
         <v>0</v>
       </c>
@@ -5528,16 +6428,28 @@
         <v>0</v>
       </c>
       <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
         <v>317.021497585379</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>426.0656290909092</v>
       </c>
-      <c r="V75">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75">
+        <v>1000</v>
+      </c>
+      <c r="X75">
+        <v>3361.61435</v>
+      </c>
+      <c r="Y75">
+        <v>1369.39339590909</v>
+      </c>
+      <c r="Z75">
+        <v>1120.85511227273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5554,38 +6466,38 @@
         <v>5574.41822579281</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>3137.3393</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>4833.19059457673</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>10.2639128</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
       <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>50</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>60.90909090909089</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>17.8804635</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>374.418225792812</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>1609.998370909092</v>
       </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
       <c r="Q76">
         <v>0</v>
       </c>
@@ -5596,16 +6508,28 @@
         <v>0</v>
       </c>
       <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
         <v>316.387454590209</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>427.5056290909092</v>
       </c>
-      <c r="V76">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76">
+        <v>1000</v>
+      </c>
+      <c r="X76">
+        <v>3137.3393</v>
+      </c>
+      <c r="Y76">
+        <v>1302.11088090909</v>
+      </c>
+      <c r="Z76">
+        <v>1052.73259727273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5622,38 +6546,38 @@
         <v>6071.91464857857</v>
       </c>
       <c r="F77">
+        <v>2913.06425</v>
+      </c>
+      <c r="G77">
         <v>3.4756702375</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>4835.52428422389</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
         <v>50</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>60.90909090909089</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>12.8889432</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>350.390318816068</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>1506.678370909092</v>
       </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
       <c r="Q77">
         <v>0</v>
       </c>
@@ -5664,16 +6588,28 @@
         <v>0</v>
       </c>
       <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
         <v>315.754679681028</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>428.9456290909092</v>
       </c>
-      <c r="V77">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77">
+        <v>1000</v>
+      </c>
+      <c r="X77">
+        <v>2913.06425</v>
+      </c>
+      <c r="Y77">
+        <v>1234.82836590909</v>
+      </c>
+      <c r="Z77">
+        <v>984.610082272727</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5690,32 +6626,32 @@
         <v>4209.049376685</v>
       </c>
       <c r="F78">
+        <v>2688.7892</v>
+      </c>
+      <c r="G78">
         <v>590.950623315</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>4835.52428422389</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
         <v>625</v>
       </c>
-      <c r="K78">
-        <v>1000</v>
-      </c>
       <c r="L78">
+        <v>1000</v>
+      </c>
+      <c r="M78">
         <v>1218.181818181818</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>7.8974229</v>
       </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
       <c r="O78">
         <v>0</v>
       </c>
@@ -5726,22 +6662,34 @@
         <v>0</v>
       </c>
       <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
         <v>14.631098181819</v>
       </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
       <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
         <v>315.123170321666</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>1819.112901818184</v>
       </c>
-      <c r="V78">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78">
+        <v>1000</v>
+      </c>
+      <c r="X78">
+        <v>2688.7892</v>
+      </c>
+      <c r="Y78">
+        <v>2324.81857818182</v>
+      </c>
+      <c r="Z78">
+        <v>1263.66938545455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5758,32 +6706,32 @@
         <v>3816.788421945</v>
       </c>
       <c r="F79">
+        <v>2542.91676818182</v>
+      </c>
+      <c r="G79">
         <v>1180.211578055</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>4660.08568773266</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
       <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
         <v>1250</v>
       </c>
-      <c r="K79">
-        <v>1000</v>
-      </c>
       <c r="L79">
+        <v>1000</v>
+      </c>
+      <c r="M79">
         <v>1218.181818181818</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>4.6250101</v>
       </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
       <c r="O79">
         <v>0</v>
       </c>
@@ -5800,16 +6748,28 @@
         <v>0</v>
       </c>
       <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
         <v>310.385949052793</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>1731.864</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>921.597381818182</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="X79">
+        <v>2542.91676818182</v>
+      </c>
+      <c r="Y79">
+        <v>2257.53606318182</v>
+      </c>
+      <c r="Z79">
+        <v>1247.28206318182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5826,32 +6786,32 @@
         <v>3664.277467205</v>
       </c>
       <c r="F80">
+        <v>2389.10571818182</v>
+      </c>
+      <c r="G80">
         <v>1175.722532795</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>4309.2084947502</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
       <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
         <v>1250</v>
       </c>
-      <c r="K80">
-        <v>1000</v>
-      </c>
       <c r="L80">
+        <v>1000</v>
+      </c>
+      <c r="M80">
         <v>1218.181818181818</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>1.3525973</v>
       </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
       <c r="O80">
         <v>0</v>
       </c>
@@ -5868,16 +6828,28 @@
         <v>0</v>
       </c>
       <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
         <v>309.765177154687</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>1629.984</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>851.133381818182</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="X80">
+        <v>2389.10571818182</v>
+      </c>
+      <c r="Y80">
+        <v>2190.25354818182</v>
+      </c>
+      <c r="Z80">
+        <v>1239.42954818182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5894,32 +6866,32 @@
         <v>3745.67963763625</v>
       </c>
       <c r="F81">
+        <v>2265.85146818182</v>
+      </c>
+      <c r="G81">
         <v>1174.32036236375</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
       <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
         <v>3958.33130176775</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
       <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
         <v>1250</v>
       </c>
-      <c r="K81">
-        <v>1000</v>
-      </c>
       <c r="L81">
+        <v>1000</v>
+      </c>
+      <c r="M81">
         <v>1218.181818181818</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>0.711204375</v>
       </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
       <c r="O81">
         <v>0</v>
       </c>
@@ -5936,16 +6908,28 @@
         <v>0</v>
       </c>
       <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
         <v>309.145646800378</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>1540.848</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>750.112581818182</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="X81">
+        <v>2265.85146818182</v>
+      </c>
+      <c r="Y81">
+        <v>2122.97103318182</v>
+      </c>
+      <c r="Z81">
+        <v>1224.14303318182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5962,38 +6946,38 @@
         <v>3827.0818080675</v>
       </c>
       <c r="F82">
+        <v>2388.19488484848</v>
+      </c>
+      <c r="G82">
         <v>1172.9181919325</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>3607.45410878529</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
       <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
         <v>1250</v>
       </c>
-      <c r="K82">
-        <v>1000</v>
-      </c>
       <c r="L82">
+        <v>1000</v>
+      </c>
+      <c r="M82">
         <v>1218.181818181818</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>0.06981145</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>-5.28775989402865e-14</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>-2.273736754432319e-13</v>
       </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
       <c r="Q82">
         <v>0</v>
       </c>
@@ -6004,16 +6988,28 @@
         <v>0</v>
       </c>
       <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
         <v>308.527355506777</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>1551.711999999996</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>750.425115151515</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="X82">
+        <v>2388.19488484848</v>
+      </c>
+      <c r="Y82">
+        <v>2159.76781818182</v>
+      </c>
+      <c r="Z82">
+        <v>1254.60248484848</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6030,32 +7026,32 @@
         <v>3928.14566977125</v>
       </c>
       <c r="F83">
+        <v>2510.31155151515</v>
+      </c>
+      <c r="G83">
         <v>1171.85433022875</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>3256.57691580284</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
       <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
         <v>1250</v>
       </c>
-      <c r="K83">
-        <v>1000</v>
-      </c>
       <c r="L83">
+        <v>1000</v>
+      </c>
+      <c r="M83">
         <v>1218.181818181818</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>0.034905725</v>
       </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
       <c r="O83">
         <v>0</v>
       </c>
@@ -6072,16 +7068,28 @@
         <v>0</v>
       </c>
       <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
         <v>307.910300795763</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>1562.576000000004</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>732.737648484849</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="X83">
+        <v>2510.31155151515</v>
+      </c>
+      <c r="Y83">
+        <v>2191.09657818182</v>
+      </c>
+      <c r="Z83">
+        <v>1279.59391151515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6098,29 +7106,29 @@
         <v>4079.209531475</v>
       </c>
       <c r="F84">
+        <v>2144.70421818182</v>
+      </c>
+      <c r="G84">
         <v>1170.790468525</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <v>2905.69972282038</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
         <v>1250</v>
       </c>
-      <c r="K84">
-        <v>1000</v>
-      </c>
       <c r="L84">
+        <v>1000</v>
+      </c>
+      <c r="M84">
         <v>1218.181818181818</v>
       </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
       <c r="N84">
         <v>0</v>
       </c>
@@ -6140,16 +7148,28 @@
         <v>0</v>
       </c>
       <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
         <v>307.294480194172</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>1573.44</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>815.050181818183</v>
       </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="X84">
+        <v>2144.70421818182</v>
+      </c>
+      <c r="Y84">
+        <v>2106.10813818182</v>
+      </c>
+      <c r="Z84">
+        <v>1188.26813818182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6166,29 +7186,29 @@
         <v>3680.15697588</v>
       </c>
       <c r="F85">
+        <v>2156.55475151515</v>
+      </c>
+      <c r="G85">
         <v>1169.84302412</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>2554.82252983792</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
         <v>1250</v>
       </c>
-      <c r="K85">
-        <v>1000</v>
-      </c>
       <c r="L85">
+        <v>1000</v>
+      </c>
+      <c r="M85">
         <v>1218.181818181818</v>
       </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
       <c r="N85">
         <v>0</v>
       </c>
@@ -6208,16 +7228,28 @@
         <v>0</v>
       </c>
       <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
         <v>306.679891233784</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>1585.303999999992</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>819.904848484845</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="X85">
+        <v>2156.55475151515</v>
+      </c>
+      <c r="Y85">
+        <v>2111.11969818182</v>
+      </c>
+      <c r="Z85">
+        <v>1186.35903151515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6234,29 +7266,29 @@
         <v>3781.104420285</v>
       </c>
       <c r="F86">
+        <v>2242.71195151515</v>
+      </c>
+      <c r="G86">
         <v>1168.895579715</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
         <v>2203.94533685547</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
         <v>1250</v>
       </c>
-      <c r="K86">
-        <v>1000</v>
-      </c>
       <c r="L86">
+        <v>1000</v>
+      </c>
+      <c r="M86">
         <v>1218.181818181818</v>
       </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
       <c r="N86">
         <v>0</v>
       </c>
@@ -6276,16 +7308,28 @@
         <v>0</v>
       </c>
       <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
         <v>306.066531451316</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>1580.000000000004</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>810.452848484849</v>
       </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="X86">
+        <v>2242.71195151515</v>
+      </c>
+      <c r="Y86">
+        <v>2134.13125818182</v>
+      </c>
+      <c r="Z86">
+        <v>1212.46459151515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6302,29 +7346,29 @@
         <v>3981.0090879275</v>
       </c>
       <c r="F87">
+        <v>2368.86915151515</v>
+      </c>
+      <c r="G87">
         <v>1168.9909120725</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>1853.06814387301</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
         <v>1250</v>
       </c>
-      <c r="K87">
-        <v>1000</v>
-      </c>
       <c r="L87">
+        <v>1000</v>
+      </c>
+      <c r="M87">
         <v>1218.181818181818</v>
       </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
       <c r="N87">
         <v>0</v>
       </c>
@@ -6344,16 +7388,28 @@
         <v>0</v>
       </c>
       <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
         <v>305.454398388413</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>1574.696000000004</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>801.000848484852</v>
       </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="X87">
+        <v>2368.86915151515</v>
+      </c>
+      <c r="Y87">
+        <v>2169.14281818182</v>
+      </c>
+      <c r="Z87">
+        <v>1250.57015151515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6370,29 +7426,29 @@
         <v>3580.91375557</v>
       </c>
       <c r="F88">
+        <v>2311.02635151515</v>
+      </c>
+      <c r="G88">
         <v>1169.08624443</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>1502.19095089056</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
         <v>1250</v>
       </c>
-      <c r="K88">
-        <v>1000</v>
-      </c>
       <c r="L88">
+        <v>1000</v>
+      </c>
+      <c r="M88">
         <v>1218.181818181818</v>
       </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
       <c r="N88">
         <v>0</v>
       </c>
@@ -6412,16 +7468,28 @@
         <v>0</v>
       </c>
       <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
         <v>304.843489591636</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>1569.392000000004</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>791.548848484856</v>
       </c>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="X88">
+        <v>2311.02635151515</v>
+      </c>
+      <c r="Y88">
+        <v>2148.95437818182</v>
+      </c>
+      <c r="Z88">
+        <v>1233.47571151515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6438,29 +7506,29 @@
         <v>3924.7662378175</v>
       </c>
       <c r="F89">
+        <v>2353.18355151515</v>
+      </c>
+      <c r="G89">
         <v>575.2337621825</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>1151.3137579081</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
       <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
         <v>625</v>
       </c>
-      <c r="K89">
-        <v>1000</v>
-      </c>
       <c r="L89">
+        <v>1000</v>
+      </c>
+      <c r="M89">
         <v>1218.181818181818</v>
       </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
       <c r="N89">
         <v>0</v>
       </c>
@@ -6480,16 +7548,28 @@
         <v>0</v>
       </c>
       <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
         <v>304.233802612453</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>1564.088000000016</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>782.096848484859</v>
       </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="X89">
+        <v>2353.18355151515</v>
+      </c>
+      <c r="Y89">
+        <v>2158.76593818182</v>
+      </c>
+      <c r="Z89">
+        <v>1246.38127151515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6506,38 +7586,38 @@
         <v>5980.14204234361</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>2167.98560000002</v>
       </c>
       <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
         <v>19.5986527</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>975.875161416871</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
         <v>50</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>60.90909090909089</v>
       </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
       <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
         <v>259.511881606769</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>1115.901090909107</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
       <c r="Q90">
         <v>0</v>
       </c>
@@ -6548,16 +7628,28 @@
         <v>0</v>
       </c>
       <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
         <v>303.625335007228</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>442.8829090909092</v>
       </c>
-      <c r="V90">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90">
+        <v>1000</v>
+      </c>
+      <c r="X90">
+        <v>2167.98560000002</v>
+      </c>
+      <c r="Y90">
+        <v>1011.3047709091</v>
+      </c>
+      <c r="Z90">
+        <v>752.956407272733</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6574,38 +7666,38 @@
         <v>6960.26556411228</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>2200.69080000003</v>
       </c>
       <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>644.47187745</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>975.875161416871</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>625</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
       <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
         <v>50</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>60.90909090909089</v>
       </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
       <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
         <v>256.87411416491</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>1104.558690909113</v>
       </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
       <c r="Q91">
         <v>0</v>
       </c>
@@ -6616,16 +7708,28 @@
         <v>0</v>
       </c>
       <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
         <v>303.018084337214</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>448.9213090909092</v>
       </c>
-      <c r="V91">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91">
+        <v>1000</v>
+      </c>
+      <c r="X91">
+        <v>2200.69080000003</v>
+      </c>
+      <c r="Y91">
+        <v>1021.1163309091</v>
+      </c>
+      <c r="Z91">
+        <v>759.245567272736</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6642,38 +7746,38 @@
         <v>6705.42448218036</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>2353.39600000004</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>96.1287286844416</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>1117.98042457477</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>76.7836264844416</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
       <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
         <v>50</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>60.90909090909089</v>
       </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
       <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
         <v>254.23634672305</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>1093.216290909115</v>
       </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
       <c r="Q92">
         <v>0</v>
       </c>
@@ -6684,16 +7788,28 @@
         <v>0</v>
       </c>
       <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
         <v>302.412048168539</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>454.9597090909091</v>
       </c>
-      <c r="V92">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92">
+        <v>1000</v>
+      </c>
+      <c r="X92">
+        <v>2353.39600000004</v>
+      </c>
+      <c r="Y92">
+        <v>1066.9278909091</v>
+      </c>
+      <c r="Z92">
+        <v>801.534727272739</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6710,38 +7826,38 @@
         <v>6247.00867470224</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2386.10120000004</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>19.38959065</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>1135.43859649123</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
         <v>50.0000000000001</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>60.90909090909102</v>
       </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
       <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
         <v>251.59857928119</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>1081.873890909117</v>
       </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
       <c r="Q93">
         <v>0</v>
       </c>
@@ -6752,16 +7868,28 @@
         <v>0</v>
       </c>
       <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
         <v>301.807224072202</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>460.9981090909092</v>
       </c>
-      <c r="V93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93">
+        <v>1000</v>
+      </c>
+      <c r="X93">
+        <v>2386.10120000004</v>
+      </c>
+      <c r="Y93">
+        <v>1076.7394509091</v>
+      </c>
+      <c r="Z93">
+        <v>807.8238872727389</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6778,38 +7906,38 @@
         <v>5869.41773720775</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2318.80640000005</v>
       </c>
       <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>19.4340791</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>1135.43859649123</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
         <v>50</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>60.90909090909089</v>
       </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
       <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
         <v>248.960811839331</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>1070.531490909123</v>
       </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
       <c r="Q94">
         <v>0</v>
       </c>
@@ -6820,16 +7948,28 @@
         <v>0</v>
       </c>
       <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
         <v>301.203609624058</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>467.0365090909092</v>
       </c>
-      <c r="V94">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94">
+        <v>1000</v>
+      </c>
+      <c r="X94">
+        <v>2318.80640000005</v>
+      </c>
+      <c r="Y94">
+        <v>1056.55101090911</v>
+      </c>
+      <c r="Z94">
+        <v>784.1130472727421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6846,38 +7986,38 @@
         <v>5371.06608473497</v>
       </c>
       <c r="F95">
+        <v>2451.51160000006</v>
+      </c>
+      <c r="G95">
         <v>575.2569596625</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>1135.43859649123</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
         <v>625</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>50</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>60.90909090909089</v>
       </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
       <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
         <v>246.323044397471</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>1059.189090909125</v>
       </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
       <c r="Q95">
         <v>0</v>
       </c>
@@ -6888,16 +8028,28 @@
         <v>0</v>
       </c>
       <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
         <v>300.60120240481</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>473.0749090909092</v>
       </c>
-      <c r="V95">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95">
+        <v>1000</v>
+      </c>
+      <c r="X95">
+        <v>2451.51160000006</v>
+      </c>
+      <c r="Y95">
+        <v>1096.36257090911</v>
+      </c>
+      <c r="Z95">
+        <v>820.402207272745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6914,58 +8066,70 @@
         <v>4708.42991271817</v>
       </c>
       <c r="F96">
+        <v>2584.21680000007</v>
+      </c>
+      <c r="G96">
         <v>1168.97629447</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>960</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
       <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
         <v>1250</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>50</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>60.90909090909089</v>
       </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
       <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
         <v>127.40620718817</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>547.846690909131</v>
       </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
         <v>500</v>
       </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
       <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
         <v>300</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>479.1133090909092</v>
       </c>
-      <c r="V96">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96">
+        <v>1000</v>
+      </c>
+      <c r="X96">
+        <v>2584.21680000007</v>
+      </c>
+      <c r="Y96">
+        <v>1136.17413090911</v>
+      </c>
+      <c r="Z96">
+        <v>856.691367272748</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6982,55 +8146,67 @@
         <v>4755.79214527631</v>
       </c>
       <c r="F97">
+        <v>2616.92200000008</v>
+      </c>
+      <c r="G97">
         <v>1168.97629447</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>960</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
       <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
         <v>1250</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>50</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>60.90909090909089</v>
       </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
       <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
         <v>124.76843974631</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>536.5042909091329</v>
       </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
         <v>500</v>
       </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
       <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
         <v>300</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>485.1517090909092</v>
       </c>
-      <c r="V97">
-        <v>1000</v>
+      <c r="W97">
+        <v>1000</v>
+      </c>
+      <c r="X97">
+        <v>2616.92200000008</v>
+      </c>
+      <c r="Y97">
+        <v>1145.98569090911</v>
+      </c>
+      <c r="Z97">
+        <v>862.980527272751</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -543,7 +543,7 @@
         <v>0.3647</v>
       </c>
       <c r="E2">
-        <v>6577.09724371865</v>
+        <v>6500.28549363872</v>
       </c>
       <c r="F2">
         <v>2623.4076</v>
@@ -552,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1269.5682133</v>
+        <v>1196.58825442778</v>
       </c>
       <c r="I2">
         <v>960</v>
       </c>
       <c r="J2">
-        <v>1250</v>
+        <v>1177.02004112778</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -579,16 +579,16 @@
         <v>1246.269090909091</v>
       </c>
       <c r="Q2">
-        <v>0.879629629629619</v>
+        <v>0.888888888888914</v>
       </c>
       <c r="R2">
-        <v>2.63888888888886</v>
+        <v>2.66666666666674</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>-3.108624468950438e-15</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="U2">
         <v>300</v>
@@ -623,7 +623,7 @@
         <v>0.3647</v>
       </c>
       <c r="E3">
-        <v>6102.89427999649</v>
+        <v>5368.18779307446</v>
       </c>
       <c r="F3">
         <v>2650.4076</v>
@@ -632,13 +632,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1269.34694195</v>
+        <v>571.366983077777</v>
       </c>
       <c r="I3">
-        <v>1244.21052631579</v>
+        <v>1224.82950925375</v>
       </c>
       <c r="J3">
-        <v>1250</v>
+        <v>552.0200411277769</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -659,16 +659,16 @@
         <v>1250.69789090909</v>
       </c>
       <c r="Q3">
-        <v>0.879629629629701</v>
+        <v>0.888888888888942</v>
       </c>
       <c r="R3">
-        <v>2.6388888888891</v>
+        <v>2.66666666666682</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3.552713678800501e-15</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="U3">
         <v>300</v>
@@ -703,7 +703,7 @@
         <v>0.3647</v>
       </c>
       <c r="E4">
-        <v>5628.69131627434</v>
+        <v>5551.87956619442</v>
       </c>
       <c r="F4">
         <v>2677.4076</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1269.1256706</v>
+        <v>1196.14571172778</v>
       </c>
       <c r="I4">
-        <v>1528.42105263158</v>
+        <v>1349.0340185075</v>
       </c>
       <c r="J4">
-        <v>1250</v>
+        <v>1177.02004112778</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -739,16 +739,16 @@
         <v>1255.12669090909</v>
       </c>
       <c r="Q4">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R4">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U4">
         <v>300</v>
@@ -783,7 +783,7 @@
         <v>0.3647</v>
       </c>
       <c r="E5">
-        <v>6354.76405049955</v>
+        <v>6354.77330975881</v>
       </c>
       <c r="F5">
         <v>2704.4076</v>
@@ -795,7 +795,7 @@
         <v>1269.1663123</v>
       </c>
       <c r="I5">
-        <v>1812.63157894737</v>
+        <v>1613.86352776125</v>
       </c>
       <c r="J5">
         <v>1250</v>
@@ -819,16 +819,16 @@
         <v>1259.555490909089</v>
       </c>
       <c r="Q5">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R5">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U5">
         <v>300</v>
@@ -863,7 +863,7 @@
         <v>0.3647</v>
       </c>
       <c r="E6">
-        <v>7075.25538937593</v>
+        <v>7075.26464863519</v>
       </c>
       <c r="F6">
         <v>2731.4076</v>
@@ -875,7 +875,7 @@
         <v>1269.206954</v>
       </c>
       <c r="I6">
-        <v>2096.84210526316</v>
+        <v>1895.11352776125</v>
       </c>
       <c r="J6">
         <v>1250</v>
@@ -899,16 +899,16 @@
         <v>1239.98429090909</v>
       </c>
       <c r="Q6">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R6">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U6">
         <v>300</v>
@@ -943,7 +943,7 @@
         <v>0.3647</v>
       </c>
       <c r="E7">
-        <v>6848.50978566357</v>
+        <v>6848.51904492283</v>
       </c>
       <c r="F7">
         <v>2758.4076</v>
@@ -955,7 +955,7 @@
         <v>1269.22133745</v>
       </c>
       <c r="I7">
-        <v>2381.05263157895</v>
+        <v>2176.36352776125</v>
       </c>
       <c r="J7">
         <v>1250</v>
@@ -979,16 +979,16 @@
         <v>1232.413090909092</v>
       </c>
       <c r="Q7">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R7">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U7">
         <v>300</v>
@@ -1023,7 +1023,7 @@
         <v>0.3647</v>
       </c>
       <c r="E8">
-        <v>6621.76418195121</v>
+        <v>6621.77344121046</v>
       </c>
       <c r="F8">
         <v>2785.4076</v>
@@ -1035,7 +1035,7 @@
         <v>1269.2357209</v>
       </c>
       <c r="I8">
-        <v>2665.26315789474</v>
+        <v>2457.61352776125</v>
       </c>
       <c r="J8">
         <v>1250</v>
@@ -1059,16 +1059,16 @@
         <v>1224.84189090909</v>
       </c>
       <c r="Q8">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R8">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U8">
         <v>300</v>
@@ -1103,7 +1103,7 @@
         <v>0.3647</v>
       </c>
       <c r="E9">
-        <v>6590.33304301852</v>
+        <v>6590.34230227778</v>
       </c>
       <c r="F9">
         <v>2652.4076</v>
@@ -1115,7 +1115,7 @@
         <v>1269.2726831</v>
       </c>
       <c r="I9">
-        <v>2949.47368421053</v>
+        <v>2738.86352776125</v>
       </c>
       <c r="J9">
         <v>1250</v>
@@ -1139,16 +1139,16 @@
         <v>1229.27069090909</v>
       </c>
       <c r="Q9">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R9">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U9">
         <v>300</v>
@@ -1183,7 +1183,7 @@
         <v>0.3647</v>
       </c>
       <c r="E10">
-        <v>6546.34376455096</v>
+        <v>6546.35302381022</v>
       </c>
       <c r="F10">
         <v>2599.4076</v>
@@ -1195,7 +1195,7 @@
         <v>1269.3096453</v>
       </c>
       <c r="I10">
-        <v>3233.68421052632</v>
+        <v>3020.11352776125</v>
       </c>
       <c r="J10">
         <v>1250</v>
@@ -1219,16 +1219,16 @@
         <v>1179.699490909092</v>
       </c>
       <c r="Q10">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R10">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U10">
         <v>300</v>
@@ -1263,7 +1263,7 @@
         <v>0.3647</v>
       </c>
       <c r="E11">
-        <v>6510.77402866846</v>
+        <v>6510.78328792772</v>
       </c>
       <c r="F11">
         <v>2566.4076</v>
@@ -1275,7 +1275,7 @@
         <v>1269.5021497</v>
       </c>
       <c r="I11">
-        <v>3517.89473684211</v>
+        <v>3301.36352776125</v>
       </c>
       <c r="J11">
         <v>1250</v>
@@ -1299,16 +1299,16 @@
         <v>1144.128290909089</v>
       </c>
       <c r="Q11">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R11">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U11">
         <v>300</v>
@@ -1343,7 +1343,7 @@
         <v>0.3647</v>
       </c>
       <c r="E12">
-        <v>6486.59964162318</v>
+        <v>6486.60890088243</v>
       </c>
       <c r="F12">
         <v>2493.4076</v>
@@ -1355,7 +1355,7 @@
         <v>1269.6946541</v>
       </c>
       <c r="I12">
-        <v>3802.1052631579</v>
+        <v>3582.61352776125</v>
       </c>
       <c r="J12">
         <v>1250</v>
@@ -1379,16 +1379,16 @@
         <v>1157.557090909089</v>
       </c>
       <c r="Q12">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R12">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U12">
         <v>300</v>
@@ -1423,7 +1423,7 @@
         <v>0.3647</v>
       </c>
       <c r="E13">
-        <v>6691.29154781779</v>
+        <v>6691.30080707705</v>
       </c>
       <c r="F13">
         <v>2420.4076</v>
@@ -1435,7 +1435,7 @@
         <v>1269.63862545</v>
       </c>
       <c r="I13">
-        <v>4086.31578947369</v>
+        <v>3863.86352776125</v>
       </c>
       <c r="J13">
         <v>1250</v>
@@ -1459,16 +1459,16 @@
         <v>1134.985890909092</v>
       </c>
       <c r="Q13">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R13">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U13">
         <v>300</v>
@@ -1503,7 +1503,7 @@
         <v>0.3647</v>
       </c>
       <c r="E14">
-        <v>7098.77415168682</v>
+        <v>7098.78341094608</v>
       </c>
       <c r="F14">
         <v>2447.4076</v>
@@ -1515,7 +1515,7 @@
         <v>1269.5825968</v>
       </c>
       <c r="I14">
-        <v>4370.52631578948</v>
+        <v>4145.11352776125</v>
       </c>
       <c r="J14">
         <v>1250</v>
@@ -1539,16 +1539,16 @@
         <v>1124.414690909093</v>
       </c>
       <c r="Q14">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R14">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U14">
         <v>300</v>
@@ -1583,7 +1583,7 @@
         <v>0.3647</v>
       </c>
       <c r="E15">
-        <v>6649.01147971436</v>
+        <v>6649.02073897362</v>
       </c>
       <c r="F15">
         <v>2374.4076</v>
@@ -1595,7 +1595,7 @@
         <v>1269.554253775</v>
       </c>
       <c r="I15">
-        <v>4654.73684210526</v>
+        <v>4426.36352776125</v>
       </c>
       <c r="J15">
         <v>1250</v>
@@ -1619,16 +1619,16 @@
         <v>1104.06349090909</v>
       </c>
       <c r="Q15">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R15">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U15">
         <v>300</v>
@@ -1663,7 +1663,7 @@
         <v>0.3647</v>
       </c>
       <c r="E16">
-        <v>6371.97438913725</v>
+        <v>6371.98364839651</v>
       </c>
       <c r="F16">
         <v>2501.4076</v>
@@ -1675,7 +1675,7 @@
         <v>1269.52591075</v>
       </c>
       <c r="I16">
-        <v>4938.94736842105</v>
+        <v>4707.61352776125</v>
       </c>
       <c r="J16">
         <v>1250</v>
@@ -1699,16 +1699,16 @@
         <v>966.4322909090922</v>
       </c>
       <c r="Q16">
-        <v>0.879629629629663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="R16">
-        <v>2.63888888888899</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>-1.332267629550188e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="U16">
         <v>300</v>
@@ -1743,7 +1743,7 @@
         <v>0.3647</v>
       </c>
       <c r="E17">
-        <v>6946.36244844674</v>
+        <v>6947.15415584358</v>
       </c>
       <c r="F17">
         <v>2528.4076</v>
@@ -1755,7 +1755,7 @@
         <v>1268.43368125</v>
       </c>
       <c r="I17">
-        <v>5223.15789473684</v>
+        <v>4988.86352776125</v>
       </c>
       <c r="J17">
         <v>1250</v>
@@ -1779,16 +1779,16 @@
         <v>946.8010909090888</v>
       </c>
       <c r="Q17">
-        <v>85.9827995511083</v>
+        <v>86.7745069479561</v>
       </c>
       <c r="R17">
-        <v>257.948398653325</v>
+        <v>260.323520843868</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>-1.13686837721616e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="U17">
         <v>300</v>
@@ -1835,7 +1835,7 @@
         <v>1267.34145175</v>
       </c>
       <c r="I18">
-        <v>5507.36842105263</v>
+        <v>5270.11352776125</v>
       </c>
       <c r="J18">
         <v>1250</v>
@@ -1871,7 +1871,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U18">
-        <v>358.049320114861</v>
+        <v>357.97279218987</v>
       </c>
       <c r="V18">
         <v>431.3101090909092</v>
@@ -1915,7 +1915,7 @@
         <v>1264.43326875</v>
       </c>
       <c r="I19">
-        <v>5791.57894736842</v>
+        <v>5551.36352776125</v>
       </c>
       <c r="J19">
         <v>1250</v>
@@ -1951,7 +1951,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U19">
-        <v>471.017432000947</v>
+        <v>469.756846605491</v>
       </c>
       <c r="V19">
         <v>434.9413090909092</v>
@@ -1995,7 +1995,7 @@
         <v>1261.52508575</v>
       </c>
       <c r="I20">
-        <v>6075.78947368421</v>
+        <v>5832.61352776125</v>
       </c>
       <c r="J20">
         <v>1250</v>
@@ -2031,7 +2031,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U20">
-        <v>583.759607663261</v>
+        <v>581.31733291228</v>
       </c>
       <c r="V20">
         <v>446.9725090909092</v>
@@ -2075,7 +2075,7 @@
         <v>1256.50394117</v>
       </c>
       <c r="I21">
-        <v>6360</v>
+        <v>6113.86352776125</v>
       </c>
       <c r="J21">
         <v>1250</v>
@@ -2111,7 +2111,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U21">
-        <v>696.27629897425</v>
+        <v>692.654698246455</v>
       </c>
       <c r="V21">
         <v>466.2037090909092</v>
@@ -2155,7 +2155,7 @@
         <v>1251.4827966</v>
       </c>
       <c r="I22">
-        <v>6644.21052631579</v>
+        <v>6395.11352776125</v>
       </c>
       <c r="J22">
         <v>1250</v>
@@ -2191,7 +2191,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U22">
-        <v>808.567956902618</v>
+        <v>803.769388849962</v>
       </c>
       <c r="V22">
         <v>485.4349090909092</v>
@@ -2235,7 +2235,7 @@
         <v>1243.8455228</v>
       </c>
       <c r="I23">
-        <v>6928.42105263158</v>
+        <v>6676.36352776125</v>
       </c>
       <c r="J23">
         <v>1250</v>
@@ -2271,7 +2271,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U23">
-        <v>920.635031515128</v>
+        <v>914.661850072262</v>
       </c>
       <c r="V23">
         <v>501.0661090909092</v>
@@ -2315,7 +2315,7 @@
         <v>1236.208249</v>
       </c>
       <c r="I24">
-        <v>7212.63157894737</v>
+        <v>6957.61352776125</v>
       </c>
       <c r="J24">
         <v>1250</v>
@@ -2351,7 +2351,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U24">
-        <v>1032.47797197841</v>
+        <v>1025.33252637212</v>
       </c>
       <c r="V24">
         <v>511.8973090909092</v>
@@ -2395,7 +2395,7 @@
         <v>1230.69663055</v>
       </c>
       <c r="I25">
-        <v>7496.84210526316</v>
+        <v>7238.86352776125</v>
       </c>
       <c r="J25">
         <v>1250</v>
@@ -2431,7 +2431,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U25">
-        <v>1144.09722656077</v>
+        <v>1135.78186131937</v>
       </c>
       <c r="V25">
         <v>509.5285090909092</v>
@@ -2475,7 +2475,7 @@
         <v>1225.1850121</v>
       </c>
       <c r="I26">
-        <v>7781.05263157895</v>
+        <v>7520.11352776125</v>
       </c>
       <c r="J26">
         <v>1250</v>
@@ -2511,7 +2511,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U26">
-        <v>1255.49324263397</v>
+        <v>1246.01029759673</v>
       </c>
       <c r="V26">
         <v>507.1597090909091</v>
@@ -2555,7 +2555,7 @@
         <v>1213.89359807</v>
       </c>
       <c r="I27">
-        <v>8065.26315789473</v>
+        <v>7801.36352776125</v>
       </c>
       <c r="J27">
         <v>1250</v>
@@ -2591,7 +2591,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U27">
-        <v>1366.66646667501</v>
+        <v>1356.01827700154</v>
       </c>
       <c r="V27">
         <v>521.9149090909092</v>
@@ -2623,7 +2623,7 @@
         <v>0.3647</v>
       </c>
       <c r="E28">
-        <v>4987.1503793689</v>
+        <v>5573.74628178996</v>
       </c>
       <c r="F28">
         <v>2325.4076</v>
@@ -2632,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>645.33607675</v>
+        <v>1202.60218405</v>
       </c>
       <c r="I28">
-        <v>8349.473684210519</v>
+        <v>8082.61352776125</v>
       </c>
       <c r="J28">
-        <v>692.7338927</v>
+        <v>1250</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U28">
-        <v>1477.61734426798</v>
+        <v>1465.80624044754</v>
       </c>
       <c r="V28">
         <v>543.6949090909092</v>
@@ -2703,7 +2703,7 @@
         <v>0.3647</v>
       </c>
       <c r="E29">
-        <v>4301.33064129669</v>
+        <v>4980.63177477037</v>
       </c>
       <c r="F29">
         <v>2352.4076</v>
@@ -2712,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>645.3360768</v>
       </c>
       <c r="I29">
-        <v>8506.979495603369</v>
+        <v>8363.86352776125</v>
       </c>
       <c r="J29">
-        <v>67.7338927</v>
+        <v>713.0699695</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U29">
-        <v>1588.34632010576</v>
+        <v>1575.37462796664</v>
       </c>
       <c r="V29">
         <v>541.4749090909091</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>8522.38004383831</v>
+        <v>8524.30427089875</v>
       </c>
       <c r="J30">
         <v>88.0699695</v>
@@ -2831,7 +2831,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U30">
-        <v>1698.85383799186</v>
+        <v>1684.72387871071</v>
       </c>
       <c r="V30">
         <v>539.2549090909092</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>8542.40437374568</v>
+        <v>8544.120014036251</v>
       </c>
       <c r="J31">
         <v>117.2222367</v>
@@ -2911,7 +2911,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U31">
-        <v>1809.1403408422</v>
+        <v>1793.85443095329</v>
       </c>
       <c r="V31">
         <v>537.0349090909092</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>8569.057008616421</v>
+        <v>8570.49501729375</v>
       </c>
       <c r="J32">
         <v>146.3745039</v>
@@ -2991,7 +2991,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U32">
-        <v>1919.20627068683</v>
+        <v>1902.76672209138</v>
       </c>
       <c r="V32">
         <v>534.8149090909092</v>
@@ -3023,7 +3023,7 @@
         <v>0.3647</v>
       </c>
       <c r="E33">
-        <v>4997.7706739257</v>
+        <v>4994.50040873855</v>
       </c>
       <c r="F33">
         <v>2360.4076</v>
@@ -3032,13 +3032,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>3.10675192779084</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>8602.33794845052</v>
+        <v>8603.429280671249</v>
       </c>
       <c r="J33">
-        <v>165.643282277791</v>
+        <v>162.53653035</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U33">
-        <v>2029.05206867177</v>
+        <v>2011.4611886472</v>
       </c>
       <c r="V33">
         <v>532.5949090909091</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>2138.67817506074</v>
+        <v>2119.9382662699</v>
       </c>
       <c r="V34">
         <v>530.3749090909091</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>2134.40081871062</v>
+        <v>2115.69838973736</v>
       </c>
       <c r="V35">
         <v>528.1549090909092</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>2130.1320170732</v>
+        <v>2111.46699295789</v>
       </c>
       <c r="V36">
         <v>525.9349090909092</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>2125.87175303905</v>
+        <v>2107.24405897197</v>
       </c>
       <c r="V37">
         <v>523.7149090909091</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>2121.62000953297</v>
+        <v>2103.02957085403</v>
       </c>
       <c r="V38">
         <v>521.4949090909092</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>2117.37676951391</v>
+        <v>2098.82351171232</v>
       </c>
       <c r="V39">
         <v>519.2749090909092</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>2113.14201597488</v>
+        <v>2094.6258646889</v>
       </c>
       <c r="V40">
         <v>512.2549090909092</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>2108.91573194293</v>
+        <v>2090.43661295952</v>
       </c>
       <c r="V41">
         <v>506.4349090909092</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>2104.69790047904</v>
+        <v>2086.2557397336</v>
       </c>
       <c r="V42">
         <v>486.2149090909091</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>2100.48850467809</v>
+        <v>2082.08322825413</v>
       </c>
       <c r="V43">
         <v>473.1949090909092</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>2096.28752766873</v>
+        <v>2077.91906179762</v>
       </c>
       <c r="V44">
         <v>448.1749090909092</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>2092.09495261339</v>
+        <v>2073.76322367403</v>
       </c>
       <c r="V45">
         <v>327.9545890909092</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>2087.91076270817</v>
+        <v>2069.61569722668</v>
       </c>
       <c r="V46">
         <v>319.6515490909092</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>2083.73494118275</v>
+        <v>2065.47646583223</v>
       </c>
       <c r="V47">
         <v>309.6205090909092</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>2079.56747130038</v>
+        <v>2061.34551290056</v>
       </c>
       <c r="V48">
         <v>299.5894690909092</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>2075.40833635778</v>
+        <v>2057.22282187476</v>
       </c>
       <c r="V49">
         <v>280.2272290909092</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>2071.25751968507</v>
+        <v>2053.10837623101</v>
       </c>
       <c r="V50">
         <v>260.8649890909092</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>2067.1150046457</v>
+        <v>2049.00215947855</v>
       </c>
       <c r="V51">
         <v>243.5504290909092</v>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>2062.98077463641</v>
+        <v>2044.90415515959</v>
       </c>
       <c r="V52">
         <v>274.2358690909092</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>2058.85481308713</v>
+        <v>2040.81434684927</v>
       </c>
       <c r="V53">
         <v>260.4809890909092</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>2054.73710346096</v>
+        <v>2036.73271815558</v>
       </c>
       <c r="V54">
         <v>255.3661090909092</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>2050.62762925404</v>
+        <v>2032.65925271927</v>
       </c>
       <c r="V55">
         <v>250.2512290909092</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="U56">
-        <v>2046.52637399553</v>
+        <v>2028.59393421383</v>
       </c>
       <c r="V56">
         <v>245.1363490909092</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>2042.43332124754</v>
+        <v>2024.5367463454</v>
       </c>
       <c r="V57">
         <v>240.0214690909092</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>2034.3078845253</v>
+        <v>2016.48919204463</v>
       </c>
       <c r="V58">
         <v>1624.975941818184</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>8464.561403508769</v>
+        <v>8466.388888888891</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>1889.88839156327</v>
+        <v>1873.56732477165</v>
       </c>
       <c r="V59">
         <v>1595.052741818184</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>8113.68421052632</v>
+        <v>8119.16666666667</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>1745.75773758716</v>
+        <v>1730.93130123322</v>
       </c>
       <c r="V60">
         <v>1604.009541818184</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>7762.80701754386</v>
+        <v>7771.94444444444</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>1601.915344919</v>
+        <v>1588.58054974186</v>
       </c>
       <c r="V61">
         <v>1599.582021818184</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>7411.9298245614</v>
+        <v>7424.72222222222</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="U62">
-        <v>1458.36063703618</v>
+        <v>1446.51449975349</v>
       </c>
       <c r="V62">
         <v>1547.154501818184</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>7061.05263157895</v>
+        <v>7077.5</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>1315.09303856912</v>
+        <v>1304.73258186509</v>
       </c>
       <c r="V63">
         <v>1466.047941818184</v>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>6710.17543859649</v>
+        <v>6730.27777777778</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="U64">
-        <v>1172.111975299</v>
+        <v>1163.23422781247</v>
       </c>
       <c r="V64">
         <v>1456.941381818184</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>6359.29824561404</v>
+        <v>6383.05555555555</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>1029.41687415542</v>
+        <v>1022.01887046796</v>
       </c>
       <c r="V65">
         <v>1466.030661818184</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>6008.42105263158</v>
+        <v>6035.83333333333</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>887.0071632141299</v>
+        <v>881.085943838136</v>
       </c>
       <c r="V66">
         <v>1475.119941818184</v>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>5657.54385964912</v>
+        <v>5688.61111111111</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>744.882271694719</v>
+        <v>740.434883061571</v>
       </c>
       <c r="V67">
         <v>1556.364741818184</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>5306.66666666667</v>
+        <v>5341.38888888889</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>603.041629958347</v>
+        <v>600.065124406559</v>
       </c>
       <c r="V68">
         <v>1565.609541818184</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>4955.78947368421</v>
+        <v>4994.16666666666</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>461.484669505448</v>
+        <v>459.976105268857</v>
       </c>
       <c r="V69">
         <v>1569.229701818184</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>4780.35087719298</v>
+        <v>4820.55555555555</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="U70">
-        <v>320.210822973454</v>
+        <v>320.16726416943</v>
       </c>
       <c r="V70">
         <v>227.3225890909092</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>4780.35087719298</v>
+        <v>4820.55555555555</v>
       </c>
       <c r="J71">
         <v>80.49037403</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="U71">
-        <v>319.570401327507</v>
+        <v>319.526929641091</v>
       </c>
       <c r="V71">
         <v>324.5341090909092</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>4798.65184644612</v>
+        <v>4838.6658897123</v>
       </c>
       <c r="J72">
         <v>55.43012115</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="U72">
-        <v>318.931260524852</v>
+        <v>318.887875781809</v>
       </c>
       <c r="V72">
         <v>349.7456290909092</v>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>4811.25490557075</v>
+        <v>4851.13766697105</v>
       </c>
       <c r="J73">
         <v>43.62240883</v>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="U73">
-        <v>318.293398003803</v>
+        <v>318.250100030245</v>
       </c>
       <c r="V73">
         <v>387.1856290909092</v>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>4821.17326378894</v>
+        <v>4860.9527089578</v>
       </c>
       <c r="J74">
         <v>31.8146965</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="U74">
-        <v>317.656811207795</v>
+        <v>317.613599830185</v>
       </c>
       <c r="V74">
         <v>424.6256290909092</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>4828.40692109841</v>
+        <v>4868.1110156703</v>
       </c>
       <c r="J75">
         <v>21.03930465</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>317.021497585379</v>
+        <v>316.978372630524</v>
       </c>
       <c r="V75">
         <v>426.0656290909092</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4833.19059457673</v>
+        <v>4872.84485921655</v>
       </c>
       <c r="J76">
         <v>10.2639128</v>
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="U76">
-        <v>316.387454590209</v>
+        <v>316.344415885263</v>
       </c>
       <c r="V76">
         <v>427.5056290909092</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>4835.52428422389</v>
+        <v>4875.15423959655</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="U77">
-        <v>315.754679681028</v>
+        <v>315.711727053493</v>
       </c>
       <c r="V77">
         <v>428.9456290909092</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4835.52428422389</v>
+        <v>4875.15423959655</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>315.123170321666</v>
+        <v>315.080303599386</v>
       </c>
       <c r="V78">
         <v>1819.112901818184</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4660.08568773266</v>
+        <v>4701.54312848544</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>4309.2084947502</v>
+        <v>4354.32090626322</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>3958.33130176775</v>
+        <v>4007.098684041</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>3607.45410878529</v>
+        <v>3659.87646181877</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>3256.57691580284</v>
+        <v>3312.65423959655</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>2905.69972282038</v>
+        <v>2965.43201737433</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>2554.82252983792</v>
+        <v>2618.20979515211</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>2203.94533685547</v>
+        <v>2270.98757292989</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1853.06814387301</v>
+        <v>1923.76535070766</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1502.19095089056</v>
+        <v>1576.54312848544</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1151.3137579081</v>
+        <v>1229.32090626322</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>19.5986527</v>
       </c>
       <c r="I90">
-        <v>975.875161416871</v>
+        <v>1055.70979515211</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>0.7541</v>
       </c>
       <c r="E91">
-        <v>6960.26556411228</v>
+        <v>6666.82142824797</v>
       </c>
       <c r="F91">
         <v>2200.69080000003</v>
@@ -7672,13 +7672,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>644.47187745</v>
+        <v>365.699948378905</v>
       </c>
       <c r="I91">
-        <v>975.875161416871</v>
+        <v>1055.70979515211</v>
       </c>
       <c r="J91">
-        <v>625</v>
+        <v>346.228070928905</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0.7541</v>
       </c>
       <c r="E92">
-        <v>6705.42448218036</v>
+        <v>6624.59961219673</v>
       </c>
       <c r="F92">
         <v>2353.39600000004</v>
@@ -7752,13 +7752,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>96.1287286844416</v>
+        <v>19.3451022</v>
       </c>
       <c r="I92">
-        <v>1117.98042457477</v>
+        <v>1133.61111111111</v>
       </c>
       <c r="J92">
-        <v>76.7836264844416</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>19.38959065</v>
       </c>
       <c r="I93">
-        <v>1135.43859649123</v>
+        <v>1133.61111111111</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>19.4340791</v>
       </c>
       <c r="I94">
-        <v>1135.43859649123</v>
+        <v>1133.61111111111</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1135.43859649123</v>
+        <v>1133.61111111111</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -8129,7 +8129,7 @@
         <v>856.691367272748</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8142,71 +8142,8 @@
       <c r="D97">
         <v>0.7541</v>
       </c>
-      <c r="E97">
-        <v>4755.79214527631</v>
-      </c>
-      <c r="F97">
-        <v>2616.92200000008</v>
-      </c>
-      <c r="G97">
-        <v>1168.97629447</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>960</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>1250</v>
-      </c>
-      <c r="L97">
-        <v>50</v>
-      </c>
-      <c r="M97">
-        <v>60.90909090909089</v>
-      </c>
       <c r="N97">
         <v>0</v>
-      </c>
-      <c r="O97">
-        <v>124.76843974631</v>
-      </c>
-      <c r="P97">
-        <v>536.5042909091329</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>500</v>
-      </c>
-      <c r="T97">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <v>300</v>
-      </c>
-      <c r="V97">
-        <v>485.1517090909092</v>
-      </c>
-      <c r="W97">
-        <v>1000</v>
-      </c>
-      <c r="X97">
-        <v>2616.92200000008</v>
-      </c>
-      <c r="Y97">
-        <v>1145.98569090911</v>
-      </c>
-      <c r="Z97">
-        <v>862.980527272751</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -540,43 +540,43 @@
         <v>19.5682133</v>
       </c>
       <c r="D2">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E2">
-        <v>6500.28549363872</v>
+        <v>4410.4811298496</v>
       </c>
       <c r="F2">
-        <v>2623.4076</v>
+        <v>12547.045849697</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1196.58825442778</v>
+        <v>29.6734764578946</v>
       </c>
       <c r="I2">
         <v>960</v>
       </c>
       <c r="J2">
-        <v>1177.02004112778</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M2">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>289.830021141649</v>
+        <v>360.297674418605</v>
       </c>
       <c r="P2">
-        <v>1246.269090909091</v>
+        <v>1549.280000000002</v>
       </c>
       <c r="Q2">
         <v>0.888888888888914</v>
@@ -594,19 +594,19 @@
         <v>300</v>
       </c>
       <c r="V2">
-        <v>303.0109090909092</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>2623.4076</v>
+        <v>12547.045849697</v>
       </c>
       <c r="Y2">
-        <v>1147.93137090909</v>
+        <v>4841.58941818182</v>
       </c>
       <c r="Z2">
-        <v>971.175007272727</v>
+        <v>724.68152</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -620,43 +620,43 @@
         <v>19.34694195</v>
       </c>
       <c r="D3">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E3">
-        <v>5368.18779307446</v>
+        <v>3935.7365847321</v>
       </c>
       <c r="F3">
-        <v>2650.4076</v>
+        <v>12651.669849697</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>571.366983077777</v>
+        <v>29.4522051078947</v>
       </c>
       <c r="I3">
-        <v>1224.82950925375</v>
+        <v>960</v>
       </c>
       <c r="J3">
-        <v>552.0200411277769</v>
+        <v>10.1052631578947</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M3">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>290.859974630021</v>
+        <v>360.762790697674</v>
       </c>
       <c r="P3">
-        <v>1250.69789090909</v>
+        <v>1551.279999999998</v>
       </c>
       <c r="Q3">
         <v>0.888888888888942</v>
@@ -674,19 +674,19 @@
         <v>300</v>
       </c>
       <c r="V3">
-        <v>300.5821090909092</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2650.4076</v>
+        <v>12651.669849697</v>
       </c>
       <c r="Y3">
-        <v>1156.03137090909</v>
+        <v>4868.58941818182</v>
       </c>
       <c r="Z3">
-        <v>980.691807272727</v>
+        <v>730.08152</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -700,43 +700,43 @@
         <v>19.1256706</v>
       </c>
       <c r="D4">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E4">
-        <v>5551.87956619442</v>
+        <v>3460.99203961459</v>
       </c>
       <c r="F4">
-        <v>2677.4076</v>
+        <v>12756.293849697</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1196.14571172778</v>
+        <v>29.2309337578946</v>
       </c>
       <c r="I4">
-        <v>1349.0340185075</v>
+        <v>960</v>
       </c>
       <c r="J4">
-        <v>1177.02004112778</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M4">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>291.889928118393</v>
+        <v>361.227906976744</v>
       </c>
       <c r="P4">
-        <v>1255.12669090909</v>
+        <v>1553.279999999999</v>
       </c>
       <c r="Q4">
         <v>0.888888888888923</v>
@@ -754,19 +754,19 @@
         <v>300</v>
       </c>
       <c r="V4">
-        <v>298.1533090909092</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2677.4076</v>
+        <v>12756.293849697</v>
       </c>
       <c r="Y4">
-        <v>1164.13137090909</v>
+        <v>4895.58941818182</v>
       </c>
       <c r="Z4">
-        <v>990.208607272727</v>
+        <v>735.48152</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -780,43 +780,43 @@
         <v>19.1663123</v>
       </c>
       <c r="D5">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E5">
-        <v>6354.77330975881</v>
+        <v>4186.52319244446</v>
       </c>
       <c r="F5">
-        <v>2704.4076</v>
+        <v>12860.917849697</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1269.1663123</v>
+        <v>29.2715754578946</v>
       </c>
       <c r="I5">
-        <v>1613.86352776125</v>
+        <v>960</v>
       </c>
       <c r="J5">
-        <v>1250</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M5">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>292.919881606765</v>
+        <v>361.693023255814</v>
       </c>
       <c r="P5">
-        <v>1259.555490909089</v>
+        <v>1555.28</v>
       </c>
       <c r="Q5">
         <v>0.888888888888923</v>
@@ -834,19 +834,19 @@
         <v>300</v>
       </c>
       <c r="V5">
-        <v>295.7245090909092</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2704.4076</v>
+        <v>12860.917849697</v>
       </c>
       <c r="Y5">
-        <v>1172.23137090909</v>
+        <v>4922.58941818182</v>
       </c>
       <c r="Z5">
-        <v>999.725407272727</v>
+        <v>740.88152</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -860,43 +860,43 @@
         <v>19.206954</v>
       </c>
       <c r="D6">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E6">
-        <v>7075.26464863519</v>
+        <v>5494.46772840349</v>
       </c>
       <c r="F6">
-        <v>2731.4076</v>
+        <v>12945.541849697</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1269.206954</v>
+        <v>582.604931130607</v>
       </c>
       <c r="I6">
-        <v>1895.11352776125</v>
+        <v>960</v>
       </c>
       <c r="J6">
-        <v>1250</v>
+        <v>563.397977130607</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M6">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>288.3684397463</v>
+        <v>362.158139534884</v>
       </c>
       <c r="P6">
-        <v>1239.98429090909</v>
+        <v>1557.280000000001</v>
       </c>
       <c r="Q6">
         <v>0.888888888888923</v>
@@ -914,19 +914,19 @@
         <v>300</v>
       </c>
       <c r="V6">
-        <v>317.2957090909092</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2731.4076</v>
+        <v>12945.541849697</v>
       </c>
       <c r="Y6">
-        <v>1180.33137090909</v>
+        <v>4949.58941818182</v>
       </c>
       <c r="Z6">
-        <v>995.242207272727</v>
+        <v>746.28152</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -940,43 +940,43 @@
         <v>19.22133745</v>
       </c>
       <c r="D7">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E7">
-        <v>6848.51904492283</v>
+        <v>5927.86597781231</v>
       </c>
       <c r="F7">
-        <v>2758.4076</v>
+        <v>13040.165849697</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1269.22133745</v>
+        <v>1207.61931458061</v>
       </c>
       <c r="I7">
-        <v>2176.36352776125</v>
+        <v>1091.40701956852</v>
       </c>
       <c r="J7">
-        <v>1250</v>
+        <v>1188.39797713061</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M7">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>286.607695560254</v>
+        <v>362.623255813954</v>
       </c>
       <c r="P7">
-        <v>1232.413090909092</v>
+        <v>1559.280000000002</v>
       </c>
       <c r="Q7">
         <v>0.888888888888923</v>
@@ -994,19 +994,19 @@
         <v>300</v>
       </c>
       <c r="V7">
-        <v>326.8669090909092</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>2758.4076</v>
+        <v>13040.165849697</v>
       </c>
       <c r="Y7">
-        <v>1188.43137090909</v>
+        <v>4976.58941818182</v>
       </c>
       <c r="Z7">
-        <v>997.759007272727</v>
+        <v>751.68152</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1020,13 +1020,13 @@
         <v>19.2357209</v>
       </c>
       <c r="D8">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E8">
-        <v>6621.77344121046</v>
+        <v>5768.21372497838</v>
       </c>
       <c r="F8">
-        <v>2785.4076</v>
+        <v>13134.789849697</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>1269.2357209</v>
       </c>
       <c r="I8">
-        <v>2457.61352776125</v>
+        <v>1370.92302158812</v>
       </c>
       <c r="J8">
         <v>1250</v>
@@ -1044,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M8">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>284.846951374207</v>
+        <v>363.088372093023</v>
       </c>
       <c r="P8">
-        <v>1224.84189090909</v>
+        <v>1561.279999999999</v>
       </c>
       <c r="Q8">
         <v>0.888888888888923</v>
@@ -1074,19 +1074,19 @@
         <v>300</v>
       </c>
       <c r="V8">
-        <v>336.4381090909092</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>2785.4076</v>
+        <v>13134.789849697</v>
       </c>
       <c r="Y8">
-        <v>1196.53137090909</v>
+        <v>5003.58941818182</v>
       </c>
       <c r="Z8">
-        <v>1000.27580727273</v>
+        <v>757.08152</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1100,13 +1100,13 @@
         <v>19.2726831</v>
       </c>
       <c r="D9">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E9">
-        <v>6590.34230227778</v>
+        <v>5736.24100465035</v>
       </c>
       <c r="F9">
-        <v>2652.4076</v>
+        <v>12631.413849697</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>1269.2726831</v>
       </c>
       <c r="I9">
-        <v>2738.86352776125</v>
+        <v>1664.37071403415</v>
       </c>
       <c r="J9">
         <v>1250</v>
@@ -1124,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M9">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>285.876904862579</v>
+        <v>363.553488372093</v>
       </c>
       <c r="P9">
-        <v>1229.27069090909</v>
+        <v>1563.28</v>
       </c>
       <c r="Q9">
         <v>0.888888888888923</v>
@@ -1154,19 +1154,19 @@
         <v>300</v>
       </c>
       <c r="V9">
-        <v>334.0093090909092</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>2652.4076</v>
+        <v>12631.413849697</v>
       </c>
       <c r="Y9">
-        <v>1156.63137090909</v>
+        <v>4870.58941818182</v>
       </c>
       <c r="Z9">
-        <v>961.792607272727</v>
+        <v>730.48152</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1180,13 +1180,13 @@
         <v>19.3096453</v>
       </c>
       <c r="D10">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E10">
-        <v>6546.35302381022</v>
+        <v>5746.35835754482</v>
       </c>
       <c r="F10">
-        <v>2599.4076</v>
+        <v>12422.037849697</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>1269.3096453</v>
       </c>
       <c r="I10">
-        <v>3020.11352776125</v>
+        <v>1957.08478724906</v>
       </c>
       <c r="J10">
         <v>1250</v>
@@ -1204,49 +1204,49 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M10">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>274.348718816068</v>
+        <v>354.251162790698</v>
       </c>
       <c r="P10">
-        <v>1179.699490909092</v>
+        <v>1523.280000000001</v>
       </c>
       <c r="Q10">
-        <v>0.888888888888923</v>
+        <v>50.7421147707865</v>
       </c>
       <c r="R10">
-        <v>2.66666666666677</v>
+        <v>152.22634431236</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>-8.881784197001252e-16</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="U10">
         <v>300</v>
       </c>
       <c r="V10">
-        <v>343.5805090909092</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>2599.4076</v>
+        <v>12422.037849697</v>
       </c>
       <c r="Y10">
-        <v>1140.73137090909</v>
+        <v>4817.58941818182</v>
       </c>
       <c r="Z10">
-        <v>940.309407272727</v>
+        <v>719.88152</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1260,13 +1260,13 @@
         <v>19.5021497</v>
       </c>
       <c r="D11">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E11">
-        <v>6510.78328792772</v>
+        <v>5834.43293603672</v>
       </c>
       <c r="F11">
-        <v>2566.4076</v>
+        <v>12288.661849697</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>1269.5021497</v>
       </c>
       <c r="I11">
-        <v>3301.36352776125</v>
+        <v>2249.06707528094</v>
       </c>
       <c r="J11">
         <v>1250</v>
@@ -1284,49 +1284,49 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M11">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>266.076346723044</v>
+        <v>348.204651162791</v>
       </c>
       <c r="P11">
-        <v>1144.128290909089</v>
+        <v>1497.280000000001</v>
       </c>
       <c r="Q11">
-        <v>0.888888888888923</v>
+        <v>166.666666666667</v>
       </c>
       <c r="R11">
-        <v>2.66666666666677</v>
+        <v>500</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>-8.881784197001252e-16</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U11">
-        <v>300</v>
+        <v>333.650927470281</v>
       </c>
       <c r="V11">
-        <v>353.1517090909092</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>2566.4076</v>
+        <v>12288.661849697</v>
       </c>
       <c r="Y11">
-        <v>1130.83137090909</v>
+        <v>4784.58941818182</v>
       </c>
       <c r="Z11">
-        <v>924.8262072727269</v>
+        <v>713.28152</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1340,13 +1340,13 @@
         <v>19.6946541</v>
       </c>
       <c r="D12">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E12">
-        <v>6486.60890088243</v>
+        <v>5806.89138620073</v>
       </c>
       <c r="F12">
-        <v>2493.4076</v>
+        <v>12023.285849697</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1269.6946541</v>
       </c>
       <c r="I12">
-        <v>3582.61352776125</v>
+        <v>2540.31940759274</v>
       </c>
       <c r="J12">
         <v>1250</v>
@@ -1364,49 +1364,49 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M12">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>269.19932346723</v>
+        <v>347.972093023256</v>
       </c>
       <c r="P12">
-        <v>1157.557090909089</v>
+        <v>1496.280000000001</v>
       </c>
       <c r="Q12">
-        <v>0.888888888888923</v>
+        <v>166.666666666667</v>
       </c>
       <c r="R12">
-        <v>2.66666666666677</v>
+        <v>500</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-8.881784197001252e-16</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U12">
-        <v>300</v>
+        <v>445.48362561534</v>
       </c>
       <c r="V12">
-        <v>338.7229090909092</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>2493.4076</v>
+        <v>12023.285849697</v>
       </c>
       <c r="Y12">
-        <v>1108.93137090909</v>
+        <v>4711.58941818182</v>
       </c>
       <c r="Z12">
-        <v>911.343007272727</v>
+        <v>698.68152</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1420,13 +1420,13 @@
         <v>19.63862545</v>
       </c>
       <c r="D13">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E13">
-        <v>6691.30080707705</v>
+        <v>6016.58822262791</v>
       </c>
       <c r="F13">
-        <v>2420.4076</v>
+        <v>11727.909849697</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1269.63862545</v>
       </c>
       <c r="I13">
-        <v>3863.86352776125</v>
+        <v>2830.84360907375</v>
       </c>
       <c r="J13">
         <v>1250</v>
@@ -1444,49 +1444,49 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M13">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>263.950207188161</v>
+        <v>347.739534883721</v>
       </c>
       <c r="P13">
-        <v>1134.985890909092</v>
+        <v>1495.28</v>
       </c>
       <c r="Q13">
-        <v>0.888888888888923</v>
+        <v>166.666666666667</v>
       </c>
       <c r="R13">
-        <v>2.66666666666677</v>
+        <v>500</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>-8.881784197001252e-16</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U13">
-        <v>300</v>
+        <v>557.09265836411</v>
       </c>
       <c r="V13">
-        <v>360.2941090909092</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>2420.4076</v>
+        <v>11727.909849697</v>
       </c>
       <c r="Y13">
-        <v>1087.03137090909</v>
+        <v>4638.58941818182</v>
       </c>
       <c r="Z13">
-        <v>876.859807272727</v>
+        <v>684.08152</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1500,13 +1500,13 @@
         <v>19.5825968</v>
       </c>
       <c r="D14">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E14">
-        <v>7098.78341094608</v>
+        <v>6426.28505905508</v>
       </c>
       <c r="F14">
-        <v>2447.4076</v>
+        <v>11822.533849697</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>1269.5825968</v>
       </c>
       <c r="I14">
-        <v>4145.11352776125</v>
+        <v>3120.64150005107</v>
       </c>
       <c r="J14">
         <v>1250</v>
@@ -1524,49 +1524,49 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M14">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>261.49178858351</v>
+        <v>347.506976744186</v>
       </c>
       <c r="P14">
-        <v>1124.414690909093</v>
+        <v>1494.28</v>
       </c>
       <c r="Q14">
-        <v>0.888888888888923</v>
+        <v>166.666666666667</v>
       </c>
       <c r="R14">
-        <v>2.66666666666677</v>
+        <v>500</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>-8.881784197001252e-16</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U14">
-        <v>300</v>
+        <v>668.478473047381</v>
       </c>
       <c r="V14">
-        <v>369.8653090909092</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>2447.4076</v>
+        <v>11822.533849697</v>
       </c>
       <c r="Y14">
-        <v>1095.13137090909</v>
+        <v>4665.58941818182</v>
       </c>
       <c r="Z14">
-        <v>879.376607272727</v>
+        <v>689.48152</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1580,13 +1580,13 @@
         <v>19.67642385</v>
       </c>
       <c r="D15">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E15">
-        <v>6649.02073897362</v>
+        <v>5981.01103824541</v>
       </c>
       <c r="F15">
-        <v>2374.4076</v>
+        <v>11529.007849697</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>1269.554253775</v>
       </c>
       <c r="I15">
-        <v>4426.36352776125</v>
+        <v>3409.71489630094</v>
       </c>
       <c r="J15">
         <v>1250</v>
@@ -1604,49 +1604,49 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M15">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N15">
         <v>0.122170075</v>
       </c>
       <c r="O15">
-        <v>256.758951374207</v>
+        <v>347.274418604651</v>
       </c>
       <c r="P15">
-        <v>1104.06349090909</v>
+        <v>1493.279999999999</v>
       </c>
       <c r="Q15">
-        <v>0.888888888888923</v>
+        <v>166.666666666667</v>
       </c>
       <c r="R15">
-        <v>2.66666666666677</v>
+        <v>500</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>-8.881784197001252e-16</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U15">
-        <v>300</v>
+        <v>779.641516101286</v>
       </c>
       <c r="V15">
-        <v>389.2165090909091</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>2374.4076</v>
+        <v>11529.007849697</v>
       </c>
       <c r="Y15">
-        <v>1073.23137090909</v>
+        <v>4592.58941818182</v>
       </c>
       <c r="Z15">
-        <v>846.188407272727</v>
+        <v>674.88152</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1660,13 +1660,13 @@
         <v>19.7702509</v>
       </c>
       <c r="D16">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E16">
-        <v>6371.98364839651</v>
+        <v>5707.6556220869</v>
       </c>
       <c r="F16">
-        <v>2501.4076</v>
+        <v>11993.581849697</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>1269.52591075</v>
       </c>
       <c r="I16">
-        <v>4707.61352776125</v>
+        <v>3698.06560906019</v>
       </c>
       <c r="J16">
         <v>1250</v>
@@ -1684,49 +1684,49 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M16">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N16">
         <v>0.24434015</v>
       </c>
       <c r="O16">
-        <v>224.751695560254</v>
+        <v>320.297674418605</v>
       </c>
       <c r="P16">
-        <v>966.4322909090922</v>
+        <v>1377.280000000002</v>
       </c>
       <c r="Q16">
-        <v>0.888888888888923</v>
+        <v>166.666666666667</v>
       </c>
       <c r="R16">
-        <v>2.66666666666677</v>
+        <v>500</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>-8.881784197001252e-16</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U16">
-        <v>300</v>
+        <v>890.5822330690841</v>
       </c>
       <c r="V16">
-        <v>410.8477090909092</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>2501.4076</v>
+        <v>11993.581849697</v>
       </c>
       <c r="Y16">
-        <v>1111.33137090909</v>
+        <v>4719.58941818182</v>
       </c>
       <c r="Z16">
-        <v>871.670207272727</v>
+        <v>700.28152</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1740,13 +1740,13 @@
         <v>19.94335435</v>
       </c>
       <c r="D17">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E17">
-        <v>6947.15415584358</v>
+        <v>6201.99427891677</v>
       </c>
       <c r="F17">
-        <v>2528.4076</v>
+        <v>12078.155849697</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>1268.43368125</v>
       </c>
       <c r="I17">
-        <v>4988.86352776125</v>
+        <v>3985.69544503754</v>
       </c>
       <c r="J17">
         <v>1250</v>
@@ -1764,49 +1764,49 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M17">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N17">
         <v>1.5096731</v>
       </c>
       <c r="O17">
-        <v>220.186300211416</v>
+        <v>320.762790697674</v>
       </c>
       <c r="P17">
-        <v>946.8010909090888</v>
+        <v>1379.279999999998</v>
       </c>
       <c r="Q17">
-        <v>86.7745069479561</v>
+        <v>166.666666666667</v>
       </c>
       <c r="R17">
-        <v>260.323520843868</v>
+        <v>500</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3.410605131648481e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U17">
-        <v>300</v>
+        <v>1001.30106860295</v>
       </c>
       <c r="V17">
-        <v>432.4789090909092</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>2528.4076</v>
+        <v>12078.155849697</v>
       </c>
       <c r="Y17">
-        <v>1119.43137090909</v>
+        <v>4746.58941818182</v>
       </c>
       <c r="Z17">
-        <v>867.152007272727</v>
+        <v>705.68152</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1820,13 +1820,13 @@
         <v>20.1164578</v>
       </c>
       <c r="D18">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E18">
-        <v>6771.63353053169</v>
+        <v>5946.33293574663</v>
       </c>
       <c r="F18">
-        <v>2555.4076</v>
+        <v>12181.729849697</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>1267.34145175</v>
       </c>
       <c r="I18">
-        <v>5270.11352776125</v>
+        <v>4272.60620642495</v>
       </c>
       <c r="J18">
         <v>1250</v>
@@ -1844,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M18">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N18">
         <v>2.77500605</v>
       </c>
       <c r="O18">
-        <v>220.923230443975</v>
+        <v>321.227906976744</v>
       </c>
       <c r="P18">
-        <v>949.9698909090924</v>
+        <v>1381.279999999999</v>
       </c>
       <c r="Q18">
         <v>166.666666666667</v>
@@ -1871,22 +1871,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U18">
-        <v>357.97279218987</v>
+        <v>1111.79846646574</v>
       </c>
       <c r="V18">
-        <v>431.3101090909092</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>2555.4076</v>
+        <v>12181.729849697</v>
       </c>
       <c r="Y18">
-        <v>1127.53137090909</v>
+        <v>4773.58941818182</v>
       </c>
       <c r="Z18">
-        <v>875.933807272727</v>
+        <v>711.08152</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1900,13 +1900,13 @@
         <v>20.39342325</v>
       </c>
       <c r="D19">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E19">
-        <v>6780.69293643133</v>
+        <v>5956.2600625765</v>
       </c>
       <c r="F19">
-        <v>2582.4076</v>
+        <v>12281.303849697</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1264.43326875</v>
       </c>
       <c r="I19">
-        <v>5551.36352776125</v>
+        <v>4558.79969090888</v>
       </c>
       <c r="J19">
         <v>1250</v>
@@ -1924,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M19">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N19">
         <v>5.9601545</v>
       </c>
       <c r="O19">
-        <v>220.543881606765</v>
+        <v>321.693023255814</v>
       </c>
       <c r="P19">
-        <v>948.3386909090896</v>
+        <v>1383.28</v>
       </c>
       <c r="Q19">
         <v>166.666666666667</v>
@@ -1951,22 +1951,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U19">
-        <v>469.756846605491</v>
+        <v>1222.07486953281</v>
       </c>
       <c r="V19">
-        <v>434.9413090909092</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>2582.4076</v>
+        <v>12281.303849697</v>
       </c>
       <c r="Y19">
-        <v>1135.63137090909</v>
+        <v>4800.58941818182</v>
       </c>
       <c r="Z19">
-        <v>881.915607272727</v>
+        <v>716.48152</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -1980,13 +1980,13 @@
         <v>20.6703887</v>
       </c>
       <c r="D20">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E20">
-        <v>6114.54304000538</v>
+        <v>5291.7685847552</v>
       </c>
       <c r="F20">
-        <v>2589.4076</v>
+        <v>12297.877849697</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>1261.52508575</v>
       </c>
       <c r="I20">
-        <v>5832.61352776125</v>
+        <v>4844.27769168161</v>
       </c>
       <c r="J20">
         <v>1250</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M20">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N20">
         <v>9.14530295</v>
       </c>
       <c r="O20">
-        <v>194.955230443975</v>
+        <v>298.902325581395</v>
       </c>
       <c r="P20">
-        <v>838.3074909090925</v>
+        <v>1285.279999999999</v>
       </c>
       <c r="Q20">
         <v>166.666666666667</v>
@@ -2031,22 +2031,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U20">
-        <v>581.31733291228</v>
+        <v>1332.13071979374</v>
       </c>
       <c r="V20">
-        <v>446.9725090909092</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>2589.4076</v>
+        <v>12297.877849697</v>
       </c>
       <c r="Y20">
-        <v>1137.73137090909</v>
+        <v>4807.58941818182</v>
       </c>
       <c r="Z20">
-        <v>876.9974072727269</v>
+        <v>717.88152</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2060,13 +2060,13 @@
         <v>20.4487829</v>
       </c>
       <c r="D21">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E21">
-        <v>6065.25036884406</v>
+        <v>5246.97154150086</v>
       </c>
       <c r="F21">
-        <v>2536.4076</v>
+        <v>12080.451849697</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>1256.50394117</v>
       </c>
       <c r="I21">
-        <v>6113.86352776125</v>
+        <v>5129.04199745241</v>
       </c>
       <c r="J21">
         <v>1250</v>
@@ -2084,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M21">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N21">
         <v>13.94484173</v>
       </c>
       <c r="O21">
-        <v>190.947974630021</v>
+        <v>299.367441860465</v>
       </c>
       <c r="P21">
-        <v>821.0762909090903</v>
+        <v>1287.28</v>
       </c>
       <c r="Q21">
         <v>166.666666666667</v>
@@ -2111,22 +2111,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U21">
-        <v>692.654698246455</v>
+        <v>1441.96645835416</v>
       </c>
       <c r="V21">
-        <v>466.2037090909092</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>2536.4076</v>
+        <v>12080.451849697</v>
       </c>
       <c r="Y21">
-        <v>1121.83137090909</v>
+        <v>4754.58941818182</v>
       </c>
       <c r="Z21">
-        <v>849.8792072727269</v>
+        <v>707.28152</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2140,13 +2140,13 @@
         <v>20.2271771</v>
       </c>
       <c r="D22">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E22">
-        <v>6015.95769769326</v>
+        <v>5202.17449825704</v>
       </c>
       <c r="F22">
-        <v>2563.4076</v>
+        <v>12167.025849697</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>1251.4827966</v>
       </c>
       <c r="I22">
-        <v>6395.11352776125</v>
+        <v>5413.09439245878</v>
       </c>
       <c r="J22">
         <v>1250</v>
@@ -2164,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M22">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N22">
         <v>18.7443805</v>
       </c>
       <c r="O22">
-        <v>186.940718816068</v>
+        <v>299.832558139535</v>
       </c>
       <c r="P22">
-        <v>803.8450909090924</v>
+        <v>1289.280000000001</v>
       </c>
       <c r="Q22">
         <v>166.666666666667</v>
@@ -2191,22 +2191,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U22">
-        <v>803.769388849962</v>
+        <v>1551.58252543745</v>
       </c>
       <c r="V22">
-        <v>485.4349090909092</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>2563.4076</v>
+        <v>12167.025849697</v>
       </c>
       <c r="Y22">
-        <v>1129.93137090909</v>
+        <v>4781.58941818182</v>
       </c>
       <c r="Z22">
-        <v>846.7610072727271</v>
+        <v>712.68152</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2220,13 +2220,13 @@
         <v>20.76220885</v>
       </c>
       <c r="D23">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E23">
-        <v>5759.74841560268</v>
+        <v>4949.62363477111</v>
       </c>
       <c r="F23">
-        <v>2490.4076</v>
+        <v>11876.599849697</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>1243.8455228</v>
       </c>
       <c r="I23">
-        <v>6676.36352776125</v>
+        <v>5696.43665647763</v>
       </c>
       <c r="J23">
         <v>1250</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M23">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N23">
         <v>26.91668605</v>
       </c>
       <c r="O23">
-        <v>183.77067230444</v>
+        <v>300.297674418605</v>
       </c>
       <c r="P23">
-        <v>790.213890909092</v>
+        <v>1291.280000000002</v>
       </c>
       <c r="Q23">
         <v>166.666666666667</v>
@@ -2271,22 +2271,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U23">
-        <v>914.661850072262</v>
+        <v>1660.97936038657</v>
       </c>
       <c r="V23">
-        <v>501.0661090909092</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>2490.4076</v>
+        <v>11876.599849697</v>
       </c>
       <c r="Y23">
-        <v>1108.03137090909</v>
+        <v>4708.58941818182</v>
       </c>
       <c r="Z23">
-        <v>815.742807272728</v>
+        <v>698.08152</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2300,13 +2300,13 @@
         <v>21.2972406</v>
       </c>
       <c r="D24">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E24">
-        <v>5504.65541258188</v>
+        <v>4697.07277128519</v>
       </c>
       <c r="F24">
-        <v>2517.4076</v>
+        <v>11970.173849697</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>1236.208249</v>
       </c>
       <c r="I24">
-        <v>6957.61352776125</v>
+        <v>5979.07056483644</v>
       </c>
       <c r="J24">
         <v>1250</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M24">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N24">
         <v>35.0889916</v>
       </c>
       <c r="O24">
-        <v>181.716904862579</v>
+        <v>300.762790697674</v>
       </c>
       <c r="P24">
-        <v>781.3826909090898</v>
+        <v>1293.279999999998</v>
       </c>
       <c r="Q24">
         <v>166.666666666667</v>
@@ -2351,22 +2351,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U24">
-        <v>1025.33252637212</v>
+        <v>1770.1574016658</v>
       </c>
       <c r="V24">
-        <v>511.8973090909092</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>2517.4076</v>
+        <v>11970.173849697</v>
       </c>
       <c r="Y24">
-        <v>1116.13137090909</v>
+        <v>4735.58941818182</v>
       </c>
       <c r="Z24">
-        <v>817.5246072727271</v>
+        <v>703.48152</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2380,13 +2380,13 @@
         <v>28.6920182</v>
       </c>
       <c r="D25">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E25">
-        <v>5652.3697089503</v>
+        <v>4844.25943974663</v>
       </c>
       <c r="F25">
-        <v>2444.4076</v>
+        <v>11694.747849697</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>1230.69663055</v>
       </c>
       <c r="I25">
-        <v>7238.86352776125</v>
+        <v>6260.99788842435</v>
       </c>
       <c r="J25">
         <v>1250</v>
@@ -2404,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M25">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N25">
         <v>47.99538765</v>
       </c>
       <c r="O25">
-        <v>182.732904862579</v>
+        <v>301.227906976744</v>
       </c>
       <c r="P25">
-        <v>785.7514909090897</v>
+        <v>1295.279999999999</v>
       </c>
       <c r="Q25">
         <v>166.666666666667</v>
@@ -2431,22 +2431,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U25">
-        <v>1135.78186131937</v>
+        <v>1879.11708686247</v>
       </c>
       <c r="V25">
-        <v>509.5285090909092</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>2444.4076</v>
+        <v>11694.747849697</v>
       </c>
       <c r="Y25">
-        <v>1094.23137090909</v>
+        <v>4662.58941818182</v>
       </c>
       <c r="Z25">
-        <v>797.006407272727</v>
+        <v>688.88152</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2460,13 +2460,13 @@
         <v>36.0867958</v>
       </c>
       <c r="D26">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E26">
-        <v>5800.08400531872</v>
+        <v>4991.44610820808</v>
       </c>
       <c r="F26">
-        <v>2471.4076</v>
+        <v>11799.321849697</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>1225.1850121</v>
       </c>
       <c r="I26">
-        <v>7520.11352776125</v>
+        <v>6542.22039370329</v>
       </c>
       <c r="J26">
         <v>1250</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M26">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N26">
         <v>60.9017837</v>
       </c>
       <c r="O26">
-        <v>183.748904862579</v>
+        <v>301.693023255814</v>
       </c>
       <c r="P26">
-        <v>790.1202909090897</v>
+        <v>1297.28</v>
       </c>
       <c r="Q26">
         <v>166.666666666667</v>
@@ -2511,22 +2511,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U26">
-        <v>1246.01029759673</v>
+        <v>1987.85885268874</v>
       </c>
       <c r="V26">
-        <v>507.1597090909091</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>2471.4076</v>
+        <v>11799.321849697</v>
       </c>
       <c r="Y26">
-        <v>1102.33137090909</v>
+        <v>4689.58941818182</v>
       </c>
       <c r="Z26">
-        <v>806.488207272727</v>
+        <v>694.28152</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2540,13 +2540,13 @@
         <v>38.29081215</v>
       </c>
       <c r="D27">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E27">
-        <v>5687.73198075838</v>
+        <v>4882.54878132215</v>
       </c>
       <c r="F27">
-        <v>2398.4076</v>
+        <v>11509.625849697</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1213.89359807</v>
       </c>
       <c r="I27">
-        <v>7801.36352776125</v>
+        <v>6822.73984271903</v>
       </c>
       <c r="J27">
         <v>1250</v>
@@ -2564,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M27">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N27">
         <v>74.39721408</v>
       </c>
       <c r="O27">
-        <v>180.782579281184</v>
+        <v>302.158139534884</v>
       </c>
       <c r="P27">
-        <v>777.3650909090912</v>
+        <v>1299.280000000001</v>
       </c>
       <c r="Q27">
         <v>166.666666666667</v>
@@ -2591,22 +2591,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U27">
-        <v>1356.01827700154</v>
+        <v>2096.38313498336</v>
       </c>
       <c r="V27">
-        <v>521.9149090909092</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>2398.4076</v>
+        <v>11509.625849697</v>
       </c>
       <c r="Y27">
-        <v>1080.43137090909</v>
+        <v>4616.58941818182</v>
       </c>
       <c r="Z27">
-        <v>775.981007272727</v>
+        <v>679.68152</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2620,13 +2620,13 @@
         <v>40.4948285</v>
       </c>
       <c r="D28">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E28">
-        <v>5573.74628178996</v>
+        <v>4773.65145444676</v>
       </c>
       <c r="F28">
-        <v>2325.4076</v>
+        <v>11214.075849697</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>1202.60218405</v>
       </c>
       <c r="I28">
-        <v>8082.61352776125</v>
+        <v>7102.55799311223</v>
       </c>
       <c r="J28">
         <v>1250</v>
@@ -2644,19 +2644,19 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M28">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N28">
         <v>87.89264445000001</v>
       </c>
       <c r="O28">
-        <v>176.182579281184</v>
+        <v>302.623255813954</v>
       </c>
       <c r="P28">
-        <v>757.5850909090912</v>
+        <v>1301.280000000002</v>
       </c>
       <c r="Q28">
         <v>166.666666666667</v>
@@ -2671,22 +2671,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U28">
-        <v>1465.80624044754</v>
+        <v>2204.6903687134</v>
       </c>
       <c r="V28">
-        <v>543.6949090909092</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>2325.4076</v>
+        <v>11214.075849697</v>
       </c>
       <c r="Y28">
-        <v>1058.53137090909</v>
+        <v>4543.58941818182</v>
       </c>
       <c r="Z28">
-        <v>741.376007272727</v>
+        <v>665.08152</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2700,43 +2700,43 @@
         <v>42.8125747</v>
       </c>
       <c r="D29">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E29">
-        <v>4980.63177477037</v>
+        <v>4745.23342996083</v>
       </c>
       <c r="F29">
-        <v>2352.4076</v>
+        <v>11318.525849697</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>645.3360768</v>
+        <v>1182.2661073</v>
       </c>
       <c r="I29">
-        <v>8363.86352776125</v>
+        <v>7381.67659812945</v>
       </c>
       <c r="J29">
-        <v>713.0699695</v>
+        <v>1250</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M29">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N29">
         <v>110.5464674</v>
       </c>
       <c r="O29">
-        <v>177.163974630021</v>
+        <v>303.088372093023</v>
       </c>
       <c r="P29">
-        <v>761.8050909090903</v>
+        <v>1303.279999999999</v>
       </c>
       <c r="Q29">
         <v>166.666666666667</v>
@@ -2751,22 +2751,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U29">
-        <v>1575.37462796664</v>
+        <v>2312.78098797597</v>
       </c>
       <c r="V29">
-        <v>541.4749090909091</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>2352.4076</v>
+        <v>11318.525849697</v>
       </c>
       <c r="Y29">
-        <v>1066.63137090909</v>
+        <v>4570.58941818182</v>
       </c>
       <c r="Z29">
-        <v>750.771007272727</v>
+        <v>670.48152</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2780,43 +2780,43 @@
         <v>45.1303209</v>
       </c>
       <c r="D30">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E30">
-        <v>4294.81203664553</v>
+        <v>4716.81540542228</v>
       </c>
       <c r="F30">
-        <v>2379.4076</v>
+        <v>11422.975849697</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1161.9300305</v>
       </c>
       <c r="I30">
-        <v>8524.30427089875</v>
+        <v>7660.09740663413</v>
       </c>
       <c r="J30">
-        <v>88.0699695</v>
+        <v>1250</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M30">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N30">
         <v>133.2002904</v>
       </c>
       <c r="O30">
-        <v>178.145369978858</v>
+        <v>303.553488372093</v>
       </c>
       <c r="P30">
-        <v>766.0250909090894</v>
+        <v>1305.28</v>
       </c>
       <c r="Q30">
         <v>166.666666666667</v>
@@ -2831,22 +2831,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U30">
-        <v>1684.72387871071</v>
+        <v>2420.65542600002</v>
       </c>
       <c r="V30">
-        <v>539.2549090909092</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>2379.4076</v>
+        <v>11422.975849697</v>
       </c>
       <c r="Y30">
-        <v>1074.73137090909</v>
+        <v>4597.58941818182</v>
       </c>
       <c r="Z30">
-        <v>760.166007272727</v>
+        <v>675.88152</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2860,43 +2860,43 @@
         <v>43.723751</v>
       </c>
       <c r="D31">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E31">
-        <v>4582.53761804087</v>
+        <v>4972.19857581151</v>
       </c>
       <c r="F31">
-        <v>2306.4076</v>
+        <v>11147.425849697</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1132.7777633</v>
       </c>
       <c r="I31">
-        <v>8544.120014036251</v>
+        <v>7937.82216311754</v>
       </c>
       <c r="J31">
-        <v>117.2222367</v>
+        <v>1250</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M31">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N31">
         <v>160.9459877</v>
       </c>
       <c r="O31">
-        <v>155.870951374207</v>
+        <v>280.762790697674</v>
       </c>
       <c r="P31">
-        <v>670.2450909090901</v>
+        <v>1207.279999999998</v>
       </c>
       <c r="Q31">
         <v>166.666666666667</v>
@@ -2911,22 +2911,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U31">
-        <v>1793.85443095329</v>
+        <v>2528.31411514802</v>
       </c>
       <c r="V31">
-        <v>537.0349090909092</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>2306.4076</v>
+        <v>11147.425849697</v>
       </c>
       <c r="Y31">
-        <v>1052.83137090909</v>
+        <v>4524.58941818182</v>
       </c>
       <c r="Z31">
-        <v>739.561007272727</v>
+        <v>661.28152</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -2940,43 +2940,43 @@
         <v>42.3171811</v>
       </c>
       <c r="D32">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E32">
-        <v>4893.51901338971</v>
+        <v>5252.0003508519</v>
       </c>
       <c r="F32">
-        <v>2333.4076</v>
+        <v>11251.875849697</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1103.6254961</v>
       </c>
       <c r="I32">
-        <v>8570.49501729375</v>
+        <v>8214.85260770975</v>
       </c>
       <c r="J32">
-        <v>146.3745039</v>
+        <v>1250</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M32">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N32">
         <v>188.691685</v>
       </c>
       <c r="O32">
-        <v>156.852346723044</v>
+        <v>281.227906976744</v>
       </c>
       <c r="P32">
-        <v>674.4650909090892</v>
+        <v>1209.279999999999</v>
       </c>
       <c r="Q32">
         <v>166.666666666667</v>
@@ -2991,22 +2991,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U32">
-        <v>1902.76672209138</v>
+        <v>2635.75748691772</v>
       </c>
       <c r="V32">
-        <v>534.8149090909092</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>2333.4076</v>
+        <v>11251.875849697</v>
       </c>
       <c r="Y32">
-        <v>1060.93137090909</v>
+        <v>4551.58941818182</v>
       </c>
       <c r="Z32">
-        <v>748.956007272727</v>
+        <v>666.68152</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -3020,43 +3020,43 @@
         <v>40.78065825</v>
       </c>
       <c r="D33">
-        <v>0.3647</v>
+        <v>0.35220001</v>
       </c>
       <c r="E33">
-        <v>4994.50040873855</v>
+        <v>4773.31539870392</v>
       </c>
       <c r="F33">
-        <v>2360.4076</v>
+        <v>11356.325849697</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>553.41083807105</v>
       </c>
       <c r="I33">
-        <v>8603.429280671249</v>
+        <v>8491.190476190481</v>
       </c>
       <c r="J33">
-        <v>162.53653035</v>
+        <v>715.94736842105</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M33">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N33">
         <v>203.3171886</v>
       </c>
       <c r="O33">
-        <v>157.833742071882</v>
+        <v>281.693023255814</v>
       </c>
       <c r="P33">
-        <v>678.6850909090925</v>
+        <v>1211.28</v>
       </c>
       <c r="Q33">
         <v>166.666666666667</v>
@@ -3071,22 +3071,22 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="U33">
-        <v>2011.4611886472</v>
+        <v>2742.98597194389</v>
       </c>
       <c r="V33">
-        <v>532.5949090909091</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>2360.4076</v>
+        <v>11356.325849697</v>
       </c>
       <c r="Y33">
-        <v>1069.03137090909</v>
+        <v>4578.58941818182</v>
       </c>
       <c r="Z33">
-        <v>758.351007272727</v>
+        <v>672.08152</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -3100,16 +3100,16 @@
         <v>39.2441354</v>
       </c>
       <c r="D34">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E34">
-        <v>4759.05150855572</v>
+        <v>4032.90241764663</v>
       </c>
       <c r="F34">
-        <v>2287.4076</v>
+        <v>11080.775849697</v>
       </c>
       <c r="G34">
-        <v>169.763628865</v>
+        <v>83.3636288650022</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3118,25 +3118,25 @@
         <v>8640</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>90.9473684210503</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M34">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N34">
         <v>217.9426921</v>
       </c>
       <c r="O34">
-        <v>158.815137420719</v>
+        <v>282.158139534884</v>
       </c>
       <c r="P34">
-        <v>682.9050909090917</v>
+        <v>1213.280000000001</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3151,22 +3151,22 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>2119.9382662699</v>
+        <v>2850</v>
       </c>
       <c r="V34">
-        <v>530.3749090909091</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>2287.4076</v>
+        <v>11080.775849697</v>
       </c>
       <c r="Y34">
-        <v>1047.13137090909</v>
+        <v>4505.58941818182</v>
       </c>
       <c r="Z34">
-        <v>737.746007272727</v>
+        <v>657.48152</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -3180,13 +3180,13 @@
         <v>42.53360225</v>
       </c>
       <c r="D35">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E35">
-        <v>4748.89996623706</v>
+        <v>3935.85785207215</v>
       </c>
       <c r="F35">
-        <v>2214.4076</v>
+        <v>10805.225849697</v>
       </c>
       <c r="G35">
         <v>185.8965665325</v>
@@ -3204,19 +3204,19 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M35">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N35">
         <v>238.2141986</v>
       </c>
       <c r="O35">
-        <v>159.796532769556</v>
+        <v>282.623255813954</v>
       </c>
       <c r="P35">
-        <v>687.1250909090908</v>
+        <v>1215.280000000002</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3231,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>2115.69838973736</v>
+        <v>2844.3</v>
       </c>
       <c r="V35">
-        <v>528.1549090909092</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>2214.4076</v>
+        <v>10805.225849697</v>
       </c>
       <c r="Y35">
-        <v>1025.23137090909</v>
+        <v>4432.58941818182</v>
       </c>
       <c r="Z35">
-        <v>717.1410072727271</v>
+        <v>642.88152</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -3260,13 +3260,13 @@
         <v>45.8230691</v>
       </c>
       <c r="D36">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E36">
-        <v>4762.41167982735</v>
+        <v>3950.05970519733</v>
       </c>
       <c r="F36">
-        <v>2141.4076</v>
+        <v>10529.675849697</v>
       </c>
       <c r="G36">
         <v>202.029504105</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>8640</v>
+        <v>8618.4</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3284,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M36">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N36">
         <v>258.485705</v>
       </c>
       <c r="O36">
-        <v>184.441183932347</v>
+        <v>306.751627906977</v>
       </c>
       <c r="P36">
-        <v>793.0970909090921</v>
+        <v>1319.032000000001</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>2111.46699295789</v>
+        <v>2838.6114</v>
       </c>
       <c r="V36">
-        <v>525.9349090909092</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>2141.4076</v>
+        <v>10529.675849697</v>
       </c>
       <c r="Y36">
-        <v>1003.33137090909</v>
+        <v>4359.58941818182</v>
       </c>
       <c r="Z36">
-        <v>696.536007272727</v>
+        <v>628.28152</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -3340,13 +3340,13 @@
         <v>44.8789446</v>
       </c>
       <c r="D37">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E37">
-        <v>5039.72577594246</v>
+        <v>4227.57780131244</v>
       </c>
       <c r="F37">
-        <v>2068.4076</v>
+        <v>10254.125849697</v>
       </c>
       <c r="G37">
         <v>209.637268455</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>8640</v>
+        <v>8596.853999999999</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3364,19 +3364,19 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M37">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N37">
         <v>265.5497535</v>
       </c>
       <c r="O37">
-        <v>199.363044397463</v>
+        <v>321.157209302326</v>
       </c>
       <c r="P37">
-        <v>857.2610909090909</v>
+        <v>1380.976000000002</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3391,22 +3391,22 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>2107.24405897197</v>
+        <v>2832.9341772</v>
       </c>
       <c r="V37">
-        <v>523.7149090909091</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>2068.4076</v>
+        <v>10254.125849697</v>
       </c>
       <c r="Y37">
-        <v>981.431370909091</v>
+        <v>4286.58941818182</v>
       </c>
       <c r="Z37">
-        <v>675.931007272727</v>
+        <v>613.68152</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -3420,13 +3420,13 @@
         <v>43.9348201</v>
       </c>
       <c r="D38">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E38">
-        <v>5097.03987215258</v>
+        <v>4285.09589752256</v>
       </c>
       <c r="F38">
-        <v>2195.4076</v>
+        <v>10738.575849697</v>
       </c>
       <c r="G38">
         <v>217.24503271</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>8640</v>
+        <v>8575.361865000001</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3444,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M38">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N38">
         <v>272.6138019</v>
       </c>
       <c r="O38">
-        <v>214.284904862579</v>
+        <v>335.562790697674</v>
       </c>
       <c r="P38">
-        <v>921.4250909090897</v>
+        <v>1442.919999999998</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>2103.02957085403</v>
+        <v>2827.2683088456</v>
       </c>
       <c r="V38">
-        <v>521.4949090909092</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>2195.4076</v>
+        <v>10738.575849697</v>
       </c>
       <c r="Y38">
-        <v>1019.53137090909</v>
+        <v>4413.58941818182</v>
       </c>
       <c r="Z38">
-        <v>715.326007272727</v>
+        <v>639.08152</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -3500,13 +3500,13 @@
         <v>43.0984044</v>
       </c>
       <c r="D39">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E39">
-        <v>5075.55569593037</v>
+        <v>4262.68986083523</v>
       </c>
       <c r="F39">
-        <v>2280.502</v>
+        <v>11063.784569697</v>
       </c>
       <c r="G39">
         <v>231.133860095</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>8640</v>
+        <v>8553.923460337501</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3524,19 +3524,19 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M39">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N39">
         <v>286.3972045</v>
       </c>
       <c r="O39">
-        <v>206.68955602537</v>
+        <v>327.451162790698</v>
       </c>
       <c r="P39">
-        <v>888.765090909091</v>
+        <v>1408.040000000001</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>2098.82351171232</v>
+        <v>2821.61377222791</v>
       </c>
       <c r="V39">
-        <v>519.2749090909092</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>2280.502</v>
+        <v>11063.784569697</v>
       </c>
       <c r="Y39">
-        <v>1045.05969090909</v>
+        <v>4498.68381818182</v>
       </c>
       <c r="Z39">
-        <v>742.149327272727</v>
+        <v>656.1004</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -3580,13 +3580,13 @@
         <v>42.2619887</v>
       </c>
       <c r="D40">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E40">
-        <v>5178.50872891549</v>
+        <v>4364.77080079709</v>
       </c>
       <c r="F40">
-        <v>2247.272</v>
+        <v>10943.360569697</v>
       </c>
       <c r="G40">
         <v>245.022687575</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>8640</v>
+        <v>8532.53865168666</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3604,19 +3604,19 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M40">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N40">
         <v>300.1806072</v>
       </c>
       <c r="O40">
-        <v>223.531416490486</v>
+        <v>342.660465116279</v>
       </c>
       <c r="P40">
-        <v>961.1850909090898</v>
+        <v>1473.44</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3631,22 +3631,22 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>2094.6258646889</v>
+        <v>2815.97054468345</v>
       </c>
       <c r="V40">
-        <v>512.2549090909092</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>2247.272</v>
+        <v>10943.360569697</v>
       </c>
       <c r="Y40">
-        <v>1035.09069090909</v>
+        <v>4465.45381818182</v>
       </c>
       <c r="Z40">
-        <v>736.2753272727271</v>
+        <v>649.4544</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -3660,13 +3660,13 @@
         <v>41.5971712</v>
       </c>
       <c r="D41">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E41">
-        <v>5011.63323525118</v>
+        <v>4196.14070248163</v>
       </c>
       <c r="F41">
-        <v>2414.042</v>
+        <v>11581.936569697</v>
       </c>
       <c r="G41">
         <v>255.22934403</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>8640</v>
+        <v>8511.20730505744</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3684,19 +3684,19 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M41">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N41">
         <v>310.2596386</v>
       </c>
       <c r="O41">
-        <v>216.862579281184</v>
+        <v>334.638139534884</v>
       </c>
       <c r="P41">
-        <v>932.5090909090911</v>
+        <v>1438.944000000001</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>2090.43661295952</v>
+        <v>2810.33860359409</v>
       </c>
       <c r="V41">
-        <v>506.4349090909092</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>2414.042</v>
+        <v>11581.936569697</v>
       </c>
       <c r="Y41">
-        <v>1085.12169090909</v>
+        <v>4632.22381818182</v>
       </c>
       <c r="Z41">
-        <v>789.701327272727</v>
+        <v>682.8084</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -3740,13 +3740,13 @@
         <v>40.9323537</v>
       </c>
       <c r="D42">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E42">
-        <v>5094.61820670316</v>
+        <v>4276.34781346849</v>
       </c>
       <c r="F42">
-        <v>2580.812</v>
+        <v>12232.512569697</v>
       </c>
       <c r="G42">
         <v>265.436000485</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>8640</v>
+        <v>8489.929286794801</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3764,19 +3764,19 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M42">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N42">
         <v>320.33867</v>
       </c>
       <c r="O42">
-        <v>260.054207188161</v>
+        <v>373.127441860465</v>
       </c>
       <c r="P42">
-        <v>1118.233090909092</v>
+        <v>1604.447999999999</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>2086.2557397336</v>
+        <v>2804.7179263869</v>
       </c>
       <c r="V42">
-        <v>486.2149090909091</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>2580.812</v>
+        <v>12232.512569697</v>
       </c>
       <c r="Y42">
-        <v>1135.15269090909</v>
+        <v>4798.99381818182</v>
       </c>
       <c r="Z42">
-        <v>851.527327272727</v>
+        <v>716.1624</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -3820,13 +3820,13 @@
         <v>40.61608455</v>
       </c>
       <c r="D43">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E43">
-        <v>5279.17960032938</v>
+        <v>4459.80688151331</v>
       </c>
       <c r="F43">
-        <v>2747.582</v>
+        <v>12877.088569697</v>
       </c>
       <c r="G43">
         <v>272.4141417425</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>8640</v>
+        <v>8468.704463577809</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3844,19 +3844,19 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M43">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N43">
         <v>327.3678127</v>
       </c>
       <c r="O43">
-        <v>301.593742071882</v>
+        <v>411.639069767442</v>
       </c>
       <c r="P43">
-        <v>1296.853090909093</v>
+        <v>1770.048</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3871,22 +3871,22 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>2082.08322825413</v>
+        <v>2799.10849053412</v>
       </c>
       <c r="V43">
-        <v>473.1949090909092</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X43">
-        <v>2747.582</v>
+        <v>12877.088569697</v>
       </c>
       <c r="Y43">
-        <v>1185.18369090909</v>
+        <v>4965.76381818182</v>
       </c>
       <c r="Z43">
-        <v>909.153327272727</v>
+        <v>749.5164</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -3900,13 +3900,13 @@
         <v>40.2998154</v>
       </c>
       <c r="D44">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E44">
-        <v>5666.53169163002</v>
+        <v>4843.26594955814</v>
       </c>
       <c r="F44">
-        <v>2718.6344</v>
+        <v>12787.937689697</v>
       </c>
       <c r="G44">
         <v>279.392283</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>8640</v>
+        <v>8447.53270241887</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3924,19 +3924,19 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M44">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N44">
         <v>334.3969554</v>
       </c>
       <c r="O44">
-        <v>345.923974630021</v>
+        <v>450.150697674419</v>
       </c>
       <c r="P44">
-        <v>1487.47309090909</v>
+        <v>1935.648000000002</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>2077.91906179762</v>
+        <v>2793.51027355306</v>
       </c>
       <c r="V44">
-        <v>448.1749090909092</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>2718.6344</v>
+        <v>12787.937689697</v>
       </c>
       <c r="Y44">
-        <v>1176.49941090909</v>
+        <v>4936.81621818182</v>
       </c>
       <c r="Z44">
-        <v>915.064047272727</v>
+        <v>743.7268800000001</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -3980,13 +3980,13 @@
         <v>39.99843145</v>
       </c>
       <c r="D45">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E45">
-        <v>5422.93830467624</v>
+        <v>4571.98253469738</v>
       </c>
       <c r="F45">
-        <v>2877.0659</v>
+        <v>13490.160989697</v>
       </c>
       <c r="G45">
         <v>281.3076048375</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>8640</v>
+        <v>8426.413870662829</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4004,19 +4004,19 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M45">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N45">
         <v>336.1116997</v>
       </c>
       <c r="O45">
-        <v>379.245909513742</v>
+        <v>455.514418604651</v>
       </c>
       <c r="P45">
-        <v>1630.757410909091</v>
+        <v>1958.711999999999</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -4031,22 +4031,22 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>2073.76322367403</v>
+        <v>2787.92325300595</v>
       </c>
       <c r="V45">
-        <v>327.9545890909092</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>2877.0659</v>
+        <v>13490.160989697</v>
       </c>
       <c r="Y45">
-        <v>1224.02886090909</v>
+        <v>5095.24771818182</v>
       </c>
       <c r="Z45">
-        <v>1032.72201727273</v>
+        <v>775.41318</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -4060,13 +4060,13 @@
         <v>39.6970475</v>
       </c>
       <c r="D46">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E46">
-        <v>5353.31764330386</v>
+        <v>4500.69911983663</v>
       </c>
       <c r="F46">
-        <v>3035.4974</v>
+        <v>14099.119889697</v>
       </c>
       <c r="G46">
         <v>283.222926675</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>8640</v>
+        <v>8405.347835986169</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -4084,19 +4084,19 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M46">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N46">
         <v>337.826444</v>
       </c>
       <c r="O46">
-        <v>386.540569978858</v>
+        <v>460.878139534884</v>
       </c>
       <c r="P46">
-        <v>1662.124450909089</v>
+        <v>1981.776000000001</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4111,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>2069.61569722668</v>
+        <v>2782.34740649994</v>
       </c>
       <c r="V46">
-        <v>319.6515490909092</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>3035.4974</v>
+        <v>14099.119889697</v>
       </c>
       <c r="Y46">
-        <v>1271.55831090909</v>
+        <v>5253.67921818182</v>
       </c>
       <c r="Z46">
-        <v>1085.09490727273</v>
+        <v>807.09948</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -4140,13 +4140,13 @@
         <v>39.0792272</v>
       </c>
       <c r="D47">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E47">
-        <v>5680.78188590386</v>
+        <v>4826.15456243663</v>
       </c>
       <c r="F47">
-        <v>3193.9289</v>
+        <v>14709.518789697</v>
       </c>
       <c r="G47">
         <v>289.571484075</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>8640</v>
+        <v>8384.3344663962</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -4164,19 +4164,19 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M47">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N47">
         <v>343.8913157</v>
       </c>
       <c r="O47">
-        <v>395.353369978858</v>
+        <v>467.358139534884</v>
       </c>
       <c r="P47">
-        <v>1700.019490909089</v>
+        <v>2009.640000000001</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -4191,22 +4191,22 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>2065.47646583223</v>
+        <v>2776.78271168694</v>
       </c>
       <c r="V47">
-        <v>309.6205090909092</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>3193.9289</v>
+        <v>14709.518789697</v>
       </c>
       <c r="Y47">
-        <v>1319.08776090909</v>
+        <v>5412.11071818182</v>
       </c>
       <c r="Z47">
-        <v>1138.47579727273</v>
+        <v>838.78578</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -4220,13 +4220,13 @@
         <v>38.4614069</v>
       </c>
       <c r="D48">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E48">
-        <v>5608.24612850386</v>
+        <v>4751.61000503663</v>
       </c>
       <c r="F48">
-        <v>3352.3604</v>
+        <v>15319.917689697</v>
       </c>
       <c r="G48">
         <v>295.920041475</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>8640</v>
+        <v>8363.37363023021</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -4244,19 +4244,19 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M48">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N48">
         <v>349.9561874</v>
       </c>
       <c r="O48">
-        <v>404.166169978858</v>
+        <v>473.838139534884</v>
       </c>
       <c r="P48">
-        <v>1737.91453090909</v>
+        <v>2037.504000000001</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4271,22 +4271,22 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>2061.34551290056</v>
+        <v>2771.22914626356</v>
       </c>
       <c r="V48">
-        <v>299.5894690909092</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X48">
-        <v>3352.3604</v>
+        <v>15319.917689697</v>
       </c>
       <c r="Y48">
-        <v>1366.61721090909</v>
+        <v>5570.54221818182</v>
       </c>
       <c r="Z48">
-        <v>1191.85668727273</v>
+        <v>870.47208</v>
       </c>
     </row>
     <row r="49" spans="1:26">
@@ -4300,13 +4300,13 @@
         <v>35.2655999</v>
       </c>
       <c r="D49">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E49">
-        <v>5493.20845085223</v>
+        <v>4632.69487622221</v>
       </c>
       <c r="F49">
-        <v>3510.7919</v>
+        <v>15938.092589697</v>
       </c>
       <c r="G49">
         <v>302.968472615</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>8640</v>
+        <v>8342.465196154641</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -4324,19 +4324,19 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M49">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N49">
         <v>354.1797816</v>
       </c>
       <c r="O49">
-        <v>421.17692346723</v>
+        <v>486.346046511628</v>
       </c>
       <c r="P49">
-        <v>1811.060770909089</v>
+        <v>2091.288</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4351,22 +4351,22 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>2057.22282187476</v>
+        <v>2765.68668797104</v>
       </c>
       <c r="V49">
-        <v>280.2272290909092</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>3510.7919</v>
+        <v>15938.092589697</v>
       </c>
       <c r="Y49">
-        <v>1414.14666090909</v>
+        <v>5728.97371818182</v>
       </c>
       <c r="Z49">
-        <v>1250.68077727273</v>
+        <v>902.15838</v>
       </c>
     </row>
     <row r="50" spans="1:26">
@@ -4380,43 +4380,43 @@
         <v>32.0697929</v>
       </c>
       <c r="D50">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E50">
-        <v>5378.1707732956</v>
+        <v>4738.68426999049</v>
       </c>
       <c r="F50">
-        <v>4196.43692</v>
+        <v>18559.678865697</v>
       </c>
       <c r="G50">
-        <v>310.01690366</v>
+        <v>85.1123811723028</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>8640</v>
+        <v>8321.60903316425</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>236.741602618629</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M50">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N50">
         <v>358.4033757</v>
       </c>
       <c r="O50">
-        <v>438.187676955603</v>
+        <v>498.853953488372</v>
       </c>
       <c r="P50">
-        <v>1884.207010909093</v>
+        <v>2145.072</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -4431,22 +4431,22 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>2053.10837623101</v>
+        <v>2760.1553145951</v>
       </c>
       <c r="V50">
-        <v>260.8649890909092</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X50">
-        <v>4196.43692</v>
+        <v>18559.678865697</v>
       </c>
       <c r="Y50">
-        <v>1619.84016690909</v>
+        <v>6414.61873818182</v>
       </c>
       <c r="Z50">
-        <v>1467.66892327273</v>
+        <v>1039.287384</v>
       </c>
     </row>
     <row r="51" spans="1:26">
@@ -4460,46 +4460,46 @@
         <v>28.1248745</v>
       </c>
       <c r="D51">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E51">
-        <v>5242.40375650514</v>
+        <v>4690.1088</v>
       </c>
       <c r="F51">
-        <v>4312.94948</v>
+        <v>19016.855393697</v>
       </c>
       <c r="G51">
-        <v>310.99567859</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>8640</v>
+        <v>8357.03114120327</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>327.3638722</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M51">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N51">
         <v>355.4887467</v>
       </c>
       <c r="O51">
-        <v>453.399435095138</v>
+        <v>500</v>
       </c>
       <c r="P51">
-        <v>1949.617570909094</v>
+        <v>2150</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>14.3893333333334</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4508,25 +4508,25 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>43.16800000000021</v>
       </c>
       <c r="U51">
-        <v>2049.00215947855</v>
+        <v>2754.63500396591</v>
       </c>
       <c r="V51">
-        <v>243.5504290909092</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X51">
-        <v>4312.94948</v>
+        <v>19016.855393697</v>
       </c>
       <c r="Y51">
-        <v>1654.79393490909</v>
+        <v>6531.13129818182</v>
       </c>
       <c r="Z51">
-        <v>1512.72285127273</v>
+        <v>1062.589896</v>
       </c>
     </row>
     <row r="52" spans="1:26">
@@ -4540,46 +4540,46 @@
         <v>24.1799561</v>
       </c>
       <c r="D52">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E52">
-        <v>5095.473949017</v>
+        <v>4556.9424</v>
       </c>
       <c r="F52">
-        <v>4429.46204</v>
+        <v>19434.031921697</v>
       </c>
       <c r="G52">
-        <v>311.97445352</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>8640</v>
+        <v>8413.887482997759</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>328.3941616</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M52">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N52">
         <v>352.5741177</v>
       </c>
       <c r="O52">
-        <v>457.448402536998</v>
+        <v>500</v>
       </c>
       <c r="P52">
-        <v>1967.028130909091</v>
+        <v>2150</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>30.4213333333334</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4588,25 +4588,25 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>91.26400000000021</v>
       </c>
       <c r="U52">
-        <v>2044.90415515959</v>
+        <v>2749.12573395797</v>
       </c>
       <c r="V52">
-        <v>274.2358690909092</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X52">
-        <v>4429.46204</v>
+        <v>19434.031921697</v>
       </c>
       <c r="Y52">
-        <v>1689.74770290909</v>
+        <v>6647.64385818182</v>
       </c>
       <c r="Z52">
-        <v>1529.77677927273</v>
+        <v>1085.892408</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -4620,46 +4620,46 @@
         <v>19.2233444</v>
       </c>
       <c r="D53">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E53">
-        <v>5207.59150288467</v>
+        <v>4670.3152</v>
       </c>
       <c r="F53">
-        <v>4545.9746</v>
+        <v>19888.242049697</v>
       </c>
       <c r="G53">
-        <v>311.94129035</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>8640</v>
+        <v>8470.84637767027</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>328.359253</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M53">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N53">
         <v>347.5825974</v>
       </c>
       <c r="O53">
-        <v>469.532793234672</v>
+        <v>500</v>
       </c>
       <c r="P53">
-        <v>2018.991010909089</v>
+        <v>2150</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>43.1573333333334</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4668,25 +4668,25 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>129.4720000000002</v>
       </c>
       <c r="U53">
-        <v>2040.81434684927</v>
+        <v>2743.62748249006</v>
       </c>
       <c r="V53">
-        <v>260.4809890909092</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>4545.9746</v>
+        <v>19888.242049697</v>
       </c>
       <c r="Y53">
-        <v>1724.70147090909</v>
+        <v>6764.15641818182</v>
       </c>
       <c r="Z53">
-        <v>1572.75422727273</v>
+        <v>1109.19492</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -4700,46 +4700,46 @@
         <v>14.2667327</v>
       </c>
       <c r="D54">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E54">
-        <v>5217.69975452177</v>
+        <v>4683.688</v>
       </c>
       <c r="F54">
-        <v>4662.48716</v>
+        <v>20335.252177697</v>
       </c>
       <c r="G54">
-        <v>311.908127085</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>8640</v>
+        <v>8527.65458431359</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>328.3243443</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M54">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N54">
         <v>342.591077</v>
       </c>
       <c r="O54">
-        <v>479.607881606765</v>
+        <v>500</v>
       </c>
       <c r="P54">
-        <v>2062.313890909089</v>
+        <v>2150</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>55.8933333333334</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4748,25 +4748,25 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>167.6800000000002</v>
       </c>
       <c r="U54">
-        <v>2036.73271815558</v>
+        <v>2738.14022752508</v>
       </c>
       <c r="V54">
-        <v>255.3661090909092</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>4662.48716</v>
+        <v>20335.252177697</v>
       </c>
       <c r="Y54">
-        <v>1759.65523890909</v>
+        <v>6880.66897818182</v>
       </c>
       <c r="Z54">
-        <v>1610.69167527273</v>
+        <v>1132.497432</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -4780,46 +4780,46 @@
         <v>10.5524517</v>
       </c>
       <c r="D55">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E55">
-        <v>5281.08418228351</v>
+        <v>4747.0524</v>
       </c>
       <c r="F55">
-        <v>4778.99972</v>
+        <v>20782.262305697</v>
       </c>
       <c r="G55">
-        <v>308.5932063</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>8640</v>
+        <v>8584.312479624061</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>324.834954</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M55">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N55">
         <v>335.3874057</v>
       </c>
       <c r="O55">
-        <v>489.67738858351</v>
+        <v>500</v>
       </c>
       <c r="P55">
-        <v>2105.612770909093</v>
+        <v>2150</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>68.6213333333333</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4828,25 +4828,25 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>205.8639999999999</v>
       </c>
       <c r="U55">
-        <v>2032.65925271927</v>
+        <v>2732.66394707003</v>
       </c>
       <c r="V55">
-        <v>250.2512290909092</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X55">
-        <v>4778.99972</v>
+        <v>20782.262305697</v>
       </c>
       <c r="Y55">
-        <v>1794.60900690909</v>
+        <v>6997.18153818182</v>
       </c>
       <c r="Z55">
-        <v>1648.62912327273</v>
+        <v>1155.799944</v>
       </c>
     </row>
     <row r="56" spans="1:26">
@@ -4860,13 +4860,13 @@
         <v>6.8381707</v>
       </c>
       <c r="D56">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E56">
-        <v>5344.46861014025</v>
+        <v>4505.13851458</v>
       </c>
       <c r="F56">
-        <v>4895.51228</v>
+        <v>21229.272433697</v>
       </c>
       <c r="G56">
         <v>305.27828542</v>
@@ -4884,22 +4884,22 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M56">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N56">
         <v>328.1837343</v>
       </c>
       <c r="O56">
-        <v>499.746895560254</v>
+        <v>500</v>
       </c>
       <c r="P56">
-        <v>2148.911650909092</v>
+        <v>2150</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>81.3493333333334</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -4908,25 +4908,25 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>244.0480000000002</v>
       </c>
       <c r="U56">
-        <v>2028.59393421383</v>
+        <v>2727.19861917589</v>
       </c>
       <c r="V56">
-        <v>245.1363490909092</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>4895.51228</v>
+        <v>21229.272433697</v>
       </c>
       <c r="Y56">
-        <v>1829.56277490909</v>
+        <v>7113.69409818182</v>
       </c>
       <c r="Z56">
-        <v>1686.56657127273</v>
+        <v>1179.102456</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -4940,34 +4940,34 @@
         <v>8.248754549999999</v>
       </c>
       <c r="D57">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E57">
-        <v>5356.0057590525</v>
+        <v>3926.3013590525</v>
       </c>
       <c r="F57">
-        <v>5012.02484</v>
+        <v>21676.282561697</v>
       </c>
       <c r="G57">
-        <v>293.9942409475</v>
+        <v>887.7442409475</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>8640</v>
+        <v>8618.4</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M57">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N57">
         <v>317.7163766</v>
@@ -4979,34 +4979,34 @@
         <v>2150</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>84.80533333333339</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>14.3945309090911</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>254.4160000000002</v>
       </c>
       <c r="U57">
-        <v>2024.5367463454</v>
+        <v>2721.74422193754</v>
       </c>
       <c r="V57">
-        <v>240.0214690909092</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>5012.02484</v>
+        <v>21676.282561697</v>
       </c>
       <c r="Y57">
-        <v>1864.51654290909</v>
+        <v>7230.20665818182</v>
       </c>
       <c r="Z57">
-        <v>1724.50401927273</v>
+        <v>1202.404968</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -5020,28 +5020,28 @@
         <v>9.659338399999999</v>
       </c>
       <c r="D58">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E58">
-        <v>3990.93702635798</v>
+        <v>3797.35333840872</v>
       </c>
       <c r="F58">
-        <v>5128.5374</v>
+        <v>22122.174289697</v>
       </c>
       <c r="G58">
-        <v>876.460196475</v>
+        <v>1470.210196475</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>8640</v>
+        <v>8432.380315789471</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="L58">
         <v>1000</v>
@@ -5053,10 +5053,10 @@
         <v>307.2490189</v>
       </c>
       <c r="O58">
-        <v>67.3972228329811</v>
+        <v>445.298604651163</v>
       </c>
       <c r="P58">
-        <v>289.8080581818187</v>
+        <v>1914.784000000001</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -5071,22 +5071,22 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>2016.48919204463</v>
+        <v>2716.30073349366</v>
       </c>
       <c r="V58">
-        <v>1624.975941818184</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X58">
-        <v>5128.5374</v>
+        <v>22122.174289697</v>
       </c>
       <c r="Y58">
-        <v>3056.74303818182</v>
+        <v>7346.71921818182</v>
       </c>
       <c r="Z58">
-        <v>2108.84040545455</v>
+        <v>1225.70748</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -5100,13 +5100,13 @@
         <v>10.15272495</v>
       </c>
       <c r="D59">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E59">
-        <v>3462.21793177118</v>
+        <v>3855.60117405448</v>
       </c>
       <c r="F59">
-        <v>5245.04996</v>
+        <v>22589.858017697</v>
       </c>
       <c r="G59">
         <v>1465.6544538525</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>8466.388888888891</v>
+        <v>8082.35199657895</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -5133,10 +5133,10 @@
         <v>302.9468869</v>
       </c>
       <c r="O59">
-        <v>77.8723856236788</v>
+        <v>448.81488372093</v>
       </c>
       <c r="P59">
-        <v>334.8512581818188</v>
+        <v>1929.903999999999</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -5151,22 +5151,22 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>1873.56732477165</v>
+        <v>2571.97924313778</v>
       </c>
       <c r="V59">
-        <v>1595.052741818184</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>5245.04996</v>
+        <v>22589.858017697</v>
       </c>
       <c r="Y59">
-        <v>3091.69680618182</v>
+        <v>7463.23177818182</v>
       </c>
       <c r="Z59">
-        <v>2161.24937345455</v>
+        <v>1249.009992</v>
       </c>
     </row>
     <row r="60" spans="1:26">
@@ -5180,13 +5180,13 @@
         <v>10.6461115</v>
       </c>
       <c r="D60">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E60">
-        <v>3518.20697681426</v>
+        <v>3913.84900979523</v>
       </c>
       <c r="F60">
-        <v>5238.422</v>
+        <v>22557.207769697</v>
       </c>
       <c r="G60">
         <v>1461.098711135</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>8119.16666666667</v>
+        <v>7733.19874816645</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v>298.6447548</v>
       </c>
       <c r="O60">
-        <v>79.3056879492601</v>
+        <v>452.331162790698</v>
       </c>
       <c r="P60">
-        <v>341.0144581818184</v>
+        <v>1945.024000000001</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -5231,22 +5231,22 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>1730.93130123322</v>
+        <v>2427.94639576262</v>
       </c>
       <c r="V60">
-        <v>1604.009541818184</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>5238.422</v>
+        <v>22557.207769697</v>
       </c>
       <c r="Y60">
-        <v>3089.70841818182</v>
+        <v>7456.60381818182</v>
       </c>
       <c r="Z60">
-        <v>2154.03618545454</v>
+        <v>1247.6844</v>
       </c>
     </row>
     <row r="61" spans="1:26">
@@ -5260,13 +5260,13 @@
         <v>9.09654315</v>
       </c>
       <c r="D61">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E61">
-        <v>3695.54090366327</v>
+        <v>4090.45132734192</v>
       </c>
       <c r="F61">
-        <v>5231.79404</v>
+        <v>22535.711121697</v>
       </c>
       <c r="G61">
         <v>1440.7553703325</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>7771.94444444444</v>
+        <v>7384.91838287498</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -5293,10 +5293,10 @@
         <v>275.6811435</v>
       </c>
       <c r="O61">
-        <v>86.2962739957719</v>
+        <v>458.292093023256</v>
       </c>
       <c r="P61">
-        <v>371.0739781818191</v>
+        <v>1970.656000000001</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -5311,22 +5311,22 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>1588.58054974186</v>
+        <v>2284.20161408221</v>
       </c>
       <c r="V61">
-        <v>1599.582021818184</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X61">
-        <v>5231.79404</v>
+        <v>22535.711121697</v>
       </c>
       <c r="Y61">
-        <v>3087.72003018182</v>
+        <v>7449.97585818182</v>
       </c>
       <c r="Z61">
-        <v>2154.63051745455</v>
+        <v>1246.358808</v>
       </c>
     </row>
     <row r="62" spans="1:26">
@@ -5340,13 +5340,13 @@
         <v>7.5469748</v>
       </c>
       <c r="D62">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E62">
-        <v>3784.03762130496</v>
+        <v>4167.05364498361</v>
       </c>
       <c r="F62">
-        <v>5225.16608</v>
+        <v>22554.214473697</v>
       </c>
       <c r="G62">
         <v>1420.412029435</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>7424.72222222222</v>
+        <v>7037.50871849674</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5373,10 +5373,10 @@
         <v>252.7175321</v>
       </c>
       <c r="O62">
-        <v>104.449650739958</v>
+        <v>464.253023255814</v>
       </c>
       <c r="P62">
-        <v>449.1334981818194</v>
+        <v>1996.288</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -5391,22 +5391,22 @@
         <v>0</v>
       </c>
       <c r="U62">
-        <v>1446.51449975349</v>
+        <v>2140.74432196515</v>
       </c>
       <c r="V62">
-        <v>1547.154501818184</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X62">
-        <v>5225.16608</v>
+        <v>22554.214473697</v>
       </c>
       <c r="Y62">
-        <v>3085.73164218182</v>
+        <v>7443.34789818182</v>
       </c>
       <c r="Z62">
-        <v>2183.22484945455</v>
+        <v>1245.033216</v>
       </c>
     </row>
     <row r="63" spans="1:26">
@@ -5420,13 +5420,13 @@
         <v>6.86442885</v>
       </c>
       <c r="D63">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E63">
-        <v>3873.88519760781</v>
+        <v>4238.33337012366</v>
       </c>
       <c r="F63">
-        <v>5218.53812</v>
+        <v>22596.617025697</v>
       </c>
       <c r="G63">
         <v>1405.3092345275</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>7077.5</v>
+        <v>6690.96757827945</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -5453,10 +5453,10 @@
         <v>236.1373073</v>
       </c>
       <c r="O63">
-        <v>129.194432135307</v>
+        <v>470.135813953489</v>
       </c>
       <c r="P63">
-        <v>555.5360581818201</v>
+        <v>2021.584000000003</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -5471,22 +5471,22 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>1304.73258186509</v>
+        <v>1997.57394443233</v>
       </c>
       <c r="V63">
-        <v>1466.047941818184</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>5218.53812</v>
+        <v>22596.617025697</v>
       </c>
       <c r="Y63">
-        <v>3083.74325418182</v>
+        <v>7436.71993818182</v>
       </c>
       <c r="Z63">
-        <v>2228.54862145455</v>
+        <v>1243.707624</v>
       </c>
     </row>
     <row r="64" spans="1:26">
@@ -5500,13 +5500,13 @@
         <v>6.1818829</v>
       </c>
       <c r="D64">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E64">
-        <v>3946.98858795914</v>
+        <v>4309.61309535872</v>
       </c>
       <c r="F64">
-        <v>5211.91016</v>
+        <v>22579.019577697</v>
       </c>
       <c r="G64">
         <v>1390.206439525</v>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>6730.27777777778</v>
+        <v>6345.2927909127</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -5533,10 +5533,10 @@
         <v>219.5570824</v>
       </c>
       <c r="O64">
-        <v>137.195027484144</v>
+        <v>476.018604651163</v>
       </c>
       <c r="P64">
-        <v>589.9386181818192</v>
+        <v>2046.880000000001</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -5551,22 +5551,22 @@
         <v>0</v>
       </c>
       <c r="U64">
-        <v>1163.23422781247</v>
+        <v>1854.68990765458</v>
       </c>
       <c r="V64">
-        <v>1456.941381818184</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>5211.91016</v>
+        <v>22579.019577697</v>
       </c>
       <c r="Y64">
-        <v>3081.75486618182</v>
+        <v>7430.09197818182</v>
       </c>
       <c r="Z64">
-        <v>2231.87239345455</v>
+        <v>1242.382032</v>
       </c>
     </row>
     <row r="65" spans="1:26">
@@ -5580,13 +5580,13 @@
         <v>5.28425385</v>
       </c>
       <c r="D65">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E65">
-        <v>3901.33999517816</v>
+        <v>4265.7847072289</v>
       </c>
       <c r="F65">
-        <v>5205.2822</v>
+        <v>22546.258929697</v>
       </c>
       <c r="G65">
         <v>1377.8696183525</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>6383.05555555555</v>
+        <v>6000.48219051436</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -5613,10 +5613,10 @@
         <v>205.6733258</v>
       </c>
       <c r="O65">
-        <v>129.209613530656</v>
+        <v>470.146976744186</v>
       </c>
       <c r="P65">
-        <v>555.6013381818207</v>
+        <v>2021.632</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -5631,22 +5631,22 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>1022.01887046796</v>
+        <v>1712.09163895038</v>
       </c>
       <c r="V65">
-        <v>1466.030661818184</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X65">
-        <v>5205.2822</v>
+        <v>22546.258929697</v>
       </c>
       <c r="Y65">
-        <v>3079.76647818182</v>
+        <v>7423.46401818182</v>
       </c>
       <c r="Z65">
-        <v>2224.58192545454</v>
+        <v>1241.05644</v>
       </c>
     </row>
     <row r="66" spans="1:26">
@@ -5660,13 +5660,13 @@
         <v>4.3866248</v>
       </c>
       <c r="D66">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E66">
-        <v>3855.69140249217</v>
+        <v>4221.95631919407</v>
       </c>
       <c r="F66">
-        <v>5198.65424</v>
+        <v>22513.498281697</v>
       </c>
       <c r="G66">
         <v>1365.532797085</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>6035.83333333333</v>
+        <v>5656.53361661702</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -5693,10 +5693,10 @@
         <v>191.7895691</v>
       </c>
       <c r="O66">
-        <v>121.224199577167</v>
+        <v>464.275348837209</v>
       </c>
       <c r="P66">
-        <v>521.2640581818181</v>
+        <v>1996.383999999998</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -5711,22 +5711,22 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>881.085943838136</v>
+        <v>1569.77856678359</v>
       </c>
       <c r="V66">
-        <v>1475.119941818184</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>5198.65424</v>
+        <v>22513.498281697</v>
       </c>
       <c r="Y66">
-        <v>3077.77809018182</v>
+        <v>7416.83605818182</v>
       </c>
       <c r="Z66">
-        <v>2217.29145745455</v>
+        <v>1239.730848</v>
       </c>
     </row>
     <row r="67" spans="1:26">
@@ -5740,13 +5740,13 @@
         <v>3.88972595</v>
       </c>
       <c r="D67">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E67">
-        <v>3796.54785067153</v>
+        <v>4181.40830225715</v>
       </c>
       <c r="F67">
-        <v>5192.02628</v>
+        <v>22420.608033697</v>
       </c>
       <c r="G67">
         <v>1349.8101163475</v>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>5688.61111111111</v>
+        <v>5313.44491415443</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -5773,10 +5773,10 @@
         <v>174.74248</v>
       </c>
       <c r="O67">
-        <v>96.3579670190277</v>
+        <v>458.303255813954</v>
       </c>
       <c r="P67">
-        <v>414.3392581818191</v>
+        <v>1970.704000000002</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5791,22 +5791,22 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>740.434883061571</v>
+        <v>1427.75012076114</v>
       </c>
       <c r="V67">
-        <v>1556.364741818184</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>5192.02628</v>
+        <v>22420.608033697</v>
       </c>
       <c r="Y67">
-        <v>3075.78970218182</v>
+        <v>7410.20809818182</v>
       </c>
       <c r="Z67">
-        <v>2167.91026945454</v>
+        <v>1238.405256</v>
       </c>
     </row>
     <row r="68" spans="1:26">
@@ -5820,13 +5820,13 @@
         <v>3.3928271</v>
       </c>
       <c r="D68">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E68">
-        <v>3754.1484848024</v>
+        <v>4140.86028522523</v>
       </c>
       <c r="F68">
-        <v>5185.39832</v>
+        <v>22387.717785697</v>
       </c>
       <c r="G68">
         <v>1334.087435705</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>5341.38888888889</v>
+        <v>4971.21393344799</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -5853,10 +5853,10 @@
         <v>157.695391</v>
       </c>
       <c r="O68">
-        <v>88.2359205073996</v>
+        <v>452.331162790698</v>
       </c>
       <c r="P68">
-        <v>379.4144581818182</v>
+        <v>1945.024000000001</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -5871,22 +5871,22 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>600.065124406559</v>
+        <v>1286.00573163073</v>
       </c>
       <c r="V68">
-        <v>1565.609541818184</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X68">
-        <v>5185.39832</v>
+        <v>22387.717785697</v>
       </c>
       <c r="Y68">
-        <v>3073.80131418182</v>
+        <v>7403.58013818182</v>
       </c>
       <c r="Z68">
-        <v>2160.52908145454</v>
+        <v>1237.079664</v>
       </c>
     </row>
     <row r="69" spans="1:26">
@@ -5900,28 +5900,28 @@
         <v>3.7841914</v>
       </c>
       <c r="D69">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E69">
-        <v>3298.92166417973</v>
+        <v>3163.14778037122</v>
       </c>
       <c r="F69">
-        <v>5178.77036</v>
+        <v>22359.514737697</v>
       </c>
       <c r="G69">
-        <v>717.18026563</v>
+        <v>1239.69324288459</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>4994.16666666666</v>
+        <v>4629.83853019332</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>625</v>
+        <v>1175.01366026799</v>
       </c>
       <c r="L69">
         <v>1000</v>
@@ -5933,10 +5933,10 @@
         <v>133.7107868</v>
       </c>
       <c r="O69">
-        <v>71.10192980972531</v>
+        <v>436.039069767442</v>
       </c>
       <c r="P69">
-        <v>305.7382981818188</v>
+        <v>1874.968000000001</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -5951,22 +5951,22 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>459.976105268857</v>
+        <v>1144.54483127857</v>
       </c>
       <c r="V69">
-        <v>1569.229701818184</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>5178.77036</v>
+        <v>22359.514737697</v>
       </c>
       <c r="Y69">
-        <v>3071.81292618182</v>
+        <v>7396.95217818182</v>
       </c>
       <c r="Z69">
-        <v>2156.42893345455</v>
+        <v>1235.754072</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -5980,46 +5980,46 @@
         <v>4.1755557</v>
       </c>
       <c r="D70">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E70">
-        <v>4922.88723256339</v>
+        <v>3546.4331271904</v>
       </c>
       <c r="F70">
-        <v>5172.1424</v>
+        <v>22295.311689697</v>
       </c>
       <c r="G70">
-        <v>100.273095555</v>
+        <v>622.786072809595</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>4820.55555555555</v>
+        <v>4309.04981274468</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>550.013660267995</v>
       </c>
       <c r="L70">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M70">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N70">
         <v>109.7261826</v>
       </c>
       <c r="O70">
-        <v>483.160328118393</v>
+        <v>500</v>
       </c>
       <c r="P70">
-        <v>2077.58941090909</v>
+        <v>2150</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>51.6373333333333</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -6028,25 +6028,25 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>154.9119999999999</v>
       </c>
       <c r="U70">
-        <v>320.16726416943</v>
+        <v>1003.36685272713</v>
       </c>
       <c r="V70">
-        <v>227.3225890909092</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X70">
-        <v>5172.1424</v>
+        <v>22295.311689697</v>
       </c>
       <c r="Y70">
-        <v>1912.55181090909</v>
+        <v>7390.32421818182</v>
       </c>
       <c r="Z70">
-        <v>1779.94696727273</v>
+        <v>1234.42848</v>
       </c>
     </row>
     <row r="71" spans="1:26">
@@ -6060,46 +6060,46 @@
         <v>4.19094265</v>
       </c>
       <c r="D71">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E71">
-        <v>5214.26648625793</v>
+        <v>4369.47916741691</v>
       </c>
       <c r="F71">
-        <v>4898.4968</v>
+        <v>21174.448809697</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>5.22883258309503</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>4820.55555555555</v>
+        <v>4153.53675130019</v>
       </c>
       <c r="J71">
-        <v>80.49037403</v>
+        <v>74.98633973200521</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M71">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N71">
         <v>84.68131667999999</v>
       </c>
       <c r="O71">
-        <v>444.266486257928</v>
+        <v>500</v>
       </c>
       <c r="P71">
-        <v>1910.34589090909</v>
+        <v>2150</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>28.2933333333335</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -6108,25 +6108,25 @@
         <v>0</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>84.88000000000051</v>
       </c>
       <c r="U71">
-        <v>319.526929641091</v>
+        <v>1001.36011902167</v>
       </c>
       <c r="V71">
-        <v>324.5341090909092</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X71">
-        <v>4898.4968</v>
+        <v>21174.448809697</v>
       </c>
       <c r="Y71">
-        <v>1830.45813090909</v>
+        <v>7116.67861818182</v>
       </c>
       <c r="Z71">
-        <v>1641.14656727273</v>
+        <v>1179.69936</v>
       </c>
     </row>
     <row r="72" spans="1:26">
@@ -6140,46 +6140,46 @@
         <v>4.2063296</v>
       </c>
       <c r="D72">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E72">
-        <v>5422.11683044397</v>
+        <v>5258.67703008632</v>
       </c>
       <c r="F72">
-        <v>4624.8512</v>
+        <v>20113.585929697</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>644.556218582004</v>
       </c>
       <c r="I72">
-        <v>4838.6658897123</v>
+        <v>4160.96216510829</v>
       </c>
       <c r="J72">
-        <v>55.43012115</v>
+        <v>699.986339732004</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M72">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N72">
         <v>59.63645075</v>
       </c>
       <c r="O72">
-        <v>422.116830443975</v>
+        <v>500</v>
       </c>
       <c r="P72">
-        <v>1815.102370909093</v>
+        <v>2150</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>4.94933333333332</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -6188,25 +6188,25 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>14.84799999999996</v>
       </c>
       <c r="U72">
-        <v>318.887875781809</v>
+        <v>999.357398783631</v>
       </c>
       <c r="V72">
-        <v>349.7456290909092</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X72">
-        <v>4624.8512</v>
+        <v>20113.585929697</v>
       </c>
       <c r="Y72">
-        <v>1748.36445090909</v>
+        <v>6843.03301818182</v>
       </c>
       <c r="Z72">
-        <v>1544.34616727273</v>
+        <v>1124.97024</v>
       </c>
     </row>
     <row r="73" spans="1:26">
@@ -6220,43 +6220,43 @@
         <v>4.99691885</v>
       </c>
       <c r="D73">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E73">
-        <v>5505.06008625793</v>
+        <v>5939.72956720465</v>
       </c>
       <c r="F73">
-        <v>4351.2056</v>
+        <v>19042.532649697</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1206.37759117</v>
       </c>
       <c r="I73">
-        <v>4851.13766697105</v>
+        <v>4316.80651538187</v>
       </c>
       <c r="J73">
-        <v>43.62240883</v>
+        <v>1250</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M73">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N73">
         <v>48.61932768</v>
       </c>
       <c r="O73">
-        <v>405.060086257928</v>
+        <v>495.103255813954</v>
       </c>
       <c r="P73">
-        <v>1741.75837090909</v>
+        <v>2128.944000000002</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -6271,22 +6271,22 @@
         <v>0</v>
       </c>
       <c r="U73">
-        <v>318.250100030245</v>
+        <v>997.358683986064</v>
       </c>
       <c r="V73">
-        <v>387.1856290909092</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X73">
-        <v>4351.2056</v>
+        <v>19042.532649697</v>
       </c>
       <c r="Y73">
-        <v>1666.27077090909</v>
+        <v>6569.38741818182</v>
       </c>
       <c r="Z73">
-        <v>1440.41248727273</v>
+        <v>1070.24112</v>
       </c>
     </row>
     <row r="74" spans="1:26">
@@ -6300,43 +6300,43 @@
         <v>5.7875081</v>
       </c>
       <c r="D74">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E74">
-        <v>5588.00334207188</v>
+        <v>6043.39148226438</v>
       </c>
       <c r="F74">
-        <v>3585.8894</v>
+        <v>16103.131089697</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1218.1853035</v>
       </c>
       <c r="I74">
-        <v>4860.9527089578</v>
+        <v>4602.88949909341</v>
       </c>
       <c r="J74">
-        <v>31.8146965</v>
+        <v>1250</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M74">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N74">
         <v>37.6022046</v>
       </c>
       <c r="O74">
-        <v>388.003342071882</v>
+        <v>486.753488372093</v>
       </c>
       <c r="P74">
-        <v>1668.414370909092</v>
+        <v>2093.04</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -6351,22 +6351,22 @@
         <v>0</v>
       </c>
       <c r="U74">
-        <v>317.613599830185</v>
+        <v>995.363966618092</v>
       </c>
       <c r="V74">
-        <v>424.6256290909092</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X74">
-        <v>3585.8894</v>
+        <v>16103.131089697</v>
       </c>
       <c r="Y74">
-        <v>1436.67591090909</v>
+        <v>5804.07121818182</v>
       </c>
       <c r="Z74">
-        <v>1188.97762727273</v>
+        <v>917.17788</v>
       </c>
     </row>
     <row r="75" spans="1:26">
@@ -6380,43 +6380,43 @@
         <v>6.7020294</v>
       </c>
       <c r="D75">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E75">
-        <v>5581.21078393235</v>
+        <v>5400.86282375643</v>
       </c>
       <c r="F75">
-        <v>3361.61435</v>
+        <v>15249.685899697</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>614.22460815</v>
       </c>
       <c r="I75">
-        <v>4868.1110156703</v>
+        <v>4888.25727534568</v>
       </c>
       <c r="J75">
-        <v>21.03930465</v>
+        <v>635.2639128</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M75">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N75">
         <v>27.74133405</v>
       </c>
       <c r="O75">
-        <v>381.210783932347</v>
+        <v>480.295813953489</v>
       </c>
       <c r="P75">
-        <v>1639.206370909092</v>
+        <v>2065.272000000003</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -6431,22 +6431,22 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>316.978372630524</v>
+        <v>993.373238684856</v>
       </c>
       <c r="V75">
-        <v>426.0656290909092</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X75">
-        <v>3361.61435</v>
+        <v>15249.685899697</v>
       </c>
       <c r="Y75">
-        <v>1369.39339590909</v>
+        <v>5579.79616818182</v>
       </c>
       <c r="Z75">
-        <v>1120.85511227273</v>
+        <v>872.32287</v>
       </c>
     </row>
     <row r="76" spans="1:26">
@@ -6460,13 +6460,13 @@
         <v>7.6165507</v>
       </c>
       <c r="D76">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E76">
-        <v>5574.41822579281</v>
+        <v>4747.53004651163</v>
       </c>
       <c r="F76">
-        <v>3137.3393</v>
+        <v>14396.240709697</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4872.84485921655</v>
+        <v>5026.91181144732</v>
       </c>
       <c r="J76">
         <v>10.2639128</v>
@@ -6484,19 +6484,19 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M76">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N76">
         <v>17.8804635</v>
       </c>
       <c r="O76">
-        <v>374.418225792812</v>
+        <v>473.838139534884</v>
       </c>
       <c r="P76">
-        <v>1609.998370909092</v>
+        <v>2037.504000000001</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -6511,22 +6511,22 @@
         <v>0</v>
       </c>
       <c r="U76">
-        <v>316.344415885263</v>
+        <v>991.386492207486</v>
       </c>
       <c r="V76">
-        <v>427.5056290909092</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X76">
-        <v>3137.3393</v>
+        <v>14396.240709697</v>
       </c>
       <c r="Y76">
-        <v>1302.11088090909</v>
+        <v>5355.52111818182</v>
       </c>
       <c r="Z76">
-        <v>1052.73259727273</v>
+        <v>827.46786</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -6540,43 +6540,43 @@
         <v>9.230342950000001</v>
       </c>
       <c r="D77">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E77">
-        <v>6071.91464857857</v>
+        <v>4660.17741901552</v>
       </c>
       <c r="F77">
-        <v>2913.06425</v>
+        <v>13542.795519697</v>
       </c>
       <c r="G77">
-        <v>3.4756702375</v>
+        <v>587.4749530775</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>4875.15423959655</v>
+        <v>5016.7822112087</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>614.7360872</v>
       </c>
       <c r="L77">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M77">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N77">
         <v>12.8889432</v>
       </c>
       <c r="O77">
-        <v>350.390318816068</v>
+        <v>450.14511627907</v>
       </c>
       <c r="P77">
-        <v>1506.678370909092</v>
+        <v>1935.624000000001</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -6591,22 +6591,22 @@
         <v>0</v>
       </c>
       <c r="U77">
-        <v>315.711727053493</v>
+        <v>989.403719223071</v>
       </c>
       <c r="V77">
-        <v>428.9456290909092</v>
+        <v>0</v>
       </c>
       <c r="W77">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X77">
-        <v>2913.06425</v>
+        <v>13542.795519697</v>
       </c>
       <c r="Y77">
-        <v>1234.82836590909</v>
+        <v>5131.24606818182</v>
       </c>
       <c r="Z77">
-        <v>984.610082272727</v>
+        <v>782.61285</v>
       </c>
     </row>
     <row r="78" spans="1:26">
@@ -6620,28 +6620,28 @@
         <v>10.8441352</v>
       </c>
       <c r="D78">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E78">
-        <v>4209.049376685</v>
+        <v>3950.7317682636</v>
       </c>
       <c r="F78">
-        <v>2688.7892</v>
+        <v>12689.350329697</v>
       </c>
       <c r="G78">
-        <v>590.950623315</v>
+        <v>1174.949906155</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4875.15423959655</v>
+        <v>4842.46760115436</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>625</v>
+        <v>1239.7360872</v>
       </c>
       <c r="L78">
         <v>1000</v>
@@ -6653,10 +6653,10 @@
         <v>7.8974229</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>310.173023255814</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>1333.744</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -6665,28 +6665,28 @@
         <v>0</v>
       </c>
       <c r="S78">
-        <v>14.631098181819</v>
+        <v>500</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
       <c r="U78">
-        <v>315.080303599386</v>
+        <v>987.424911784625</v>
       </c>
       <c r="V78">
-        <v>1819.112901818184</v>
+        <v>0</v>
       </c>
       <c r="W78">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X78">
-        <v>2688.7892</v>
+        <v>12689.350329697</v>
       </c>
       <c r="Y78">
-        <v>2324.81857818182</v>
+        <v>4906.97101818182</v>
       </c>
       <c r="Z78">
-        <v>1263.66938545455</v>
+        <v>737.75784</v>
       </c>
     </row>
     <row r="79" spans="1:26">
@@ -6700,13 +6700,13 @@
         <v>12.2970332</v>
       </c>
       <c r="D79">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E79">
-        <v>3816.788421945</v>
+        <v>4117.592421945</v>
       </c>
       <c r="F79">
-        <v>2542.91676818182</v>
+        <v>11831.409939697</v>
       </c>
       <c r="G79">
         <v>1180.211578055</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4701.54312848544</v>
+        <v>4504.11509341463</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -6733,10 +6733,10 @@
         <v>4.6250101</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>286.48</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>1231.864</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -6745,28 +6745,28 @@
         <v>0</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
       <c r="U79">
-        <v>310.385949052793</v>
+        <v>846.561173072167</v>
       </c>
       <c r="V79">
-        <v>1731.864</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>921.597381818182</v>
+        <v>0</v>
       </c>
       <c r="X79">
-        <v>2542.91676818182</v>
+        <v>11831.409939697</v>
       </c>
       <c r="Y79">
-        <v>2257.53606318182</v>
+        <v>4682.69596818182</v>
       </c>
       <c r="Z79">
-        <v>1247.28206318182</v>
+        <v>692.90283</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -6780,13 +6780,13 @@
         <v>13.7499312</v>
       </c>
       <c r="D80">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E80">
-        <v>3664.277467205</v>
+        <v>3940.2037927864</v>
       </c>
       <c r="F80">
-        <v>2389.10571818182</v>
+        <v>10993.600749697</v>
       </c>
       <c r="G80">
         <v>1175.722532795</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>4354.32090626322</v>
+        <v>4163.90743726004</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -6813,10 +6813,10 @@
         <v>1.3525973</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>262.786976744186</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1129.984</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -6825,28 +6825,28 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80">
-        <v>309.765177154687</v>
+        <v>705.979161837133</v>
       </c>
       <c r="V80">
-        <v>1629.984</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>851.133381818182</v>
+        <v>0</v>
       </c>
       <c r="X80">
-        <v>2389.10571818182</v>
+        <v>10993.600749697</v>
       </c>
       <c r="Y80">
-        <v>2190.25354818182</v>
+        <v>4458.42091818182</v>
       </c>
       <c r="Z80">
-        <v>1239.42954818182</v>
+        <v>648.04782</v>
       </c>
     </row>
     <row r="81" spans="1:26">
@@ -6860,13 +6860,13 @@
         <v>14.58450715</v>
       </c>
       <c r="D81">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E81">
-        <v>3745.67963763625</v>
+        <v>3999.84019577579</v>
       </c>
       <c r="F81">
-        <v>2265.85146818182</v>
+        <v>10114.614759697</v>
       </c>
       <c r="G81">
         <v>1174.32036236375</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>4007.098684041</v>
+        <v>3824.55030024584</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -6893,10 +6893,10 @@
         <v>0.711204375</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>242.057674418605</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1040.848000000001</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -6905,28 +6905,28 @@
         <v>0</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T81">
         <v>0</v>
       </c>
       <c r="U81">
-        <v>309.145646800378</v>
+        <v>565.67831462457</v>
       </c>
       <c r="V81">
-        <v>1540.848</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>750.112581818182</v>
+        <v>0</v>
       </c>
       <c r="X81">
-        <v>2265.85146818182</v>
+        <v>10114.614759697</v>
       </c>
       <c r="Y81">
-        <v>2122.97103318182</v>
+        <v>4234.14586818182</v>
       </c>
       <c r="Z81">
-        <v>1224.14303318182</v>
+        <v>603.19281</v>
       </c>
     </row>
     <row r="82" spans="1:26">
@@ -6940,13 +6940,13 @@
         <v>15.4190831</v>
       </c>
       <c r="D82">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E82">
-        <v>3827.0818080675</v>
+        <v>4103.77052378744</v>
       </c>
       <c r="F82">
-        <v>2388.19488484848</v>
+        <v>10571.966569697</v>
       </c>
       <c r="G82">
         <v>1172.9181919325</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>3659.87646181877</v>
+        <v>3486.04155607417</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -6973,10 +6973,10 @@
         <v>0.06981145</v>
       </c>
       <c r="O82">
-        <v>-5.28775989402865e-14</v>
+        <v>263.513062590421</v>
       </c>
       <c r="P82">
-        <v>-2.273736754432319e-13</v>
+        <v>1133.10616913881</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -6985,28 +6985,28 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>418.605830861191</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
       <c r="U82">
-        <v>308.527355506777</v>
+        <v>425.658069106432</v>
       </c>
       <c r="V82">
-        <v>1551.711999999996</v>
+        <v>0</v>
       </c>
       <c r="W82">
-        <v>750.425115151515</v>
+        <v>0</v>
       </c>
       <c r="X82">
-        <v>2388.19488484848</v>
+        <v>10571.966569697</v>
       </c>
       <c r="Y82">
-        <v>2159.76781818182</v>
+        <v>4356.80181818182</v>
       </c>
       <c r="Z82">
-        <v>1254.60248484848</v>
+        <v>627.724</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -7020,13 +7020,13 @@
         <v>16.5040318</v>
       </c>
       <c r="D83">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E83">
-        <v>3928.14566977125</v>
+        <v>4309.7049255852</v>
       </c>
       <c r="F83">
-        <v>2510.31155151515</v>
+        <v>10942.056729697</v>
       </c>
       <c r="G83">
         <v>1171.85433022875</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>3312.65423959655</v>
+        <v>3148.37908376294</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -7053,10 +7053,10 @@
         <v>0.034905725</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>363.38976744186</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1562.575999999998</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -7071,22 +7071,22 @@
         <v>0</v>
       </c>
       <c r="U83">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="V83">
-        <v>1562.576000000004</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>732.737648484849</v>
+        <v>0</v>
       </c>
       <c r="X83">
-        <v>2510.31155151515</v>
+        <v>10942.056729697</v>
       </c>
       <c r="Y83">
-        <v>2191.09657818182</v>
+        <v>4461.23101818182</v>
       </c>
       <c r="Z83">
-        <v>1279.59391151515</v>
+        <v>648.60984</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -7100,13 +7100,13 @@
         <v>17.5889805</v>
       </c>
       <c r="D84">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E84">
-        <v>4079.209531475</v>
+        <v>4463.42162449826</v>
       </c>
       <c r="F84">
-        <v>2144.70421818182</v>
+        <v>9938.79568969697</v>
       </c>
       <c r="G84">
         <v>1170.790468525</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>2965.43201737433</v>
+        <v>2811.56076763248</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -7133,10 +7133,10 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>365.916279069768</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1573.440000000002</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -7151,22 +7151,22 @@
         <v>0</v>
       </c>
       <c r="U84">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="V84">
-        <v>1573.44</v>
+        <v>0</v>
       </c>
       <c r="W84">
-        <v>815.050181818183</v>
+        <v>0</v>
       </c>
       <c r="X84">
-        <v>2144.70421818182</v>
+        <v>9938.79568969697</v>
       </c>
       <c r="Y84">
-        <v>2106.10813818182</v>
+        <v>4177.93621818182</v>
       </c>
       <c r="Z84">
-        <v>1188.26813818182</v>
+        <v>591.95088</v>
       </c>
     </row>
     <row r="85" spans="1:26">
@@ -7180,13 +7180,13 @@
         <v>18.5862904</v>
       </c>
       <c r="D85">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E85">
-        <v>3680.15697588</v>
+        <v>4067.26609215907</v>
       </c>
       <c r="F85">
-        <v>2156.55475151515</v>
+        <v>9997.243449696971</v>
       </c>
       <c r="G85">
         <v>1169.84302412</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>2618.20979515211</v>
+        <v>2475.58449729234</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -7213,10 +7213,10 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>368.675348837208</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1585.303999999994</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -7231,22 +7231,22 @@
         <v>0</v>
       </c>
       <c r="U85">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="V85">
-        <v>1585.303999999992</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>819.904848484845</v>
+        <v>0</v>
       </c>
       <c r="X85">
-        <v>2156.55475151515</v>
+        <v>9997.243449696971</v>
       </c>
       <c r="Y85">
-        <v>2111.11969818182</v>
+        <v>4194.64141818182</v>
       </c>
       <c r="Z85">
-        <v>1186.35903151515</v>
+        <v>595.29192</v>
       </c>
     </row>
     <row r="86" spans="1:26">
@@ -7260,13 +7260,13 @@
         <v>19.5836003</v>
       </c>
       <c r="D86">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E86">
-        <v>3781.104420285</v>
+        <v>4166.91837377337</v>
       </c>
       <c r="F86">
-        <v>2242.71195151515</v>
+        <v>10283.691209697</v>
       </c>
       <c r="G86">
         <v>1168.895579715</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>2270.98757292989</v>
+        <v>2140.44816762806</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -7293,10 +7293,10 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>367.441860465116</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1579.999999999999</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -7311,22 +7311,22 @@
         <v>0</v>
       </c>
       <c r="U86">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="V86">
-        <v>1580.000000000004</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>810.452848484849</v>
+        <v>0</v>
       </c>
       <c r="X86">
-        <v>2242.71195151515</v>
+        <v>10283.691209697</v>
       </c>
       <c r="Y86">
-        <v>2134.13125818182</v>
+        <v>4271.34661818182</v>
       </c>
       <c r="Z86">
-        <v>1212.46459151515</v>
+        <v>610.63296</v>
       </c>
     </row>
     <row r="87" spans="1:26">
@@ -7340,13 +7340,13 @@
         <v>19.48325045</v>
       </c>
       <c r="D87">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E87">
-        <v>3981.0090879275</v>
+        <v>4365.52787862517</v>
       </c>
       <c r="F87">
-        <v>2368.86915151515</v>
+        <v>10722.138969697</v>
       </c>
       <c r="G87">
         <v>1168.9909120725</v>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1923.76535070766</v>
+        <v>1806.14967878794</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -7373,10 +7373,10 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>366.208372093024</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>1574.696000000003</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -7391,22 +7391,22 @@
         <v>0</v>
       </c>
       <c r="U87">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="V87">
-        <v>1574.696000000004</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>801.000848484852</v>
+        <v>0</v>
       </c>
       <c r="X87">
-        <v>2368.86915151515</v>
+        <v>10722.138969697</v>
       </c>
       <c r="Y87">
-        <v>2169.14281818182</v>
+        <v>4388.05181818182</v>
       </c>
       <c r="Z87">
-        <v>1250.57015151515</v>
+        <v>633.974</v>
       </c>
     </row>
     <row r="88" spans="1:26">
@@ -7420,13 +7420,13 @@
         <v>19.3829006</v>
       </c>
       <c r="D88">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E88">
-        <v>3580.91375557</v>
+        <v>3964.13738347698</v>
       </c>
       <c r="F88">
-        <v>2311.02635151515</v>
+        <v>10461.386729697</v>
       </c>
       <c r="G88">
         <v>1169.08624443</v>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1576.54312848544</v>
+        <v>1472.68693616992</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -7453,10 +7453,10 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>364.974883720932</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>1569.392000000008</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -7471,22 +7471,22 @@
         <v>0</v>
       </c>
       <c r="U88">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="V88">
-        <v>1569.392000000004</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>791.548848484856</v>
+        <v>0</v>
       </c>
       <c r="X88">
-        <v>2311.02635151515</v>
+        <v>10461.386729697</v>
       </c>
       <c r="Y88">
-        <v>2148.95437818182</v>
+        <v>4320.75701818183</v>
       </c>
       <c r="Z88">
-        <v>1233.47571151515</v>
+        <v>620.515040000002</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -7500,28 +7500,28 @@
         <v>19.49077665</v>
       </c>
       <c r="D89">
-        <v>1.1902</v>
+        <v>1.04989998</v>
       </c>
       <c r="E89">
-        <v>3924.7662378175</v>
+        <v>4288.07598286878</v>
       </c>
       <c r="F89">
-        <v>2353.18355151515</v>
+        <v>10580.634489697</v>
       </c>
       <c r="G89">
-        <v>575.2337621825</v>
+        <v>593.8524822475</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1229.32090626322</v>
+        <v>1140.05785040844</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>625</v>
+        <v>644.5986527</v>
       </c>
       <c r="L89">
         <v>1000</v>
@@ -7533,10 +7533,10 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>363.74139534884</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1564.088000000012</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -7551,22 +7551,22 @@
         <v>0</v>
       </c>
       <c r="U89">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="V89">
-        <v>1564.088000000016</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>782.096848484859</v>
+        <v>0</v>
       </c>
       <c r="X89">
-        <v>2353.18355151515</v>
+        <v>10580.634489697</v>
       </c>
       <c r="Y89">
-        <v>2158.76593818182</v>
+        <v>4353.46221818183</v>
       </c>
       <c r="Z89">
-        <v>1246.38127151515</v>
+        <v>627.056080000002</v>
       </c>
     </row>
     <row r="90" spans="1:26">
@@ -7580,43 +7580,43 @@
         <v>19.5986527</v>
       </c>
       <c r="D90">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E90">
-        <v>5980.14204234361</v>
+        <v>5130.63330232559</v>
       </c>
       <c r="F90">
-        <v>2167.98560000002</v>
+        <v>10699.882249697</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>967.57648138768</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
         <v>19.5986527</v>
       </c>
-      <c r="I90">
-        <v>1055.70979515211</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
       <c r="L90">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M90">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90">
-        <v>259.511881606769</v>
+        <v>362.507906976748</v>
       </c>
       <c r="P90">
-        <v>1115.901090909107</v>
+        <v>1558.784000000016</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -7631,22 +7631,22 @@
         <v>0</v>
       </c>
       <c r="U90">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="V90">
-        <v>442.8829090909092</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X90">
-        <v>2167.98560000002</v>
+        <v>10699.882249697</v>
       </c>
       <c r="Y90">
-        <v>1011.3047709091</v>
+        <v>4386.16741818184</v>
       </c>
       <c r="Z90">
-        <v>752.956407272733</v>
+        <v>633.597120000004</v>
       </c>
     </row>
     <row r="91" spans="1:26">
@@ -7660,43 +7660,43 @@
         <v>19.47187745</v>
       </c>
       <c r="D91">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E91">
-        <v>6666.82142824797</v>
+        <v>5485.47197175373</v>
       </c>
       <c r="F91">
-        <v>2200.69080000003</v>
+        <v>10819.1300096971</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>365.699948378905</v>
+        <v>29.5771406078946</v>
       </c>
       <c r="I91">
-        <v>1055.70979515211</v>
+        <v>960</v>
       </c>
       <c r="J91">
-        <v>346.228070928905</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M91">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>256.87411416491</v>
+        <v>361.274418604656</v>
       </c>
       <c r="P91">
-        <v>1104.558690909113</v>
+        <v>1553.480000000021</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -7711,22 +7711,22 @@
         <v>0</v>
       </c>
       <c r="U91">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="V91">
-        <v>448.9213090909092</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X91">
-        <v>2200.69080000003</v>
+        <v>10819.1300096971</v>
       </c>
       <c r="Y91">
-        <v>1021.1163309091</v>
+        <v>4418.87261818185</v>
       </c>
       <c r="Z91">
-        <v>759.245567272736</v>
+        <v>640.138160000006</v>
       </c>
     </row>
     <row r="92" spans="1:26">
@@ -7740,43 +7740,43 @@
         <v>19.3451022</v>
       </c>
       <c r="D92">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E92">
-        <v>6624.59961219673</v>
+        <v>5809.04336133145</v>
       </c>
       <c r="F92">
-        <v>2353.39600000004</v>
+        <v>11394.3777696971</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>19.3451022</v>
+        <v>29.4503653578946</v>
       </c>
       <c r="I92">
-        <v>1133.61111111111</v>
+        <v>960</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M92">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92">
-        <v>254.23634672305</v>
+        <v>360.040930232564</v>
       </c>
       <c r="P92">
-        <v>1093.216290909115</v>
+        <v>1548.176000000025</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -7791,22 +7791,22 @@
         <v>0</v>
       </c>
       <c r="U92">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="V92">
-        <v>454.9597090909091</v>
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X92">
-        <v>2353.39600000004</v>
+        <v>11394.3777696971</v>
       </c>
       <c r="Y92">
-        <v>1066.9278909091</v>
+        <v>4571.57781818186</v>
       </c>
       <c r="Z92">
-        <v>801.534727272739</v>
+        <v>670.679200000008</v>
       </c>
     </row>
     <row r="93" spans="1:26">
@@ -7820,43 +7820,43 @@
         <v>19.38959065</v>
       </c>
       <c r="D93">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E93">
-        <v>6247.00867470224</v>
+        <v>5539.78697156153</v>
       </c>
       <c r="F93">
-        <v>2386.10120000004</v>
+        <v>11513.6255296971</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>19.38959065</v>
+        <v>131.137199727631</v>
       </c>
       <c r="I93">
-        <v>1133.61111111111</v>
+        <v>960</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>111.747609077631</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>50.0000000000001</v>
+        <v>1000</v>
       </c>
       <c r="M93">
-        <v>60.90909090909102</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93">
-        <v>251.59857928119</v>
+        <v>358.807441860472</v>
       </c>
       <c r="P93">
-        <v>1081.873890909117</v>
+        <v>1542.87200000003</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -7871,22 +7871,22 @@
         <v>0</v>
       </c>
       <c r="U93">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="V93">
-        <v>460.9981090909092</v>
+        <v>0</v>
       </c>
       <c r="W93">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>2386.10120000004</v>
+        <v>11513.6255296971</v>
       </c>
       <c r="Y93">
-        <v>1076.7394509091</v>
+        <v>4604.28301818186</v>
       </c>
       <c r="Z93">
-        <v>807.8238872727389</v>
+        <v>677.2202400000079</v>
       </c>
     </row>
     <row r="94" spans="1:26">
@@ -7900,43 +7900,43 @@
         <v>19.4340791</v>
       </c>
       <c r="D94">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E94">
-        <v>5869.41773720775</v>
+        <v>5703.80431337332</v>
       </c>
       <c r="F94">
-        <v>2318.80640000005</v>
+        <v>11252.8732896972</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>19.4340791</v>
+        <v>644.4340791</v>
       </c>
       <c r="I94">
-        <v>1133.61111111111</v>
+        <v>984.140057155937</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M94">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>248.960811839331</v>
+        <v>357.57395348838</v>
       </c>
       <c r="P94">
-        <v>1070.531490909123</v>
+        <v>1537.568000000034</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -7951,22 +7951,22 @@
         <v>0</v>
       </c>
       <c r="U94">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="V94">
-        <v>467.0365090909092</v>
+        <v>0</v>
       </c>
       <c r="W94">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X94">
-        <v>2318.80640000005</v>
+        <v>11252.8732896972</v>
       </c>
       <c r="Y94">
-        <v>1056.55101090911</v>
+        <v>4536.98821818187</v>
       </c>
       <c r="Z94">
-        <v>784.1130472727421</v>
+        <v>663.7612800000099</v>
       </c>
     </row>
     <row r="95" spans="1:26">
@@ -7980,43 +7980,43 @@
         <v>19.46635825</v>
       </c>
       <c r="D95">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E95">
-        <v>5371.06608473497</v>
+        <v>5144.64839179315</v>
       </c>
       <c r="F95">
-        <v>2451.51160000006</v>
+        <v>11752.1210496972</v>
       </c>
       <c r="G95">
-        <v>575.2569596625</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>19.46635825</v>
       </c>
       <c r="I95">
-        <v>1133.61111111111</v>
+        <v>1130.11720701305</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M95">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>246.323044397471</v>
+        <v>356.340465116287</v>
       </c>
       <c r="P95">
-        <v>1059.189090909125</v>
+        <v>1532.264000000034</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -8031,22 +8031,22 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="V95">
-        <v>473.0749090909092</v>
+        <v>0</v>
       </c>
       <c r="W95">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X95">
-        <v>2451.51160000006</v>
+        <v>11752.1210496972</v>
       </c>
       <c r="Y95">
-        <v>1096.36257090911</v>
+        <v>4669.69341818188</v>
       </c>
       <c r="Z95">
-        <v>820.402207272745</v>
+        <v>690.3023200000119</v>
       </c>
     </row>
     <row r="96" spans="1:26">
@@ -8060,43 +8060,43 @@
         <v>19.4986374</v>
       </c>
       <c r="D96">
-        <v>0.7541</v>
+        <v>0.65550003</v>
       </c>
       <c r="E96">
-        <v>4708.42991271817</v>
+        <v>4597.63603111141</v>
       </c>
       <c r="F96">
-        <v>2584.21680000007</v>
+        <v>12251.3688096972</v>
       </c>
       <c r="G96">
-        <v>1168.97629447</v>
+        <v>575.22629447</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>960</v>
+        <v>1127.29191399552</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="L96">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="M96">
-        <v>60.90909090909089</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>127.40620718817</v>
+        <v>355.106976744195</v>
       </c>
       <c r="P96">
-        <v>547.846690909131</v>
+        <v>1526.960000000038</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -8105,31 +8105,31 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T96">
         <v>0</v>
       </c>
       <c r="U96">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="V96">
-        <v>479.1133090909092</v>
+        <v>0</v>
       </c>
       <c r="W96">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X96">
-        <v>2584.21680000007</v>
+        <v>12251.3688096972</v>
       </c>
       <c r="Y96">
-        <v>1136.17413090911</v>
+        <v>4802.39861818189</v>
       </c>
       <c r="Z96">
-        <v>856.691367272748</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>716.8433600000139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8140,10 +8140,73 @@
         <v>19.4986374</v>
       </c>
       <c r="D97">
-        <v>0.7541</v>
+        <v>0.65550003</v>
+      </c>
+      <c r="E97">
+        <v>3930.49784506489</v>
+      </c>
+      <c r="F97">
+        <v>12370.6165696973</v>
+      </c>
+      <c r="G97">
+        <v>1168.97629447</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>960</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1250</v>
+      </c>
+      <c r="L97">
+        <v>1000</v>
+      </c>
+      <c r="M97">
+        <v>1218.181818181818</v>
       </c>
       <c r="N97">
         <v>0</v>
+      </c>
+      <c r="O97">
+        <v>237.594418604661</v>
+      </c>
+      <c r="P97">
+        <v>1021.656000000042</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>500</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>300</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>12370.6165696973</v>
+      </c>
+      <c r="Y97">
+        <v>4835.1038181819</v>
+      </c>
+      <c r="Z97">
+        <v>723.3844000000159</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -543,10 +543,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E2">
-        <v>4410.4811298496</v>
+        <v>4750.23980127202</v>
       </c>
       <c r="F2">
-        <v>12547.045849697</v>
+        <v>2815.0076</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1000</v>
+        <v>663.611940298508</v>
       </c>
       <c r="M2">
-        <v>1218.181818181818</v>
+        <v>808.4000000000004</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>360.297674418605</v>
+        <v>225.473205581395</v>
       </c>
       <c r="P2">
-        <v>1549.280000000002</v>
+        <v>969.5347839999985</v>
       </c>
       <c r="Q2">
         <v>0.888888888888914</v>
@@ -594,16 +594,16 @@
         <v>300</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>579.745216</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>12547.045849697</v>
+        <v>2815.0076</v>
       </c>
       <c r="Y2">
-        <v>4841.58941818182</v>
+        <v>808.4</v>
       </c>
       <c r="Z2">
         <v>724.68152</v>
@@ -623,10 +623,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E3">
-        <v>3935.7365847321</v>
+        <v>4273.85887989628</v>
       </c>
       <c r="F3">
-        <v>12651.669849697</v>
+        <v>2839.9836</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -644,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1000</v>
+        <v>665.273432835821</v>
       </c>
       <c r="M3">
-        <v>1218.181818181818</v>
+        <v>810.424</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>360.762790697674</v>
+        <v>224.933670697674</v>
       </c>
       <c r="P3">
-        <v>1551.279999999998</v>
+        <v>967.2147839999981</v>
       </c>
       <c r="Q3">
         <v>0.888888888888942</v>
@@ -674,16 +674,16 @@
         <v>300</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>584.065216</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>12651.669849697</v>
+        <v>2839.9836</v>
       </c>
       <c r="Y3">
-        <v>4868.58941818182</v>
+        <v>810.424</v>
       </c>
       <c r="Z3">
         <v>730.08152</v>
@@ -703,10 +703,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E4">
-        <v>3460.99203961459</v>
+        <v>3797.47795852053</v>
       </c>
       <c r="F4">
-        <v>12756.293849697</v>
+        <v>2864.9596</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1000</v>
+        <v>666.934925373134</v>
       </c>
       <c r="M4">
-        <v>1218.181818181818</v>
+        <v>812.4479999999994</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>361.227906976744</v>
+        <v>224.394135813953</v>
       </c>
       <c r="P4">
-        <v>1553.279999999999</v>
+        <v>964.8947839999979</v>
       </c>
       <c r="Q4">
         <v>0.888888888888923</v>
@@ -754,16 +754,16 @@
         <v>300</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>588.385216</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>12756.293849697</v>
+        <v>2864.9596</v>
       </c>
       <c r="Y4">
-        <v>4895.58941818182</v>
+        <v>812.448</v>
       </c>
       <c r="Z4">
         <v>735.48152</v>
@@ -783,10 +783,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E5">
-        <v>4186.52319244446</v>
+        <v>4521.37273509215</v>
       </c>
       <c r="F5">
-        <v>12860.917849697</v>
+        <v>2889.9356</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -804,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1000</v>
+        <v>668.5964179104481</v>
       </c>
       <c r="M5">
-        <v>1218.181818181818</v>
+        <v>814.4720000000001</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>361.693023255814</v>
+        <v>223.854600930233</v>
       </c>
       <c r="P5">
-        <v>1555.28</v>
+        <v>962.5747840000018</v>
       </c>
       <c r="Q5">
         <v>0.888888888888923</v>
@@ -834,16 +834,16 @@
         <v>300</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>592.7052160000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>12860.917849697</v>
+        <v>2889.9356</v>
       </c>
       <c r="Y5">
-        <v>4922.58941818182</v>
+        <v>814.472</v>
       </c>
       <c r="Z5">
         <v>740.88152</v>
@@ -863,10 +863,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E6">
-        <v>5494.46772840349</v>
+        <v>5844.0988052407</v>
       </c>
       <c r="F6">
-        <v>12945.541849697</v>
+        <v>2934.9116</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -884,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1000</v>
+        <v>653.84</v>
       </c>
       <c r="M6">
-        <v>1218.181818181818</v>
+        <v>796.4959999999999</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>362.158139534884</v>
+        <v>223.315066046512</v>
       </c>
       <c r="P6">
-        <v>1557.280000000001</v>
+        <v>960.2547840000015</v>
       </c>
       <c r="Q6">
         <v>0.888888888888923</v>
@@ -914,16 +914,16 @@
         <v>300</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>597.025216</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>12945.541849697</v>
+        <v>2934.9116</v>
       </c>
       <c r="Y6">
-        <v>4949.58941818182</v>
+        <v>796.496</v>
       </c>
       <c r="Z6">
         <v>746.28152</v>
@@ -943,10 +943,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E7">
-        <v>5927.86597781231</v>
+        <v>6284.06963361515</v>
       </c>
       <c r="F7">
-        <v>13040.165849697</v>
+        <v>2969.8876</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -964,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1000</v>
+        <v>647.2925373134329</v>
       </c>
       <c r="M7">
-        <v>1218.181818181818</v>
+        <v>788.5199999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>362.623255813954</v>
+        <v>222.775531162791</v>
       </c>
       <c r="P7">
-        <v>1559.280000000002</v>
+        <v>957.9347840000013</v>
       </c>
       <c r="Q7">
         <v>0.888888888888923</v>
@@ -994,16 +994,16 @@
         <v>300</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>601.3452160000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>13040.165849697</v>
+        <v>2969.8876</v>
       </c>
       <c r="Y7">
-        <v>4976.58941818182</v>
+        <v>788.52</v>
       </c>
       <c r="Z7">
         <v>751.68152</v>
@@ -1023,10 +1023,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E8">
-        <v>5768.21372497838</v>
+        <v>6130.98995974686</v>
       </c>
       <c r="F8">
-        <v>13134.789849697</v>
+        <v>3004.8636</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1044,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1000</v>
+        <v>640.745074626866</v>
       </c>
       <c r="M8">
-        <v>1218.181818181818</v>
+        <v>780.5440000000002</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>363.088372093023</v>
+        <v>222.23599627907</v>
       </c>
       <c r="P8">
-        <v>1561.279999999999</v>
+        <v>955.614784000001</v>
       </c>
       <c r="Q8">
         <v>0.888888888888923</v>
@@ -1074,16 +1074,16 @@
         <v>300</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>605.665216</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>13134.789849697</v>
+        <v>3004.8636</v>
       </c>
       <c r="Y8">
-        <v>5003.58941818182</v>
+        <v>780.544</v>
       </c>
       <c r="Z8">
         <v>757.08152</v>
@@ -1103,10 +1103,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E9">
-        <v>5736.24100465035</v>
+        <v>6097.23202595128</v>
       </c>
       <c r="F9">
-        <v>12631.413849697</v>
+        <v>2869.8396</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1124,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1000</v>
+        <v>642.406567164179</v>
       </c>
       <c r="M9">
-        <v>1218.181818181818</v>
+        <v>782.5679999999996</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>363.553488372093</v>
+        <v>227.649949767442</v>
       </c>
       <c r="P9">
-        <v>1563.28</v>
+        <v>978.8947840000005</v>
       </c>
       <c r="Q9">
         <v>0.888888888888923</v>
@@ -1154,16 +1154,16 @@
         <v>300</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>584.385216</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>12631.413849697</v>
+        <v>2869.8396</v>
       </c>
       <c r="Y9">
-        <v>4870.58941818182</v>
+        <v>782.568</v>
       </c>
       <c r="Z9">
         <v>730.48152</v>
@@ -1183,10 +1183,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E10">
-        <v>5746.35835754482</v>
+        <v>6113.84753920674</v>
       </c>
       <c r="F10">
-        <v>12422.037849697</v>
+        <v>2824.8156</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1204,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1000</v>
+        <v>635.859104477612</v>
       </c>
       <c r="M10">
-        <v>1218.181818181818</v>
+        <v>774.592</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>354.251162790698</v>
+        <v>220.319717209302</v>
       </c>
       <c r="P10">
-        <v>1523.280000000001</v>
+        <v>947.3747839999986</v>
       </c>
       <c r="Q10">
         <v>50.7421147707865</v>
@@ -1234,16 +1234,16 @@
         <v>300</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>575.905216</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>12422.037849697</v>
+        <v>2824.8156</v>
       </c>
       <c r="Y10">
-        <v>4817.58941818182</v>
+        <v>774.592</v>
       </c>
       <c r="Z10">
         <v>719.88152</v>
@@ -1263,10 +1263,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E11">
-        <v>5834.43293603672</v>
+        <v>6208.43888271079</v>
       </c>
       <c r="F11">
-        <v>12288.661849697</v>
+        <v>2799.7916</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1284,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1000</v>
+        <v>629.311641791045</v>
       </c>
       <c r="M11">
-        <v>1218.181818181818</v>
+        <v>766.616</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>348.204651162791</v>
+        <v>215.50111255814</v>
       </c>
       <c r="P11">
-        <v>1497.280000000001</v>
+        <v>926.6547840000019</v>
       </c>
       <c r="Q11">
         <v>166.666666666667</v>
@@ -1314,16 +1314,16 @@
         <v>333.650927470281</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>570.625216</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>12288.661849697</v>
+        <v>2799.7916</v>
       </c>
       <c r="Y11">
-        <v>4784.58941818182</v>
+        <v>766.616</v>
       </c>
       <c r="Z11">
         <v>713.28152</v>
@@ -1343,10 +1343,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E12">
-        <v>5806.89138620073</v>
+        <v>6170.95897813687</v>
       </c>
       <c r="F12">
-        <v>12023.285849697</v>
+        <v>2714.7676</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1000</v>
+        <v>639.1820895522389</v>
       </c>
       <c r="M12">
-        <v>1218.181818181818</v>
+        <v>778.64</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>347.972093023256</v>
+        <v>217.984833488372</v>
       </c>
       <c r="P12">
-        <v>1496.280000000001</v>
+        <v>937.3347839999996</v>
       </c>
       <c r="Q12">
         <v>166.666666666667</v>
@@ -1394,16 +1394,16 @@
         <v>445.48362561534</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>558.945216</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>12023.285849697</v>
+        <v>2714.7676</v>
       </c>
       <c r="Y12">
-        <v>4711.58941818182</v>
+        <v>778.64</v>
       </c>
       <c r="Z12">
         <v>698.68152</v>
@@ -1423,10 +1423,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E13">
-        <v>6016.58822262791</v>
+        <v>6395.34432549774</v>
       </c>
       <c r="F13">
-        <v>11727.909849697</v>
+        <v>2659.7436</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1444,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1000</v>
+        <v>624.425671641791</v>
       </c>
       <c r="M13">
-        <v>1218.181818181818</v>
+        <v>760.6639999999999</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>347.739534883721</v>
+        <v>220.468554418605</v>
       </c>
       <c r="P13">
-        <v>1495.28</v>
+        <v>948.0147840000016</v>
       </c>
       <c r="Q13">
         <v>166.666666666667</v>
@@ -1474,16 +1474,16 @@
         <v>557.09265836411</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>547.265216</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>11727.909849697</v>
+        <v>2659.7436</v>
       </c>
       <c r="Y13">
-        <v>4638.58941818182</v>
+        <v>760.664</v>
       </c>
       <c r="Z13">
         <v>684.08152</v>
@@ -1503,10 +1503,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E14">
-        <v>6426.28505905508</v>
+        <v>6811.61374089055</v>
       </c>
       <c r="F14">
-        <v>11822.533849697</v>
+        <v>2694.7196</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1524,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1000</v>
+        <v>617.878208955224</v>
       </c>
       <c r="M14">
-        <v>1218.181818181818</v>
+        <v>752.6879999999999</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>347.506976744186</v>
+        <v>219.231345116279</v>
       </c>
       <c r="P14">
-        <v>1494.28</v>
+        <v>942.6947839999996</v>
       </c>
       <c r="Q14">
         <v>166.666666666667</v>
@@ -1554,16 +1554,16 @@
         <v>668.478473047381</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>551.5852160000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>11822.533849697</v>
+        <v>2694.7196</v>
       </c>
       <c r="Y14">
-        <v>4665.58941818182</v>
+        <v>752.688</v>
       </c>
       <c r="Z14">
         <v>689.48152</v>
@@ -1583,10 +1583,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E15">
-        <v>5981.01103824541</v>
+        <v>6379.50957429817</v>
       </c>
       <c r="F15">
-        <v>11529.007849697</v>
+        <v>2637.8456</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1000</v>
+        <v>604.640447761195</v>
       </c>
       <c r="M15">
-        <v>1218.181818181818</v>
+        <v>736.562000000001</v>
       </c>
       <c r="N15">
         <v>0.122170075</v>
       </c>
       <c r="O15">
-        <v>347.274418604651</v>
+        <v>221.715066046512</v>
       </c>
       <c r="P15">
-        <v>1493.279999999999</v>
+        <v>953.3747840000016</v>
       </c>
       <c r="Q15">
         <v>166.666666666667</v>
@@ -1634,16 +1634,16 @@
         <v>779.641516101286</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>539.905216</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>11529.007849697</v>
+        <v>2637.8456</v>
       </c>
       <c r="Y15">
-        <v>4592.58941818182</v>
+        <v>736.562</v>
       </c>
       <c r="Z15">
         <v>674.88152</v>
@@ -1663,10 +1663,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E16">
-        <v>5707.6556220869</v>
+        <v>6121.06976036111</v>
       </c>
       <c r="F16">
-        <v>11993.581849697</v>
+        <v>2782.8716</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1000</v>
+        <v>589.842985074627</v>
       </c>
       <c r="M16">
-        <v>1218.181818181818</v>
+        <v>718.5359999999999</v>
       </c>
       <c r="N16">
         <v>0.24434015</v>
       </c>
       <c r="O16">
-        <v>320.297674418605</v>
+        <v>190.012740465116</v>
       </c>
       <c r="P16">
-        <v>1377.280000000002</v>
+        <v>817.0547839999988</v>
       </c>
       <c r="Q16">
         <v>166.666666666667</v>
@@ -1714,16 +1714,16 @@
         <v>890.5822330690841</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>560.225216</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>11993.581849697</v>
+        <v>2782.8716</v>
       </c>
       <c r="Y16">
-        <v>4719.58941818182</v>
+        <v>718.5359999999999</v>
       </c>
       <c r="Z16">
         <v>700.28152</v>
@@ -1743,10 +1743,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E17">
-        <v>6201.99427891677</v>
+        <v>6630.23099615662</v>
       </c>
       <c r="F17">
-        <v>12078.155849697</v>
+        <v>2827.8976</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1000</v>
+        <v>575.04552238806</v>
       </c>
       <c r="M17">
-        <v>1218.181818181818</v>
+        <v>700.5100000000002</v>
       </c>
       <c r="N17">
         <v>1.5096731</v>
       </c>
       <c r="O17">
-        <v>320.762790697674</v>
+        <v>189.473205581395</v>
       </c>
       <c r="P17">
-        <v>1379.279999999998</v>
+        <v>814.7347839999985</v>
       </c>
       <c r="Q17">
         <v>166.666666666667</v>
@@ -1794,16 +1794,16 @@
         <v>1001.30106860295</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>564.545216</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>12078.155849697</v>
+        <v>2827.8976</v>
       </c>
       <c r="Y17">
-        <v>4746.58941818182</v>
+        <v>700.51</v>
       </c>
       <c r="Z17">
         <v>705.68152</v>
@@ -1823,10 +1823,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E18">
-        <v>5946.33293574663</v>
+        <v>6373.79521702674</v>
       </c>
       <c r="F18">
-        <v>12181.729849697</v>
+        <v>2853.9236</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1844,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1000</v>
+        <v>575.845074626866</v>
       </c>
       <c r="M18">
-        <v>1218.181818181818</v>
+        <v>701.4840000000002</v>
       </c>
       <c r="N18">
         <v>2.77500605</v>
       </c>
       <c r="O18">
-        <v>321.227906976744</v>
+        <v>188.933670697674</v>
       </c>
       <c r="P18">
-        <v>1381.279999999999</v>
+        <v>812.4147839999981</v>
       </c>
       <c r="Q18">
         <v>166.666666666667</v>
@@ -1874,16 +1874,16 @@
         <v>1111.79846646574</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>568.865216</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>12181.729849697</v>
+        <v>2853.9236</v>
       </c>
       <c r="Y18">
-        <v>4773.58941818182</v>
+        <v>701.484</v>
       </c>
       <c r="Z18">
         <v>711.08152</v>
@@ -1903,10 +1903,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E19">
-        <v>5956.2600625765</v>
+        <v>6386.23148998643</v>
       </c>
       <c r="F19">
-        <v>12281.303849697</v>
+        <v>2883.9496</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1924,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1000</v>
+        <v>573.36104477612</v>
       </c>
       <c r="M19">
-        <v>1218.181818181818</v>
+        <v>698.4580000000007</v>
       </c>
       <c r="N19">
         <v>5.9601545</v>
       </c>
       <c r="O19">
-        <v>321.693023255814</v>
+        <v>188.394135813953</v>
       </c>
       <c r="P19">
-        <v>1383.28</v>
+        <v>810.0947839999978</v>
       </c>
       <c r="Q19">
         <v>166.666666666667</v>
@@ -1954,16 +1954,16 @@
         <v>1222.07486953281</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>573.1852160000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>12281.303849697</v>
+        <v>2883.9496</v>
       </c>
       <c r="Y19">
-        <v>4800.58941818182</v>
+        <v>698.458</v>
       </c>
       <c r="Z19">
         <v>716.48152</v>
@@ -1983,10 +1983,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E20">
-        <v>5291.7685847552</v>
+        <v>5729.9768223005</v>
       </c>
       <c r="F20">
-        <v>12297.877849697</v>
+        <v>2900.9756</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1000</v>
+        <v>565.130746268657</v>
       </c>
       <c r="M20">
-        <v>1218.181818181818</v>
+        <v>688.4320000000001</v>
       </c>
       <c r="N20">
         <v>9.14530295</v>
       </c>
       <c r="O20">
-        <v>298.902325581395</v>
+        <v>165.342973023256</v>
       </c>
       <c r="P20">
-        <v>1285.279999999999</v>
+        <v>710.9747840000008</v>
       </c>
       <c r="Q20">
         <v>166.666666666667</v>
@@ -2034,16 +2034,16 @@
         <v>1332.13071979374</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>574.3052160000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>12297.877849697</v>
+        <v>2900.9756</v>
       </c>
       <c r="Y20">
-        <v>4807.58941818182</v>
+        <v>688.432</v>
       </c>
       <c r="Z20">
         <v>717.88152</v>
@@ -2063,10 +2063,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E21">
-        <v>5246.97154150086</v>
+        <v>5698.28614836236</v>
       </c>
       <c r="F21">
-        <v>12080.451849697</v>
+        <v>2864.0016</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2084,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1000</v>
+        <v>551.975074626865</v>
       </c>
       <c r="M21">
-        <v>1218.181818181818</v>
+        <v>672.4059999999989</v>
       </c>
       <c r="N21">
         <v>13.94484173</v>
       </c>
       <c r="O21">
-        <v>299.367441860465</v>
+        <v>167.780182325581</v>
       </c>
       <c r="P21">
-        <v>1287.28</v>
+        <v>721.4547839999982</v>
       </c>
       <c r="Q21">
         <v>166.666666666667</v>
@@ -2114,16 +2114,16 @@
         <v>1441.96645835416</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>565.8252160000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>12080.451849697</v>
+        <v>2864.0016</v>
       </c>
       <c r="Y21">
-        <v>4754.58941818182</v>
+        <v>672.405999999999</v>
       </c>
       <c r="Z21">
         <v>707.28152</v>
@@ -2143,10 +2143,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E22">
-        <v>5202.17449825704</v>
+        <v>5666.6698930394</v>
       </c>
       <c r="F22">
-        <v>12167.025849697</v>
+        <v>2907.0276</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2164,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1000</v>
+        <v>538.819402985074</v>
       </c>
       <c r="M22">
-        <v>1218.181818181818</v>
+        <v>656.3799999999991</v>
       </c>
       <c r="N22">
         <v>18.7443805</v>
       </c>
       <c r="O22">
-        <v>299.832558139535</v>
+        <v>167.24064744186</v>
       </c>
       <c r="P22">
-        <v>1289.280000000001</v>
+        <v>719.134783999998</v>
       </c>
       <c r="Q22">
         <v>166.666666666667</v>
@@ -2194,16 +2194,16 @@
         <v>1551.58252543745</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>570.145216</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>12167.025849697</v>
+        <v>2907.0276</v>
       </c>
       <c r="Y22">
-        <v>4781.58941818182</v>
+        <v>656.38</v>
       </c>
       <c r="Z22">
         <v>712.68152</v>
@@ -2223,10 +2223,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E23">
-        <v>4949.62363477111</v>
+        <v>5424.74410765136</v>
       </c>
       <c r="F23">
-        <v>11876.599849697</v>
+        <v>2847.0536</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1000</v>
+        <v>528.126417910448</v>
       </c>
       <c r="M23">
-        <v>1218.181818181818</v>
+        <v>643.3540000000002</v>
       </c>
       <c r="N23">
         <v>26.91668605</v>
       </c>
       <c r="O23">
-        <v>300.297674418605</v>
+        <v>170.422042790698</v>
       </c>
       <c r="P23">
-        <v>1291.280000000002</v>
+        <v>732.8147840000013</v>
       </c>
       <c r="Q23">
         <v>166.666666666667</v>
@@ -2274,16 +2274,16 @@
         <v>1660.97936038657</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>558.4652159999999</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>11876.599849697</v>
+        <v>2847.0536</v>
       </c>
       <c r="Y23">
-        <v>4708.58941818182</v>
+        <v>643.354</v>
       </c>
       <c r="Z23">
         <v>698.08152</v>
@@ -2303,10 +2303,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E24">
-        <v>4697.07277128519</v>
+        <v>5179.62776342958</v>
       </c>
       <c r="F24">
-        <v>11970.173849697</v>
+        <v>2883.0796</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1000</v>
+        <v>520.717014925373</v>
       </c>
       <c r="M24">
-        <v>1218.181818181818</v>
+        <v>634.3279999999996</v>
       </c>
       <c r="N24">
         <v>35.0889916</v>
       </c>
       <c r="O24">
-        <v>300.762790697674</v>
+        <v>169.882507906977</v>
       </c>
       <c r="P24">
-        <v>1293.279999999998</v>
+        <v>730.494784000001</v>
       </c>
       <c r="Q24">
         <v>166.666666666667</v>
@@ -2354,16 +2354,16 @@
         <v>1770.1574016658</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>562.7852160000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>11970.173849697</v>
+        <v>2883.0796</v>
       </c>
       <c r="Y24">
-        <v>4735.58941818182</v>
+        <v>634.328</v>
       </c>
       <c r="Z24">
         <v>703.48152</v>
@@ -2383,10 +2383,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E25">
-        <v>4844.25943974663</v>
+        <v>5325.12607715309</v>
       </c>
       <c r="F25">
-        <v>11694.747849697</v>
+        <v>2808.1056</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2404,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1000</v>
+        <v>522.3374626865671</v>
       </c>
       <c r="M25">
-        <v>1218.181818181818</v>
+        <v>636.3019999999997</v>
       </c>
       <c r="N25">
         <v>47.99538765</v>
       </c>
       <c r="O25">
-        <v>301.227906976744</v>
+        <v>173.063903255814</v>
       </c>
       <c r="P25">
-        <v>1295.279999999999</v>
+        <v>744.1747840000003</v>
       </c>
       <c r="Q25">
         <v>166.666666666667</v>
@@ -2434,16 +2434,16 @@
         <v>1879.11708686247</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>551.105216</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>11694.747849697</v>
+        <v>2808.1056</v>
       </c>
       <c r="Y25">
-        <v>4662.58941818182</v>
+        <v>636.302</v>
       </c>
       <c r="Z25">
         <v>688.88152</v>
@@ -2463,10 +2463,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E26">
-        <v>4991.44610820808</v>
+        <v>5470.71741413241</v>
       </c>
       <c r="F26">
-        <v>11799.321849697</v>
+        <v>2833.1316</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1000</v>
+        <v>523.9579104477619</v>
       </c>
       <c r="M26">
-        <v>1218.181818181818</v>
+        <v>638.2760000000007</v>
       </c>
       <c r="N26">
         <v>60.9017837</v>
       </c>
       <c r="O26">
-        <v>301.693023255814</v>
+        <v>172.524368372093</v>
       </c>
       <c r="P26">
-        <v>1297.28</v>
+        <v>741.8547839999999</v>
       </c>
       <c r="Q26">
         <v>166.666666666667</v>
@@ -2514,16 +2514,16 @@
         <v>1987.85885268874</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>555.425216</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>11799.321849697</v>
+        <v>2833.1316</v>
       </c>
       <c r="Y26">
-        <v>4689.58941818182</v>
+        <v>638.276</v>
       </c>
       <c r="Z26">
         <v>694.28152</v>
@@ -2543,10 +2543,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E27">
-        <v>4882.54878132215</v>
+        <v>5371.84591161302</v>
       </c>
       <c r="F27">
-        <v>11509.625849697</v>
+        <v>2772.4276</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2564,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1000</v>
+        <v>513.864179104478</v>
       </c>
       <c r="M27">
-        <v>1218.181818181818</v>
+        <v>625.9800000000004</v>
       </c>
       <c r="N27">
         <v>74.39721408</v>
       </c>
       <c r="O27">
-        <v>302.158139534884</v>
+        <v>175.70576372093</v>
       </c>
       <c r="P27">
-        <v>1299.280000000001</v>
+        <v>755.534783999999</v>
       </c>
       <c r="Q27">
         <v>166.666666666667</v>
@@ -2594,16 +2594,16 @@
         <v>2096.38313498336</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>543.745216</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>11509.625849697</v>
+        <v>2772.4276</v>
       </c>
       <c r="Y27">
-        <v>4616.58941818182</v>
+        <v>625.98</v>
       </c>
       <c r="Z27">
         <v>679.68152</v>
@@ -2623,10 +2623,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E28">
-        <v>4773.65145444676</v>
+        <v>5277.77993149223</v>
       </c>
       <c r="F28">
-        <v>11214.075849697</v>
+        <v>2717.5776</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2644,19 +2644,19 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1000</v>
+        <v>498.964925373134</v>
       </c>
       <c r="M28">
-        <v>1218.181818181818</v>
+        <v>607.8299999999995</v>
       </c>
       <c r="N28">
         <v>87.89264445000001</v>
       </c>
       <c r="O28">
-        <v>302.623255813954</v>
+        <v>178.887159069767</v>
       </c>
       <c r="P28">
-        <v>1301.280000000002</v>
+        <v>769.2147839999981</v>
       </c>
       <c r="Q28">
         <v>166.666666666667</v>
@@ -2674,16 +2674,16 @@
         <v>2204.6903687134</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>532.065216</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>11214.075849697</v>
+        <v>2717.5776</v>
       </c>
       <c r="Y28">
-        <v>4543.58941818182</v>
+        <v>607.83</v>
       </c>
       <c r="Z28">
         <v>665.08152</v>
@@ -2703,10 +2703,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E29">
-        <v>4745.23342996083</v>
+        <v>5247.86836656895</v>
       </c>
       <c r="F29">
-        <v>11318.525849697</v>
+        <v>2742.7276</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2724,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1000</v>
+        <v>500.483582089552</v>
       </c>
       <c r="M29">
-        <v>1218.181818181818</v>
+        <v>609.6799999999996</v>
       </c>
       <c r="N29">
         <v>110.5464674</v>
       </c>
       <c r="O29">
-        <v>303.088372093023</v>
+        <v>178.347624186046</v>
       </c>
       <c r="P29">
-        <v>1303.279999999999</v>
+        <v>766.8947839999978</v>
       </c>
       <c r="Q29">
         <v>166.666666666667</v>
@@ -2754,16 +2754,16 @@
         <v>2312.78098797597</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>536.385216</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>11318.525849697</v>
+        <v>2742.7276</v>
       </c>
       <c r="Y29">
-        <v>4570.58941818182</v>
+        <v>609.6799999999999</v>
       </c>
       <c r="Z29">
         <v>670.48152</v>
@@ -2783,10 +2783,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E30">
-        <v>4716.81540542228</v>
+        <v>5217.95680159305</v>
       </c>
       <c r="F30">
-        <v>11422.975849697</v>
+        <v>2767.8776</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1000</v>
+        <v>502.00223880597</v>
       </c>
       <c r="M30">
-        <v>1218.181818181818</v>
+        <v>611.5299999999996</v>
       </c>
       <c r="N30">
         <v>133.2002904</v>
       </c>
       <c r="O30">
-        <v>303.553488372093</v>
+        <v>177.808089302326</v>
       </c>
       <c r="P30">
-        <v>1305.28</v>
+        <v>764.5747840000018</v>
       </c>
       <c r="Q30">
         <v>166.666666666667</v>
@@ -2834,16 +2834,16 @@
         <v>2420.65542600002</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>540.7052160000001</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>11422.975849697</v>
+        <v>2767.8776</v>
       </c>
       <c r="Y30">
-        <v>4597.58941818182</v>
+        <v>611.53</v>
       </c>
       <c r="Z30">
         <v>675.88152</v>
@@ -2863,10 +2863,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E31">
-        <v>4972.19857581151</v>
+        <v>5471.75340828912</v>
       </c>
       <c r="F31">
-        <v>11147.425849697</v>
+        <v>2693.0276</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2884,19 +2884,19 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1000</v>
+        <v>503.520895522388</v>
       </c>
       <c r="M31">
-        <v>1218.181818181818</v>
+        <v>613.3799999999998</v>
       </c>
       <c r="N31">
         <v>160.9459877</v>
       </c>
       <c r="O31">
-        <v>280.762790697674</v>
+        <v>157.733670697674</v>
       </c>
       <c r="P31">
-        <v>1207.279999999998</v>
+        <v>678.2547839999982</v>
       </c>
       <c r="Q31">
         <v>166.666666666667</v>
@@ -2914,16 +2914,16 @@
         <v>2528.31411514802</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>529.025216</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>11147.425849697</v>
+        <v>2693.0276</v>
       </c>
       <c r="Y31">
-        <v>4524.58941818182</v>
+        <v>613.38</v>
       </c>
       <c r="Z31">
         <v>661.28152</v>
@@ -2943,10 +2943,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E32">
-        <v>5252.0003508519</v>
+        <v>5750.06164289216</v>
       </c>
       <c r="F32">
-        <v>11251.875849697</v>
+        <v>2718.1776</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2964,19 +2964,19 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1000</v>
+        <v>505.039552238806</v>
       </c>
       <c r="M32">
-        <v>1218.181818181818</v>
+        <v>615.2299999999999</v>
       </c>
       <c r="N32">
         <v>188.691685</v>
       </c>
       <c r="O32">
-        <v>281.227906976744</v>
+        <v>157.194135813953</v>
       </c>
       <c r="P32">
-        <v>1209.279999999999</v>
+        <v>675.9347839999979</v>
       </c>
       <c r="Q32">
         <v>166.666666666667</v>
@@ -2994,16 +2994,16 @@
         <v>2635.75748691772</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>533.3452160000001</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>11251.875849697</v>
+        <v>2718.1776</v>
       </c>
       <c r="Y32">
-        <v>4551.58941818182</v>
+        <v>615.23</v>
       </c>
       <c r="Z32">
         <v>666.68152</v>
@@ -3023,10 +3023,10 @@
         <v>0.35220001</v>
       </c>
       <c r="E33">
-        <v>4773.31539870392</v>
+        <v>5269.88315030684</v>
       </c>
       <c r="F33">
-        <v>11356.325849697</v>
+        <v>2743.3276</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3044,19 +3044,19 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1000</v>
+        <v>506.558208955224</v>
       </c>
       <c r="M33">
-        <v>1218.181818181818</v>
+        <v>617.08</v>
       </c>
       <c r="N33">
         <v>203.3171886</v>
       </c>
       <c r="O33">
-        <v>281.693023255814</v>
+        <v>156.654600930233</v>
       </c>
       <c r="P33">
-        <v>1211.28</v>
+        <v>673.6147840000018</v>
       </c>
       <c r="Q33">
         <v>166.666666666667</v>
@@ -3074,16 +3074,16 @@
         <v>2742.98597194389</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>537.665216</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>11356.325849697</v>
+        <v>2743.3276</v>
       </c>
       <c r="Y33">
-        <v>4578.58941818182</v>
+        <v>617.08</v>
       </c>
       <c r="Z33">
         <v>672.08152</v>
@@ -3106,7 +3106,7 @@
         <v>4032.90241764663</v>
       </c>
       <c r="F34">
-        <v>11080.775849697</v>
+        <v>2069.22578181818</v>
       </c>
       <c r="G34">
         <v>83.3636288650022</v>
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>11080.775849697</v>
+        <v>2069.22578181818</v>
       </c>
       <c r="Y34">
-        <v>4505.58941818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z34">
         <v>657.48152</v>
@@ -3186,7 +3186,7 @@
         <v>3935.85785207215</v>
       </c>
       <c r="F35">
-        <v>10805.225849697</v>
+        <v>1996.22578181818</v>
       </c>
       <c r="G35">
         <v>185.8965665325</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>10805.225849697</v>
+        <v>1996.22578181818</v>
       </c>
       <c r="Y35">
-        <v>4432.58941818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z35">
         <v>642.88152</v>
@@ -3266,7 +3266,7 @@
         <v>3950.05970519733</v>
       </c>
       <c r="F36">
-        <v>10529.675849697</v>
+        <v>1923.22578181818</v>
       </c>
       <c r="G36">
         <v>202.029504105</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>10529.675849697</v>
+        <v>1923.22578181818</v>
       </c>
       <c r="Y36">
-        <v>4359.58941818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z36">
         <v>628.28152</v>
@@ -3346,7 +3346,7 @@
         <v>4227.57780131244</v>
       </c>
       <c r="F37">
-        <v>10254.125849697</v>
+        <v>1850.22578181818</v>
       </c>
       <c r="G37">
         <v>209.637268455</v>
@@ -3400,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>10254.125849697</v>
+        <v>1850.22578181818</v>
       </c>
       <c r="Y37">
-        <v>4286.58941818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z37">
         <v>613.68152</v>
@@ -3426,7 +3426,7 @@
         <v>4285.09589752256</v>
       </c>
       <c r="F38">
-        <v>10738.575849697</v>
+        <v>1977.22578181818</v>
       </c>
       <c r="G38">
         <v>217.24503271</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>10738.575849697</v>
+        <v>1977.22578181818</v>
       </c>
       <c r="Y38">
-        <v>4413.58941818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z38">
         <v>639.08152</v>
@@ -3506,7 +3506,7 @@
         <v>4262.68986083523</v>
       </c>
       <c r="F39">
-        <v>11063.784569697</v>
+        <v>2062.32018181818</v>
       </c>
       <c r="G39">
         <v>231.133860095</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>11063.784569697</v>
+        <v>2062.32018181818</v>
       </c>
       <c r="Y39">
-        <v>4498.68381818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z39">
         <v>656.1004</v>
@@ -3586,7 +3586,7 @@
         <v>4364.77080079709</v>
       </c>
       <c r="F40">
-        <v>10943.360569697</v>
+        <v>2029.09018181818</v>
       </c>
       <c r="G40">
         <v>245.022687575</v>
@@ -3640,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>10943.360569697</v>
+        <v>2029.09018181818</v>
       </c>
       <c r="Y40">
-        <v>4465.45381818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z40">
         <v>649.4544</v>
@@ -3666,7 +3666,7 @@
         <v>4196.14070248163</v>
       </c>
       <c r="F41">
-        <v>11581.936569697</v>
+        <v>2195.86018181818</v>
       </c>
       <c r="G41">
         <v>255.22934403</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>11581.936569697</v>
+        <v>2195.86018181818</v>
       </c>
       <c r="Y41">
-        <v>4632.22381818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z41">
         <v>682.8084</v>
@@ -3746,7 +3746,7 @@
         <v>4276.34781346849</v>
       </c>
       <c r="F42">
-        <v>12232.512569697</v>
+        <v>2362.63018181818</v>
       </c>
       <c r="G42">
         <v>265.436000485</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>12232.512569697</v>
+        <v>2362.63018181818</v>
       </c>
       <c r="Y42">
-        <v>4798.99381818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z42">
         <v>716.1624</v>
@@ -3826,7 +3826,7 @@
         <v>4459.80688151331</v>
       </c>
       <c r="F43">
-        <v>12877.088569697</v>
+        <v>2529.40018181818</v>
       </c>
       <c r="G43">
         <v>272.4141417425</v>
@@ -3880,10 +3880,10 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>12877.088569697</v>
+        <v>2529.40018181818</v>
       </c>
       <c r="Y43">
-        <v>4965.76381818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z43">
         <v>749.5164</v>
@@ -3906,7 +3906,7 @@
         <v>4843.26594955814</v>
       </c>
       <c r="F44">
-        <v>12787.937689697</v>
+        <v>2500.45258181818</v>
       </c>
       <c r="G44">
         <v>279.392283</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>12787.937689697</v>
+        <v>2500.45258181818</v>
       </c>
       <c r="Y44">
-        <v>4936.81621818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z44">
         <v>743.7268800000001</v>
@@ -3986,7 +3986,7 @@
         <v>4571.98253469738</v>
       </c>
       <c r="F45">
-        <v>13490.160989697</v>
+        <v>2658.88408181818</v>
       </c>
       <c r="G45">
         <v>281.3076048375</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>13490.160989697</v>
+        <v>2658.88408181818</v>
       </c>
       <c r="Y45">
-        <v>5095.24771818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z45">
         <v>775.41318</v>
@@ -4066,7 +4066,7 @@
         <v>4500.69911983663</v>
       </c>
       <c r="F46">
-        <v>14099.119889697</v>
+        <v>2817.31558181818</v>
       </c>
       <c r="G46">
         <v>283.222926675</v>
@@ -4120,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>14099.119889697</v>
+        <v>2817.31558181818</v>
       </c>
       <c r="Y46">
-        <v>5253.67921818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z46">
         <v>807.09948</v>
@@ -4146,7 +4146,7 @@
         <v>4826.15456243663</v>
       </c>
       <c r="F47">
-        <v>14709.518789697</v>
+        <v>2975.74708181818</v>
       </c>
       <c r="G47">
         <v>289.571484075</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>14709.518789697</v>
+        <v>2975.74708181818</v>
       </c>
       <c r="Y47">
-        <v>5412.11071818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z47">
         <v>838.78578</v>
@@ -4226,7 +4226,7 @@
         <v>4751.61000503663</v>
       </c>
       <c r="F48">
-        <v>15319.917689697</v>
+        <v>3134.17858181818</v>
       </c>
       <c r="G48">
         <v>295.920041475</v>
@@ -4280,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>15319.917689697</v>
+        <v>3134.17858181818</v>
       </c>
       <c r="Y48">
-        <v>5570.54221818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z48">
         <v>870.47208</v>
@@ -4306,7 +4306,7 @@
         <v>4632.69487622221</v>
       </c>
       <c r="F49">
-        <v>15938.092589697</v>
+        <v>3292.61008181818</v>
       </c>
       <c r="G49">
         <v>302.968472615</v>
@@ -4360,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>15938.092589697</v>
+        <v>3292.61008181818</v>
       </c>
       <c r="Y49">
-        <v>5728.97371818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z49">
         <v>902.15838</v>
@@ -4386,7 +4386,7 @@
         <v>4738.68426999049</v>
       </c>
       <c r="F50">
-        <v>18559.678865697</v>
+        <v>3978.25510181818</v>
       </c>
       <c r="G50">
         <v>85.1123811723028</v>
@@ -4440,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>18559.678865697</v>
+        <v>3978.25510181818</v>
       </c>
       <c r="Y50">
-        <v>6414.61873818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z50">
         <v>1039.287384</v>
@@ -4463,10 +4463,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E51">
-        <v>4690.1088</v>
+        <v>4685.792</v>
       </c>
       <c r="F51">
-        <v>19016.855393697</v>
+        <v>4094.76766181818</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>2150</v>
       </c>
       <c r="Q51">
-        <v>14.3893333333334</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4508,22 +4508,22 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>43.16800000000021</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>2754.63500396591</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>43.16800000000016</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>19016.855393697</v>
+        <v>4094.76766181818</v>
       </c>
       <c r="Y51">
-        <v>6531.13129818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z51">
         <v>1062.589896</v>
@@ -4543,10 +4543,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E52">
-        <v>4556.9424</v>
+        <v>4547.816</v>
       </c>
       <c r="F52">
-        <v>19434.031921697</v>
+        <v>4211.28022181818</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>2150</v>
       </c>
       <c r="Q52">
-        <v>30.4213333333334</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4588,22 +4588,22 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>91.26400000000021</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>2749.12573395797</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>91.26400000000001</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52">
-        <v>19434.031921697</v>
+        <v>4211.28022181818</v>
       </c>
       <c r="Y52">
-        <v>6647.64385818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z52">
         <v>1085.892408</v>
@@ -4623,10 +4623,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E53">
-        <v>4670.3152</v>
+        <v>4657.368</v>
       </c>
       <c r="F53">
-        <v>19888.242049697</v>
+        <v>4327.79278181818</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>2150</v>
       </c>
       <c r="Q53">
-        <v>43.1573333333334</v>
+        <v>0</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>129.4720000000002</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <v>2743.62748249006</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>129.472</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>19888.242049697</v>
+        <v>4327.79278181818</v>
       </c>
       <c r="Y53">
-        <v>6764.15641818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z53">
         <v>1109.19492</v>
@@ -4703,10 +4703,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E54">
-        <v>4683.688</v>
+        <v>4666.92</v>
       </c>
       <c r="F54">
-        <v>20335.252177697</v>
+        <v>4444.30534181818</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>2150</v>
       </c>
       <c r="Q54">
-        <v>55.8933333333334</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4748,22 +4748,22 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>167.6800000000002</v>
+        <v>0</v>
       </c>
       <c r="U54">
         <v>2738.14022752508</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>167.68</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54">
-        <v>20335.252177697</v>
+        <v>4444.30534181818</v>
       </c>
       <c r="Y54">
-        <v>6880.66897818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z54">
         <v>1132.497432</v>
@@ -4783,10 +4783,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E55">
-        <v>4747.0524</v>
+        <v>4726.466</v>
       </c>
       <c r="F55">
-        <v>20782.262305697</v>
+        <v>4560.81790181818</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>2150</v>
       </c>
       <c r="Q55">
-        <v>68.6213333333333</v>
+        <v>0</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4828,22 +4828,22 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>205.8639999999999</v>
+        <v>0</v>
       </c>
       <c r="U55">
         <v>2732.66394707003</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>205.864</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55">
-        <v>20782.262305697</v>
+        <v>4560.81790181818</v>
       </c>
       <c r="Y55">
-        <v>6997.18153818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z55">
         <v>1155.799944</v>
@@ -4863,10 +4863,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E56">
-        <v>4505.13851458</v>
+        <v>4480.73371458</v>
       </c>
       <c r="F56">
-        <v>21229.272433697</v>
+        <v>4677.33046181818</v>
       </c>
       <c r="G56">
         <v>305.27828542</v>
@@ -4899,7 +4899,7 @@
         <v>2150</v>
       </c>
       <c r="Q56">
-        <v>81.3493333333334</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -4908,22 +4908,22 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>244.0480000000002</v>
+        <v>0</v>
       </c>
       <c r="U56">
         <v>2727.19861917589</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>244.048</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56">
-        <v>21229.272433697</v>
+        <v>4677.33046181818</v>
       </c>
       <c r="Y56">
-        <v>7113.69409818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z56">
         <v>1179.102456</v>
@@ -4943,10 +4943,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E57">
-        <v>3926.3013590525</v>
+        <v>3900.8597590525</v>
       </c>
       <c r="F57">
-        <v>21676.282561697</v>
+        <v>4793.84302181818</v>
       </c>
       <c r="G57">
         <v>887.7442409475</v>
@@ -4979,7 +4979,7 @@
         <v>2150</v>
       </c>
       <c r="Q57">
-        <v>84.80533333333339</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -4988,22 +4988,22 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>254.4160000000002</v>
+        <v>0</v>
       </c>
       <c r="U57">
         <v>2721.74422193754</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>254.416</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57">
-        <v>21676.282561697</v>
+        <v>4793.84302181818</v>
       </c>
       <c r="Y57">
-        <v>7230.20665818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z57">
         <v>1202.404968</v>
@@ -5026,7 +5026,7 @@
         <v>3797.35333840872</v>
       </c>
       <c r="F58">
-        <v>22122.174289697</v>
+        <v>4910.35558181818</v>
       </c>
       <c r="G58">
         <v>1470.210196475</v>
@@ -5080,10 +5080,10 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>22122.174289697</v>
+        <v>4910.35558181818</v>
       </c>
       <c r="Y58">
-        <v>7346.71921818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z58">
         <v>1225.70748</v>
@@ -5106,7 +5106,7 @@
         <v>3855.60117405448</v>
       </c>
       <c r="F59">
-        <v>22589.858017697</v>
+        <v>5026.86814181818</v>
       </c>
       <c r="G59">
         <v>1465.6544538525</v>
@@ -5160,10 +5160,10 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>22589.858017697</v>
+        <v>5026.86814181818</v>
       </c>
       <c r="Y59">
-        <v>7463.23177818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z59">
         <v>1249.009992</v>
@@ -5186,7 +5186,7 @@
         <v>3913.84900979523</v>
       </c>
       <c r="F60">
-        <v>22557.207769697</v>
+        <v>5020.24018181818</v>
       </c>
       <c r="G60">
         <v>1461.098711135</v>
@@ -5240,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>22557.207769697</v>
+        <v>5020.24018181818</v>
       </c>
       <c r="Y60">
-        <v>7456.60381818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z60">
         <v>1247.6844</v>
@@ -5266,7 +5266,7 @@
         <v>4090.45132734192</v>
       </c>
       <c r="F61">
-        <v>22535.711121697</v>
+        <v>5013.61222181818</v>
       </c>
       <c r="G61">
         <v>1440.7553703325</v>
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>22535.711121697</v>
+        <v>5013.61222181818</v>
       </c>
       <c r="Y61">
-        <v>7449.97585818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z61">
         <v>1246.358808</v>
@@ -5346,7 +5346,7 @@
         <v>4167.05364498361</v>
       </c>
       <c r="F62">
-        <v>22554.214473697</v>
+        <v>5006.98426181818</v>
       </c>
       <c r="G62">
         <v>1420.412029435</v>
@@ -5400,10 +5400,10 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>22554.214473697</v>
+        <v>5006.98426181818</v>
       </c>
       <c r="Y62">
-        <v>7443.34789818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z62">
         <v>1245.033216</v>
@@ -5426,7 +5426,7 @@
         <v>4238.33337012366</v>
       </c>
       <c r="F63">
-        <v>22596.617025697</v>
+        <v>5000.35630181818</v>
       </c>
       <c r="G63">
         <v>1405.3092345275</v>
@@ -5480,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>22596.617025697</v>
+        <v>5000.35630181818</v>
       </c>
       <c r="Y63">
-        <v>7436.71993818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z63">
         <v>1243.707624</v>
@@ -5506,7 +5506,7 @@
         <v>4309.61309535872</v>
       </c>
       <c r="F64">
-        <v>22579.019577697</v>
+        <v>4993.72834181818</v>
       </c>
       <c r="G64">
         <v>1390.206439525</v>
@@ -5560,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>22579.019577697</v>
+        <v>4993.72834181818</v>
       </c>
       <c r="Y64">
-        <v>7430.09197818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z64">
         <v>1242.382032</v>
@@ -5586,7 +5586,7 @@
         <v>4265.7847072289</v>
       </c>
       <c r="F65">
-        <v>22546.258929697</v>
+        <v>4987.10038181818</v>
       </c>
       <c r="G65">
         <v>1377.8696183525</v>
@@ -5640,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="X65">
-        <v>22546.258929697</v>
+        <v>4987.10038181818</v>
       </c>
       <c r="Y65">
-        <v>7423.46401818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z65">
         <v>1241.05644</v>
@@ -5666,7 +5666,7 @@
         <v>4221.95631919407</v>
       </c>
       <c r="F66">
-        <v>22513.498281697</v>
+        <v>4980.47242181818</v>
       </c>
       <c r="G66">
         <v>1365.532797085</v>
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>22513.498281697</v>
+        <v>4980.47242181818</v>
       </c>
       <c r="Y66">
-        <v>7416.83605818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z66">
         <v>1239.730848</v>
@@ -5746,7 +5746,7 @@
         <v>4181.40830225715</v>
       </c>
       <c r="F67">
-        <v>22420.608033697</v>
+        <v>4973.84446181818</v>
       </c>
       <c r="G67">
         <v>1349.8101163475</v>
@@ -5800,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="X67">
-        <v>22420.608033697</v>
+        <v>4973.84446181818</v>
       </c>
       <c r="Y67">
-        <v>7410.20809818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z67">
         <v>1238.405256</v>
@@ -5826,7 +5826,7 @@
         <v>4140.86028522523</v>
       </c>
       <c r="F68">
-        <v>22387.717785697</v>
+        <v>4967.21650181818</v>
       </c>
       <c r="G68">
         <v>1334.087435705</v>
@@ -5880,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <v>22387.717785697</v>
+        <v>4967.21650181818</v>
       </c>
       <c r="Y68">
-        <v>7403.58013818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z68">
         <v>1237.079664</v>
@@ -5906,10 +5906,10 @@
         <v>3163.14778037122</v>
       </c>
       <c r="F69">
-        <v>22359.514737697</v>
+        <v>4960.58854181818</v>
       </c>
       <c r="G69">
-        <v>1239.69324288459</v>
+        <v>1239.6932428846</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5960,10 +5960,10 @@
         <v>0</v>
       </c>
       <c r="X69">
-        <v>22359.514737697</v>
+        <v>4960.58854181818</v>
       </c>
       <c r="Y69">
-        <v>7396.95217818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z69">
         <v>1235.754072</v>
@@ -5983,10 +5983,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E70">
-        <v>3546.4331271904</v>
+        <v>3530.94192719041</v>
       </c>
       <c r="F70">
-        <v>22295.311689697</v>
+        <v>4953.96058181818</v>
       </c>
       <c r="G70">
         <v>622.786072809595</v>
@@ -6019,7 +6019,7 @@
         <v>2150</v>
       </c>
       <c r="Q70">
-        <v>51.6373333333333</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -6028,22 +6028,22 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>154.9119999999999</v>
+        <v>0</v>
       </c>
       <c r="U70">
         <v>1003.36685272713</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>154.912</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70">
-        <v>22295.311689697</v>
+        <v>4953.96058181818</v>
       </c>
       <c r="Y70">
-        <v>7390.32421818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z70">
         <v>1234.42848</v>
@@ -6063,10 +6063,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E71">
-        <v>4369.47916741691</v>
+        <v>4360.99116741691</v>
       </c>
       <c r="F71">
-        <v>21174.448809697</v>
+        <v>4680.31498181818</v>
       </c>
       <c r="G71">
         <v>5.22883258309503</v>
@@ -6099,7 +6099,7 @@
         <v>2150</v>
       </c>
       <c r="Q71">
-        <v>28.2933333333335</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -6108,22 +6108,22 @@
         <v>0</v>
       </c>
       <c r="T71">
-        <v>84.88000000000051</v>
+        <v>0</v>
       </c>
       <c r="U71">
         <v>1001.36011902167</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>84.88000000000081</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71">
-        <v>21174.448809697</v>
+        <v>4680.31498181818</v>
       </c>
       <c r="Y71">
-        <v>7116.67861818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z71">
         <v>1179.69936</v>
@@ -6143,10 +6143,10 @@
         <v>0.65550003</v>
       </c>
       <c r="E72">
-        <v>5258.67703008632</v>
+        <v>5257.19223008632</v>
       </c>
       <c r="F72">
-        <v>20113.585929697</v>
+        <v>4406.66938181818</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>2150</v>
       </c>
       <c r="Q72">
-        <v>4.94933333333332</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -6188,22 +6188,22 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>14.84799999999996</v>
+        <v>0</v>
       </c>
       <c r="U72">
         <v>999.357398783631</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>14.84799999999992</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72">
-        <v>20113.585929697</v>
+        <v>4406.66938181818</v>
       </c>
       <c r="Y72">
-        <v>6843.03301818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z72">
         <v>1124.97024</v>
@@ -6226,7 +6226,7 @@
         <v>5939.72956720465</v>
       </c>
       <c r="F73">
-        <v>19042.532649697</v>
+        <v>4133.02378181818</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6280,10 +6280,10 @@
         <v>0</v>
       </c>
       <c r="X73">
-        <v>19042.532649697</v>
+        <v>4133.02378181818</v>
       </c>
       <c r="Y73">
-        <v>6569.38741818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z73">
         <v>1070.24112</v>
@@ -6306,7 +6306,7 @@
         <v>6043.39148226438</v>
       </c>
       <c r="F74">
-        <v>16103.131089697</v>
+        <v>3367.70758181818</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>16103.131089697</v>
+        <v>3367.70758181818</v>
       </c>
       <c r="Y74">
-        <v>5804.07121818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z74">
         <v>917.17788</v>
@@ -6386,7 +6386,7 @@
         <v>5400.86282375643</v>
       </c>
       <c r="F75">
-        <v>15249.685899697</v>
+        <v>3143.43253181818</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6440,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>15249.685899697</v>
+        <v>3143.43253181818</v>
       </c>
       <c r="Y75">
-        <v>5579.79616818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z75">
         <v>872.32287</v>
@@ -6466,7 +6466,7 @@
         <v>4747.53004651163</v>
       </c>
       <c r="F76">
-        <v>14396.240709697</v>
+        <v>2919.15748181818</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6520,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>14396.240709697</v>
+        <v>2919.15748181818</v>
       </c>
       <c r="Y76">
-        <v>5355.52111818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z76">
         <v>827.46786</v>
@@ -6546,7 +6546,7 @@
         <v>4660.17741901552</v>
       </c>
       <c r="F77">
-        <v>13542.795519697</v>
+        <v>2694.88243181818</v>
       </c>
       <c r="G77">
         <v>587.4749530775</v>
@@ -6600,10 +6600,10 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>13542.795519697</v>
+        <v>2694.88243181818</v>
       </c>
       <c r="Y77">
-        <v>5131.24606818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z77">
         <v>782.61285</v>
@@ -6626,7 +6626,7 @@
         <v>3950.7317682636</v>
       </c>
       <c r="F78">
-        <v>12689.350329697</v>
+        <v>2470.60738181818</v>
       </c>
       <c r="G78">
         <v>1174.949906155</v>
@@ -6680,10 +6680,10 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>12689.350329697</v>
+        <v>2470.60738181818</v>
       </c>
       <c r="Y78">
-        <v>4906.97101818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z78">
         <v>737.75784</v>
@@ -6706,7 +6706,7 @@
         <v>4117.592421945</v>
       </c>
       <c r="F79">
-        <v>11831.409939697</v>
+        <v>2246.33233181818</v>
       </c>
       <c r="G79">
         <v>1180.211578055</v>
@@ -6760,10 +6760,10 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>11831.409939697</v>
+        <v>2246.33233181818</v>
       </c>
       <c r="Y79">
-        <v>4682.69596818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z79">
         <v>692.90283</v>
@@ -6786,7 +6786,7 @@
         <v>3940.2037927864</v>
       </c>
       <c r="F80">
-        <v>10993.600749697</v>
+        <v>2022.05728181818</v>
       </c>
       <c r="G80">
         <v>1175.722532795</v>
@@ -6840,10 +6840,10 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>10993.600749697</v>
+        <v>2022.05728181818</v>
       </c>
       <c r="Y80">
-        <v>4458.42091818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z80">
         <v>648.04782</v>
@@ -6866,7 +6866,7 @@
         <v>3999.84019577579</v>
       </c>
       <c r="F81">
-        <v>10114.614759697</v>
+        <v>1797.78223181818</v>
       </c>
       <c r="G81">
         <v>1174.32036236375</v>
@@ -6920,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>10114.614759697</v>
+        <v>1797.78223181818</v>
       </c>
       <c r="Y81">
-        <v>4234.14586818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z81">
         <v>603.19281</v>
@@ -6946,7 +6946,7 @@
         <v>4103.77052378744</v>
       </c>
       <c r="F82">
-        <v>10571.966569697</v>
+        <v>1920.43818181818</v>
       </c>
       <c r="G82">
         <v>1172.9181919325</v>
@@ -7000,10 +7000,10 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>10571.966569697</v>
+        <v>1920.43818181818</v>
       </c>
       <c r="Y82">
-        <v>4356.80181818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z82">
         <v>627.724</v>
@@ -7026,7 +7026,7 @@
         <v>4309.7049255852</v>
       </c>
       <c r="F83">
-        <v>10942.056729697</v>
+        <v>2024.86738181818</v>
       </c>
       <c r="G83">
         <v>1171.85433022875</v>
@@ -7080,10 +7080,10 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>10942.056729697</v>
+        <v>2024.86738181818</v>
       </c>
       <c r="Y83">
-        <v>4461.23101818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z83">
         <v>648.60984</v>
@@ -7106,7 +7106,7 @@
         <v>4463.42162449826</v>
       </c>
       <c r="F84">
-        <v>9938.79568969697</v>
+        <v>1741.57258181818</v>
       </c>
       <c r="G84">
         <v>1170.790468525</v>
@@ -7160,10 +7160,10 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>9938.79568969697</v>
+        <v>1741.57258181818</v>
       </c>
       <c r="Y84">
-        <v>4177.93621818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z84">
         <v>591.95088</v>
@@ -7186,7 +7186,7 @@
         <v>4067.26609215907</v>
       </c>
       <c r="F85">
-        <v>9997.243449696971</v>
+        <v>1758.27778181818</v>
       </c>
       <c r="G85">
         <v>1169.84302412</v>
@@ -7240,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>9997.243449696971</v>
+        <v>1758.27778181818</v>
       </c>
       <c r="Y85">
-        <v>4194.64141818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z85">
         <v>595.29192</v>
@@ -7266,7 +7266,7 @@
         <v>4166.91837377337</v>
       </c>
       <c r="F86">
-        <v>10283.691209697</v>
+        <v>1834.98298181818</v>
       </c>
       <c r="G86">
         <v>1168.895579715</v>
@@ -7320,10 +7320,10 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>10283.691209697</v>
+        <v>1834.98298181818</v>
       </c>
       <c r="Y86">
-        <v>4271.34661818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z86">
         <v>610.63296</v>
@@ -7346,7 +7346,7 @@
         <v>4365.52787862517</v>
       </c>
       <c r="F87">
-        <v>10722.138969697</v>
+        <v>1951.68818181818</v>
       </c>
       <c r="G87">
         <v>1168.9909120725</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>10722.138969697</v>
+        <v>1951.68818181818</v>
       </c>
       <c r="Y87">
-        <v>4388.05181818182</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z87">
         <v>633.974</v>
@@ -7426,7 +7426,7 @@
         <v>3964.13738347698</v>
       </c>
       <c r="F88">
-        <v>10461.386729697</v>
+        <v>1884.39338181819</v>
       </c>
       <c r="G88">
         <v>1169.08624443</v>
@@ -7480,10 +7480,10 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>10461.386729697</v>
+        <v>1884.39338181819</v>
       </c>
       <c r="Y88">
-        <v>4320.75701818183</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z88">
         <v>620.515040000002</v>
@@ -7506,7 +7506,7 @@
         <v>4288.07598286878</v>
       </c>
       <c r="F89">
-        <v>10580.634489697</v>
+        <v>1917.09858181819</v>
       </c>
       <c r="G89">
         <v>593.8524822475</v>
@@ -7560,10 +7560,10 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>10580.634489697</v>
+        <v>1917.09858181819</v>
       </c>
       <c r="Y89">
-        <v>4353.46221818183</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z89">
         <v>627.056080000002</v>
@@ -7586,7 +7586,7 @@
         <v>5130.63330232559</v>
       </c>
       <c r="F90">
-        <v>10699.882249697</v>
+        <v>1949.8037818182</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -7640,10 +7640,10 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>10699.882249697</v>
+        <v>1949.8037818182</v>
       </c>
       <c r="Y90">
-        <v>4386.16741818184</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z90">
         <v>633.597120000004</v>
@@ -7666,7 +7666,7 @@
         <v>5485.47197175373</v>
       </c>
       <c r="F91">
-        <v>10819.1300096971</v>
+        <v>1982.50898181821</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7720,10 +7720,10 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>10819.1300096971</v>
+        <v>1982.50898181821</v>
       </c>
       <c r="Y91">
-        <v>4418.87261818185</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z91">
         <v>640.138160000006</v>
@@ -7746,7 +7746,7 @@
         <v>5809.04336133145</v>
       </c>
       <c r="F92">
-        <v>11394.3777696971</v>
+        <v>2135.21418181822</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -7800,10 +7800,10 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>11394.3777696971</v>
+        <v>2135.21418181822</v>
       </c>
       <c r="Y92">
-        <v>4571.57781818186</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z92">
         <v>670.679200000008</v>
@@ -7826,7 +7826,7 @@
         <v>5539.78697156153</v>
       </c>
       <c r="F93">
-        <v>11513.6255296971</v>
+        <v>2167.91938181822</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -7880,10 +7880,10 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>11513.6255296971</v>
+        <v>2167.91938181822</v>
       </c>
       <c r="Y93">
-        <v>4604.28301818186</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z93">
         <v>677.2202400000079</v>
@@ -7906,7 +7906,7 @@
         <v>5703.80431337332</v>
       </c>
       <c r="F94">
-        <v>11252.8732896972</v>
+        <v>2100.62458181823</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -7960,10 +7960,10 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>11252.8732896972</v>
+        <v>2100.62458181823</v>
       </c>
       <c r="Y94">
-        <v>4536.98821818187</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z94">
         <v>663.7612800000099</v>
@@ -7986,7 +7986,7 @@
         <v>5144.64839179315</v>
       </c>
       <c r="F95">
-        <v>11752.1210496972</v>
+        <v>2233.32978181824</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8040,10 +8040,10 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>11752.1210496972</v>
+        <v>2233.32978181824</v>
       </c>
       <c r="Y95">
-        <v>4669.69341818188</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z95">
         <v>690.3023200000119</v>
@@ -8066,7 +8066,7 @@
         <v>4597.63603111141</v>
       </c>
       <c r="F96">
-        <v>12251.3688096972</v>
+        <v>2366.03498181825</v>
       </c>
       <c r="G96">
         <v>575.22629447</v>
@@ -8120,10 +8120,10 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>12251.3688096972</v>
+        <v>2366.03498181825</v>
       </c>
       <c r="Y96">
-        <v>4802.39861818189</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z96">
         <v>716.8433600000139</v>
@@ -8146,7 +8146,7 @@
         <v>3930.49784506489</v>
       </c>
       <c r="F97">
-        <v>12370.6165696973</v>
+        <v>2398.74018181826</v>
       </c>
       <c r="G97">
         <v>1168.97629447</v>
@@ -8200,10 +8200,10 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>12370.6165696973</v>
+        <v>2398.74018181826</v>
       </c>
       <c r="Y97">
-        <v>4835.1038181819</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="Z97">
         <v>723.3844000000159</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>交流负荷</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>中品位热功率</t>
-  </si>
-  <si>
-    <t>低品位热功率</t>
   </si>
 </sst>
 </file>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB97"/>
+  <dimension ref="A1:AA97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,11 +534,8 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -623,11 +617,8 @@
       <c r="AA2">
         <v>3562.49850909091</v>
       </c>
-      <c r="AB2">
-        <v>765.2875806060606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -709,11 +700,8 @@
       <c r="AA3">
         <v>3589.49850909091</v>
       </c>
-      <c r="AB3">
-        <v>770.6875806060606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -795,11 +783,8 @@
       <c r="AA4">
         <v>3616.49850909091</v>
       </c>
-      <c r="AB4">
-        <v>776.0875806060607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -881,11 +866,8 @@
       <c r="AA5">
         <v>3643.49850909091</v>
       </c>
-      <c r="AB5">
-        <v>781.4875806060606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -967,11 +949,8 @@
       <c r="AA6">
         <v>3670.49850909091</v>
       </c>
-      <c r="AB6">
-        <v>786.8875806060606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1053,11 +1032,8 @@
       <c r="AA7">
         <v>3697.49850909091</v>
       </c>
-      <c r="AB7">
-        <v>792.2875806060606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1139,11 +1115,8 @@
       <c r="AA8">
         <v>3724.49850909091</v>
       </c>
-      <c r="AB8">
-        <v>797.6875806060606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1225,11 +1198,8 @@
       <c r="AA9">
         <v>3591.49850909091</v>
       </c>
-      <c r="AB9">
-        <v>771.0875806060607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1311,11 +1281,8 @@
       <c r="AA10">
         <v>3538.49850909091</v>
       </c>
-      <c r="AB10">
-        <v>760.4875806060606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1397,11 +1364,8 @@
       <c r="AA11">
         <v>3505.49850909091</v>
       </c>
-      <c r="AB11">
-        <v>753.8875806060606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1483,11 +1447,8 @@
       <c r="AA12">
         <v>3432.49850909091</v>
       </c>
-      <c r="AB12">
-        <v>739.2875806060606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1569,11 +1530,8 @@
       <c r="AA13">
         <v>3359.49850909091</v>
       </c>
-      <c r="AB13">
-        <v>724.6875806060606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1655,11 +1613,8 @@
       <c r="AA14">
         <v>3386.49850909091</v>
       </c>
-      <c r="AB14">
-        <v>730.0875806060607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1741,11 +1696,8 @@
       <c r="AA15">
         <v>3313.49850909091</v>
       </c>
-      <c r="AB15">
-        <v>715.4875806060606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1827,11 +1779,8 @@
       <c r="AA16">
         <v>3440.49850909091</v>
       </c>
-      <c r="AB16">
-        <v>740.8875806060606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1913,11 +1862,8 @@
       <c r="AA17">
         <v>3467.49850909091</v>
       </c>
-      <c r="AB17">
-        <v>746.2875806060606</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1999,11 +1945,8 @@
       <c r="AA18">
         <v>3494.49850909091</v>
       </c>
-      <c r="AB18">
-        <v>751.6875806060606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2085,11 +2028,8 @@
       <c r="AA19">
         <v>3521.49850909091</v>
       </c>
-      <c r="AB19">
-        <v>757.0875806060607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2171,11 +2111,8 @@
       <c r="AA20">
         <v>3528.49850909091</v>
       </c>
-      <c r="AB20">
-        <v>758.4875806060606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2257,11 +2194,8 @@
       <c r="AA21">
         <v>3475.49850909091</v>
       </c>
-      <c r="AB21">
-        <v>747.8875806060606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2343,11 +2277,8 @@
       <c r="AA22">
         <v>3502.49850909091</v>
       </c>
-      <c r="AB22">
-        <v>753.2875806060606</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2429,11 +2360,8 @@
       <c r="AA23">
         <v>3429.49850909091</v>
       </c>
-      <c r="AB23">
-        <v>738.6875806060606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2515,11 +2443,8 @@
       <c r="AA24">
         <v>3456.49850909091</v>
       </c>
-      <c r="AB24">
-        <v>744.0875806060607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2601,11 +2526,8 @@
       <c r="AA25">
         <v>3383.49850909091</v>
       </c>
-      <c r="AB25">
-        <v>729.4875806060606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2687,11 +2609,8 @@
       <c r="AA26">
         <v>3410.49850909091</v>
       </c>
-      <c r="AB26">
-        <v>734.8875806060606</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2773,11 +2692,8 @@
       <c r="AA27">
         <v>3337.49850909091</v>
       </c>
-      <c r="AB27">
-        <v>720.2875806060606</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2859,11 +2775,8 @@
       <c r="AA28">
         <v>3264.49850909091</v>
       </c>
-      <c r="AB28">
-        <v>705.6875806060606</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2945,11 +2858,8 @@
       <c r="AA29">
         <v>3291.49850909091</v>
       </c>
-      <c r="AB29">
-        <v>711.0875806060607</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3031,11 +2941,8 @@
       <c r="AA30">
         <v>3318.49850909091</v>
       </c>
-      <c r="AB30">
-        <v>716.4875806060606</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3117,11 +3024,8 @@
       <c r="AA31">
         <v>3245.49850909091</v>
       </c>
-      <c r="AB31">
-        <v>701.8875806060606</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3203,11 +3107,8 @@
       <c r="AA32">
         <v>3272.49850909091</v>
       </c>
-      <c r="AB32">
-        <v>707.2875806060606</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3289,11 +3190,8 @@
       <c r="AA33">
         <v>3299.49850909091</v>
       </c>
-      <c r="AB33">
-        <v>712.6875806060606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3375,11 +3273,8 @@
       <c r="AA34">
         <v>2617.4076</v>
       </c>
-      <c r="AB34">
-        <v>1104.148186666667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3461,11 +3356,8 @@
       <c r="AA35">
         <v>1996.22578181818</v>
       </c>
-      <c r="AB35">
-        <v>1455.002732121212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3547,11 +3439,8 @@
       <c r="AA36">
         <v>1923.22578181818</v>
       </c>
-      <c r="AB36">
-        <v>1440.402732121212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3633,11 +3522,8 @@
       <c r="AA37">
         <v>1850.22578181818</v>
       </c>
-      <c r="AB37">
-        <v>1425.802732121212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3719,11 +3605,8 @@
       <c r="AA38">
         <v>1977.22578181818</v>
       </c>
-      <c r="AB38">
-        <v>1451.202732121212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3805,11 +3688,8 @@
       <c r="AA39">
         <v>2062.32018181818</v>
       </c>
-      <c r="AB39">
-        <v>1468.221612121212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3891,11 +3771,8 @@
       <c r="AA40">
         <v>2029.09018181818</v>
       </c>
-      <c r="AB40">
-        <v>1461.575612121212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3977,11 +3854,8 @@
       <c r="AA41">
         <v>2195.86018181818</v>
       </c>
-      <c r="AB41">
-        <v>1494.929612121212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4063,11 +3937,8 @@
       <c r="AA42">
         <v>2362.63018181818</v>
       </c>
-      <c r="AB42">
-        <v>1528.283612121212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4149,11 +4020,8 @@
       <c r="AA43">
         <v>2529.40018181818</v>
       </c>
-      <c r="AB43">
-        <v>1561.637612121212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4235,11 +4103,8 @@
       <c r="AA44">
         <v>2500.45258181818</v>
       </c>
-      <c r="AB44">
-        <v>1555.848092121212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4321,11 +4186,8 @@
       <c r="AA45">
         <v>2658.88408181818</v>
       </c>
-      <c r="AB45">
-        <v>1587.534392121212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4407,11 +4269,8 @@
       <c r="AA46">
         <v>2817.31558181818</v>
       </c>
-      <c r="AB46">
-        <v>1619.220692121212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4493,11 +4352,8 @@
       <c r="AA47">
         <v>2975.74708181818</v>
       </c>
-      <c r="AB47">
-        <v>1650.906992121212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4579,11 +4435,8 @@
       <c r="AA48">
         <v>3134.17858181818</v>
       </c>
-      <c r="AB48">
-        <v>1682.593292121212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4665,11 +4518,8 @@
       <c r="AA49">
         <v>3292.61008181818</v>
       </c>
-      <c r="AB49">
-        <v>1714.279592121212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28">
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4751,11 +4601,8 @@
       <c r="AA50">
         <v>3978.25510181818</v>
       </c>
-      <c r="AB50">
-        <v>1851.408596121212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4837,11 +4684,8 @@
       <c r="AA51">
         <v>4094.76766181818</v>
       </c>
-      <c r="AB51">
-        <v>1874.711108121212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4923,11 +4767,8 @@
       <c r="AA52">
         <v>4211.28022181818</v>
       </c>
-      <c r="AB52">
-        <v>1898.013620121212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28">
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5009,11 +4850,8 @@
       <c r="AA53">
         <v>4327.79278181818</v>
       </c>
-      <c r="AB53">
-        <v>1921.316132121212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28">
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5095,11 +4933,8 @@
       <c r="AA54">
         <v>4444.30534181818</v>
       </c>
-      <c r="AB54">
-        <v>1944.618644121212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5181,11 +5016,8 @@
       <c r="AA55">
         <v>4560.81790181818</v>
       </c>
-      <c r="AB55">
-        <v>1967.921156121212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5267,11 +5099,8 @@
       <c r="AA56">
         <v>4677.33046181818</v>
       </c>
-      <c r="AB56">
-        <v>1991.223668121212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28">
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5353,11 +5182,8 @@
       <c r="AA57">
         <v>4793.84302181818</v>
       </c>
-      <c r="AB57">
-        <v>2014.526180121212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28">
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5439,11 +5265,8 @@
       <c r="AA58">
         <v>4910.35558181818</v>
       </c>
-      <c r="AB58">
-        <v>2037.828692121212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28">
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5525,11 +5348,8 @@
       <c r="AA59">
         <v>5026.86814181818</v>
       </c>
-      <c r="AB59">
-        <v>2061.131204121212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28">
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5611,11 +5431,8 @@
       <c r="AA60">
         <v>5020.24018181818</v>
       </c>
-      <c r="AB60">
-        <v>2059.805612121212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5697,11 +5514,8 @@
       <c r="AA61">
         <v>5013.61222181818</v>
       </c>
-      <c r="AB61">
-        <v>2058.480020121212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5783,11 +5597,8 @@
       <c r="AA62">
         <v>5006.98426181818</v>
       </c>
-      <c r="AB62">
-        <v>2057.154428121212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28">
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5869,11 +5680,8 @@
       <c r="AA63">
         <v>5000.35630181818</v>
       </c>
-      <c r="AB63">
-        <v>2055.828836121212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28">
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5955,11 +5763,8 @@
       <c r="AA64">
         <v>4993.72834181818</v>
       </c>
-      <c r="AB64">
-        <v>2054.503244121212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6041,11 +5846,8 @@
       <c r="AA65">
         <v>4987.10038181818</v>
       </c>
-      <c r="AB65">
-        <v>2053.177652121212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28">
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6127,11 +5929,8 @@
       <c r="AA66">
         <v>4980.47242181818</v>
       </c>
-      <c r="AB66">
-        <v>2051.852060121212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28">
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6213,11 +6012,8 @@
       <c r="AA67">
         <v>4973.84446181818</v>
       </c>
-      <c r="AB67">
-        <v>2050.526468121212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6299,11 +6095,8 @@
       <c r="AA68">
         <v>4967.21650181818</v>
       </c>
-      <c r="AB68">
-        <v>2049.200876121212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28">
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6385,11 +6178,8 @@
       <c r="AA69">
         <v>4960.58854181818</v>
       </c>
-      <c r="AB69">
-        <v>2047.875284121212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28">
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6471,11 +6261,8 @@
       <c r="AA70">
         <v>4953.96058181818</v>
       </c>
-      <c r="AB70">
-        <v>2046.549692121212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28">
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6557,11 +6344,8 @@
       <c r="AA71">
         <v>4680.31498181818</v>
       </c>
-      <c r="AB71">
-        <v>1991.820572121212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6643,11 +6427,8 @@
       <c r="AA72">
         <v>4406.66938181818</v>
       </c>
-      <c r="AB72">
-        <v>1937.091452121212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28">
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6729,11 +6510,8 @@
       <c r="AA73">
         <v>4133.02378181818</v>
       </c>
-      <c r="AB73">
-        <v>1882.362332121212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28">
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6815,11 +6593,8 @@
       <c r="AA74">
         <v>3367.70758181818</v>
       </c>
-      <c r="AB74">
-        <v>1729.299092121212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28">
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6901,11 +6676,8 @@
       <c r="AA75">
         <v>3143.43253181818</v>
       </c>
-      <c r="AB75">
-        <v>1684.444082121212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28">
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6987,11 +6759,8 @@
       <c r="AA76">
         <v>2919.15748181818</v>
       </c>
-      <c r="AB76">
-        <v>1639.589072121212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28">
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7073,11 +6842,8 @@
       <c r="AA77">
         <v>2694.88243181818</v>
       </c>
-      <c r="AB77">
-        <v>1594.734062121212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28">
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7159,11 +6925,8 @@
       <c r="AA78">
         <v>2470.60738181818</v>
       </c>
-      <c r="AB78">
-        <v>1549.879052121212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28">
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7245,11 +7008,8 @@
       <c r="AA79">
         <v>2246.33233181818</v>
       </c>
-      <c r="AB79">
-        <v>1505.024042121212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7331,11 +7091,8 @@
       <c r="AA80">
         <v>2022.05728181818</v>
       </c>
-      <c r="AB80">
-        <v>1460.169032121212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28">
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7417,11 +7174,8 @@
       <c r="AA81">
         <v>1797.78223181818</v>
       </c>
-      <c r="AB81">
-        <v>1415.314022121212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28">
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7503,11 +7257,8 @@
       <c r="AA82">
         <v>1920.43818181818</v>
       </c>
-      <c r="AB82">
-        <v>1439.845212121212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28">
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7589,11 +7340,8 @@
       <c r="AA83">
         <v>2024.86738181818</v>
       </c>
-      <c r="AB83">
-        <v>1460.731052121212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28">
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7675,11 +7423,8 @@
       <c r="AA84">
         <v>1741.57258181818</v>
       </c>
-      <c r="AB84">
-        <v>1404.072092121212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28">
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7761,11 +7506,8 @@
       <c r="AA85">
         <v>1758.27778181818</v>
       </c>
-      <c r="AB85">
-        <v>1407.413132121212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28">
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7847,11 +7589,8 @@
       <c r="AA86">
         <v>1834.98298181818</v>
       </c>
-      <c r="AB86">
-        <v>1422.754172121212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28">
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7933,11 +7672,8 @@
       <c r="AA87">
         <v>1951.68818181818</v>
       </c>
-      <c r="AB87">
-        <v>1446.095212121212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28">
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8019,11 +7755,8 @@
       <c r="AA88">
         <v>1884.39338181819</v>
       </c>
-      <c r="AB88">
-        <v>1432.636252121214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28">
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8105,11 +7838,8 @@
       <c r="AA89">
         <v>1917.09858181819</v>
       </c>
-      <c r="AB89">
-        <v>1439.177292121214</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28">
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8191,11 +7921,8 @@
       <c r="AA90">
         <v>1949.8037818182</v>
       </c>
-      <c r="AB90">
-        <v>1445.718332121216</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28">
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8277,11 +8004,8 @@
       <c r="AA91">
         <v>1982.50898181821</v>
       </c>
-      <c r="AB91">
-        <v>1452.259372121218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28">
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8363,11 +8087,8 @@
       <c r="AA92">
         <v>2135.21418181822</v>
       </c>
-      <c r="AB92">
-        <v>1482.80041212122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28">
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8449,11 +8170,8 @@
       <c r="AA93">
         <v>2167.91938181822</v>
       </c>
-      <c r="AB93">
-        <v>1489.34145212122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28">
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8535,11 +8253,8 @@
       <c r="AA94">
         <v>2100.62458181823</v>
       </c>
-      <c r="AB94">
-        <v>1475.882492121222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28">
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8621,11 +8336,8 @@
       <c r="AA95">
         <v>2233.32978181824</v>
       </c>
-      <c r="AB95">
-        <v>1502.423532121224</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28">
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8707,11 +8419,8 @@
       <c r="AA96">
         <v>2366.03498181825</v>
       </c>
-      <c r="AB96">
-        <v>1528.964572121226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28">
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8792,9 +8501,6 @@
       </c>
       <c r="AA97">
         <v>2398.74018181826</v>
-      </c>
-      <c r="AB97">
-        <v>1535.505612121228</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -555,7 +555,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G2">
-        <v>6464.62181738288</v>
+        <v>6471.7420428938</v>
       </c>
       <c r="H2">
         <v>3562.49850909091</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>217.918589654686</v>
+        <v>225.473205581395</v>
       </c>
       <c r="S2">
-        <v>937.0499355151497</v>
+        <v>969.5347839999985</v>
       </c>
       <c r="T2">
         <v>0.888888888888914</v>
@@ -609,7 +609,7 @@
         <v>300</v>
       </c>
       <c r="Y2">
-        <v>612.2300644848489</v>
+        <v>579.745216</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G3">
-        <v>5988.94203440497</v>
+        <v>5996.06225991589</v>
       </c>
       <c r="H3">
         <v>3589.49850909091</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>217.379054770965</v>
+        <v>224.933670697674</v>
       </c>
       <c r="S3">
-        <v>934.7299355151495</v>
+        <v>967.2147839999981</v>
       </c>
       <c r="T3">
         <v>0.888888888888942</v>
@@ -692,7 +692,7 @@
         <v>300</v>
       </c>
       <c r="Y3">
-        <v>616.5500644848489</v>
+        <v>584.065216</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G4">
-        <v>5513.26225142706</v>
+        <v>5520.38247693798</v>
       </c>
       <c r="H4">
         <v>3616.49850909091</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>216.839519887245</v>
+        <v>224.394135813954</v>
       </c>
       <c r="S4">
-        <v>932.4099355151534</v>
+        <v>964.8947840000021</v>
       </c>
       <c r="T4">
         <v>0.888888888888923</v>
@@ -775,7 +775,7 @@
         <v>300</v>
       </c>
       <c r="Y4">
-        <v>620.8700644848481</v>
+        <v>588.385216</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G5">
-        <v>6237.84438149915</v>
+        <v>6244.96460701008</v>
       </c>
       <c r="H5">
         <v>3643.49850909091</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>216.299985003524</v>
+        <v>223.854600930233</v>
       </c>
       <c r="S5">
-        <v>930.0899355151531</v>
+        <v>962.5747840000018</v>
       </c>
       <c r="T5">
         <v>0.888888888888923</v>
@@ -858,7 +858,7 @@
         <v>300</v>
       </c>
       <c r="Y5">
-        <v>625.1900644848488</v>
+        <v>592.7052160000001</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G6">
-        <v>6962.42651157125</v>
+        <v>6969.54673708217</v>
       </c>
       <c r="H6">
         <v>3670.49850909091</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>215.760450119803</v>
+        <v>223.315066046512</v>
       </c>
       <c r="S6">
-        <v>927.769935515153</v>
+        <v>960.2547840000015</v>
       </c>
       <c r="T6">
         <v>0.888888888888923</v>
@@ -941,7 +941,7 @@
         <v>300</v>
       </c>
       <c r="Y6">
-        <v>629.5100644848488</v>
+        <v>597.025216</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G7">
-        <v>6736.98238339334</v>
+        <v>6744.10260890426</v>
       </c>
       <c r="H7">
         <v>3697.49850909091</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>215.220915236082</v>
+        <v>222.775531162791</v>
       </c>
       <c r="S7">
-        <v>925.4499355151526</v>
+        <v>957.9347840000013</v>
       </c>
       <c r="T7">
         <v>0.888888888888923</v>
@@ -1024,7 +1024,7 @@
         <v>300</v>
       </c>
       <c r="Y7">
-        <v>633.8300644848489</v>
+        <v>601.3452160000001</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G8">
-        <v>6511.53825521543</v>
+        <v>6518.65848072636</v>
       </c>
       <c r="H8">
         <v>3724.49850909091</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>214.681380352361</v>
+        <v>222.23599627907</v>
       </c>
       <c r="S8">
-        <v>923.1299355151523</v>
+        <v>955.614784000001</v>
       </c>
       <c r="T8">
         <v>0.888888888888923</v>
@@ -1107,7 +1107,7 @@
         <v>300</v>
       </c>
       <c r="Y8">
-        <v>638.1500644848488</v>
+        <v>605.665216</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G9">
-        <v>6484.22786857822</v>
+        <v>6491.34809408915</v>
       </c>
       <c r="H9">
         <v>3591.49850909091</v>
@@ -1169,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>220.095333840733</v>
+        <v>227.649949767442</v>
       </c>
       <c r="S9">
-        <v>946.4099355151518</v>
+        <v>978.8947840000005</v>
       </c>
       <c r="T9">
         <v>0.888888888888923</v>
@@ -1190,7 +1190,7 @@
         <v>300</v>
       </c>
       <c r="Y9">
-        <v>616.8700644848481</v>
+        <v>584.385216</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G10">
-        <v>6496.20197376817</v>
+        <v>6503.32219927909</v>
       </c>
       <c r="H10">
         <v>3538.49850909091</v>
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>212.765101282593</v>
+        <v>220.319717209302</v>
       </c>
       <c r="S10">
-        <v>914.8899355151499</v>
+        <v>947.3747839999986</v>
       </c>
       <c r="T10">
         <v>50.7421147707863</v>
@@ -1273,7 +1273,7 @@
         <v>300</v>
       </c>
       <c r="Y10">
-        <v>608.3900644848488</v>
+        <v>575.905216</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G11">
-        <v>6585.42372277512</v>
+        <v>6592.54394828605</v>
       </c>
       <c r="H11">
         <v>3505.49850909091</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>207.946496631431</v>
+        <v>215.50111255814</v>
       </c>
       <c r="S11">
-        <v>894.1699355151533</v>
+        <v>926.6547840000019</v>
       </c>
       <c r="T11">
         <v>166.666666666667</v>
@@ -1356,7 +1356,7 @@
         <v>333.650927470281</v>
       </c>
       <c r="Y11">
-        <v>603.1100644848487</v>
+        <v>570.625216</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G12">
-        <v>6560.43213415187</v>
+        <v>6567.55235966279</v>
       </c>
       <c r="H12">
         <v>3432.49850909091</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>210.430217561663</v>
+        <v>217.984833488372</v>
       </c>
       <c r="S12">
-        <v>904.8499355151508</v>
+        <v>937.3347839999996</v>
       </c>
       <c r="T12">
         <v>166.666666666667</v>
@@ -1439,7 +1439,7 @@
         <v>445.48362561534</v>
       </c>
       <c r="Y12">
-        <v>591.4300644848489</v>
+        <v>558.945216</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G13">
-        <v>6772.69201247861</v>
+        <v>6779.81223798954</v>
       </c>
       <c r="H13">
         <v>3359.49850909091</v>
@@ -1501,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>212.913938491896</v>
+        <v>220.468554418605</v>
       </c>
       <c r="S13">
-        <v>915.5299355151528</v>
+        <v>948.0147840000016</v>
       </c>
       <c r="T13">
         <v>166.666666666667</v>
@@ -1522,7 +1522,7 @@
         <v>557.092658364109</v>
       </c>
       <c r="Y13">
-        <v>579.7500644848488</v>
+        <v>547.265216</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G14">
-        <v>7181.44491406117</v>
+        <v>7188.56513957209</v>
       </c>
       <c r="H14">
         <v>3386.49850909091</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>211.67672918957</v>
+        <v>219.231345116279</v>
       </c>
       <c r="S14">
-        <v>910.209935515151</v>
+        <v>942.6947839999996</v>
       </c>
       <c r="T14">
         <v>166.666666666667</v>
@@ -1605,7 +1605,7 @@
         <v>668.478473047381</v>
       </c>
       <c r="Y14">
-        <v>584.070064484848</v>
+        <v>551.5852160000001</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G15">
-        <v>6738.73247801291</v>
+        <v>6745.85270352384</v>
       </c>
       <c r="H15">
         <v>3313.49850909091</v>
@@ -1667,10 +1667,10 @@
         <v>0.122170075</v>
       </c>
       <c r="R15">
-        <v>214.160450119803</v>
+        <v>221.715066046512</v>
       </c>
       <c r="S15">
-        <v>920.8899355151528</v>
+        <v>953.3747840000016</v>
       </c>
       <c r="T15">
         <v>166.666666666667</v>
@@ -1688,7 +1688,7 @@
         <v>779.641516101286</v>
       </c>
       <c r="Y15">
-        <v>572.3900644848488</v>
+        <v>539.905216</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G16">
-        <v>6460.92469312745</v>
+        <v>6468.04491863837</v>
       </c>
       <c r="H16">
         <v>3440.49850909091</v>
@@ -1750,10 +1750,10 @@
         <v>0.24434015</v>
       </c>
       <c r="R16">
-        <v>182.458124538407</v>
+        <v>190.012740465116</v>
       </c>
       <c r="S16">
-        <v>784.5699355151501</v>
+        <v>817.0547839999988</v>
       </c>
       <c r="T16">
         <v>166.666666666667</v>
@@ -1771,7 +1771,7 @@
         <v>890.5822330690841</v>
       </c>
       <c r="Y16">
-        <v>592.7100644848488</v>
+        <v>560.225216</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G17">
-        <v>6954.37395199954</v>
+        <v>6961.49417751047</v>
       </c>
       <c r="H17">
         <v>3467.49850909091</v>
@@ -1833,10 +1833,10 @@
         <v>1.5096731</v>
       </c>
       <c r="R17">
-        <v>181.918589654686</v>
+        <v>189.473205581395</v>
       </c>
       <c r="S17">
-        <v>782.2499355151498</v>
+        <v>814.7347839999985</v>
       </c>
       <c r="T17">
         <v>166.666666666667</v>
@@ -1854,7 +1854,7 @@
         <v>1001.30106860295</v>
       </c>
       <c r="Y17">
-        <v>597.0300644848488</v>
+        <v>564.545216</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G18">
-        <v>6697.82321087163</v>
+        <v>6704.94343638256</v>
       </c>
       <c r="H18">
         <v>3494.49850909091</v>
@@ -1916,10 +1916,10 @@
         <v>2.77500605</v>
       </c>
       <c r="R18">
-        <v>181.379054770965</v>
+        <v>188.933670697674</v>
       </c>
       <c r="S18">
-        <v>779.9299355151495</v>
+        <v>812.4147839999981</v>
       </c>
       <c r="T18">
         <v>166.666666666667</v>
@@ -1937,7 +1937,7 @@
         <v>1111.79846646574</v>
       </c>
       <c r="Y18">
-        <v>601.3500644848489</v>
+        <v>568.865216</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G19">
-        <v>6706.95651624373</v>
+        <v>6714.07674175465</v>
       </c>
       <c r="H19">
         <v>3521.49850909091</v>
@@ -1999,10 +1999,10 @@
         <v>5.9601545</v>
       </c>
       <c r="R19">
-        <v>180.839519887245</v>
+        <v>188.394135813954</v>
       </c>
       <c r="S19">
-        <v>777.6099355151534</v>
+        <v>810.0947840000022</v>
       </c>
       <c r="T19">
         <v>166.666666666667</v>
@@ -2020,7 +2020,7 @@
         <v>1222.07486953281</v>
       </c>
       <c r="Y19">
-        <v>605.670064484848</v>
+        <v>573.1852160000001</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G20">
-        <v>6042.37261231349</v>
+        <v>6049.49283782442</v>
       </c>
       <c r="H20">
         <v>3528.49850909091</v>
@@ -2082,10 +2082,10 @@
         <v>9.14530295</v>
       </c>
       <c r="R20">
-        <v>157.788357096547</v>
+        <v>165.342973023256</v>
       </c>
       <c r="S20">
-        <v>678.4899355151521</v>
+        <v>710.9747840000008</v>
       </c>
       <c r="T20">
         <v>166.666666666667</v>
@@ -2103,7 +2103,7 @@
         <v>1332.13071979374</v>
       </c>
       <c r="Y20">
-        <v>606.7900644848488</v>
+        <v>574.3052160000001</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G21">
-        <v>5999.69853750094</v>
+        <v>6006.81876301186</v>
       </c>
       <c r="H21">
         <v>3475.49850909091</v>
@@ -2165,10 +2165,10 @@
         <v>13.94484173</v>
       </c>
       <c r="R21">
-        <v>160.225566398872</v>
+        <v>167.780182325581</v>
       </c>
       <c r="S21">
-        <v>688.9699355151495</v>
+        <v>721.4547839999982</v>
       </c>
       <c r="T21">
         <v>166.666666666667</v>
@@ -2186,7 +2186,7 @@
         <v>1441.96645835416</v>
       </c>
       <c r="Y21">
-        <v>598.3100644848488</v>
+        <v>565.8252160000001</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G22">
-        <v>5954.21888130303</v>
+        <v>5961.33910681395</v>
       </c>
       <c r="H22">
         <v>3502.49850909091</v>
@@ -2248,10 +2248,10 @@
         <v>18.7443805</v>
       </c>
       <c r="R22">
-        <v>159.686031515151</v>
+        <v>167.24064744186</v>
       </c>
       <c r="S22">
-        <v>686.6499355151493</v>
+        <v>719.134783999998</v>
       </c>
       <c r="T22">
         <v>166.666666666667</v>
@@ -2269,7 +2269,7 @@
         <v>1551.58252543745</v>
       </c>
       <c r="Y22">
-        <v>602.6300644848488</v>
+        <v>570.145216</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G23">
-        <v>5704.63007261931</v>
+        <v>5711.75029813023</v>
       </c>
       <c r="H23">
         <v>3429.49850909091</v>
@@ -2331,10 +2331,10 @@
         <v>26.91668605</v>
       </c>
       <c r="R23">
-        <v>162.867426863989</v>
+        <v>170.422042790698</v>
       </c>
       <c r="S23">
-        <v>700.3299355151527</v>
+        <v>732.8147840000013</v>
       </c>
       <c r="T23">
         <v>166.666666666667</v>
@@ -2352,7 +2352,7 @@
         <v>1660.97936038657</v>
       </c>
       <c r="Y23">
-        <v>590.9500644848489</v>
+        <v>558.4652159999999</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G24">
-        <v>5451.5342871914</v>
+        <v>5458.65451270233</v>
       </c>
       <c r="H24">
         <v>3456.49850909091</v>
@@ -2414,10 +2414,10 @@
         <v>35.0889916</v>
       </c>
       <c r="R24">
-        <v>162.327891980268</v>
+        <v>169.882507906977</v>
       </c>
       <c r="S24">
-        <v>698.0099355151524</v>
+        <v>730.494784000001</v>
       </c>
       <c r="T24">
         <v>166.666666666667</v>
@@ -2435,7 +2435,7 @@
         <v>1770.1574016658</v>
       </c>
       <c r="Y24">
-        <v>595.270064484848</v>
+        <v>562.7852160000001</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G25">
-        <v>5601.57113385768</v>
+        <v>5608.6913593686</v>
       </c>
       <c r="H25">
         <v>3383.49850909091</v>
@@ -2497,10 +2497,10 @@
         <v>47.99538765</v>
       </c>
       <c r="R25">
-        <v>165.509287329105</v>
+        <v>173.063903255814</v>
       </c>
       <c r="S25">
-        <v>711.6899355151515</v>
+        <v>744.1747840000003</v>
       </c>
       <c r="T25">
         <v>166.666666666667</v>
@@ -2518,7 +2518,7 @@
         <v>1879.11708686247</v>
       </c>
       <c r="Y25">
-        <v>583.5900644848488</v>
+        <v>551.105216</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G26">
-        <v>5748.10100377977</v>
+        <v>5755.2212292907</v>
       </c>
       <c r="H26">
         <v>3410.49850909091</v>
@@ -2580,10 +2580,10 @@
         <v>60.9017837</v>
       </c>
       <c r="R26">
-        <v>164.969752445384</v>
+        <v>172.524368372093</v>
       </c>
       <c r="S26">
-        <v>709.3699355151512</v>
+        <v>741.8547839999999</v>
       </c>
       <c r="T26">
         <v>166.666666666667</v>
@@ -2601,7 +2601,7 @@
         <v>1987.85885268874</v>
       </c>
       <c r="Y26">
-        <v>587.9100644848488</v>
+        <v>555.425216</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G27">
-        <v>5642.35805486605</v>
+        <v>5649.47828037698</v>
       </c>
       <c r="H27">
         <v>3337.49850909091</v>
@@ -2663,10 +2663,10 @@
         <v>74.39721408</v>
       </c>
       <c r="R27">
-        <v>168.151147794221</v>
+        <v>175.70576372093</v>
       </c>
       <c r="S27">
-        <v>723.0499355151503</v>
+        <v>755.534783999999</v>
       </c>
       <c r="T27">
         <v>166.666666666667</v>
@@ -2684,7 +2684,7 @@
         <v>2096.38313498336</v>
       </c>
       <c r="Y27">
-        <v>576.2300644848489</v>
+        <v>543.745216</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G28">
-        <v>5536.61510596233</v>
+        <v>5543.73533147326</v>
       </c>
       <c r="H28">
         <v>3264.49850909091</v>
@@ -2746,10 +2746,10 @@
         <v>87.89264445000001</v>
       </c>
       <c r="R28">
-        <v>171.332543143058</v>
+        <v>178.887159069767</v>
       </c>
       <c r="S28">
-        <v>736.7299355151494</v>
+        <v>769.2147839999981</v>
       </c>
       <c r="T28">
         <v>166.666666666667</v>
@@ -2767,7 +2767,7 @@
         <v>2204.6903687134</v>
       </c>
       <c r="Y28">
-        <v>564.5500644848488</v>
+        <v>532.065216</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G29">
-        <v>5508.32051758443</v>
+        <v>5515.44074309535</v>
       </c>
       <c r="H29">
         <v>3291.49850909091</v>
@@ -2829,10 +2829,10 @@
         <v>110.5464674</v>
       </c>
       <c r="R29">
-        <v>170.793008259338</v>
+        <v>178.347624186047</v>
       </c>
       <c r="S29">
-        <v>734.4099355151534</v>
+        <v>766.8947840000021</v>
       </c>
       <c r="T29">
         <v>166.666666666667</v>
@@ -2850,7 +2850,7 @@
         <v>2312.78098797597</v>
       </c>
       <c r="Y29">
-        <v>568.8700644848481</v>
+        <v>536.385216</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G30">
-        <v>5480.02592915652</v>
+        <v>5487.14615466744</v>
       </c>
       <c r="H30">
         <v>3318.49850909091</v>
@@ -2912,10 +2912,10 @@
         <v>133.2002904</v>
       </c>
       <c r="R30">
-        <v>170.253473375617</v>
+        <v>177.808089302326</v>
       </c>
       <c r="S30">
-        <v>732.0899355151531</v>
+        <v>764.5747840000018</v>
       </c>
       <c r="T30">
         <v>166.666666666667</v>
@@ -2933,7 +2933,7 @@
         <v>2420.65542600002</v>
       </c>
       <c r="Y30">
-        <v>573.1900644848488</v>
+        <v>540.7052160000001</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G31">
-        <v>5739.50352242164</v>
+        <v>5746.62374793256</v>
       </c>
       <c r="H31">
         <v>3245.49850909091</v>
@@ -2995,10 +2995,10 @@
         <v>160.9459877</v>
       </c>
       <c r="R31">
-        <v>150.179054770965</v>
+        <v>157.733670697674</v>
       </c>
       <c r="S31">
-        <v>645.7699355151494</v>
+        <v>678.2547839999982</v>
       </c>
       <c r="T31">
         <v>166.666666666667</v>
@@ -3016,7 +3016,7 @@
         <v>2528.31411514802</v>
       </c>
       <c r="Y31">
-        <v>561.5100644848488</v>
+        <v>529.025216</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G32">
-        <v>6019.89274359373</v>
+        <v>6027.01296910465</v>
       </c>
       <c r="H32">
         <v>3272.49850909091</v>
@@ -3078,10 +3078,10 @@
         <v>188.691685</v>
       </c>
       <c r="R32">
-        <v>149.639519887245</v>
+        <v>157.194135813953</v>
       </c>
       <c r="S32">
-        <v>643.4499355151535</v>
+        <v>675.9347839999979</v>
       </c>
       <c r="T32">
         <v>166.666666666667</v>
@@ -3099,7 +3099,7 @@
         <v>2635.75748691772</v>
       </c>
       <c r="Y32">
-        <v>565.8300644848489</v>
+        <v>533.3452160000001</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G33">
-        <v>6103.27220551582</v>
+        <v>6110.39243102674</v>
       </c>
       <c r="H33">
         <v>3299.49850909091</v>
@@ -3161,10 +3161,10 @@
         <v>203.3171886</v>
       </c>
       <c r="R33">
-        <v>149.099985003524</v>
+        <v>156.654600930233</v>
       </c>
       <c r="S33">
-        <v>641.1299355151532</v>
+        <v>673.6147840000018</v>
       </c>
       <c r="T33">
         <v>166.666666666667</v>
@@ -3182,7 +3182,7 @@
         <v>2742.98597194389</v>
       </c>
       <c r="Y33">
-        <v>570.1500644848488</v>
+        <v>537.665216</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G34">
-        <v>4837.21865260233</v>
+        <v>4897.27886979302</v>
       </c>
       <c r="H34">
         <v>2617.4076</v>
@@ -3244,10 +3244,10 @@
         <v>217.9426921</v>
       </c>
       <c r="R34">
-        <v>96.11162790697669</v>
+        <v>159.83599627907</v>
       </c>
       <c r="S34">
-        <v>413.2799999999997</v>
+        <v>687.294784000001</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>2850</v>
       </c>
       <c r="Y34">
-        <v>800</v>
+        <v>525.985216</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -3294,7 +3294,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G35">
-        <v>3750.72498504535</v>
+        <v>3813.3452952593</v>
       </c>
       <c r="H35">
         <v>1996.22578181818</v>
@@ -3327,10 +3327,10 @@
         <v>238.2141986</v>
       </c>
       <c r="R35">
-        <v>96.5767441860465</v>
+        <v>163.017391627907</v>
       </c>
       <c r="S35">
-        <v>415.2799999999999</v>
+        <v>700.974784</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>2844.3</v>
       </c>
       <c r="Y35">
-        <v>800</v>
+        <v>514.3052160000001</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G36">
-        <v>3764.07773619302</v>
+        <v>3829.25813943023</v>
       </c>
       <c r="H36">
         <v>1923.22578181818</v>
@@ -3410,10 +3410,10 @@
         <v>258.485705</v>
       </c>
       <c r="R36">
-        <v>120.70511627907</v>
+        <v>189.862042790698</v>
       </c>
       <c r="S36">
-        <v>519.0320000000009</v>
+        <v>816.4067840000014</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>2838.6114</v>
       </c>
       <c r="Y36">
-        <v>800</v>
+        <v>502.625216</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G37">
-        <v>4041.19542365814</v>
+        <v>4108.9359199186</v>
       </c>
       <c r="H37">
         <v>1850.22578181818</v>
@@ -3493,10 +3493,10 @@
         <v>265.5497535</v>
       </c>
       <c r="R37">
-        <v>135.110697674419</v>
+        <v>206.983903255814</v>
       </c>
       <c r="S37">
-        <v>580.9760000000016</v>
+        <v>890.0307840000002</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>2832.9341772</v>
       </c>
       <c r="Y37">
-        <v>800</v>
+        <v>490.945216</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G38">
-        <v>4098.31311122326</v>
+        <v>4161.5997470186</v>
       </c>
       <c r="H38">
         <v>1977.22578181818</v>
@@ -3576,10 +3576,10 @@
         <v>272.6138019</v>
       </c>
       <c r="R38">
-        <v>149.516279069767</v>
+        <v>216.663903255814</v>
       </c>
       <c r="S38">
-        <v>642.919999999998</v>
+        <v>931.6547840000002</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>2827.2683088456</v>
       </c>
       <c r="Y38">
-        <v>800</v>
+        <v>511.265216</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G39">
-        <v>4075.17608362093</v>
+        <v>4135.47847859767</v>
       </c>
       <c r="H39">
         <v>2062.32018181818</v>
@@ -3659,10 +3659,10 @@
         <v>286.3972045</v>
       </c>
       <c r="R39">
-        <v>141.404651162791</v>
+        <v>205.385972093023</v>
       </c>
       <c r="S39">
-        <v>608.0400000000012</v>
+        <v>883.159679999999</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>2821.61377222791</v>
       </c>
       <c r="Y39">
-        <v>800</v>
+        <v>524.8803200000001</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G40">
-        <v>4176.52603266279</v>
+        <v>4237.99379601163</v>
       </c>
       <c r="H40">
         <v>2029.09018181818</v>
@@ -3742,10 +3742,10 @@
         <v>300.1806072</v>
       </c>
       <c r="R40">
-        <v>156.613953488372</v>
+        <v>221.831739534884</v>
       </c>
       <c r="S40">
-        <v>673.4399999999996</v>
+        <v>953.8764800000012</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>2815.97054468345</v>
       </c>
       <c r="Y40">
-        <v>800</v>
+        <v>519.56352</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G41">
-        <v>4007.35874190233</v>
+        <v>4062.97792013488</v>
       </c>
       <c r="H41">
         <v>2195.86018181818</v>
@@ -3825,10 +3825,10 @@
         <v>310.2596386</v>
       </c>
       <c r="R41">
-        <v>148.591627906977</v>
+        <v>207.604018604651</v>
       </c>
       <c r="S41">
-        <v>638.9440000000011</v>
+        <v>892.6972799999993</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>2810.33860359409</v>
       </c>
       <c r="Y41">
-        <v>800</v>
+        <v>546.24672</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G42">
-        <v>4087.02866044419</v>
+        <v>4136.79925356046</v>
       </c>
       <c r="H42">
         <v>2362.63018181818</v>
@@ -3908,10 +3908,10 @@
         <v>320.33867</v>
       </c>
       <c r="R42">
-        <v>187.080930232558</v>
+        <v>239.887925581395</v>
       </c>
       <c r="S42">
-        <v>804.4479999999993</v>
+        <v>1031.518079999998</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>2804.7179263869</v>
       </c>
       <c r="Y42">
-        <v>800</v>
+        <v>572.92992</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G43">
-        <v>4270.12045789651</v>
+        <v>4314.04246589651</v>
       </c>
       <c r="H43">
         <v>2529.40018181818</v>
@@ -3991,10 +3991,10 @@
         <v>327.3678127</v>
       </c>
       <c r="R43">
-        <v>225.592558139535</v>
+        <v>272.194158139535</v>
       </c>
       <c r="S43">
-        <v>970.0480000000005</v>
+        <v>1170.43488</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>2799.10849053412</v>
       </c>
       <c r="Y43">
-        <v>800</v>
+        <v>599.61312</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4041,7 +4041,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G44">
-        <v>4653.21225534884</v>
+        <v>4698.14944894884</v>
       </c>
       <c r="H44">
         <v>2500.45258181818</v>
@@ -4074,10 +4074,10 @@
         <v>334.3969554</v>
       </c>
       <c r="R44">
-        <v>264.104186046512</v>
+        <v>311.782906046512</v>
       </c>
       <c r="S44">
-        <v>1135.648000000002</v>
+        <v>1340.666496000001</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>2793.51027355306</v>
       </c>
       <c r="Y44">
-        <v>800</v>
+        <v>594.9815040000001</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G45">
-        <v>4381.82803407558</v>
+        <v>4421.20907181512</v>
       </c>
       <c r="H45">
         <v>2658.88408181818</v>
@@ -4157,10 +4157,10 @@
         <v>336.1116997</v>
       </c>
       <c r="R45">
-        <v>269.467906976744</v>
+        <v>311.251501395349</v>
       </c>
       <c r="S45">
-        <v>1158.711999999999</v>
+        <v>1338.381456000001</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         <v>2787.92325300595</v>
       </c>
       <c r="Y45">
-        <v>800</v>
+        <v>620.330544</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G46">
-        <v>4310.44381280232</v>
+        <v>4344.2686946814</v>
       </c>
       <c r="H46">
         <v>2817.31558181818</v>
@@ -4240,10 +4240,10 @@
         <v>337.826444</v>
       </c>
       <c r="R46">
-        <v>274.831627906977</v>
+        <v>310.720096744186</v>
       </c>
       <c r="S46">
-        <v>1181.776000000001</v>
+        <v>1336.096416</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>2782.34740649994</v>
       </c>
       <c r="Y46">
-        <v>800</v>
+        <v>645.679584</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G47">
-        <v>4635.56512080233</v>
+        <v>4663.83384682093</v>
       </c>
       <c r="H47">
         <v>2975.74708181818</v>
@@ -4323,10 +4323,10 @@
         <v>343.8913157</v>
       </c>
       <c r="R47">
-        <v>281.311627906977</v>
+        <v>311.304971162791</v>
       </c>
       <c r="S47">
-        <v>1209.640000000001</v>
+        <v>1338.611376000001</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>2776.78271168694</v>
       </c>
       <c r="Y47">
-        <v>800</v>
+        <v>671.028624</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G48">
-        <v>4560.68642880233</v>
+        <v>4583.39899896047</v>
       </c>
       <c r="H48">
         <v>3134.17858181818</v>
@@ -4406,10 +4406,10 @@
         <v>349.9561874</v>
       </c>
       <c r="R48">
-        <v>287.791627906977</v>
+        <v>311.889845581395</v>
       </c>
       <c r="S48">
-        <v>1237.504000000001</v>
+        <v>1341.126335999998</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>2771.22914626356</v>
       </c>
       <c r="Y48">
-        <v>800</v>
+        <v>696.3776640000001</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G49">
-        <v>4441.40032992791</v>
+        <v>4458.55674422558</v>
       </c>
       <c r="H49">
         <v>3292.61008181818</v>
@@ -4489,10 +4489,10 @@
         <v>354.1797816</v>
       </c>
       <c r="R49">
-        <v>300.299534883721</v>
+        <v>318.502626976744</v>
       </c>
       <c r="S49">
-        <v>1291.288</v>
+        <v>1369.561295999999</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>2765.68668797104</v>
       </c>
       <c r="Y49">
-        <v>800</v>
+        <v>721.726704</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>5469.26970423042</v>
+        <v>5483.79246666763</v>
       </c>
       <c r="H74">
         <v>3367.70758181818</v>
@@ -6564,10 +6564,10 @@
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>300.706976744186</v>
+        <v>316.115743255814</v>
       </c>
       <c r="S74">
-        <v>1293.04</v>
+        <v>1359.297696</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>995.363966618092</v>
       </c>
       <c r="Y74">
-        <v>800</v>
+        <v>733.742304</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5182.92246279186</v>
+        <v>5205.31049907558</v>
       </c>
       <c r="H75">
         <v>3143.43253181818</v>
@@ -6647,10 +6647,10 @@
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>294.249302325581</v>
+        <v>318.003186976744</v>
       </c>
       <c r="S75">
-        <v>1265.271999999998</v>
+        <v>1367.413703999999</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>993.373238684856</v>
       </c>
       <c r="Y75">
-        <v>800</v>
+        <v>697.858296</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>4561.91729650233</v>
+        <v>4592.17060663256</v>
       </c>
       <c r="H76">
         <v>2919.15748181818</v>
@@ -6730,10 +6730,10 @@
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>287.791627906977</v>
+        <v>319.890630697675</v>
       </c>
       <c r="S76">
-        <v>1237.504000000001</v>
+        <v>1375.529712000003</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         <v>991.386492207486</v>
       </c>
       <c r="Y76">
-        <v>800</v>
+        <v>661.974288</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>4443.64493463372</v>
+        <v>4481.76351861047</v>
       </c>
       <c r="H77">
         <v>2694.88243181818</v>
@@ -6813,10 +6813,10 @@
         <v>12.8889432</v>
       </c>
       <c r="R77">
-        <v>264.098604651163</v>
+        <v>304.542725581395</v>
       </c>
       <c r="S77">
-        <v>1135.624000000001</v>
+        <v>1309.533719999999</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>989.403719223071</v>
       </c>
       <c r="Y77">
-        <v>800</v>
+        <v>626.09028</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G78">
-        <v>3703.2795495093</v>
+        <v>3749.26340733256</v>
       </c>
       <c r="H78">
         <v>2470.60738181818</v>
@@ -6896,10 +6896,10 @@
         <v>7.8974229</v>
       </c>
       <c r="R78">
-        <v>124.126511627907</v>
+        <v>172.915750697674</v>
       </c>
       <c r="S78">
-        <v>533.7440000000001</v>
+        <v>743.5377279999982</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>987.424911784625</v>
       </c>
       <c r="Y78">
-        <v>800</v>
+        <v>590.206272</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G79">
-        <v>3880.1271858907</v>
+        <v>3933.97631756046</v>
       </c>
       <c r="H79">
         <v>2246.33233181818</v>
@@ -6979,10 +6979,10 @@
         <v>4.6250101</v>
       </c>
       <c r="R79">
-        <v>100.433488372093</v>
+        <v>157.567845581395</v>
       </c>
       <c r="S79">
-        <v>431.8639999999999</v>
+        <v>677.5417359999985</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>846.561173072167</v>
       </c>
       <c r="Y79">
-        <v>800</v>
+        <v>554.322264</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7029,7 +7029,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G80">
-        <v>3702.97482227209</v>
+        <v>3764.68922778837</v>
       </c>
       <c r="H80">
         <v>2022.05728181818</v>
@@ -7062,10 +7062,10 @@
         <v>1.3525973</v>
       </c>
       <c r="R80">
-        <v>76.7404651162791</v>
+        <v>142.219940465116</v>
       </c>
       <c r="S80">
-        <v>329.9840000000001</v>
+        <v>611.5457439999988</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -7083,7 +7083,7 @@
         <v>705.979161837133</v>
       </c>
       <c r="Y80">
-        <v>800</v>
+        <v>518.438256</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G81">
-        <v>3762.68502370523</v>
+        <v>3832.26470306802</v>
       </c>
       <c r="H81">
         <v>1797.78223181818</v>
@@ -7145,10 +7145,10 @@
         <v>0.711204375</v>
       </c>
       <c r="R81">
-        <v>56.0111627906977</v>
+        <v>129.83575627907</v>
       </c>
       <c r="S81">
-        <v>240.8480000000001</v>
+        <v>558.2937520000011</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>565.67831462457</v>
       </c>
       <c r="Y81">
-        <v>800</v>
+        <v>482.554248</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3866.68915016064</v>
+        <v>3931.96731388157</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -7228,10 +7228,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>77.46655096251359</v>
+        <v>146.727202125304</v>
       </c>
       <c r="S82">
-        <v>333.1061691388085</v>
+        <v>630.9269691388072</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>425.658069106432</v>
       </c>
       <c r="Y82">
-        <v>800</v>
+        <v>502.1792</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -7278,7 +7278,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G83">
-        <v>4072.67954467965</v>
+        <v>4134.29540064244</v>
       </c>
       <c r="H83">
         <v>2024.86738181818</v>
@@ -7311,10 +7311,10 @@
         <v>0.034905725</v>
       </c>
       <c r="R83">
-        <v>177.343255813954</v>
+        <v>242.718169302326</v>
       </c>
       <c r="S83">
-        <v>762.5760000000021</v>
+        <v>1043.688128000002</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>308.527355506777</v>
       </c>
       <c r="Y83">
-        <v>800</v>
+        <v>518.887872</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G84">
-        <v>4226.45223631395</v>
+        <v>4298.00317503023</v>
       </c>
       <c r="H84">
         <v>1741.57258181818</v>
@@ -7394,10 +7394,10 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>179.869767441861</v>
+        <v>255.785882790698</v>
       </c>
       <c r="S84">
-        <v>773.4400000000022</v>
+        <v>1099.879296000001</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>307.910300795763</v>
       </c>
       <c r="Y84">
-        <v>800</v>
+        <v>473.560704</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -7444,7 +7444,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G85">
-        <v>3830.34656946977</v>
+        <v>3901.31166070698</v>
       </c>
       <c r="H85">
         <v>1758.27778181818</v>
@@ -7477,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>182.628837209301</v>
+        <v>257.923363720929</v>
       </c>
       <c r="S85">
-        <v>785.3039999999943</v>
+        <v>1109.070463999995</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>307.294480194172</v>
       </c>
       <c r="Y85">
-        <v>800</v>
+        <v>476.233536</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G86">
-        <v>3930.04871657907</v>
+        <v>3998.3237742907</v>
       </c>
       <c r="H86">
         <v>1834.98298181818</v>
@@ -7560,10 +7560,10 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <v>181.395348837209</v>
+        <v>253.835728372093</v>
       </c>
       <c r="S86">
-        <v>779.9999999999987</v>
+        <v>1091.493632</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -7581,7 +7581,7 @@
         <v>306.679891233784</v>
       </c>
       <c r="Y86">
-        <v>800</v>
+        <v>488.5063680000001</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G87">
-        <v>4128.65320393837</v>
+        <v>4192.83543742674</v>
       </c>
       <c r="H87">
         <v>1951.68818181818</v>
@@ -7643,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>180.161860465117</v>
+        <v>248.259720930233</v>
       </c>
       <c r="S87">
-        <v>774.6960000000031</v>
+        <v>1067.516800000002</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>306.066531451316</v>
       </c>
       <c r="Y87">
-        <v>800</v>
+        <v>507.1792</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G88">
-        <v>3727.25769129768</v>
+        <v>3793.79993777209</v>
       </c>
       <c r="H88">
         <v>1884.39338181819</v>
@@ -7726,10 +7726,10 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>178.928372093025</v>
+        <v>249.530225116281</v>
       </c>
       <c r="S88">
-        <v>769.3920000000074</v>
+        <v>1072.979968000008</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         <v>305.454398388413</v>
       </c>
       <c r="Y88">
-        <v>800</v>
+        <v>496.4120320000017</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -7776,7 +7776,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G89">
-        <v>3476.07040455698</v>
+        <v>3541.46568727326</v>
       </c>
       <c r="H89">
         <v>1917.09858181819</v>
@@ -7809,10 +7809,10 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <v>177.694883720933</v>
+        <v>247.07979906977</v>
       </c>
       <c r="S89">
-        <v>764.0880000000119</v>
+        <v>1062.443136000011</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -7830,7 +7830,7 @@
         <v>304.843489591636</v>
       </c>
       <c r="Y89">
-        <v>800</v>
+        <v>501.6448640000016</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G90">
-        <v>4349.88311781628</v>
+        <v>4414.13143677442</v>
       </c>
       <c r="H90">
         <v>1949.8037818182</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>176.461395348841</v>
+        <v>244.629373023259</v>
       </c>
       <c r="S90">
-        <v>758.7840000000162</v>
+        <v>1051.906304000014</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>304.233802612453</v>
       </c>
       <c r="Y90">
-        <v>800</v>
+        <v>506.8776960000032</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G91">
-        <v>5298.46117977559</v>
+        <v>5361.56253497559</v>
       </c>
       <c r="H91">
         <v>1982.50898181821</v>
@@ -7975,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="R91">
-        <v>175.227906976749</v>
+        <v>242.178946976748</v>
       </c>
       <c r="S91">
-        <v>753.4800000000207</v>
+        <v>1041.369472000016</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>303.625335007228</v>
       </c>
       <c r="Y91">
-        <v>800</v>
+        <v>512.1105280000048</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G92">
-        <v>5635.72345226121</v>
+        <v>5693.46947161004</v>
       </c>
       <c r="H92">
         <v>2135.21418181822</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <v>173.994418604657</v>
+        <v>235.263404651167</v>
       </c>
       <c r="S92">
-        <v>748.1760000000251</v>
+        <v>1011.632640000018</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>303.018084337214</v>
       </c>
       <c r="Y92">
-        <v>800</v>
+        <v>536.5433600000064</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8108,7 +8108,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G93">
-        <v>5259.47277792051</v>
+        <v>5316.07183351121</v>
       </c>
       <c r="H93">
         <v>2167.91938181822</v>
@@ -8141,10 +8141,10 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>172.760930232565</v>
+        <v>232.812978604656</v>
       </c>
       <c r="S93">
-        <v>742.8720000000294</v>
+        <v>1001.095808000021</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>302.412048168539</v>
       </c>
       <c r="Y93">
-        <v>800</v>
+        <v>541.7761920000064</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G94">
-        <v>4883.22210357981</v>
+        <v>4942.18117215655</v>
       </c>
       <c r="H94">
         <v>2100.62458181823</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>171.527441860473</v>
+        <v>234.083482790703</v>
       </c>
       <c r="S94">
-        <v>737.5680000000339</v>
+        <v>1006.558976000023</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>301.807224072202</v>
       </c>
       <c r="Y94">
-        <v>800</v>
+        <v>531.009024000008</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G95">
-        <v>4981.95921993912</v>
+        <v>5036.26434801353</v>
       </c>
       <c r="H95">
         <v>2233.32978181824</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>170.29395348838</v>
+        <v>227.912126511634</v>
       </c>
       <c r="S95">
-        <v>732.264000000034</v>
+        <v>980.0221440000262</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>301.203609624058</v>
       </c>
       <c r="Y95">
-        <v>800</v>
+        <v>552.2418560000095</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -8357,7 +8357,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G96">
-        <v>5030.69633629842</v>
+        <v>5080.34752387051</v>
       </c>
       <c r="H96">
         <v>2366.03498181825</v>
@@ -8390,10 +8390,10 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <v>169.060465116288</v>
+        <v>221.740770232565</v>
       </c>
       <c r="S96">
-        <v>726.9600000000383</v>
+        <v>953.4853120000295</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>300.60120240481</v>
       </c>
       <c r="Y96">
-        <v>800</v>
+        <v>573.4746880000112</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5065.71696298141</v>
+        <v>5114.22118679536</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>167.826976744196</v>
+        <v>219.290344186054</v>
       </c>
       <c r="S97">
-        <v>721.6560000000428</v>
+        <v>942.9484800000322</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>300</v>
       </c>
       <c r="Y97">
-        <v>800</v>
+        <v>578.7075200000128</v>
       </c>
       <c r="Z97">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -7195,7 +7195,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3931.96731388157</v>
+        <v>3932.51083506525</v>
       </c>
       <c r="H82">
         <v>1920.43818181818</v>
@@ -7228,10 +7228,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>146.727202125304</v>
+        <v>147.244841347854</v>
       </c>
       <c r="S82">
-        <v>630.9269691388072</v>
+        <v>633.1528177957722</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>418.605830861191</v>
+        <v>416.379982204229</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>308.527355506777</v>
+        <v>309.145646800378</v>
       </c>
       <c r="Y83">
         <v>518.887872</v>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>307.910300795763</v>
+        <v>308.527355506777</v>
       </c>
       <c r="Y84">
         <v>473.560704</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>307.294480194172</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y85">
         <v>476.233536</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>306.679891233784</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y86">
         <v>488.5063680000001</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>306.066531451316</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y87">
         <v>507.1792</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>305.454398388413</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y88">
         <v>496.4120320000017</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>304.843489591636</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y89">
         <v>501.6448640000016</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>304.233802612453</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y90">
         <v>506.8776960000032</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>303.625335007228</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y91">
         <v>512.1105280000048</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>303.018084337214</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y92">
         <v>536.5433600000064</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>302.412048168539</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y93">
         <v>541.7761920000064</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y94">
         <v>531.009024000008</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y95">
         <v>552.2418560000095</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y96">
         <v>573.4746880000112</v>
@@ -8440,7 +8440,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -8449,13 +8449,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>19.4986374</v>
+        <v>33.1828479263158</v>
       </c>
       <c r="K97">
         <v>1300</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y97">
         <v>578.7075200000128</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -555,10 +555,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G2">
-        <v>6471.7420428938</v>
+        <v>6598.81410477287</v>
       </c>
       <c r="H2">
-        <v>3562.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>225.473205581395</v>
+        <v>360.297674418605</v>
       </c>
       <c r="S2">
-        <v>969.5347839999985</v>
+        <v>1549.280000000002</v>
       </c>
       <c r="T2">
         <v>0.888888888888914</v>
@@ -609,13 +609,13 @@
         <v>300</v>
       </c>
       <c r="Y2">
-        <v>579.745216</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>3562.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -638,10 +638,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G3">
-        <v>5996.06225991589</v>
+        <v>6124.08120551589</v>
       </c>
       <c r="H3">
-        <v>3589.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>224.933670697674</v>
+        <v>360.762790697674</v>
       </c>
       <c r="S3">
-        <v>967.2147839999981</v>
+        <v>1551.279999999998</v>
       </c>
       <c r="T3">
         <v>0.888888888888942</v>
@@ -692,13 +692,13 @@
         <v>300</v>
       </c>
       <c r="Y3">
-        <v>584.065216</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>3589.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -721,10 +721,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G4">
-        <v>5520.38247693798</v>
+        <v>5649.34830625891</v>
       </c>
       <c r="H4">
-        <v>3616.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>224.394135813954</v>
+        <v>361.227906976744</v>
       </c>
       <c r="S4">
-        <v>964.8947840000021</v>
+        <v>1553.279999999999</v>
       </c>
       <c r="T4">
         <v>0.888888888888923</v>
@@ -775,13 +775,13 @@
         <v>300</v>
       </c>
       <c r="Y4">
-        <v>588.385216</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3616.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -804,10 +804,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G5">
-        <v>6244.96460701008</v>
+        <v>6374.87732005194</v>
       </c>
       <c r="H5">
-        <v>3643.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>223.854600930233</v>
+        <v>361.693023255814</v>
       </c>
       <c r="S5">
-        <v>962.5747840000018</v>
+        <v>1555.28</v>
       </c>
       <c r="T5">
         <v>0.888888888888923</v>
@@ -858,13 +858,13 @@
         <v>300</v>
       </c>
       <c r="Y5">
-        <v>592.7052160000001</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>3643.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -887,10 +887,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G6">
-        <v>6969.54673708217</v>
+        <v>7100.40633384496</v>
       </c>
       <c r="H6">
-        <v>3670.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>223.315066046512</v>
+        <v>362.158139534884</v>
       </c>
       <c r="S6">
-        <v>960.2547840000015</v>
+        <v>1557.280000000001</v>
       </c>
       <c r="T6">
         <v>0.888888888888923</v>
@@ -941,13 +941,13 @@
         <v>300</v>
       </c>
       <c r="Y6">
-        <v>597.025216</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>3670.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -970,10 +970,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G7">
-        <v>6744.10260890426</v>
+        <v>6875.90908938798</v>
       </c>
       <c r="H7">
-        <v>3697.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>222.775531162791</v>
+        <v>362.623255813954</v>
       </c>
       <c r="S7">
-        <v>957.9347840000013</v>
+        <v>1559.280000000002</v>
       </c>
       <c r="T7">
         <v>0.888888888888923</v>
@@ -1024,13 +1024,13 @@
         <v>300</v>
       </c>
       <c r="Y7">
-        <v>601.3452160000001</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>3697.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1053,10 +1053,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G8">
-        <v>6518.65848072636</v>
+        <v>6651.41184493101</v>
       </c>
       <c r="H8">
-        <v>3724.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>222.23599627907</v>
+        <v>363.088372093023</v>
       </c>
       <c r="S8">
-        <v>955.614784000001</v>
+        <v>1561.279999999999</v>
       </c>
       <c r="T8">
         <v>0.888888888888923</v>
@@ -1107,13 +1107,13 @@
         <v>300</v>
       </c>
       <c r="Y8">
-        <v>605.665216</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>3724.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1136,10 +1136,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G9">
-        <v>6491.34809408915</v>
+        <v>6619.43717922403</v>
       </c>
       <c r="H9">
-        <v>3591.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>227.649949767442</v>
+        <v>363.553488372093</v>
       </c>
       <c r="S9">
-        <v>978.8947840000005</v>
+        <v>1563.28</v>
       </c>
       <c r="T9">
         <v>0.888888888888923</v>
@@ -1190,13 +1190,13 @@
         <v>300</v>
       </c>
       <c r="Y9">
-        <v>584.385216</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>3591.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1219,10 +1219,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G10">
-        <v>6503.32219927909</v>
+        <v>6629.55258673956</v>
       </c>
       <c r="H10">
-        <v>3538.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>220.319717209302</v>
+        <v>354.251162790698</v>
       </c>
       <c r="S10">
-        <v>947.3747839999986</v>
+        <v>1523.280000000001</v>
       </c>
       <c r="T10">
         <v>50.7421147707863</v>
@@ -1273,13 +1273,13 @@
         <v>300</v>
       </c>
       <c r="Y10">
-        <v>575.905216</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>3538.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1302,10 +1302,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G11">
-        <v>6592.54394828605</v>
+        <v>6717.61703342093</v>
       </c>
       <c r="H11">
-        <v>3505.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>215.50111255814</v>
+        <v>348.204651162791</v>
       </c>
       <c r="S11">
-        <v>926.6547840000019</v>
+        <v>1497.280000000001</v>
       </c>
       <c r="T11">
         <v>166.666666666667</v>
@@ -1356,13 +1356,13 @@
         <v>333.650927470281</v>
       </c>
       <c r="Y11">
-        <v>570.625216</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>3505.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1385,10 +1385,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G12">
-        <v>6567.55235966279</v>
+        <v>6690.06535177442</v>
       </c>
       <c r="H12">
-        <v>3432.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>217.984833488372</v>
+        <v>347.972093023256</v>
       </c>
       <c r="S12">
-        <v>937.3347839999996</v>
+        <v>1496.280000000001</v>
       </c>
       <c r="T12">
         <v>166.666666666667</v>
@@ -1439,13 +1439,13 @@
         <v>445.48362561534</v>
       </c>
       <c r="Y12">
-        <v>558.945216</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3432.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1468,10 +1468,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G13">
-        <v>6779.81223798954</v>
+        <v>6899.76513707791</v>
       </c>
       <c r="H13">
-        <v>3359.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1501,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>220.468554418605</v>
+        <v>347.739534883721</v>
       </c>
       <c r="S13">
-        <v>948.0147840000016</v>
+        <v>1495.28</v>
       </c>
       <c r="T13">
         <v>166.666666666667</v>
@@ -1522,13 +1522,13 @@
         <v>557.092658364109</v>
       </c>
       <c r="Y13">
-        <v>547.265216</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3359.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1551,10 +1551,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G14">
-        <v>7188.56513957209</v>
+        <v>7309.46492238139</v>
       </c>
       <c r="H14">
-        <v>3386.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>219.231345116279</v>
+        <v>347.506976744186</v>
       </c>
       <c r="S14">
-        <v>942.6947839999996</v>
+        <v>1494.28</v>
       </c>
       <c r="T14">
         <v>166.666666666667</v>
@@ -1605,13 +1605,13 @@
         <v>668.478473047381</v>
       </c>
       <c r="Y14">
-        <v>551.5852160000001</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>3386.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1634,10 +1634,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G15">
-        <v>6745.85270352384</v>
+        <v>6864.19239330988</v>
       </c>
       <c r="H15">
-        <v>3313.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0.122170075</v>
       </c>
       <c r="R15">
-        <v>221.715066046512</v>
+        <v>347.274418604651</v>
       </c>
       <c r="S15">
-        <v>953.3747840000016</v>
+        <v>1493.279999999999</v>
       </c>
       <c r="T15">
         <v>166.666666666667</v>
@@ -1688,13 +1688,13 @@
         <v>779.641516101286</v>
       </c>
       <c r="Y15">
-        <v>539.905216</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>3313.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1717,10 +1717,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G16">
-        <v>6468.04491863837</v>
+        <v>6590.83846888953</v>
       </c>
       <c r="H16">
-        <v>3440.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>0.24434015</v>
       </c>
       <c r="R16">
-        <v>190.012740465116</v>
+        <v>320.297674418605</v>
       </c>
       <c r="S16">
-        <v>817.0547839999988</v>
+        <v>1377.280000000002</v>
       </c>
       <c r="T16">
         <v>166.666666666667</v>
@@ -1771,13 +1771,13 @@
         <v>890.5822330690841</v>
       </c>
       <c r="Y16">
-        <v>560.225216</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>3440.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1800,7 +1800,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G17">
-        <v>6961.49417751047</v>
+        <v>7084.32779146395</v>
       </c>
       <c r="H17">
         <v>3467.49850909091</v>
@@ -1833,10 +1833,10 @@
         <v>1.5096731</v>
       </c>
       <c r="R17">
-        <v>189.473205581395</v>
+        <v>319.80064744186</v>
       </c>
       <c r="S17">
-        <v>814.7347839999985</v>
+        <v>1375.142783999998</v>
       </c>
       <c r="T17">
         <v>166.666666666667</v>
@@ -1854,7 +1854,7 @@
         <v>1001.30106860295</v>
       </c>
       <c r="Y17">
-        <v>564.545216</v>
+        <v>4.137216000000264</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G18">
-        <v>6704.94343638256</v>
+        <v>6827.94784010349</v>
       </c>
       <c r="H18">
         <v>3494.49850909091</v>
@@ -1916,10 +1916,10 @@
         <v>2.77500605</v>
       </c>
       <c r="R18">
-        <v>188.933670697674</v>
+        <v>319.442321860465</v>
       </c>
       <c r="S18">
-        <v>812.4147839999981</v>
+        <v>1373.601983999999</v>
       </c>
       <c r="T18">
         <v>166.666666666667</v>
@@ -1937,7 +1937,7 @@
         <v>1111.79846646574</v>
       </c>
       <c r="Y18">
-        <v>568.865216</v>
+        <v>7.678016000000209</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G19">
-        <v>6714.07674175465</v>
+        <v>6836.55053989419</v>
       </c>
       <c r="H19">
         <v>3521.49850909091</v>
@@ -1999,10 +1999,10 @@
         <v>5.9601545</v>
       </c>
       <c r="R19">
-        <v>188.394135813954</v>
+        <v>318.339810232558</v>
       </c>
       <c r="S19">
-        <v>810.0947840000022</v>
+        <v>1368.861183999999</v>
       </c>
       <c r="T19">
         <v>166.666666666667</v>
@@ -2020,7 +2020,7 @@
         <v>1222.07486953281</v>
       </c>
       <c r="Y19">
-        <v>573.1852160000001</v>
+        <v>14.41881600000016</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G20">
-        <v>6049.49283782442</v>
+        <v>6170.20858852209</v>
       </c>
       <c r="H20">
         <v>3528.49850909091</v>
@@ -2082,10 +2082,10 @@
         <v>9.14530295</v>
       </c>
       <c r="R20">
-        <v>165.342973023256</v>
+        <v>293.423345116279</v>
       </c>
       <c r="S20">
-        <v>710.9747840000008</v>
+        <v>1261.720384</v>
       </c>
       <c r="T20">
         <v>166.666666666667</v>
@@ -2103,7 +2103,7 @@
         <v>1332.13071979374</v>
       </c>
       <c r="Y20">
-        <v>574.3052160000001</v>
+        <v>23.55961599999976</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G21">
-        <v>6006.81876301186</v>
+        <v>6124.72437324442</v>
       </c>
       <c r="H21">
         <v>3475.49850909091</v>
@@ -2165,10 +2165,10 @@
         <v>13.94484173</v>
       </c>
       <c r="R21">
-        <v>167.780182325581</v>
+        <v>292.878973023256</v>
       </c>
       <c r="S21">
-        <v>721.4547839999982</v>
+        <v>1259.379584000001</v>
       </c>
       <c r="T21">
         <v>166.666666666667</v>
@@ -2186,7 +2186,7 @@
         <v>1441.96645835416</v>
       </c>
       <c r="Y21">
-        <v>565.8252160000001</v>
+        <v>27.9004160000004</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G22">
-        <v>5961.33910681395</v>
+        <v>6076.4345765814</v>
       </c>
       <c r="H22">
         <v>3502.49850909091</v>
@@ -2248,10 +2248,10 @@
         <v>18.7443805</v>
       </c>
       <c r="R22">
-        <v>167.24064744186</v>
+        <v>289.357856744186</v>
       </c>
       <c r="S22">
-        <v>719.134783999998</v>
+        <v>1244.238784</v>
       </c>
       <c r="T22">
         <v>166.666666666667</v>
@@ -2269,7 +2269,7 @@
         <v>1551.58252543745</v>
       </c>
       <c r="Y22">
-        <v>570.145216</v>
+        <v>45.04121600000033</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G23">
-        <v>5711.75029813023</v>
+        <v>5824.56167394419</v>
       </c>
       <c r="H23">
         <v>3429.49850909091</v>
@@ -2331,10 +2331,10 @@
         <v>26.91668605</v>
       </c>
       <c r="R23">
-        <v>170.422042790698</v>
+        <v>290.115810232558</v>
       </c>
       <c r="S23">
-        <v>732.8147840000013</v>
+        <v>1247.497983999999</v>
       </c>
       <c r="T23">
         <v>166.666666666667</v>
@@ -2352,7 +2352,7 @@
         <v>1660.97936038657</v>
       </c>
       <c r="Y23">
-        <v>558.4652159999999</v>
+        <v>43.78201600000033</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G24">
-        <v>5458.65451270233</v>
+        <v>5569.88318991163</v>
       </c>
       <c r="H24">
         <v>3456.49850909091</v>
@@ -2414,10 +2414,10 @@
         <v>35.0889916</v>
       </c>
       <c r="R24">
-        <v>169.882507906977</v>
+        <v>287.897019534884</v>
       </c>
       <c r="S24">
-        <v>730.494784000001</v>
+        <v>1237.957184000001</v>
       </c>
       <c r="T24">
         <v>166.666666666667</v>
@@ -2435,7 +2435,7 @@
         <v>1770.1574016658</v>
       </c>
       <c r="Y24">
-        <v>562.7852160000001</v>
+        <v>55.32281600000024</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G25">
-        <v>5608.6913593686</v>
+        <v>5720.26617518256</v>
       </c>
       <c r="H25">
         <v>3383.49850909091</v>
@@ -2497,10 +2497,10 @@
         <v>47.99538765</v>
       </c>
       <c r="R25">
-        <v>173.063903255814</v>
+        <v>291.445670697674</v>
       </c>
       <c r="S25">
-        <v>744.1747840000003</v>
+        <v>1253.216383999998</v>
       </c>
       <c r="T25">
         <v>166.666666666667</v>
@@ -2518,7 +2518,7 @@
         <v>1879.11708686247</v>
       </c>
       <c r="Y25">
-        <v>551.105216</v>
+        <v>42.06361599999985</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G26">
-        <v>5755.2212292907</v>
+        <v>5867.1421837093</v>
       </c>
       <c r="H26">
         <v>3410.49850909091</v>
@@ -2580,10 +2580,10 @@
         <v>60.9017837</v>
       </c>
       <c r="R26">
-        <v>172.524368372093</v>
+        <v>291.273391627907</v>
       </c>
       <c r="S26">
-        <v>741.8547839999999</v>
+        <v>1252.475584</v>
       </c>
       <c r="T26">
         <v>166.666666666667</v>
@@ -2601,7 +2601,7 @@
         <v>1987.85885268874</v>
       </c>
       <c r="Y26">
-        <v>555.425216</v>
+        <v>44.80441599999976</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G27">
-        <v>5649.47828037698</v>
+        <v>5759.24314549326</v>
       </c>
       <c r="H27">
         <v>3337.49850909091</v>
@@ -2663,10 +2663,10 @@
         <v>74.39721408</v>
       </c>
       <c r="R27">
-        <v>175.70576372093</v>
+        <v>292.167159069767</v>
       </c>
       <c r="S27">
-        <v>755.534783999999</v>
+        <v>1256.318783999998</v>
       </c>
       <c r="T27">
         <v>166.666666666667</v>
@@ -2684,7 +2684,7 @@
         <v>2096.38313498336</v>
       </c>
       <c r="Y27">
-        <v>543.745216</v>
+        <v>42.96121600000009</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G28">
-        <v>5543.73533147326</v>
+        <v>5650.31761519419</v>
       </c>
       <c r="H28">
         <v>3264.49850909091</v>
@@ -2746,10 +2746,10 @@
         <v>87.89264445000001</v>
       </c>
       <c r="R28">
-        <v>178.887159069767</v>
+        <v>291.971810232558</v>
       </c>
       <c r="S28">
-        <v>769.2147839999981</v>
+        <v>1255.478783999999</v>
       </c>
       <c r="T28">
         <v>166.666666666667</v>
@@ -2767,7 +2767,7 @@
         <v>2204.6903687134</v>
       </c>
       <c r="Y28">
-        <v>532.065216</v>
+        <v>45.80121600000024</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G29">
-        <v>5515.44074309535</v>
+        <v>5622.34742216512</v>
       </c>
       <c r="H29">
         <v>3291.49850909091</v>
@@ -2829,10 +2829,10 @@
         <v>110.5464674</v>
       </c>
       <c r="R29">
-        <v>178.347624186047</v>
+        <v>291.776461395349</v>
       </c>
       <c r="S29">
-        <v>766.8947840000021</v>
+        <v>1254.638784</v>
       </c>
       <c r="T29">
         <v>166.666666666667</v>
@@ -2850,7 +2850,7 @@
         <v>2312.78098797597</v>
       </c>
       <c r="Y29">
-        <v>536.385216</v>
+        <v>48.64121600000033</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G30">
-        <v>5487.14615466744</v>
+        <v>5594.37722908605</v>
       </c>
       <c r="H30">
         <v>3318.49850909091</v>
@@ -2912,10 +2912,10 @@
         <v>133.2002904</v>
       </c>
       <c r="R30">
-        <v>177.808089302326</v>
+        <v>291.58111255814</v>
       </c>
       <c r="S30">
-        <v>764.5747840000018</v>
+        <v>1253.798784000002</v>
       </c>
       <c r="T30">
         <v>166.666666666667</v>
@@ -2933,7 +2933,7 @@
         <v>2420.65542600002</v>
       </c>
       <c r="Y30">
-        <v>540.7052160000001</v>
+        <v>51.48121599999976</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G31">
-        <v>5746.62374793256</v>
+        <v>5854.1792177</v>
       </c>
       <c r="H31">
         <v>3245.49850909091</v>
@@ -2995,10 +2995,10 @@
         <v>160.9459877</v>
       </c>
       <c r="R31">
-        <v>157.733670697674</v>
+        <v>271.85088</v>
       </c>
       <c r="S31">
-        <v>678.2547839999982</v>
+        <v>1168.958784</v>
       </c>
       <c r="T31">
         <v>166.666666666667</v>
@@ -3016,7 +3016,7 @@
         <v>2528.31411514802</v>
       </c>
       <c r="Y31">
-        <v>529.025216</v>
+        <v>38.32121599999992</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G32">
-        <v>6027.01296910465</v>
+        <v>6134.89283422093</v>
       </c>
       <c r="H32">
         <v>3272.49850909091</v>
@@ -3078,10 +3078,10 @@
         <v>188.691685</v>
       </c>
       <c r="R32">
-        <v>157.194135813953</v>
+        <v>271.655531162791</v>
       </c>
       <c r="S32">
-        <v>675.9347839999979</v>
+        <v>1168.118784000001</v>
       </c>
       <c r="T32">
         <v>166.666666666667</v>
@@ -3099,7 +3099,7 @@
         <v>2635.75748691772</v>
       </c>
       <c r="Y32">
-        <v>533.3452160000001</v>
+        <v>41.16121600000008</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G33">
-        <v>6110.39243102674</v>
+        <v>6218.59669149186</v>
       </c>
       <c r="H33">
         <v>3299.49850909091</v>
@@ -3161,10 +3161,10 @@
         <v>203.3171886</v>
       </c>
       <c r="R33">
-        <v>156.654600930233</v>
+        <v>271.460182325581</v>
       </c>
       <c r="S33">
-        <v>673.6147840000018</v>
+        <v>1167.278783999998</v>
       </c>
       <c r="T33">
         <v>166.666666666667</v>
@@ -3182,7 +3182,7 @@
         <v>2742.98597194389</v>
       </c>
       <c r="Y33">
-        <v>537.665216</v>
+        <v>44.00121600000024</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G34">
-        <v>4897.27886979302</v>
+        <v>5005.80752560698</v>
       </c>
       <c r="H34">
         <v>2617.4076</v>
@@ -3244,10 +3244,10 @@
         <v>217.9426921</v>
       </c>
       <c r="R34">
-        <v>159.83599627907</v>
+        <v>274.98576372093</v>
       </c>
       <c r="S34">
-        <v>687.294784000001</v>
+        <v>1182.438783999999</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>2850</v>
       </c>
       <c r="Y34">
-        <v>525.985216</v>
+        <v>30.84121600000032</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -3294,7 +3294,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G35">
-        <v>3813.3452952593</v>
+        <v>3922.19834642209</v>
       </c>
       <c r="H35">
         <v>1996.22578181818</v>
@@ -3309,7 +3309,7 @@
         <v>10463.4300667397</v>
       </c>
       <c r="L35">
-        <v>5.6843418860808e-14</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3327,10 +3327,10 @@
         <v>238.2141986</v>
       </c>
       <c r="R35">
-        <v>163.017391627907</v>
+        <v>278.511345116279</v>
       </c>
       <c r="S35">
-        <v>700.974784</v>
+        <v>1197.598784</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>2844.3</v>
       </c>
       <c r="Y35">
-        <v>514.3052160000001</v>
+        <v>17.68121599999976</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G36">
-        <v>3829.25813943023</v>
+        <v>3938.43558594186</v>
       </c>
       <c r="H36">
         <v>1923.22578181818</v>
@@ -3410,10 +3410,10 @@
         <v>258.485705</v>
       </c>
       <c r="R36">
-        <v>189.862042790698</v>
+        <v>305.700182325581</v>
       </c>
       <c r="S36">
-        <v>816.4067840000014</v>
+        <v>1314.510783999998</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>2838.6114</v>
       </c>
       <c r="Y36">
-        <v>502.625216</v>
+        <v>4.521215999999913</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -3460,10 +3460,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G37">
-        <v>4108.9359199186</v>
+        <v>4216.54426086744</v>
       </c>
       <c r="H37">
-        <v>1850.22578181818</v>
+        <v>1861.02426181818</v>
       </c>
       <c r="I37">
         <v>220.6708089</v>
@@ -3493,10 +3493,10 @@
         <v>265.5497535</v>
       </c>
       <c r="R37">
-        <v>206.983903255814</v>
+        <v>321.157209302326</v>
       </c>
       <c r="S37">
-        <v>890.0307840000002</v>
+        <v>1380.976000000002</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>2832.9341772</v>
       </c>
       <c r="Y37">
-        <v>490.945216</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1850.22578181818</v>
+        <v>1861.02426181818</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -3543,7 +3543,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G38">
-        <v>4161.5997470186</v>
+        <v>4271.42598422791</v>
       </c>
       <c r="H38">
         <v>1977.22578181818</v>
@@ -3576,10 +3576,10 @@
         <v>272.6138019</v>
       </c>
       <c r="R38">
-        <v>216.663903255814</v>
+        <v>333.190414883721</v>
       </c>
       <c r="S38">
-        <v>931.6547840000002</v>
+        <v>1432.718784</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>2827.2683088456</v>
       </c>
       <c r="Y38">
-        <v>511.265216</v>
+        <v>10.20121600000024</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G39">
-        <v>4135.47847859767</v>
+        <v>4245.62911115581</v>
       </c>
       <c r="H39">
         <v>2062.32018181818</v>
@@ -3659,10 +3659,10 @@
         <v>286.3972045</v>
       </c>
       <c r="R39">
-        <v>205.385972093023</v>
+        <v>322.256669767442</v>
       </c>
       <c r="S39">
-        <v>883.159679999999</v>
+        <v>1385.703680000001</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>2821.61377222791</v>
       </c>
       <c r="Y39">
-        <v>524.8803200000001</v>
+        <v>22.33632000000032</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G40">
-        <v>4237.99379601163</v>
+        <v>4349.17021926744</v>
       </c>
       <c r="H40">
         <v>2029.09018181818</v>
@@ -3742,10 +3742,10 @@
         <v>300.1806072</v>
       </c>
       <c r="R40">
-        <v>221.831739534884</v>
+        <v>339.790809302326</v>
       </c>
       <c r="S40">
-        <v>953.8764800000012</v>
+        <v>1461.100480000002</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>2815.97054468345</v>
       </c>
       <c r="Y40">
-        <v>519.56352</v>
+        <v>12.33952000000024</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G41">
-        <v>4062.97792013488</v>
+        <v>4175.00478525116</v>
       </c>
       <c r="H41">
         <v>2195.86018181818</v>
@@ -3825,10 +3825,10 @@
         <v>310.2596386</v>
       </c>
       <c r="R41">
-        <v>207.604018604651</v>
+        <v>326.465413953488</v>
       </c>
       <c r="S41">
-        <v>892.6972799999993</v>
+        <v>1403.801279999998</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>2810.33860359409</v>
       </c>
       <c r="Y41">
-        <v>546.24672</v>
+        <v>35.14271999999984</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G42">
-        <v>4136.79925356046</v>
+        <v>4251.78074658372</v>
       </c>
       <c r="H42">
         <v>2362.63018181818</v>
@@ -3908,10 +3908,10 @@
         <v>320.33867</v>
       </c>
       <c r="R42">
-        <v>239.887925581395</v>
+        <v>361.884204651163</v>
       </c>
       <c r="S42">
-        <v>1031.518079999998</v>
+        <v>1556.102080000001</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>2804.7179263869</v>
       </c>
       <c r="Y42">
-        <v>572.92992</v>
+        <v>48.34592000000048</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G43">
-        <v>4314.04246589651</v>
+        <v>4430.92649380349</v>
       </c>
       <c r="H43">
         <v>2529.40018181818</v>
@@ -3991,10 +3991,10 @@
         <v>327.3678127</v>
       </c>
       <c r="R43">
-        <v>272.194158139535</v>
+        <v>396.209041860465</v>
       </c>
       <c r="S43">
-        <v>1170.43488</v>
+        <v>1703.698879999999</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>2799.10849053412</v>
       </c>
       <c r="Y43">
-        <v>599.61312</v>
+        <v>66.34911999999967</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4041,7 +4041,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G44">
-        <v>4698.14944894884</v>
+        <v>4818.68950011163</v>
       </c>
       <c r="H44">
         <v>2500.45258181818</v>
@@ -4074,10 +4074,10 @@
         <v>334.3969554</v>
       </c>
       <c r="R44">
-        <v>311.782906046512</v>
+        <v>439.676859534884</v>
       </c>
       <c r="S44">
-        <v>1340.666496000001</v>
+        <v>1890.610496000001</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>2793.51027355306</v>
       </c>
       <c r="Y44">
-        <v>594.9815040000001</v>
+        <v>45.03750399999993</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4124,10 +4124,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G45">
-        <v>4421.20907181512</v>
+        <v>4557.17687128488</v>
       </c>
       <c r="H45">
-        <v>2658.88408181818</v>
+        <v>2671.08450181818</v>
       </c>
       <c r="I45">
         <v>296.11326825</v>
@@ -4157,10 +4157,10 @@
         <v>336.1116997</v>
       </c>
       <c r="R45">
-        <v>311.251501395349</v>
+        <v>455.514418604651</v>
       </c>
       <c r="S45">
-        <v>1338.381456000001</v>
+        <v>1958.711999999999</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>2787.92325300595</v>
       </c>
       <c r="Y45">
-        <v>620.330544</v>
+        <v>0</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>2658.88408181818</v>
+        <v>2671.08450181818</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4207,7 +4207,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G46">
-        <v>4344.2686946814</v>
+        <v>4483.58909728605</v>
       </c>
       <c r="H46">
         <v>2817.31558181818</v>
@@ -4240,10 +4240,10 @@
         <v>337.826444</v>
       </c>
       <c r="R46">
-        <v>310.720096744186</v>
+        <v>458.54015255814</v>
       </c>
       <c r="S46">
-        <v>1336.096416</v>
+        <v>1971.722656000002</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>2782.34740649994</v>
       </c>
       <c r="Y46">
-        <v>645.679584</v>
+        <v>10.05334400000032</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G47">
-        <v>4663.83384682093</v>
+        <v>4804.62002542558</v>
       </c>
       <c r="H47">
         <v>2975.74708181818</v>
@@ -4323,10 +4323,10 @@
         <v>343.8913157</v>
       </c>
       <c r="R47">
-        <v>311.304971162791</v>
+        <v>460.680226976744</v>
       </c>
       <c r="S47">
-        <v>1338.611376000001</v>
+        <v>1980.924975999999</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>2776.78271168694</v>
       </c>
       <c r="Y47">
-        <v>671.028624</v>
+        <v>28.71502400000024</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G48">
-        <v>4583.39899896047</v>
+        <v>4725.65095356512</v>
       </c>
       <c r="H48">
         <v>3134.17858181818</v>
@@ -4406,10 +4406,10 @@
         <v>349.9561874</v>
       </c>
       <c r="R48">
-        <v>311.889845581395</v>
+        <v>462.820301395349</v>
       </c>
       <c r="S48">
-        <v>1341.126335999998</v>
+        <v>1990.127296000001</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>2771.22914626356</v>
       </c>
       <c r="Y48">
-        <v>696.3776640000001</v>
+        <v>47.37670400000064</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G49">
-        <v>4458.55674422558</v>
+        <v>4603.63798738837</v>
       </c>
       <c r="H49">
         <v>3292.61008181818</v>
@@ -4489,10 +4489,10 @@
         <v>354.1797816</v>
       </c>
       <c r="R49">
-        <v>318.502626976744</v>
+        <v>472.434980465116</v>
       </c>
       <c r="S49">
-        <v>1369.561295999999</v>
+        <v>2031.470415999999</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>2765.68668797104</v>
       </c>
       <c r="Y49">
-        <v>721.726704</v>
+        <v>59.81758399999961</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -4539,7 +4539,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G50">
-        <v>4322.11423115349</v>
+        <v>4463.13576577302</v>
       </c>
       <c r="H50">
         <v>3978.25510181818</v>
@@ -4572,10 +4572,10 @@
         <v>358.4033757</v>
       </c>
       <c r="R50">
-        <v>312.807441860465</v>
+        <v>462.43241227907</v>
       </c>
       <c r="S50">
-        <v>1345.071999999999</v>
+        <v>1988.459372800001</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>2760.1553145951</v>
       </c>
       <c r="Y50">
-        <v>800</v>
+        <v>156.6126271999992</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G51">
-        <v>4182.82831384651</v>
+        <v>4322.29385338512</v>
       </c>
       <c r="H51">
         <v>4094.76766181818</v>
@@ -4655,10 +4655,10 @@
         <v>355.4887467</v>
       </c>
       <c r="R51">
-        <v>323.992558139535</v>
+        <v>471.966605395349</v>
       </c>
       <c r="S51">
-        <v>1393.168</v>
+        <v>2029.456403200001</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -4676,7 +4676,7 @@
         <v>2754.63500396591</v>
       </c>
       <c r="Y51">
-        <v>800</v>
+        <v>163.7115968000008</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G52">
-        <v>4043.54239653953</v>
+        <v>4174.43798750884</v>
       </c>
       <c r="H52">
         <v>4211.28022181818</v>
@@ -4738,10 +4738,10 @@
         <v>352.5741177</v>
       </c>
       <c r="R52">
-        <v>335.177674418605</v>
+        <v>474.058938046512</v>
       </c>
       <c r="S52">
-        <v>1441.264000000001</v>
+        <v>2038.453433600002</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>2749.12573395797</v>
       </c>
       <c r="Y52">
-        <v>800</v>
+        <v>202.8105664</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G53">
-        <v>4152.90716560465</v>
+        <v>4281.72660670233</v>
       </c>
       <c r="H53">
         <v>4327.79278181818</v>
@@ -4821,10 +4821,10 @@
         <v>347.5825974</v>
       </c>
       <c r="R53">
-        <v>344.063255813954</v>
+        <v>480.741707906977</v>
       </c>
       <c r="S53">
-        <v>1479.472000000002</v>
+        <v>2067.189344000001</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>2743.62748249006</v>
       </c>
       <c r="Y53">
-        <v>800</v>
+        <v>212.282656</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G54">
-        <v>4162.27193476977</v>
+        <v>4287.75271436791</v>
       </c>
       <c r="H54">
         <v>4444.30534181818</v>
@@ -4904,10 +4904,10 @@
         <v>342.591077</v>
       </c>
       <c r="R54">
-        <v>352.948837209302</v>
+        <v>486.084942883721</v>
       </c>
       <c r="S54">
-        <v>1517.679999999998</v>
+        <v>2090.1652544</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>2738.14022752508</v>
       </c>
       <c r="Y54">
-        <v>800</v>
+        <v>227.5147456</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G55">
-        <v>4225.08532506977</v>
+        <v>4347.22744316837</v>
       </c>
       <c r="H55">
         <v>4560.81790181818</v>
@@ -4987,10 +4987,10 @@
         <v>335.3874057</v>
       </c>
       <c r="R55">
-        <v>361.828837209302</v>
+        <v>491.422596465116</v>
       </c>
       <c r="S55">
-        <v>1555.863999999998</v>
+        <v>2113.117164799999</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>2732.66394707003</v>
       </c>
       <c r="Y55">
-        <v>800</v>
+        <v>242.7468352</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G56">
-        <v>4287.89871546977</v>
+        <v>4406.70217206884</v>
       </c>
       <c r="H56">
         <v>4677.33046181818</v>
@@ -5070,10 +5070,10 @@
         <v>328.1837343</v>
       </c>
       <c r="R56">
-        <v>370.708837209302</v>
+        <v>496.760250046512</v>
       </c>
       <c r="S56">
-        <v>1594.047999999998</v>
+        <v>2136.069075200001</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>2727.19861917589</v>
       </c>
       <c r="Y56">
-        <v>800</v>
+        <v>257.9789248000008</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G57">
-        <v>3677.30837795</v>
+        <v>3792.77317304953</v>
       </c>
       <c r="H57">
         <v>4793.84302181818</v>
@@ -5153,10 +5153,10 @@
         <v>317.7163766</v>
       </c>
       <c r="R57">
-        <v>373.12</v>
+        <v>495.629066418605</v>
       </c>
       <c r="S57">
-        <v>1604.416</v>
+        <v>2131.204985600002</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>2721.74422193754</v>
       </c>
       <c r="Y57">
-        <v>800</v>
+        <v>273.2110144</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G58">
-        <v>3544.62501717442</v>
+        <v>3656.55504063488</v>
       </c>
       <c r="H58">
         <v>4910.35558181818</v>
@@ -5236,10 +5236,10 @@
         <v>307.2490189</v>
       </c>
       <c r="R58">
-        <v>259.252093023256</v>
+        <v>378.010738604651</v>
       </c>
       <c r="S58">
-        <v>1114.784000000001</v>
+        <v>1625.446175999999</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>2716.30073349366</v>
       </c>
       <c r="Y58">
-        <v>800</v>
+        <v>289.337824</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G59">
-        <v>3603.11262874767</v>
+        <v>3715.32908242953</v>
       </c>
       <c r="H59">
         <v>5026.86814181818</v>
@@ -5319,10 +5319,10 @@
         <v>302.9468869</v>
       </c>
       <c r="R59">
-        <v>262.768372093023</v>
+        <v>381.830922418605</v>
       </c>
       <c r="S59">
-        <v>1129.903999999999</v>
+        <v>1641.872966400001</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>2571.97924313778</v>
       </c>
       <c r="Y59">
-        <v>800</v>
+        <v>288.0310336</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G60">
-        <v>3661.60024042093</v>
+        <v>3772.74033139767</v>
       </c>
       <c r="H60">
         <v>5020.24018181818</v>
@@ -5402,10 +5402,10 @@
         <v>298.6447548</v>
       </c>
       <c r="R60">
-        <v>266.284651162791</v>
+        <v>384.205172093023</v>
       </c>
       <c r="S60">
-        <v>1145.024000000001</v>
+        <v>1652.082239999999</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>2427.94639576262</v>
       </c>
       <c r="Y60">
-        <v>800</v>
+        <v>292.9417599999992</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G61">
-        <v>3839.27326011512</v>
+        <v>3951.29275917744</v>
       </c>
       <c r="H61">
         <v>5013.61222181818</v>
@@ -5485,10 +5485,10 @@
         <v>275.6811435</v>
       </c>
       <c r="R61">
-        <v>272.245581395349</v>
+        <v>391.099161302326</v>
       </c>
       <c r="S61">
-        <v>1170.656000000001</v>
+        <v>1681.726393600002</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>2284.20161408221</v>
       </c>
       <c r="Y61">
-        <v>800</v>
+        <v>288.9296064</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G62">
-        <v>3916.9462799093</v>
+        <v>4036.85914054558</v>
       </c>
       <c r="H62">
         <v>5006.98426181818</v>
@@ -5568,10 +5568,10 @@
         <v>252.7175321</v>
       </c>
       <c r="R62">
-        <v>278.206511627907</v>
+        <v>405.435010976744</v>
       </c>
       <c r="S62">
-        <v>1196.288</v>
+        <v>1743.370547199999</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>2140.74432196515</v>
       </c>
       <c r="Y62">
-        <v>800</v>
+        <v>252.9174527999992</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G63">
-        <v>3989.02088899186</v>
+        <v>4121.01780813233</v>
       </c>
       <c r="H63">
         <v>5000.35630181818</v>
@@ -5651,10 +5651,10 @@
         <v>236.1373073</v>
       </c>
       <c r="R63">
-        <v>284.089302325582</v>
+        <v>424.139083906977</v>
       </c>
       <c r="S63">
-        <v>1221.584000000003</v>
+        <v>1823.798060800001</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>1997.57394443233</v>
       </c>
       <c r="Y63">
-        <v>800</v>
+        <v>197.7859392000008</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G64">
-        <v>4061.09549817442</v>
+        <v>4194.65554558651</v>
       </c>
       <c r="H64">
         <v>4993.72834181818</v>
@@ -5734,10 +5734,10 @@
         <v>219.5570824</v>
       </c>
       <c r="R64">
-        <v>289.972093023256</v>
+        <v>431.680366139535</v>
       </c>
       <c r="S64">
-        <v>1246.880000000001</v>
+        <v>1856.2255744</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>1854.68990765458</v>
       </c>
       <c r="Y64">
-        <v>800</v>
+        <v>190.6544256000008</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G65">
-        <v>4017.91641642209</v>
+        <v>4150.38074261744</v>
       </c>
       <c r="H65">
         <v>4987.10038181818</v>
@@ -5817,10 +5817,10 @@
         <v>205.6733258</v>
       </c>
       <c r="R65">
-        <v>284.100465116279</v>
+        <v>424.646169302326</v>
       </c>
       <c r="S65">
-        <v>1221.632</v>
+        <v>1825.978528000002</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5838,7 +5838,7 @@
         <v>1712.09163895038</v>
       </c>
       <c r="Y65">
-        <v>800</v>
+        <v>195.653472</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G66">
-        <v>3974.73733476977</v>
+        <v>4106.10593974837</v>
       </c>
       <c r="H66">
         <v>4980.47242181818</v>
@@ -5900,10 +5900,10 @@
         <v>191.7895691</v>
       </c>
       <c r="R66">
-        <v>278.228837209302</v>
+        <v>417.611972465116</v>
       </c>
       <c r="S66">
-        <v>1196.383999999999</v>
+        <v>1795.731481599999</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5921,7 +5921,7 @@
         <v>1569.77856678359</v>
       </c>
       <c r="Y66">
-        <v>800</v>
+        <v>200.6525184</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G67">
-        <v>3935.01682734535</v>
+        <v>4054.74605566535</v>
       </c>
       <c r="H67">
         <v>4973.84446181818</v>
@@ -5983,10 +5983,10 @@
         <v>174.74248</v>
       </c>
       <c r="R67">
-        <v>272.256744186047</v>
+        <v>399.290408186047</v>
       </c>
       <c r="S67">
-        <v>1170.704000000002</v>
+        <v>1716.948755200002</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>1427.75012076114</v>
       </c>
       <c r="Y67">
-        <v>800</v>
+        <v>253.7552448</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G68">
-        <v>3895.29631982093</v>
+        <v>4013.90710171488</v>
       </c>
       <c r="H68">
         <v>4967.21650181818</v>
@@ -6066,10 +6066,10 @@
         <v>157.695391</v>
       </c>
       <c r="R68">
-        <v>266.284651162791</v>
+        <v>392.131634604651</v>
       </c>
       <c r="S68">
-        <v>1145.024000000001</v>
+        <v>1686.166028799999</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>1286.00573163073</v>
       </c>
       <c r="Y68">
-        <v>800</v>
+        <v>258.8579712</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6116,7 +6116,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G69">
-        <v>2847.56559064651</v>
+        <v>2965.87982118419</v>
       </c>
       <c r="H69">
         <v>4960.58854181818</v>
@@ -6149,10 +6149,10 @@
         <v>133.7107868</v>
       </c>
       <c r="R69">
-        <v>249.992558139535</v>
+        <v>375.524898232558</v>
       </c>
       <c r="S69">
-        <v>1074.968000000001</v>
+        <v>1614.757062399999</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6170,7 +6170,7 @@
         <v>1144.54483127857</v>
       </c>
       <c r="Y69">
-        <v>800</v>
+        <v>260.2109376</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6199,7 +6199,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G70">
-        <v>3246.92788472791</v>
+        <v>3358.63300576977</v>
       </c>
       <c r="H70">
         <v>4953.96058181818</v>
@@ -6232,10 +6232,10 @@
         <v>109.7261826</v>
       </c>
       <c r="R70">
-        <v>349.979534883721</v>
+        <v>468.499557209302</v>
       </c>
       <c r="S70">
-        <v>1504.912</v>
+        <v>2014.548095999998</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>1003.36685272713</v>
       </c>
       <c r="Y70">
-        <v>800</v>
+        <v>290.363904</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G71">
-        <v>4109.88730038861</v>
+        <v>4216.98416982116</v>
       </c>
       <c r="H71">
         <v>4680.31498181818</v>
@@ -6315,10 +6315,10 @@
         <v>84.68131667999999</v>
       </c>
       <c r="R71">
-        <v>333.693023255814</v>
+        <v>447.323653953489</v>
       </c>
       <c r="S71">
-        <v>1434.88</v>
+        <v>1923.491712000003</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>1001.36011902167</v>
       </c>
       <c r="Y71">
-        <v>800</v>
+        <v>311.388288</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G72">
-        <v>4347.8467160593</v>
+        <v>4460.85626411512</v>
       </c>
       <c r="H72">
         <v>4406.66938181818</v>
@@ -6398,10 +6398,10 @@
         <v>59.63645075</v>
       </c>
       <c r="R72">
-        <v>317.406511627907</v>
+        <v>437.310541395349</v>
       </c>
       <c r="S72">
-        <v>1364.848</v>
+        <v>1880.435328</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>999.357398783631</v>
       </c>
       <c r="Y72">
-        <v>800</v>
+        <v>284.4126720000008</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>4741.22924771438</v>
+        <v>4858.36459960275</v>
       </c>
       <c r="H73">
         <v>4133.02378181818</v>
@@ -6481,10 +6481,10 @@
         <v>48.61932768</v>
       </c>
       <c r="R73">
-        <v>309.056744186047</v>
+        <v>433.338284651163</v>
       </c>
       <c r="S73">
-        <v>1328.944000000002</v>
+        <v>1863.354624000001</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>997.358683986064</v>
       </c>
       <c r="Y73">
-        <v>800</v>
+        <v>265.589376</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>5483.79246666763</v>
+        <v>5607.77363355135</v>
       </c>
       <c r="H74">
         <v>3367.70758181818</v>
@@ -6564,10 +6564,10 @@
         <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>316.115743255814</v>
+        <v>447.660747906977</v>
       </c>
       <c r="S74">
-        <v>1359.297696</v>
+        <v>1924.941216000001</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>995.363966618092</v>
       </c>
       <c r="Y74">
-        <v>733.742304</v>
+        <v>168.098784</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5205.31049907558</v>
+        <v>5329.08124735465</v>
       </c>
       <c r="H75">
         <v>3143.43253181818</v>
@@ -6647,10 +6647,10 @@
         <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>318.003186976744</v>
+        <v>449.324935813954</v>
       </c>
       <c r="S75">
-        <v>1367.413703999999</v>
+        <v>1932.097224000002</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>993.373238684856</v>
       </c>
       <c r="Y75">
-        <v>697.858296</v>
+        <v>133.174776</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>4592.17060663256</v>
+        <v>4715.73093630698</v>
       </c>
       <c r="H76">
         <v>2919.15748181818</v>
@@ -6730,10 +6730,10 @@
         <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>319.890630697675</v>
+        <v>450.98912372093</v>
       </c>
       <c r="S76">
-        <v>1375.529712000003</v>
+        <v>1939.253231999999</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         <v>991.386492207486</v>
       </c>
       <c r="Y76">
-        <v>661.974288</v>
+        <v>98.2507679999992</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>4481.76351861047</v>
+        <v>4605.11342968023</v>
       </c>
       <c r="H77">
         <v>2694.88243181818</v>
@@ -6813,10 +6813,10 @@
         <v>12.8889432</v>
       </c>
       <c r="R77">
-        <v>304.542725581395</v>
+        <v>435.417962790698</v>
       </c>
       <c r="S77">
-        <v>1309.533719999999</v>
+        <v>1872.297240000001</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>989.403719223071</v>
       </c>
       <c r="Y77">
-        <v>626.09028</v>
+        <v>63.32676000000032</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G78">
-        <v>3749.26340733256</v>
+        <v>3872.40289979767</v>
       </c>
       <c r="H78">
         <v>2470.60738181818</v>
@@ -6896,10 +6896,10 @@
         <v>7.8974229</v>
       </c>
       <c r="R78">
-        <v>172.915750697674</v>
+        <v>303.567732093023</v>
       </c>
       <c r="S78">
-        <v>743.5377279999982</v>
+        <v>1305.341247999999</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>987.424911784625</v>
       </c>
       <c r="Y78">
-        <v>590.206272</v>
+        <v>28.402752</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -6946,10 +6946,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G79">
-        <v>3933.97631756046</v>
+        <v>4055.4760231</v>
       </c>
       <c r="H79">
-        <v>2246.33233181818</v>
+        <v>2249.98870181818</v>
       </c>
       <c r="I79">
         <v>1242.3279769</v>
@@ -6979,10 +6979,10 @@
         <v>4.6250101</v>
       </c>
       <c r="R79">
-        <v>157.567845581395</v>
+        <v>286.48</v>
       </c>
       <c r="S79">
-        <v>677.5417359999985</v>
+        <v>1231.864</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -7000,13 +7000,13 @@
         <v>846.561173072167</v>
       </c>
       <c r="Y79">
-        <v>554.322264</v>
+        <v>0</v>
       </c>
       <c r="Z79">
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>2246.33233181818</v>
+        <v>2249.98870181818</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -7029,10 +7029,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G80">
-        <v>3764.68922778837</v>
+        <v>3878.3236594814</v>
       </c>
       <c r="H80">
-        <v>2022.05728181818</v>
+        <v>2085.00466181818</v>
       </c>
       <c r="I80">
         <v>1237.6026661</v>
@@ -7062,10 +7062,10 @@
         <v>1.3525973</v>
       </c>
       <c r="R80">
-        <v>142.219940465116</v>
+        <v>262.786976744186</v>
       </c>
       <c r="S80">
-        <v>611.5457439999988</v>
+        <v>1129.984</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -7083,13 +7083,13 @@
         <v>705.979161837133</v>
       </c>
       <c r="Y80">
-        <v>518.438256</v>
+        <v>0</v>
       </c>
       <c r="Z80">
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>2022.05728181818</v>
+        <v>2085.00466181818</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -7112,10 +7112,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G81">
-        <v>3832.26470306802</v>
+        <v>3938.03386091454</v>
       </c>
       <c r="H81">
-        <v>1797.78223181818</v>
+        <v>1878.84382181818</v>
       </c>
       <c r="I81">
         <v>1236.126697225</v>
@@ -7145,10 +7145,10 @@
         <v>0.711204375</v>
       </c>
       <c r="R81">
-        <v>129.83575627907</v>
+        <v>242.057674418605</v>
       </c>
       <c r="S81">
-        <v>558.2937520000011</v>
+        <v>1040.848000000001</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -7166,13 +7166,13 @@
         <v>565.67831462457</v>
       </c>
       <c r="Y81">
-        <v>482.554248</v>
+        <v>0</v>
       </c>
       <c r="Z81">
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>1797.78223181818</v>
+        <v>1878.84382181818</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -7195,10 +7195,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>3932.51083506525</v>
+        <v>4042.58150855362</v>
       </c>
       <c r="H82">
-        <v>1920.43818181818</v>
+        <v>1968.22778181818</v>
       </c>
       <c r="I82">
         <v>1234.65072835</v>
@@ -7228,10 +7228,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R82">
-        <v>147.244841347854</v>
+        <v>264.03070181297</v>
       </c>
       <c r="S82">
-        <v>633.1528177957722</v>
+        <v>1135.332017795771</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -7249,13 +7249,13 @@
         <v>425.658069106432</v>
       </c>
       <c r="Y82">
-        <v>502.1792</v>
+        <v>0</v>
       </c>
       <c r="Z82">
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>1920.43818181818</v>
+        <v>1968.22778181818</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -7278,10 +7278,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G83">
-        <v>4134.29540064244</v>
+        <v>4248.02838188895</v>
       </c>
       <c r="H83">
-        <v>2024.86738181818</v>
+        <v>2025.03034181818</v>
       </c>
       <c r="I83">
         <v>1233.530873925</v>
@@ -7311,10 +7311,10 @@
         <v>0.034905725</v>
       </c>
       <c r="R83">
-        <v>242.718169302326</v>
+        <v>363.38976744186</v>
       </c>
       <c r="S83">
-        <v>1043.688128000002</v>
+        <v>1562.575999999998</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -7332,13 +7332,13 @@
         <v>309.145646800378</v>
       </c>
       <c r="Y83">
-        <v>518.887872</v>
+        <v>0</v>
       </c>
       <c r="Z83">
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>2024.86738181818</v>
+        <v>2025.03034181818</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -7361,10 +7361,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G84">
-        <v>4298.00317503023</v>
+        <v>4401.80107352326</v>
       </c>
       <c r="H84">
-        <v>1741.57258181818</v>
+        <v>1871.65370181818</v>
       </c>
       <c r="I84">
         <v>1232.4110195</v>
@@ -7394,10 +7394,10 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>255.785882790698</v>
+        <v>365.916279069768</v>
       </c>
       <c r="S84">
-        <v>1099.879296000001</v>
+        <v>1573.440000000002</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -7415,13 +7415,13 @@
         <v>308.527355506777</v>
       </c>
       <c r="Y84">
-        <v>473.560704</v>
+        <v>0</v>
       </c>
       <c r="Z84">
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>1741.57258181818</v>
+        <v>1871.65370181818</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -7444,10 +7444,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G85">
-        <v>3901.31166070698</v>
+        <v>4005.69540667907</v>
       </c>
       <c r="H85">
-        <v>1758.27778181818</v>
+        <v>1879.98586181818</v>
       </c>
       <c r="I85">
         <v>1231.4137096</v>
@@ -7477,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>257.923363720929</v>
+        <v>368.675348837208</v>
       </c>
       <c r="S85">
-        <v>1109.070463999995</v>
+        <v>1585.303999999994</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -7498,13 +7498,13 @@
         <v>307.910300795763</v>
       </c>
       <c r="Y85">
-        <v>476.233536</v>
+        <v>0</v>
       </c>
       <c r="Z85">
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>1758.27778181818</v>
+        <v>1879.98586181818</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -7527,10 +7527,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G86">
-        <v>3998.3237742907</v>
+        <v>4105.39755378837</v>
       </c>
       <c r="H86">
-        <v>1834.98298181818</v>
+        <v>1936.31802181818</v>
       </c>
       <c r="I86">
         <v>1230.4163997</v>
@@ -7560,10 +7560,10 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <v>253.835728372093</v>
+        <v>367.441860465116</v>
       </c>
       <c r="S86">
-        <v>1091.493632</v>
+        <v>1579.999999999999</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -7581,13 +7581,13 @@
         <v>307.294480194172</v>
       </c>
       <c r="Y86">
-        <v>488.5063680000001</v>
+        <v>0</v>
       </c>
       <c r="Z86">
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>1834.98298181818</v>
+        <v>1936.31802181818</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -7610,10 +7610,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G87">
-        <v>4192.83543742674</v>
+        <v>4304.00204114768</v>
       </c>
       <c r="H87">
-        <v>1951.68818181818</v>
+        <v>2024.65018181818</v>
       </c>
       <c r="I87">
         <v>1230.51674955</v>
@@ -7643,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>248.259720930233</v>
+        <v>366.208372093024</v>
       </c>
       <c r="S87">
-        <v>1067.516800000002</v>
+        <v>1574.696000000003</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7664,13 +7664,13 @@
         <v>306.679891233784</v>
       </c>
       <c r="Y87">
-        <v>507.1792</v>
+        <v>0</v>
       </c>
       <c r="Z87">
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>1951.68818181818</v>
+        <v>2024.65018181818</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -7693,10 +7693,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G88">
-        <v>3793.79993777209</v>
+        <v>3902.60652850698</v>
       </c>
       <c r="H88">
-        <v>1884.39338181819</v>
+        <v>1965.78234181819</v>
       </c>
       <c r="I88">
         <v>1230.6170994</v>
@@ -7726,10 +7726,10 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>249.530225116281</v>
+        <v>364.974883720932</v>
       </c>
       <c r="S88">
-        <v>1072.979968000008</v>
+        <v>1569.392000000008</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -7747,13 +7747,13 @@
         <v>306.066531451316</v>
       </c>
       <c r="Y88">
-        <v>496.4120320000017</v>
+        <v>0</v>
       </c>
       <c r="Z88">
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1884.39338181819</v>
+        <v>1965.78234181819</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -7776,10 +7776,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G89">
-        <v>3541.46568727326</v>
+        <v>3651.41924176628</v>
       </c>
       <c r="H89">
-        <v>1917.09858181819</v>
+        <v>1986.91450181819</v>
       </c>
       <c r="I89">
         <v>1230.50922335</v>
@@ -7809,10 +7809,10 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <v>247.07979906977</v>
+        <v>363.74139534884</v>
       </c>
       <c r="S89">
-        <v>1062.443136000011</v>
+        <v>1564.088000000012</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -7830,13 +7830,13 @@
         <v>305.454398388413</v>
       </c>
       <c r="Y89">
-        <v>501.6448640000016</v>
+        <v>0</v>
       </c>
       <c r="Z89">
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>1917.09858181819</v>
+        <v>1986.91450181819</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -7859,10 +7859,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G90">
-        <v>4414.13143677442</v>
+        <v>4525.23195502559</v>
       </c>
       <c r="H90">
-        <v>1949.8037818182</v>
+        <v>2008.0466618182</v>
       </c>
       <c r="I90">
         <v>605.4013473</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>244.629373023259</v>
+        <v>362.507906976748</v>
       </c>
       <c r="S90">
-        <v>1051.906304000014</v>
+        <v>1558.784000000016</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -7913,13 +7913,13 @@
         <v>304.843489591636</v>
       </c>
       <c r="Y90">
-        <v>506.8776960000032</v>
+        <v>0</v>
       </c>
       <c r="Z90">
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>1949.8037818182</v>
+        <v>2008.0466618182</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -7942,10 +7942,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G91">
-        <v>5361.56253497559</v>
+        <v>5473.81001698489</v>
       </c>
       <c r="H91">
-        <v>1982.50898181821</v>
+        <v>2029.17882181821</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -7975,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="R91">
-        <v>242.178946976748</v>
+        <v>361.274418604656</v>
       </c>
       <c r="S91">
-        <v>1041.369472000016</v>
+        <v>1553.480000000021</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>304.233802612453</v>
       </c>
       <c r="Y91">
-        <v>512.1105280000048</v>
+        <v>0</v>
       </c>
       <c r="Z91">
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>1982.50898181821</v>
+        <v>2029.17882181821</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -8025,10 +8025,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G92">
-        <v>5693.46947161004</v>
+        <v>5811.07228947051</v>
       </c>
       <c r="H92">
-        <v>2135.21418181822</v>
+        <v>2146.31098181821</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <v>235.263404651167</v>
+        <v>360.040930232564</v>
       </c>
       <c r="S92">
-        <v>1011.632640000018</v>
+        <v>1548.176000000025</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -8079,13 +8079,13 @@
         <v>303.625335007228</v>
       </c>
       <c r="Y92">
-        <v>536.5433600000064</v>
+        <v>0</v>
       </c>
       <c r="Z92">
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>2135.21418181822</v>
+        <v>2146.31098181821</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -8108,7 +8108,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G93">
-        <v>5316.07183351121</v>
+        <v>5434.73810699958</v>
       </c>
       <c r="H93">
         <v>2167.91938181822</v>
@@ -8141,10 +8141,10 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>232.812978604656</v>
+        <v>358.718839069772</v>
       </c>
       <c r="S93">
-        <v>1001.095808000021</v>
+        <v>1542.49100800002</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>303.018084337214</v>
       </c>
       <c r="Y93">
-        <v>541.7761920000064</v>
+        <v>0.3809920000065176</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8191,10 +8191,10 @@
         <v>0.65550003</v>
       </c>
       <c r="G94">
-        <v>4942.18117215655</v>
+        <v>5058.57094078911</v>
       </c>
       <c r="H94">
-        <v>2100.62458181823</v>
+        <v>2108.57530181822</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>234.083482790703</v>
+        <v>357.57395348838</v>
       </c>
       <c r="S94">
-        <v>1006.558976000023</v>
+        <v>1537.568000000034</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -8245,13 +8245,13 @@
         <v>302.412048168539</v>
       </c>
       <c r="Y94">
-        <v>531.009024000008</v>
+        <v>0</v>
       </c>
       <c r="Z94">
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>2100.62458181823</v>
+        <v>2108.57530181822</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -8274,7 +8274,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G95">
-        <v>5036.26434801353</v>
+        <v>5153.16591080423</v>
       </c>
       <c r="H95">
         <v>2233.32978181824</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>227.912126511634</v>
+        <v>351.945614883727</v>
       </c>
       <c r="S95">
-        <v>980.0221440000262</v>
+        <v>1513.366144000026</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>301.807224072202</v>
       </c>
       <c r="Y95">
-        <v>552.2418560000095</v>
+        <v>18.89785600000944</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -8357,7 +8357,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G96">
-        <v>5080.34752387051</v>
+        <v>5196.36673131237</v>
       </c>
       <c r="H96">
         <v>2366.03498181825</v>
@@ -8390,10 +8390,10 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <v>221.740770232565</v>
+        <v>344.838072558146</v>
       </c>
       <c r="S96">
-        <v>953.4853120000295</v>
+        <v>1482.803712000028</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>301.203609624058</v>
       </c>
       <c r="Y96">
-        <v>573.4746880000112</v>
+        <v>44.15628800001105</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5127.90539732167</v>
+        <v>5243.0422494147</v>
       </c>
       <c r="H97">
         <v>2398.74018181826</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>219.290344186054</v>
+        <v>341.451460465124</v>
       </c>
       <c r="S97">
-        <v>942.9484800000322</v>
+        <v>1468.241280000033</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>300.60120240481</v>
       </c>
       <c r="Y97">
-        <v>578.7075200000128</v>
+        <v>53.41472000001264</v>
       </c>
       <c r="Z97">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>交流负荷</t>
   </si>
@@ -25,7 +25,7 @@
     <t>冷负荷</t>
   </si>
   <si>
-    <t>蒸汽负荷</t>
+    <t>热负荷</t>
   </si>
   <si>
     <t>电价</t>
@@ -43,15 +43,6 @@
     <t>直流侧逆变器功率</t>
   </si>
   <si>
-    <t>ES_1电池电量</t>
-  </si>
-  <si>
-    <t>ES_1电储能充电功率</t>
-  </si>
-  <si>
-    <t>ES_1电储能放电功率</t>
-  </si>
-  <si>
     <t>GT_1机组出力</t>
   </si>
   <si>
@@ -61,31 +52,16 @@
     <t>GT_1余热锅炉低品位热功率</t>
   </si>
   <si>
-    <t>光伏出力</t>
+    <t>风机最大出力</t>
   </si>
   <si>
-    <t>AC_1空调制冷耗电功率</t>
+    <t>风机实际出力</t>
   </si>
   <si>
-    <t>AC_1空调制冷功率</t>
+    <t>AC_1空调制热耗电功率</t>
   </si>
   <si>
-    <t>CS_1冰蓄冷耗电功率</t>
-  </si>
-  <si>
-    <t>CS_1冰蓄冷储冷功率</t>
-  </si>
-  <si>
-    <t>CS_1冰蓄冷供冷功率</t>
-  </si>
-  <si>
-    <t>CS_1冰蓄冷制冷机直接供冷耗电功率</t>
-  </si>
-  <si>
-    <t>CS_1冰蓄冷储冷量</t>
-  </si>
-  <si>
-    <t>ABSC_1吸收式制冷机制冷功率</t>
+    <t>AC_1空调制热功率</t>
   </si>
   <si>
     <t>Boiler_1燃气锅炉热功率</t>
@@ -449,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,32 +486,8 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -543,82 +495,58 @@
         <v>5000</v>
       </c>
       <c r="C2">
-        <v>19.5682133</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1549.28</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3623.4076</v>
+        <v>4431.8076</v>
       </c>
       <c r="F2">
         <v>0.35220001</v>
       </c>
       <c r="G2">
-        <v>6598.81410477287</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H2">
-        <v>3646.21698909091</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6082.18557674</v>
       </c>
       <c r="J2">
-        <v>1269.5682133</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1300</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L2">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>7200</v>
       </c>
       <c r="O2">
-        <v>60.90909090909089</v>
+        <v>6082.18557674</v>
       </c>
       <c r="P2">
-        <v>40.60606060606059</v>
+        <v>1030.65293023</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>4431.807599989</v>
       </c>
       <c r="R2">
-        <v>360.297674418605</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1549.280000000002</v>
-      </c>
-      <c r="T2">
-        <v>0.888888888888914</v>
-      </c>
-      <c r="U2">
-        <v>2.66666666666674</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>2.220446049250313e-15</v>
-      </c>
-      <c r="X2">
-        <v>300</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>3646.21698909091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -626,82 +554,58 @@
         <v>4525</v>
       </c>
       <c r="C3">
-        <v>19.34694195</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1551.28</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3650.4076</v>
+        <v>4460.8316</v>
       </c>
       <c r="F3">
         <v>0.35220001</v>
       </c>
       <c r="G3">
-        <v>6124.08120551589</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H3">
-        <v>3669.84098909091</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5614.27283256</v>
       </c>
       <c r="J3">
-        <v>1269.34694195</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1593.625</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L3">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>6513.6444947091</v>
       </c>
       <c r="O3">
-        <v>60.90909090909089</v>
+        <v>5614.27283256</v>
       </c>
       <c r="P3">
-        <v>40.60606060606059</v>
+        <v>1037.40269767</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4460.831599980999</v>
       </c>
       <c r="R3">
-        <v>360.762790697674</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1551.279999999998</v>
-      </c>
-      <c r="T3">
-        <v>0.888888888888942</v>
-      </c>
-      <c r="U3">
-        <v>2.66666666666682</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>5.773159728050814e-15</v>
-      </c>
-      <c r="X3">
-        <v>300</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>3669.84098909091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -709,82 +613,58 @@
         <v>4050</v>
       </c>
       <c r="C4">
-        <v>19.1256706</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1553.28</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3677.4076</v>
+        <v>4489.8556</v>
       </c>
       <c r="F4">
         <v>0.35220001</v>
       </c>
       <c r="G4">
-        <v>5649.34830625891</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H4">
-        <v>3693.46498909091</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5146.36008837</v>
       </c>
       <c r="J4">
-        <v>1269.1256706</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1886.5159375</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L4">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>8564.630005929352</v>
       </c>
       <c r="O4">
-        <v>60.90909090909089</v>
+        <v>5146.36008837</v>
       </c>
       <c r="P4">
-        <v>40.60606060606059</v>
+        <v>1044.15246512</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>4489.855600016</v>
       </c>
       <c r="R4">
-        <v>361.227906976744</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1553.279999999999</v>
-      </c>
-      <c r="T4">
-        <v>0.888888888888923</v>
-      </c>
-      <c r="U4">
-        <v>2.66666666666677</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>-8.881784197001252e-16</v>
-      </c>
-      <c r="X4">
-        <v>300</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>3693.46498909091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -792,82 +672,58 @@
         <v>4775</v>
       </c>
       <c r="C5">
-        <v>19.1663123</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1555.28</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3704.4076</v>
+        <v>4518.8796</v>
       </c>
       <c r="F5">
         <v>0.35220001</v>
       </c>
       <c r="G5">
-        <v>6374.87732005194</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H5">
-        <v>3717.08898909091</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5878.44734419</v>
       </c>
       <c r="J5">
-        <v>1269.1663123</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2178.67464765625</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L5">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N5">
-        <v>50</v>
+        <v>7847.230367680063</v>
       </c>
       <c r="O5">
-        <v>60.90909090909089</v>
+        <v>5878.44734419</v>
       </c>
       <c r="P5">
-        <v>40.60606060606059</v>
+        <v>1050.90223256</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>4518.879600007999</v>
       </c>
       <c r="R5">
-        <v>361.693023255814</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1555.28</v>
-      </c>
-      <c r="T5">
-        <v>0.888888888888923</v>
-      </c>
-      <c r="U5">
-        <v>2.66666666666677</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>-8.881784197001252e-16</v>
-      </c>
-      <c r="X5">
-        <v>300</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>3717.08898909091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -875,82 +731,58 @@
         <v>5500</v>
       </c>
       <c r="C6">
-        <v>19.206954</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1557.28</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3731.4076</v>
+        <v>4527.9036</v>
       </c>
       <c r="F6">
         <v>0.35220001</v>
       </c>
       <c r="G6">
-        <v>7100.40633384496</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3720.71298909091</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6605.65087907</v>
       </c>
       <c r="J6">
-        <v>1269.206954</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2470.10296103711</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L6">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N6">
-        <v>50</v>
+        <v>8482.737726354699</v>
       </c>
       <c r="O6">
-        <v>60.90909090909089</v>
+        <v>6605.65087907</v>
       </c>
       <c r="P6">
-        <v>40.60606060606059</v>
+        <v>1053.00083721</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>4527.903600003</v>
       </c>
       <c r="R6">
-        <v>362.158139534884</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1557.280000000001</v>
-      </c>
-      <c r="T6">
-        <v>0.888888888888923</v>
-      </c>
-      <c r="U6">
-        <v>2.66666666666677</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>-8.881784197001252e-16</v>
-      </c>
-      <c r="X6">
-        <v>300</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>3720.71298909091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -958,82 +790,58 @@
         <v>5275</v>
       </c>
       <c r="C7">
-        <v>19.22133745</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1559.28</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3758.4076</v>
+        <v>4546.9276</v>
       </c>
       <c r="F7">
         <v>0.35220001</v>
       </c>
       <c r="G7">
-        <v>6875.90908938798</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H7">
-        <v>3734.33698909091</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6385.29627442</v>
       </c>
       <c r="J7">
-        <v>1269.22133745</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2760.80270363452</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L7">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N7">
-        <v>50</v>
+        <v>7238.000554574504</v>
       </c>
       <c r="O7">
-        <v>60.90909090909089</v>
+        <v>6385.29627442</v>
       </c>
       <c r="P7">
-        <v>40.60606060606059</v>
+        <v>1057.42502326</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>4546.927600018</v>
       </c>
       <c r="R7">
-        <v>362.623255813954</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1559.280000000002</v>
-      </c>
-      <c r="T7">
-        <v>0.888888888888923</v>
-      </c>
-      <c r="U7">
-        <v>2.66666666666677</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>-8.881784197001252e-16</v>
-      </c>
-      <c r="X7">
-        <v>300</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>3734.33698909091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1041,82 +849,58 @@
         <v>5050</v>
       </c>
       <c r="C8">
-        <v>19.2357209</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1561.28</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3785.4076</v>
+        <v>4565.9516</v>
       </c>
       <c r="F8">
         <v>0.35220001</v>
       </c>
       <c r="G8">
-        <v>6651.41184493101</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H8">
-        <v>3747.96098909091</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>6164.94166977</v>
       </c>
       <c r="J8">
-        <v>1269.2357209</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3050.77569687543</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L8">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N8">
-        <v>50</v>
+        <v>6805.040655777953</v>
       </c>
       <c r="O8">
-        <v>60.90909090909089</v>
+        <v>6164.94166977</v>
       </c>
       <c r="P8">
-        <v>40.60606060606059</v>
+        <v>1061.8492093</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4565.95159999</v>
       </c>
       <c r="R8">
-        <v>363.088372093023</v>
+        <v>-0</v>
       </c>
       <c r="S8">
-        <v>1561.279999999999</v>
-      </c>
-      <c r="T8">
-        <v>0.888888888888923</v>
-      </c>
-      <c r="U8">
-        <v>2.66666666666677</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>-8.881784197001252e-16</v>
-      </c>
-      <c r="X8">
-        <v>300</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>3747.96098909091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1124,82 +908,58 @@
         <v>5017.5</v>
       </c>
       <c r="C9">
-        <v>19.2726831</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1563.28</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3652.4076</v>
+        <v>4434.9756</v>
       </c>
       <c r="F9">
         <v>0.35220001</v>
       </c>
       <c r="G9">
-        <v>6619.43717922403</v>
+        <v>1.13686837722e-12</v>
       </c>
       <c r="H9">
-        <v>3643.58498909091</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6100.45915814</v>
       </c>
       <c r="J9">
-        <v>1269.2726831</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3340.02375763324</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L9">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N9">
-        <v>50</v>
+        <v>6236.537844018771</v>
       </c>
       <c r="O9">
-        <v>60.90909090909089</v>
+        <v>6100.45915814</v>
       </c>
       <c r="P9">
-        <v>40.60606060606059</v>
+        <v>1031.38967442</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>4434.975600006</v>
       </c>
       <c r="R9">
-        <v>363.553488372093</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1563.28</v>
-      </c>
-      <c r="T9">
-        <v>0.888888888888923</v>
-      </c>
-      <c r="U9">
-        <v>2.66666666666677</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>-8.881784197001252e-16</v>
-      </c>
-      <c r="X9">
-        <v>300</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>3643.58498909091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1207,82 +967,58 @@
         <v>4985</v>
       </c>
       <c r="C10">
-        <v>19.3096453</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1523.28</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3599.4076</v>
+        <v>4373.9996</v>
       </c>
       <c r="F10">
         <v>0.35220001</v>
       </c>
       <c r="G10">
-        <v>6629.55258673956</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H10">
-        <v>3593.20898909091</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6053.06966977</v>
       </c>
       <c r="J10">
-        <v>1269.3096453</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>3628.54869823916</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L10">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N10">
-        <v>50</v>
+        <v>8418.83419265317</v>
       </c>
       <c r="O10">
-        <v>60.90909090909089</v>
+        <v>6053.06966977</v>
       </c>
       <c r="P10">
-        <v>40.60606060606059</v>
+        <v>1017.2092093</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>4373.99959999</v>
       </c>
       <c r="R10">
-        <v>354.251162790698</v>
+        <v>-0</v>
       </c>
       <c r="S10">
-        <v>1523.280000000001</v>
-      </c>
-      <c r="T10">
-        <v>50.7421147707863</v>
-      </c>
-      <c r="U10">
-        <v>152.226344312359</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>-1.13686837721616e-13</v>
-      </c>
-      <c r="X10">
-        <v>300</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>3593.20898909091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1290,82 +1026,58 @@
         <v>4957.5</v>
       </c>
       <c r="C11">
-        <v>19.5021497</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1497.28</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3566.4076</v>
+        <v>4333.0236</v>
       </c>
       <c r="F11">
         <v>0.35220001</v>
       </c>
       <c r="G11">
-        <v>6717.61703342093</v>
+        <v>374.153456017</v>
       </c>
       <c r="H11">
-        <v>3558.83298909091</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5629.20114398</v>
       </c>
       <c r="J11">
-        <v>1269.5021497</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3916.35232649356</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
+        <v>5629.201143982733</v>
+      </c>
+      <c r="O11">
+        <v>5629.20114398</v>
+      </c>
+      <c r="P11">
+        <v>996.052</v>
+      </c>
+      <c r="Q11">
+        <v>4283.0236</v>
+      </c>
+      <c r="R11">
         <v>50</v>
       </c>
-      <c r="O11">
-        <v>60.90909090909089</v>
-      </c>
-      <c r="P11">
-        <v>40.60606060606059</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>348.204651162791</v>
-      </c>
       <c r="S11">
-        <v>1497.280000000001</v>
-      </c>
-      <c r="T11">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U11">
-        <v>500</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X11">
-        <v>333.650927470281</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>3558.83298909091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1373,82 +1085,58 @@
         <v>4930</v>
       </c>
       <c r="C12">
-        <v>19.6946541</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1496.28</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3493.4076</v>
+        <v>4272.0476</v>
       </c>
       <c r="F12">
         <v>0.35220001</v>
       </c>
       <c r="G12">
-        <v>6690.06535177442</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3512.45698909091</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5973.17441395</v>
       </c>
       <c r="J12">
-        <v>1269.6946541</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4203.43644567733</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>50</v>
+        <v>7779.45277020596</v>
       </c>
       <c r="O12">
-        <v>60.90909090909089</v>
+        <v>5973.17441395</v>
       </c>
       <c r="P12">
-        <v>40.60606060606059</v>
+        <v>993.49944186</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4272.047599998</v>
       </c>
       <c r="R12">
-        <v>347.972093023256</v>
+        <v>-0</v>
       </c>
       <c r="S12">
-        <v>1496.280000000001</v>
-      </c>
-      <c r="T12">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U12">
-        <v>500</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X12">
-        <v>445.48362561534</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>3512.45698909091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1456,82 +1144,58 @@
         <v>5140</v>
       </c>
       <c r="C13">
-        <v>19.63862545</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1495.28</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3420.4076</v>
+        <v>4181.0716</v>
       </c>
       <c r="F13">
         <v>0.35220001</v>
       </c>
       <c r="G13">
-        <v>6899.76513707791</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3436.08098909091</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6160.95934419</v>
       </c>
       <c r="J13">
-        <v>1269.63862545</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>4489.80285456314</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>8282.125214324938</v>
       </c>
       <c r="O13">
-        <v>60.90909090909089</v>
+        <v>6160.95934419</v>
       </c>
       <c r="P13">
-        <v>40.60606060606059</v>
+        <v>972.342232558</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>4181.0715999994</v>
       </c>
       <c r="R13">
-        <v>347.739534883721</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1495.28</v>
-      </c>
-      <c r="T13">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U13">
-        <v>500</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X13">
-        <v>557.092658364109</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>3436.08098909091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1539,82 +1203,58 @@
         <v>5550</v>
       </c>
       <c r="C14">
-        <v>19.5825968</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1494.28</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3447.4076</v>
+        <v>4200.0956</v>
       </c>
       <c r="F14">
         <v>0.35220001</v>
       </c>
       <c r="G14">
-        <v>7309.46492238139</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3449.70498909091</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6575.60473953</v>
       </c>
       <c r="J14">
-        <v>1269.5825968</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>4775.45334742673</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>50</v>
+        <v>8780.424559704448</v>
       </c>
       <c r="O14">
-        <v>60.90909090909089</v>
+        <v>6575.60473953</v>
       </c>
       <c r="P14">
-        <v>40.60606060606059</v>
+        <v>976.766418605</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>4200.0956000015</v>
       </c>
       <c r="R14">
-        <v>347.506976744186</v>
+        <v>-0</v>
       </c>
       <c r="S14">
-        <v>1494.28</v>
-      </c>
-      <c r="T14">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U14">
-        <v>500</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X14">
-        <v>668.478473047381</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>3449.70498909091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1622,82 +1262,58 @@
         <v>5105</v>
       </c>
       <c r="C15">
-        <v>19.67642385</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1493.28</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>3374.4076</v>
+        <v>4110.9696</v>
       </c>
       <c r="F15">
         <v>0.35220001</v>
       </c>
       <c r="G15">
-        <v>6864.19239330988</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3375.17898909091</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6108.84141395</v>
       </c>
       <c r="J15">
-        <v>1269.554253775</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>5060.38971405816</v>
+        <v>-0</v>
       </c>
       <c r="L15">
-        <v>1250</v>
+        <v>-0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>50</v>
+        <v>12000</v>
       </c>
       <c r="O15">
-        <v>60.90909090909089</v>
+        <v>6108.84141395</v>
       </c>
       <c r="P15">
-        <v>40.60606060606059</v>
+        <v>956.03944186</v>
       </c>
       <c r="Q15">
-        <v>0.122170075</v>
+        <v>4110.969599997999</v>
       </c>
       <c r="R15">
-        <v>347.274418604651</v>
+        <v>-0</v>
       </c>
       <c r="S15">
-        <v>1493.279999999999</v>
-      </c>
-      <c r="T15">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U15">
-        <v>500</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X15">
-        <v>779.641516101286</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>3375.17898909091</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1705,82 +1321,58 @@
         <v>4860</v>
       </c>
       <c r="C16">
-        <v>19.7702509</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1377.28</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>3501.4076</v>
+        <v>4219.9436</v>
       </c>
       <c r="F16">
         <v>0.35220001</v>
       </c>
       <c r="G16">
-        <v>6590.83846888953</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3458.75298909091</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5890.45134419</v>
       </c>
       <c r="J16">
-        <v>1269.52591075</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5344.61373977301</v>
+        <v>-0</v>
       </c>
       <c r="L16">
-        <v>1250</v>
+        <v>-0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N16">
-        <v>50</v>
+        <v>7746.844929248936</v>
       </c>
       <c r="O16">
-        <v>60.90909090909089</v>
+        <v>5890.45134419</v>
       </c>
       <c r="P16">
-        <v>40.60606060606059</v>
+        <v>981.3822325580001</v>
       </c>
       <c r="Q16">
-        <v>0.24434015</v>
+        <v>4219.9435999994</v>
       </c>
       <c r="R16">
-        <v>320.297674418605</v>
+        <v>-0</v>
       </c>
       <c r="S16">
-        <v>1377.280000000002</v>
-      </c>
-      <c r="T16">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U16">
-        <v>500</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X16">
-        <v>890.5822330690841</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>3458.75298909091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1788,82 +1380,58 @@
         <v>5355</v>
       </c>
       <c r="C17">
-        <v>19.94335435</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1379.28</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>3528.4076</v>
+        <v>4228.9176</v>
       </c>
       <c r="F17">
         <v>0.35220001</v>
       </c>
       <c r="G17">
-        <v>7084.32779146395</v>
+        <v>424.777244301</v>
       </c>
       <c r="H17">
-        <v>3467.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5950.65612314</v>
       </c>
       <c r="J17">
-        <v>1268.43368125</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>5628.12720542358</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
+        <v>5950.656123141329</v>
+      </c>
+      <c r="O17">
+        <v>5950.65612314</v>
+      </c>
+      <c r="P17">
+        <v>971.841302326</v>
+      </c>
+      <c r="Q17">
+        <v>4178.9176000018</v>
+      </c>
+      <c r="R17">
         <v>50</v>
       </c>
-      <c r="O17">
-        <v>60.90909090909089</v>
-      </c>
-      <c r="P17">
-        <v>40.60606060606059</v>
-      </c>
-      <c r="Q17">
-        <v>1.5096731</v>
-      </c>
-      <c r="R17">
-        <v>319.80064744186</v>
-      </c>
       <c r="S17">
-        <v>1375.142783999998</v>
-      </c>
-      <c r="T17">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U17">
-        <v>500</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X17">
-        <v>1001.30106860295</v>
-      </c>
-      <c r="Y17">
-        <v>4.137216000000264</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>3467.49850909091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1871,82 +1439,58 @@
         <v>5100</v>
       </c>
       <c r="C18">
-        <v>20.1164578</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1381.28</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>3555.4076</v>
+        <v>4256.8916</v>
       </c>
       <c r="F18">
         <v>0.35220001</v>
       </c>
       <c r="G18">
-        <v>6827.94784010349</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H18">
-        <v>3494.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6139.47353023</v>
       </c>
       <c r="J18">
-        <v>1267.34145175</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>5910.93188741002</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L18">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N18">
-        <v>50</v>
+        <v>8872.951922217435</v>
       </c>
       <c r="O18">
-        <v>60.90909090909089</v>
+        <v>6139.47353023</v>
       </c>
       <c r="P18">
-        <v>40.60606060606059</v>
+        <v>989.974790698</v>
       </c>
       <c r="Q18">
-        <v>2.77500605</v>
+        <v>4256.8916000014</v>
       </c>
       <c r="R18">
-        <v>319.442321860465</v>
+        <v>-0</v>
       </c>
       <c r="S18">
-        <v>1373.601983999999</v>
-      </c>
-      <c r="T18">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U18">
-        <v>500</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X18">
-        <v>1111.79846646574</v>
-      </c>
-      <c r="Y18">
-        <v>7.678016000000209</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>3494.49850909091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1954,82 +1498,58 @@
         <v>5112.5</v>
       </c>
       <c r="C19">
-        <v>20.39342325</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1383.28</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3582.4076</v>
+        <v>4280.8656</v>
       </c>
       <c r="F19">
         <v>0.35220001</v>
       </c>
       <c r="G19">
-        <v>6836.55053989419</v>
+        <v>1.13686837722e-12</v>
       </c>
       <c r="H19">
-        <v>3521.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6157.82764651</v>
       </c>
       <c r="J19">
-        <v>1264.43326875</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>6193.0295576915</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L19">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N19">
-        <v>50</v>
+        <v>6623.982270344813</v>
       </c>
       <c r="O19">
-        <v>60.90909090909089</v>
+        <v>6157.82764651</v>
       </c>
       <c r="P19">
-        <v>40.60606060606059</v>
+        <v>995.550139535</v>
       </c>
       <c r="Q19">
-        <v>5.9601545</v>
+        <v>4280.865600000499</v>
       </c>
       <c r="R19">
-        <v>318.339810232558</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1368.861183999999</v>
-      </c>
-      <c r="T19">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U19">
-        <v>500</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X19">
-        <v>1222.07486953281</v>
-      </c>
-      <c r="Y19">
-        <v>14.41881600000016</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>3521.49850909091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2037,82 +1557,58 @@
         <v>4475</v>
       </c>
       <c r="C20">
-        <v>20.6703887</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1285.28</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>3589.4076</v>
+        <v>4277.8396</v>
       </c>
       <c r="F20">
         <v>0.35220001</v>
       </c>
       <c r="G20">
-        <v>6170.20858852209</v>
+        <v>105.662607308</v>
       </c>
       <c r="H20">
-        <v>3528.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5413.92613223</v>
       </c>
       <c r="J20">
-        <v>1261.52508575</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>6474.42198379727</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>50</v>
+        <v>5413.926132226758</v>
       </c>
       <c r="O20">
-        <v>60.90909090909089</v>
+        <v>5413.92613223</v>
       </c>
       <c r="P20">
-        <v>40.60606060606059</v>
+        <v>994.8464186050001</v>
       </c>
       <c r="Q20">
-        <v>9.14530295</v>
+        <v>4277.8396000015</v>
       </c>
       <c r="R20">
-        <v>293.423345116279</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1261.720384</v>
-      </c>
-      <c r="T20">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U20">
-        <v>500</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X20">
-        <v>1332.13071979374</v>
-      </c>
-      <c r="Y20">
-        <v>23.55961599999976</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>3528.49850909091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2120,82 +1616,58 @@
         <v>4435</v>
       </c>
       <c r="C21">
-        <v>20.4487829</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1287.28</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>3536.4076</v>
+        <v>4208.813599999999</v>
       </c>
       <c r="F21">
         <v>0.35220001</v>
       </c>
       <c r="G21">
-        <v>6124.72437324442</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3475.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5462.73355349</v>
       </c>
       <c r="J21">
-        <v>1256.50394117</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>6755.11092883778</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>50</v>
+        <v>9582.693598649925</v>
       </c>
       <c r="O21">
-        <v>60.90909090909089</v>
+        <v>5462.73355349</v>
       </c>
       <c r="P21">
-        <v>40.60606060606059</v>
+        <v>978.793860465</v>
       </c>
       <c r="Q21">
-        <v>13.94484173</v>
+        <v>4208.813599999499</v>
       </c>
       <c r="R21">
-        <v>292.878973023256</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1259.379584000001</v>
-      </c>
-      <c r="T21">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U21">
-        <v>500</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X21">
-        <v>1441.96645835416</v>
-      </c>
-      <c r="Y21">
-        <v>27.9004160000004</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>3475.49850909091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2203,82 +1675,58 @@
         <v>4395</v>
       </c>
       <c r="C22">
-        <v>20.2271771</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1289.28</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3563.4076</v>
+        <v>4219.7876</v>
       </c>
       <c r="F22">
         <v>0.35220001</v>
       </c>
       <c r="G22">
-        <v>6076.4345765814</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3502.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5425.41325116</v>
       </c>
       <c r="J22">
-        <v>1251.4827966</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>7035.09815151568</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>50</v>
+        <v>7108.005131114832</v>
       </c>
       <c r="O22">
-        <v>60.90909090909089</v>
+        <v>5425.41325116</v>
       </c>
       <c r="P22">
-        <v>40.60606060606059</v>
+        <v>981.345953488</v>
       </c>
       <c r="Q22">
-        <v>18.7443805</v>
+        <v>4219.7875999984</v>
       </c>
       <c r="R22">
-        <v>289.357856744186</v>
+        <v>-0</v>
       </c>
       <c r="S22">
-        <v>1244.238784</v>
-      </c>
-      <c r="T22">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U22">
-        <v>500</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X22">
-        <v>1551.58252543745</v>
-      </c>
-      <c r="Y22">
-        <v>45.04121600000033</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>3502.49850909091</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2286,82 +1734,58 @@
         <v>4150</v>
       </c>
       <c r="C23">
-        <v>20.76220885</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1291.28</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>3490.4076</v>
+        <v>4133.7616</v>
       </c>
       <c r="F23">
         <v>0.35220001</v>
       </c>
       <c r="G23">
-        <v>5824.56167394419</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3429.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5159.40690233</v>
       </c>
       <c r="J23">
-        <v>1243.8455228</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>7314.38540613689</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>50</v>
+        <v>9600</v>
       </c>
       <c r="O23">
-        <v>60.90909090909089</v>
+        <v>5159.40690233</v>
       </c>
       <c r="P23">
-        <v>40.60606060606059</v>
+        <v>961.3399069770001</v>
       </c>
       <c r="Q23">
-        <v>26.91668605</v>
+        <v>4133.7616000011</v>
       </c>
       <c r="R23">
-        <v>290.115810232558</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1247.497983999999</v>
-      </c>
-      <c r="T23">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U23">
-        <v>500</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X23">
-        <v>1660.97936038657</v>
-      </c>
-      <c r="Y23">
-        <v>43.78201600000033</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>3429.49850909091</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2369,82 +1793,58 @@
         <v>3905</v>
       </c>
       <c r="C24">
-        <v>21.2972406</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1293.28</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>3517.4076</v>
+        <v>4151.7356</v>
       </c>
       <c r="F24">
         <v>0.35220001</v>
       </c>
       <c r="G24">
-        <v>5569.88318991163</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3456.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4918.79590233</v>
       </c>
       <c r="J24">
-        <v>1236.208249</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>7592.97444262155</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>50</v>
+        <v>6927.307687414996</v>
       </c>
       <c r="O24">
-        <v>60.90909090909089</v>
+        <v>4918.79590233</v>
       </c>
       <c r="P24">
-        <v>40.60606060606059</v>
+        <v>965.519906977</v>
       </c>
       <c r="Q24">
-        <v>35.0889916</v>
+        <v>4151.7356000011</v>
       </c>
       <c r="R24">
-        <v>287.897019534884</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1237.957184000001</v>
-      </c>
-      <c r="T24">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U24">
-        <v>500</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X24">
-        <v>1770.1574016658</v>
-      </c>
-      <c r="Y24">
-        <v>55.32281600000024</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>3456.49850909091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2452,82 +1852,58 @@
         <v>4057.5</v>
       </c>
       <c r="C25">
-        <v>28.6920182</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1295.28</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>3444.4076</v>
+        <v>4080.7096</v>
       </c>
       <c r="F25">
         <v>0.35220001</v>
       </c>
       <c r="G25">
-        <v>5720.26617518256</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3383.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5053.95234419</v>
       </c>
       <c r="J25">
-        <v>1230.69663055</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>7870.867006515</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>50</v>
+        <v>6427.925502514936</v>
       </c>
       <c r="O25">
-        <v>60.90909090909089</v>
+        <v>5053.95234419</v>
       </c>
       <c r="P25">
-        <v>40.60606060606059</v>
+        <v>949.0022325579999</v>
       </c>
       <c r="Q25">
-        <v>47.99538765</v>
+        <v>4080.709599999399</v>
       </c>
       <c r="R25">
-        <v>291.445670697674</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1253.216383999998</v>
-      </c>
-      <c r="T25">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U25">
-        <v>500</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X25">
-        <v>1879.11708686247</v>
-      </c>
-      <c r="Y25">
-        <v>42.06361599999985</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>3383.49850909091</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2535,82 +1911,58 @@
         <v>4210</v>
       </c>
       <c r="C26">
-        <v>36.0867958</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1297.28</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3471.4076</v>
+        <v>4109.6836</v>
       </c>
       <c r="F26">
         <v>0.35220001</v>
       </c>
       <c r="G26">
-        <v>5867.1421837093</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3410.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5213.5273907</v>
       </c>
       <c r="J26">
-        <v>1225.1850121</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>8148.06483899871</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>50</v>
+        <v>7374.441618711076</v>
       </c>
       <c r="O26">
-        <v>60.90909090909089</v>
+        <v>5213.5273907</v>
       </c>
       <c r="P26">
-        <v>40.60606060606059</v>
+        <v>955.740372093</v>
       </c>
       <c r="Q26">
-        <v>60.9017837</v>
+        <v>4109.6835999999</v>
       </c>
       <c r="R26">
-        <v>291.273391627907</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1252.475584</v>
-      </c>
-      <c r="T26">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U26">
-        <v>500</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X26">
-        <v>1987.85885268874</v>
-      </c>
-      <c r="Y26">
-        <v>44.80441599999976</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>3410.49850909091</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2618,82 +1970,58 @@
         <v>4112.5</v>
       </c>
       <c r="C27">
-        <v>38.29081215</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1299.28</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>3398.4076</v>
+        <v>4024.3876</v>
       </c>
       <c r="F27">
         <v>0.35220001</v>
       </c>
       <c r="G27">
-        <v>5759.24314549326</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3337.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>5095.19929767</v>
       </c>
       <c r="J27">
-        <v>1213.89359807</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>8424.569676901219</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>50</v>
+        <v>6005.880949784436</v>
       </c>
       <c r="O27">
-        <v>60.90909090909089</v>
+        <v>5095.19929767</v>
       </c>
       <c r="P27">
-        <v>40.60606060606059</v>
+        <v>935.904093023</v>
       </c>
       <c r="Q27">
-        <v>74.39721408</v>
+        <v>4024.3875999989</v>
       </c>
       <c r="R27">
-        <v>292.167159069767</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>1256.318783999998</v>
-      </c>
-      <c r="T27">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U27">
-        <v>500</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X27">
-        <v>2096.38313498336</v>
-      </c>
-      <c r="Y27">
-        <v>42.96121600000009</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>3337.49850909091</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2701,82 +2029,58 @@
         <v>4015</v>
       </c>
       <c r="C28">
-        <v>40.4948285</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1301.28</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>3325.4076</v>
+        <v>3933.2376</v>
       </c>
       <c r="F28">
         <v>0.35220001</v>
       </c>
       <c r="G28">
-        <v>5650.31761519419</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>3264.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4975.44173953</v>
       </c>
       <c r="J28">
-        <v>1202.60218405</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>8700.38325270896</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>50</v>
+        <v>7110.850160087859</v>
       </c>
       <c r="O28">
-        <v>60.90909090909089</v>
+        <v>4975.44173953</v>
       </c>
       <c r="P28">
-        <v>40.60606060606059</v>
+        <v>914.706418605</v>
       </c>
       <c r="Q28">
-        <v>87.89264445000001</v>
+        <v>3933.2376000015</v>
       </c>
       <c r="R28">
-        <v>291.971810232558</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S28">
-        <v>1255.478783999999</v>
-      </c>
-      <c r="T28">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U28">
-        <v>500</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X28">
-        <v>2204.6903687134</v>
-      </c>
-      <c r="Y28">
-        <v>45.80121600000024</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>3264.49850909091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2784,82 +2088,58 @@
         <v>4007.5</v>
       </c>
       <c r="C29">
-        <v>42.8125747</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1303.28</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>3352.4076</v>
+        <v>3962.0876</v>
       </c>
       <c r="F29">
         <v>0.35220001</v>
       </c>
       <c r="G29">
-        <v>5622.34742216512</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>3291.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>4974.98650698</v>
       </c>
       <c r="J29">
-        <v>1182.2661073</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>8975.50729457719</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>50</v>
+        <v>7009.485484021054</v>
       </c>
       <c r="O29">
-        <v>60.90909090909089</v>
+        <v>4974.98650698</v>
       </c>
       <c r="P29">
-        <v>40.60606060606059</v>
+        <v>921.41572093</v>
       </c>
       <c r="Q29">
-        <v>110.5464674</v>
+        <v>3962.087599999</v>
       </c>
       <c r="R29">
-        <v>291.776461395349</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S29">
-        <v>1254.638784</v>
-      </c>
-      <c r="T29">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U29">
-        <v>500</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X29">
-        <v>2312.78098797597</v>
-      </c>
-      <c r="Y29">
-        <v>48.64121600000033</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>3291.49850909091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2867,82 +2147,58 @@
         <v>4000</v>
       </c>
       <c r="C30">
-        <v>45.1303209</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1305.28</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>3379.4076</v>
+        <v>3990.9376</v>
       </c>
       <c r="F30">
         <v>0.35220001</v>
       </c>
       <c r="G30">
-        <v>5594.37722908605</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>3318.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4974.53127442</v>
       </c>
       <c r="J30">
-        <v>1161.9300305</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>9249.94352634075</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>50</v>
+        <v>7359.966749922081</v>
       </c>
       <c r="O30">
-        <v>60.90909090909089</v>
+        <v>4974.53127442</v>
       </c>
       <c r="P30">
-        <v>40.60606060606059</v>
+        <v>928.125023256</v>
       </c>
       <c r="Q30">
-        <v>133.2002904</v>
+        <v>3990.9376000008</v>
       </c>
       <c r="R30">
-        <v>291.58111255814</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S30">
-        <v>1253.798784000002</v>
-      </c>
-      <c r="T30">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U30">
-        <v>500</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X30">
-        <v>2420.65542600002</v>
-      </c>
-      <c r="Y30">
-        <v>51.48121599999976</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>3318.49850909091</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2950,82 +2206,58 @@
         <v>4310</v>
       </c>
       <c r="C31">
-        <v>43.723751</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1207.28</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>3306.4076</v>
+        <v>3919.7876</v>
       </c>
       <c r="F31">
         <v>0.35220001</v>
       </c>
       <c r="G31">
-        <v>5854.1792177</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>3245.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>5267.15743721</v>
       </c>
       <c r="J31">
-        <v>1132.7777633</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>9523.6936675249</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>50</v>
+        <v>5672.383877961684</v>
       </c>
       <c r="O31">
-        <v>60.90909090909089</v>
+        <v>5267.15743721</v>
       </c>
       <c r="P31">
-        <v>40.60606060606059</v>
+        <v>911.578511628</v>
       </c>
       <c r="Q31">
-        <v>160.9459877</v>
+        <v>3919.7876000004</v>
       </c>
       <c r="R31">
-        <v>271.85088</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S31">
-        <v>1168.958784</v>
-      </c>
-      <c r="T31">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U31">
-        <v>500</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X31">
-        <v>2528.31411514802</v>
-      </c>
-      <c r="Y31">
-        <v>38.32121599999992</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>3245.49850909091</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3033,82 +2265,58 @@
         <v>4620</v>
       </c>
       <c r="C32">
-        <v>42.3171811</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1209.28</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>3333.4076</v>
+        <v>3948.6376</v>
       </c>
       <c r="F32">
         <v>0.35220001</v>
       </c>
       <c r="G32">
-        <v>6134.89283422093</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H32">
-        <v>3272.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>5584.20220465</v>
       </c>
       <c r="J32">
-        <v>1103.6254961</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>9796.759433356079</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L32">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N32">
-        <v>50</v>
+        <v>6923.831612263679</v>
       </c>
       <c r="O32">
-        <v>60.90909090909089</v>
+        <v>5584.20220465</v>
       </c>
       <c r="P32">
-        <v>40.60606060606059</v>
+        <v>918.287813953</v>
       </c>
       <c r="Q32">
-        <v>188.691685</v>
+        <v>3948.6375999979</v>
       </c>
       <c r="R32">
-        <v>271.655531162791</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S32">
-        <v>1168.118784000001</v>
-      </c>
-      <c r="T32">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U32">
-        <v>500</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X32">
-        <v>2635.75748691772</v>
-      </c>
-      <c r="Y32">
-        <v>41.16121600000008</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>3272.49850909091</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3116,82 +2324,58 @@
         <v>4720</v>
       </c>
       <c r="C33">
-        <v>40.78065825</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1211.28</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>3360.4076</v>
+        <v>3977.4876</v>
       </c>
       <c r="F33">
         <v>0.35220001</v>
       </c>
       <c r="G33">
-        <v>6218.59669149186</v>
+        <v>468.457632048</v>
       </c>
       <c r="H33">
-        <v>3299.49850909091</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>5222.78934004</v>
       </c>
       <c r="J33">
-        <v>1087.46346965</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>10069.1425347727</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L33">
-        <v>1250</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N33">
-        <v>50</v>
+        <v>5222.789340044797</v>
       </c>
       <c r="O33">
-        <v>60.90909090909089</v>
+        <v>5222.78934004</v>
       </c>
       <c r="P33">
-        <v>40.60606060606059</v>
+        <v>924.997116279</v>
       </c>
       <c r="Q33">
-        <v>203.3171886</v>
+        <v>3977.4875999997</v>
       </c>
       <c r="R33">
-        <v>271.460182325581</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S33">
-        <v>1167.278783999998</v>
-      </c>
-      <c r="T33">
-        <v>166.666666666667</v>
-      </c>
-      <c r="U33">
-        <v>500</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>1.023181539494544e-12</v>
-      </c>
-      <c r="X33">
-        <v>2742.98597194389</v>
-      </c>
-      <c r="Y33">
-        <v>44.00121600000024</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>3299.49850909091</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3199,82 +2383,58 @@
         <v>4820</v>
       </c>
       <c r="C34">
-        <v>39.2441354</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1213.28</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>3287.4076</v>
+        <v>3906.3376</v>
       </c>
       <c r="F34">
         <v>0.65550003</v>
       </c>
       <c r="G34">
-        <v>5005.80752560698</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H34">
-        <v>2617.4076</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>5773.87313488</v>
       </c>
       <c r="J34">
-        <v>446.3014433</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>10340.8446784358</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L34">
-        <v>625</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N34">
-        <v>550</v>
+        <v>7996.166489200961</v>
       </c>
       <c r="O34">
-        <v>669.9999999999999</v>
+        <v>5773.87313488</v>
       </c>
       <c r="P34">
-        <v>446.6666666666666</v>
+        <v>908.450604651</v>
       </c>
       <c r="Q34">
-        <v>217.9426921</v>
+        <v>3906.3375999993</v>
       </c>
       <c r="R34">
-        <v>274.98576372093</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S34">
-        <v>1182.438783999999</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>2850</v>
-      </c>
-      <c r="Y34">
-        <v>30.84121600000032</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>2617.4076</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3282,82 +2442,58 @@
         <v>4825</v>
       </c>
       <c r="C35">
-        <v>42.53360225</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1215.28</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>3214.4076</v>
+        <v>3835.1876</v>
       </c>
       <c r="F35">
         <v>0.65550003</v>
       </c>
       <c r="G35">
-        <v>3922.19834642209</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H35">
-        <v>1996.22578181818</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>195.68059635</v>
+        <v>5761.49929767</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>10463.4300667397</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N35">
-        <v>1000</v>
+        <v>8478.696270629787</v>
       </c>
       <c r="O35">
-        <v>1218.181818181818</v>
+        <v>5761.49929767</v>
       </c>
       <c r="P35">
-        <v>812.121212121212</v>
+        <v>891.904093023</v>
       </c>
       <c r="Q35">
-        <v>238.2141986</v>
+        <v>3835.1875999989</v>
       </c>
       <c r="R35">
-        <v>278.511345116279</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S35">
-        <v>1197.598784</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>2844.3</v>
-      </c>
-      <c r="Y35">
-        <v>17.68121599999976</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>1996.22578181818</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3365,82 +2501,58 @@
         <v>4830</v>
       </c>
       <c r="C36">
-        <v>45.8230691</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1319.032</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>3141.4076</v>
+        <v>3764.0376</v>
       </c>
       <c r="F36">
         <v>0.65550003</v>
       </c>
       <c r="G36">
-        <v>3938.43558594186</v>
+        <v>589.934649281</v>
       </c>
       <c r="H36">
-        <v>1923.22578181818</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>212.6626359</v>
+        <v>5159.19081118</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>10437.2714915728</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N36">
-        <v>1000</v>
+        <v>5159.19081118422</v>
       </c>
       <c r="O36">
-        <v>1218.181818181818</v>
+        <v>5159.19081118</v>
       </c>
       <c r="P36">
-        <v>812.121212121212</v>
+        <v>875.357581395</v>
       </c>
       <c r="Q36">
-        <v>258.485705</v>
+        <v>3764.0375999985</v>
       </c>
       <c r="R36">
-        <v>305.700182325581</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S36">
-        <v>1314.510783999998</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>2838.6114</v>
-      </c>
-      <c r="Y36">
-        <v>4.521215999999913</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>1923.22578181818</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3448,82 +2560,58 @@
         <v>5100</v>
       </c>
       <c r="C37">
-        <v>44.8789446</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1380.976</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>3068.4076</v>
+        <v>3692.8876</v>
       </c>
       <c r="F37">
         <v>0.65550003</v>
       </c>
       <c r="G37">
-        <v>4216.54426086744</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H37">
-        <v>1861.02426181818</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>220.6708089</v>
+        <v>6001.75162326</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>10411.1783128439</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N37">
-        <v>1000</v>
+        <v>8552.157741080768</v>
       </c>
       <c r="O37">
-        <v>1218.181818181818</v>
+        <v>6001.75162326</v>
       </c>
       <c r="P37">
-        <v>812.121212121212</v>
+        <v>858.811069767</v>
       </c>
       <c r="Q37">
-        <v>265.5497535</v>
+        <v>3692.8875999981</v>
       </c>
       <c r="R37">
-        <v>321.157209302326</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S37">
-        <v>1380.976000000002</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>2832.9341772</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>1861.02426181818</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3531,31 +2619,31 @@
         <v>5150</v>
       </c>
       <c r="C38">
-        <v>43.9348201</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1442.92</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>3195.4076</v>
+        <v>3821.7376</v>
       </c>
       <c r="F38">
         <v>0.65550003</v>
       </c>
       <c r="G38">
-        <v>4271.42598422791</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1977.22578181818</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>228.6789818</v>
+        <v>6083.21499535</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>10385.1503670618</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3564,49 +2652,25 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1000</v>
+        <v>7660.735990431855</v>
       </c>
       <c r="O38">
-        <v>1218.181818181818</v>
+        <v>6083.21499535</v>
       </c>
       <c r="P38">
-        <v>812.121212121212</v>
+        <v>888.776186047</v>
       </c>
       <c r="Q38">
-        <v>272.6138019</v>
+        <v>3821.7376000021</v>
       </c>
       <c r="R38">
-        <v>333.190414883721</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S38">
-        <v>1432.718784</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>2827.2683088456</v>
-      </c>
-      <c r="Y38">
-        <v>10.20121600000024</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>1977.22578181818</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3614,31 +2678,31 @@
         <v>5150</v>
       </c>
       <c r="C39">
-        <v>43.0984044</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1408.04</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>3280.502</v>
+        <v>3908.682</v>
       </c>
       <c r="F39">
         <v>0.65550003</v>
       </c>
       <c r="G39">
-        <v>4245.62911115581</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2062.32018181818</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>243.2988001</v>
+        <v>6104.44560465</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>10359.1874911441</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3647,49 +2711,25 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1000</v>
+        <v>6485.751895098882</v>
       </c>
       <c r="O39">
-        <v>1218.181818181818</v>
+        <v>6104.44560465</v>
       </c>
       <c r="P39">
-        <v>812.121212121212</v>
+        <v>908.995813953</v>
       </c>
       <c r="Q39">
-        <v>286.3972045</v>
+        <v>3908.6819999979</v>
       </c>
       <c r="R39">
-        <v>322.256669767442</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S39">
-        <v>1385.703680000001</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>2821.61377222791</v>
-      </c>
-      <c r="Y39">
-        <v>22.33632000000032</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>2062.32018181818</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3697,31 +2737,31 @@
         <v>5250</v>
       </c>
       <c r="C40">
-        <v>42.2619887</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1473.44</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>3247.272</v>
+        <v>3881.302</v>
       </c>
       <c r="F40">
         <v>0.65550003</v>
       </c>
       <c r="G40">
-        <v>4349.17021926744</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>2029.09018181818</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>257.9186185</v>
+        <v>6197.7597907</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>10333.2895224163</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3730,49 +2770,25 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1000</v>
+        <v>7070.346563810352</v>
       </c>
       <c r="O40">
-        <v>1218.181818181818</v>
+        <v>6197.7597907</v>
       </c>
       <c r="P40">
-        <v>812.121212121212</v>
+        <v>902.6283720930001</v>
       </c>
       <c r="Q40">
-        <v>300.1806072</v>
+        <v>3881.3019999999</v>
       </c>
       <c r="R40">
-        <v>339.790809302326</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S40">
-        <v>1461.100480000002</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>2815.97054468345</v>
-      </c>
-      <c r="Y40">
-        <v>12.33952000000024</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>2029.09018181818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3780,82 +2796,58 @@
         <v>5100</v>
       </c>
       <c r="C41">
-        <v>41.5971712</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1438.944</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>3414.041999999999</v>
+        <v>4052.922</v>
       </c>
       <c r="F41">
         <v>0.65550003</v>
       </c>
       <c r="G41">
-        <v>4175.00478525116</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>2195.86018181818</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>268.6624674</v>
+        <v>6089.667</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>10307.4562986102</v>
+        <v>-0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N41">
-        <v>1000</v>
+        <v>7698.983460687253</v>
       </c>
       <c r="O41">
-        <v>1218.181818181818</v>
+        <v>6089.667</v>
       </c>
       <c r="P41">
-        <v>812.121212121212</v>
+        <v>942.54</v>
       </c>
       <c r="Q41">
-        <v>310.2596386</v>
+        <v>4052.922</v>
       </c>
       <c r="R41">
-        <v>326.465413953488</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S41">
-        <v>1403.801279999998</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>2810.33860359409</v>
-      </c>
-      <c r="Y41">
-        <v>35.14271999999984</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>2195.86018181818</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3863,82 +2855,58 @@
         <v>5150</v>
       </c>
       <c r="C42">
-        <v>40.9323537</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1604.448</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>3580.812</v>
+        <v>4236.541999999999</v>
       </c>
       <c r="F42">
         <v>0.65550003</v>
       </c>
       <c r="G42">
-        <v>4251.78074658372</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2362.63018181818</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>279.4063163</v>
+        <v>6184.50444186</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>10281.6876578637</v>
+        <v>-0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N42">
-        <v>1000</v>
+        <v>6311.588676069295</v>
       </c>
       <c r="O42">
-        <v>1218.181818181818</v>
+        <v>6184.50444186</v>
       </c>
       <c r="P42">
-        <v>812.121212121212</v>
+        <v>985.242325581</v>
       </c>
       <c r="Q42">
-        <v>320.33867</v>
+        <v>4236.5419999983</v>
       </c>
       <c r="R42">
-        <v>361.884204651163</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>1556.102080000001</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>2804.7179263869</v>
-      </c>
-      <c r="Y42">
-        <v>48.34592000000048</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>2362.63018181818</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3946,82 +2914,58 @@
         <v>5300</v>
       </c>
       <c r="C43">
-        <v>40.61608455</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1770.048</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>3747.582</v>
+        <v>4414.162</v>
       </c>
       <c r="F43">
         <v>0.65550003</v>
       </c>
       <c r="G43">
-        <v>4430.92649380349</v>
+        <v>544.478543175</v>
       </c>
       <c r="H43">
-        <v>2529.40018181818</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>286.75172815</v>
+        <v>5062.57369995</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>10255.983438719</v>
+        <v>500</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>406.060606060606</v>
       </c>
       <c r="N43">
-        <v>1000</v>
+        <v>5062.573699954224</v>
       </c>
       <c r="O43">
-        <v>1218.181818181818</v>
+        <v>5062.57369995</v>
       </c>
       <c r="P43">
-        <v>812.121212121212</v>
+        <v>768.621183932</v>
       </c>
       <c r="Q43">
-        <v>327.3678127</v>
+        <v>3305.0710909076</v>
       </c>
       <c r="R43">
-        <v>396.209041860465</v>
+        <v>500</v>
       </c>
       <c r="S43">
-        <v>1703.698879999999</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>2799.10849053412</v>
-      </c>
-      <c r="Y43">
-        <v>66.34911999999967</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>2529.40018181818</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4029,82 +2973,58 @@
         <v>5650</v>
       </c>
       <c r="C44">
-        <v>40.2998154</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1935.648</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>3718.6344</v>
+        <v>4406.0644</v>
       </c>
       <c r="F44">
         <v>0.65550003</v>
       </c>
       <c r="G44">
-        <v>4818.68950011163</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H44">
-        <v>2500.45258181818</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>294.09714</v>
+        <v>6725.89944651</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>10230.3434801223</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N44">
-        <v>1000</v>
+        <v>7135.304560773438</v>
       </c>
       <c r="O44">
-        <v>1218.181818181818</v>
+        <v>6725.89944651</v>
       </c>
       <c r="P44">
-        <v>812.121212121212</v>
+        <v>1024.66613953</v>
       </c>
       <c r="Q44">
-        <v>334.3969554</v>
+        <v>4406.064399979</v>
       </c>
       <c r="R44">
-        <v>439.676859534884</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>1890.610496000001</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>2793.51027355306</v>
-      </c>
-      <c r="Y44">
-        <v>45.03750399999993</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>2500.45258181818</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4112,82 +3032,58 @@
         <v>5375</v>
       </c>
       <c r="C45">
-        <v>39.99843145</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1958.712</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>3877.0659</v>
+        <v>4664.6795</v>
       </c>
       <c r="F45">
         <v>0.65550003</v>
       </c>
       <c r="G45">
-        <v>4557.17687128488</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H45">
-        <v>2671.08450181818</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>296.11326825</v>
+        <v>6514.04964535</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>10204.7676214219</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N45">
-        <v>1000</v>
+        <v>8341.376710728502</v>
       </c>
       <c r="O45">
-        <v>1218.181818181818</v>
+        <v>6514.04964535</v>
       </c>
       <c r="P45">
-        <v>812.121212121212</v>
+        <v>1084.80918605</v>
       </c>
       <c r="Q45">
-        <v>336.1116997</v>
+        <v>4664.679500015</v>
       </c>
       <c r="R45">
-        <v>455.514418604651</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>1958.711999999999</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>2787.92325300595</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>2671.08450181818</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4195,82 +3091,58 @@
         <v>5300</v>
       </c>
       <c r="C46">
-        <v>39.6970475</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1981.776</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>4035.4974</v>
+        <v>4830.030199999999</v>
       </c>
       <c r="F46">
         <v>0.65550003</v>
       </c>
       <c r="G46">
-        <v>4483.58909728605</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H46">
-        <v>2817.31558181818</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>298.1293965</v>
+        <v>6479.42597907</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>10179.2557023684</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N46">
-        <v>1000</v>
+        <v>6866.744410554868</v>
       </c>
       <c r="O46">
-        <v>1218.181818181818</v>
+        <v>6479.42597907</v>
       </c>
       <c r="P46">
-        <v>812.121212121212</v>
+        <v>1123.26283721</v>
       </c>
       <c r="Q46">
-        <v>337.826444</v>
+        <v>4830.030200003</v>
       </c>
       <c r="R46">
-        <v>458.54015255814</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>1971.722656000002</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>2782.34740649994</v>
-      </c>
-      <c r="Y46">
-        <v>10.05334400000032</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>2817.31558181818</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4278,31 +3150,31 @@
         <v>5625</v>
       </c>
       <c r="C47">
-        <v>39.0792272</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>2009.64</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>4193.928899999999</v>
+        <v>4996.820899999999</v>
       </c>
       <c r="F47">
         <v>0.65550003</v>
       </c>
       <c r="G47">
-        <v>4804.62002542558</v>
+        <v>306.077376202</v>
       </c>
       <c r="H47">
-        <v>2975.74708181818</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>304.8120885</v>
+        <v>6416.98354124</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>10153.8075631125</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4311,49 +3183,25 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1000</v>
+        <v>6416.983541240049</v>
       </c>
       <c r="O47">
-        <v>1218.181818181818</v>
+        <v>6416.98354124</v>
       </c>
       <c r="P47">
-        <v>812.121212121212</v>
+        <v>1045.77230233</v>
       </c>
       <c r="Q47">
-        <v>343.8913157</v>
+        <v>4496.820900019</v>
       </c>
       <c r="R47">
-        <v>460.680226976744</v>
+        <v>500</v>
       </c>
       <c r="S47">
-        <v>1980.924975999999</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>2776.78271168694</v>
-      </c>
-      <c r="Y47">
-        <v>28.71502400000024</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>2975.74708181818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4361,31 +3209,31 @@
         <v>5550</v>
       </c>
       <c r="C48">
-        <v>38.4614069</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>2037.504</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>4352.3604</v>
+        <v>5163.611599999999</v>
       </c>
       <c r="F48">
         <v>0.65550003</v>
       </c>
       <c r="G48">
-        <v>4725.65095356512</v>
+        <v>139.863930504</v>
       </c>
       <c r="H48">
-        <v>3134.17858181818</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>311.4947805</v>
+        <v>6548.92494857</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>10128.4230442047</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4394,49 +3242,25 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1000</v>
+        <v>6548.924948566189</v>
       </c>
       <c r="O48">
-        <v>1218.181818181818</v>
+        <v>6548.92494857</v>
       </c>
       <c r="P48">
-        <v>812.121212121212</v>
+        <v>1084.56083721</v>
       </c>
       <c r="Q48">
-        <v>349.9561874</v>
+        <v>4663.611600003</v>
       </c>
       <c r="R48">
-        <v>462.820301395349</v>
+        <v>500</v>
       </c>
       <c r="S48">
-        <v>1990.127296000001</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>2771.22914626356</v>
-      </c>
-      <c r="Y48">
-        <v>47.37670400000064</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>3134.17858181818</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4444,82 +3268,58 @@
         <v>5425</v>
       </c>
       <c r="C49">
-        <v>35.2655999</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>2091.288</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>4510.791899999999</v>
+        <v>5338.1783</v>
       </c>
       <c r="F49">
         <v>0.65550003</v>
       </c>
       <c r="G49">
-        <v>4603.63798738837</v>
+        <v>716.341487534</v>
       </c>
       <c r="H49">
-        <v>3292.61008181818</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>318.9141817</v>
+        <v>5825.20099376</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>10103.1019865942</v>
+        <v>50</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="N49">
-        <v>1000</v>
+        <v>5825.200993755371</v>
       </c>
       <c r="O49">
-        <v>1218.181818181818</v>
+        <v>5825.20099376</v>
       </c>
       <c r="P49">
-        <v>812.121212121212</v>
+        <v>1110.99283932</v>
       </c>
       <c r="Q49">
-        <v>354.1797816</v>
+        <v>4777.269209076</v>
       </c>
       <c r="R49">
-        <v>472.434980465116</v>
+        <v>500</v>
       </c>
       <c r="S49">
-        <v>2031.470415999999</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>2765.68668797104</v>
-      </c>
-      <c r="Y49">
-        <v>59.81758399999961</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>3292.61008181818</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4527,82 +3327,58 @@
         <v>5300</v>
       </c>
       <c r="C50">
-        <v>32.0697929</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>2145.072</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>5196.436919999998</v>
+        <v>6039.958519999998</v>
       </c>
       <c r="F50">
         <v>0.65550003</v>
       </c>
       <c r="G50">
-        <v>4463.13576577302</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H50">
-        <v>3978.25510181818</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>326.3335828</v>
+        <v>6774.87359209</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>10077.8442316277</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N50">
-        <v>1000</v>
+        <v>8229.663019956488</v>
       </c>
       <c r="O50">
-        <v>1218.181818181818</v>
+        <v>6774.87359209</v>
       </c>
       <c r="P50">
-        <v>812.121212121212</v>
+        <v>1404.64151628</v>
       </c>
       <c r="Q50">
-        <v>358.4033757</v>
+        <v>6039.958520003999</v>
       </c>
       <c r="R50">
-        <v>462.43241227907</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>1988.459372800001</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>2760.1553145951</v>
-      </c>
-      <c r="Y50">
-        <v>156.6126271999992</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>3978.25510181818</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4610,82 +3386,58 @@
         <v>5150</v>
       </c>
       <c r="C51">
-        <v>28.1248745</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>2193.168</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>5312.94948</v>
+        <v>6170.89988</v>
       </c>
       <c r="F51">
         <v>0.65550003</v>
       </c>
       <c r="G51">
-        <v>4322.29385338512</v>
+        <v>3486.0231208</v>
       </c>
       <c r="H51">
-        <v>4094.76766181818</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>327.3638722</v>
+        <v>2400</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>10052.6496210486</v>
+        <v>500</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>406.060606060606</v>
       </c>
       <c r="N51">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="O51">
-        <v>1218.181818181818</v>
+        <v>2400</v>
       </c>
       <c r="P51">
-        <v>812.121212121212</v>
+        <v>1177.16487696</v>
       </c>
       <c r="Q51">
-        <v>355.4887467</v>
+        <v>5061.808970927999</v>
       </c>
       <c r="R51">
-        <v>471.966605395349</v>
+        <v>500</v>
       </c>
       <c r="S51">
-        <v>2029.456403200001</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>2754.63500396591</v>
-      </c>
-      <c r="Y51">
-        <v>163.7115968000008</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>4094.76766181818</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4693,82 +3445,58 @@
         <v>5000</v>
       </c>
       <c r="C52">
-        <v>24.1799561</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>2241.264</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>5429.46204</v>
+        <v>6261.841240000001</v>
       </c>
       <c r="F52">
         <v>0.65550003</v>
       </c>
       <c r="G52">
-        <v>4174.43798750884</v>
+        <v>1387.51619382</v>
       </c>
       <c r="H52">
-        <v>4211.28022181818</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>328.3941616</v>
+        <v>4480.59725907</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>10027.517996996</v>
+        <v>500</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>406.060606060606</v>
       </c>
       <c r="N52">
-        <v>1000</v>
+        <v>4480.597259074753</v>
       </c>
       <c r="O52">
-        <v>1218.181818181818</v>
+        <v>4480.59725907</v>
       </c>
       <c r="P52">
-        <v>812.121212121212</v>
+        <v>1302.96519323</v>
       </c>
       <c r="Q52">
-        <v>352.5741177</v>
+        <v>5602.750330889</v>
       </c>
       <c r="R52">
-        <v>474.058938046512</v>
+        <v>50</v>
       </c>
       <c r="S52">
-        <v>2038.453433600002</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>2749.12573395797</v>
-      </c>
-      <c r="Y52">
-        <v>202.8105664</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>4211.28022181818</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4776,82 +3504,58 @@
         <v>5100</v>
       </c>
       <c r="C53">
-        <v>19.2233444</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>2279.472</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>5545.9746</v>
+        <v>6389.8162</v>
       </c>
       <c r="F53">
         <v>0.65550003</v>
       </c>
       <c r="G53">
-        <v>4281.72660670233</v>
+        <v>1000.18471664</v>
       </c>
       <c r="H53">
-        <v>4327.79278181818</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>328.359253</v>
+        <v>5473.15306581</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>10002.4492020035</v>
+        <v>50</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="N53">
-        <v>1000</v>
+        <v>5473.153065814854</v>
       </c>
       <c r="O53">
-        <v>1218.181818181818</v>
+        <v>5473.15306581</v>
       </c>
       <c r="P53">
-        <v>812.121212121212</v>
+        <v>1355.55979281</v>
       </c>
       <c r="Q53">
-        <v>347.5825974</v>
+        <v>5828.907109083</v>
       </c>
       <c r="R53">
-        <v>480.741707906977</v>
+        <v>500</v>
       </c>
       <c r="S53">
-        <v>2067.189344000001</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>2743.62748249006</v>
-      </c>
-      <c r="Y53">
-        <v>212.282656</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>4327.79278181818</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4859,31 +3563,31 @@
         <v>5100</v>
       </c>
       <c r="C54">
-        <v>14.2667327</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2317.68</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>5662.487160000001</v>
+        <v>6510.591160000001</v>
       </c>
       <c r="F54">
         <v>0.65550003</v>
       </c>
       <c r="G54">
-        <v>4287.75271436791</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>4444.30534181818</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>328.3243443</v>
+        <v>6675</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>9977.4430789985</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -4892,49 +3596,25 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1000</v>
+        <v>7816.159875586818</v>
       </c>
       <c r="O54">
-        <v>1218.181818181818</v>
+        <v>6675</v>
       </c>
       <c r="P54">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q54">
-        <v>342.591077</v>
+        <v>6450</v>
       </c>
       <c r="R54">
-        <v>486.084942883721</v>
+        <v>60.59116</v>
       </c>
       <c r="S54">
-        <v>2090.1652544</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>2738.14022752508</v>
-      </c>
-      <c r="Y54">
-        <v>227.5147456</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>4444.30534181818</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4942,31 +3622,31 @@
         <v>5150</v>
       </c>
       <c r="C55">
-        <v>10.5524517</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>2355.864</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>5778.99972</v>
+        <v>6631.36612</v>
       </c>
       <c r="F55">
         <v>0.65550003</v>
       </c>
       <c r="G55">
-        <v>4347.22744316837</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>4560.81790181818</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>324.834954</v>
+        <v>6725</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>9952.499471301009</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -4975,49 +3655,25 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>1000</v>
+        <v>9388.997212308153</v>
       </c>
       <c r="O55">
-        <v>1218.181818181818</v>
+        <v>6725</v>
       </c>
       <c r="P55">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q55">
-        <v>335.3874057</v>
+        <v>6450</v>
       </c>
       <c r="R55">
-        <v>491.422596465116</v>
+        <v>181.36612</v>
       </c>
       <c r="S55">
-        <v>2113.117164799999</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>2732.66394707003</v>
-      </c>
-      <c r="Y55">
-        <v>242.7468352</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>4560.81790181818</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5025,31 +3681,31 @@
         <v>5200</v>
       </c>
       <c r="C56">
-        <v>6.8381707</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>2394.048</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>5895.51228</v>
+        <v>6752.141079999999</v>
       </c>
       <c r="F56">
         <v>0.65550003</v>
       </c>
       <c r="G56">
-        <v>4406.70217206884</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>4677.33046181818</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>321.3455636</v>
+        <v>6775</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>9927.618222622759</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5058,49 +3714,25 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1000</v>
+        <v>8326.104166976542</v>
       </c>
       <c r="O56">
-        <v>1218.181818181818</v>
+        <v>6775</v>
       </c>
       <c r="P56">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q56">
-        <v>328.1837343</v>
+        <v>6450</v>
       </c>
       <c r="R56">
-        <v>496.760250046512</v>
+        <v>302.14108</v>
       </c>
       <c r="S56">
-        <v>2136.069075200001</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>2727.19861917589</v>
-      </c>
-      <c r="Y56">
-        <v>257.9789248000008</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>4677.33046181818</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5108,82 +3740,58 @@
         <v>5200</v>
       </c>
       <c r="C57">
-        <v>8.248754549999999</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>2404.416</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>6012.024839999999</v>
+        <v>6872.916039999999</v>
       </c>
       <c r="F57">
         <v>0.65550003</v>
       </c>
       <c r="G57">
-        <v>3792.77317304953</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>4793.84302181818</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>934.46762205</v>
+        <v>6775</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>9902.799177066199</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>1000</v>
+        <v>8670.719008413593</v>
       </c>
       <c r="O57">
-        <v>1218.181818181818</v>
+        <v>6775</v>
       </c>
       <c r="P57">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q57">
-        <v>317.7163766</v>
+        <v>6450</v>
       </c>
       <c r="R57">
-        <v>495.629066418605</v>
+        <v>422.91604</v>
       </c>
       <c r="S57">
-        <v>2131.204985600002</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>2721.74422193754</v>
-      </c>
-      <c r="Y57">
-        <v>273.2110144</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>4793.84302181818</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5191,82 +3799,58 @@
         <v>5800</v>
       </c>
       <c r="C58">
-        <v>9.659338399999999</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>2414.784</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>6128.5374</v>
+        <v>6992.5726</v>
       </c>
       <c r="F58">
         <v>1.04989998</v>
       </c>
       <c r="G58">
-        <v>3656.55504063488</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>4910.35558181818</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1547.5896805</v>
+        <v>7375</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>9713.56849491301</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>1000</v>
+        <v>7633.489670020988</v>
       </c>
       <c r="O58">
-        <v>1218.181818181818</v>
+        <v>7375</v>
       </c>
       <c r="P58">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q58">
-        <v>307.2490189</v>
+        <v>6450</v>
       </c>
       <c r="R58">
-        <v>378.010738604651</v>
+        <v>542.5726</v>
       </c>
       <c r="S58">
-        <v>1625.446175999999</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>500</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>2716.30073349366</v>
-      </c>
-      <c r="Y58">
-        <v>289.337824</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>4910.35558181818</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5274,82 +3858,58 @@
         <v>5850</v>
       </c>
       <c r="C59">
-        <v>10.15272495</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>2429.904</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>6245.04996</v>
+        <v>7134.02116</v>
       </c>
       <c r="F59">
         <v>1.04989998</v>
       </c>
       <c r="G59">
-        <v>3715.32908242953</v>
+        <v>818.072268765</v>
       </c>
       <c r="H59">
-        <v>5026.86814181818</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1542.79416195</v>
+        <v>6606.92773123</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>9360.337205254669</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M59">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N59">
-        <v>1000</v>
+        <v>6606.927731234959</v>
       </c>
       <c r="O59">
-        <v>1218.181818181818</v>
+        <v>6606.92773123</v>
       </c>
       <c r="P59">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q59">
-        <v>302.9468869</v>
+        <v>6450</v>
       </c>
       <c r="R59">
-        <v>381.830922418605</v>
+        <v>684.02116</v>
       </c>
       <c r="S59">
-        <v>1641.872966400001</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>500</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>2571.97924313778</v>
-      </c>
-      <c r="Y59">
-        <v>288.0310336</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>5026.86814181818</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5357,82 +3917,58 @@
         <v>5900</v>
       </c>
       <c r="C60">
-        <v>10.6461115</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>2445.024</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>6238.421999999998</v>
+        <v>7119.929199999998</v>
       </c>
       <c r="F60">
         <v>1.04989998</v>
       </c>
       <c r="G60">
-        <v>3772.74033139767</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>5020.24018181818</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1537.9986433</v>
+        <v>7475</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>9007.988993820491</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1000</v>
+        <v>9595.616371443581</v>
       </c>
       <c r="O60">
-        <v>1218.181818181818</v>
+        <v>7475</v>
       </c>
       <c r="P60">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q60">
-        <v>298.6447548</v>
+        <v>6450</v>
       </c>
       <c r="R60">
-        <v>384.205172093023</v>
+        <v>669.9292</v>
       </c>
       <c r="S60">
-        <v>1652.082239999999</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>500</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>2427.94639576262</v>
-      </c>
-      <c r="Y60">
-        <v>292.9417599999992</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>5020.24018181818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5440,82 +3976,58 @@
         <v>6050</v>
       </c>
       <c r="C61">
-        <v>9.09654315</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>2470.656</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>6231.79404</v>
+        <v>7116.990839999999</v>
       </c>
       <c r="F61">
         <v>1.04989998</v>
       </c>
       <c r="G61">
-        <v>3951.29275917744</v>
+        <v>471.787936918</v>
       </c>
       <c r="H61">
-        <v>5013.61222181818</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1516.58460035</v>
+        <v>7153.21206308</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>8656.52165291488</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M61">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N61">
-        <v>1000</v>
+        <v>7153.212063081653</v>
       </c>
       <c r="O61">
-        <v>1218.181818181818</v>
+        <v>7153.21206308</v>
       </c>
       <c r="P61">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q61">
-        <v>275.6811435</v>
+        <v>6450</v>
       </c>
       <c r="R61">
-        <v>391.099161302326</v>
+        <v>666.99084</v>
       </c>
       <c r="S61">
-        <v>1681.726393600002</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>500</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>2284.20161408221</v>
-      </c>
-      <c r="Y61">
-        <v>288.9296064</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>5013.61222181818</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5523,82 +4035,58 @@
         <v>6100</v>
       </c>
       <c r="C62">
-        <v>7.5469748</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>2496.288</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>6225.166079999999</v>
+        <v>7154.052479999999</v>
       </c>
       <c r="F62">
         <v>1.04989998</v>
       </c>
       <c r="G62">
-        <v>4036.85914054558</v>
+        <v>833.044949908</v>
       </c>
       <c r="H62">
-        <v>5006.98426181818</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1495.1705573</v>
+        <v>6841.95505009</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>8305.93298036154</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M62">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N62">
-        <v>1000</v>
+        <v>6841.955050091554</v>
       </c>
       <c r="O62">
-        <v>1218.181818181818</v>
+        <v>6841.95505009</v>
       </c>
       <c r="P62">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q62">
-        <v>252.7175321</v>
+        <v>6450</v>
       </c>
       <c r="R62">
-        <v>405.435010976744</v>
+        <v>704.0524799999999</v>
       </c>
       <c r="S62">
-        <v>1743.370547199999</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>500</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>2140.74432196515</v>
-      </c>
-      <c r="Y62">
-        <v>252.9174527999992</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>5006.98426181818</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5606,82 +4094,58 @@
         <v>6150</v>
       </c>
       <c r="C63">
-        <v>6.86442885</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>2521.584000000001</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>6218.53812</v>
+        <v>7215.01332</v>
       </c>
       <c r="F63">
         <v>1.04989998</v>
       </c>
       <c r="G63">
-        <v>4121.01780813233</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>5000.35630181818</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1479.27287845</v>
+        <v>7725</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>7956.22077948959</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1000</v>
+        <v>8122.161012728276</v>
       </c>
       <c r="O63">
-        <v>1218.181818181818</v>
+        <v>7725</v>
       </c>
       <c r="P63">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q63">
-        <v>236.1373073</v>
+        <v>6450</v>
       </c>
       <c r="R63">
-        <v>424.139083906977</v>
+        <v>765.01332</v>
       </c>
       <c r="S63">
-        <v>1823.798060800001</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>500</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>1997.57394443233</v>
-      </c>
-      <c r="Y63">
-        <v>197.7859392000008</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>5000.35630181818</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5689,82 +4153,58 @@
         <v>6200</v>
       </c>
       <c r="C64">
-        <v>6.1818829</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>2546.880000000001</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>6211.91016</v>
+        <v>7215.97416</v>
       </c>
       <c r="F64">
         <v>1.04989998</v>
       </c>
       <c r="G64">
-        <v>4194.65554558651</v>
+        <v>713.768138157</v>
       </c>
       <c r="H64">
-        <v>4993.72834181818</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1463.3751995</v>
+        <v>7061.23186184</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>7607.38285911981</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M64">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N64">
-        <v>1000</v>
+        <v>7061.231861842561</v>
       </c>
       <c r="O64">
-        <v>1218.181818181818</v>
+        <v>7061.23186184</v>
       </c>
       <c r="P64">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q64">
-        <v>219.5570824</v>
+        <v>6450</v>
       </c>
       <c r="R64">
-        <v>431.680366139535</v>
+        <v>765.97416</v>
       </c>
       <c r="S64">
-        <v>1856.2255744</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>500</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>1854.68990765458</v>
-      </c>
-      <c r="Y64">
-        <v>190.6544256000008</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>4993.72834181818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5772,82 +4212,58 @@
         <v>6150</v>
       </c>
       <c r="C65">
-        <v>5.28425385</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>2521.632</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>6205.2822</v>
+        <v>7201.7718</v>
       </c>
       <c r="F65">
         <v>1.04989998</v>
       </c>
       <c r="G65">
-        <v>4150.38074261744</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>4987.10038181818</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>1450.38907195</v>
+        <v>7725</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>7259.41703355096</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1000</v>
+        <v>7957.505477248109</v>
       </c>
       <c r="O65">
-        <v>1218.181818181818</v>
+        <v>7725</v>
       </c>
       <c r="P65">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q65">
-        <v>205.6733258</v>
+        <v>6450</v>
       </c>
       <c r="R65">
-        <v>424.646169302326</v>
+        <v>751.7718</v>
       </c>
       <c r="S65">
-        <v>1825.978528000002</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>500</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>1712.09163895038</v>
-      </c>
-      <c r="Y65">
-        <v>195.653472</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>4987.10038181818</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5855,82 +4271,58 @@
         <v>6100</v>
       </c>
       <c r="C66">
-        <v>4.3866248</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>2496.384</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>6198.654240000001</v>
+        <v>7187.569440000001</v>
       </c>
       <c r="F66">
         <v>1.04989998</v>
       </c>
       <c r="G66">
-        <v>4106.10593974837</v>
+        <v>543.083037512</v>
       </c>
       <c r="H66">
-        <v>4980.47242181818</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1437.4029443</v>
+        <v>7131.91696249</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>6912.32112254603</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M66">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N66">
-        <v>1000</v>
+        <v>7131.916962487612</v>
       </c>
       <c r="O66">
-        <v>1218.181818181818</v>
+        <v>7131.91696249</v>
       </c>
       <c r="P66">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q66">
-        <v>191.7895691</v>
+        <v>6450</v>
       </c>
       <c r="R66">
-        <v>417.611972465116</v>
+        <v>737.56944</v>
       </c>
       <c r="S66">
-        <v>1795.731481599999</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>500</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>1569.77856678359</v>
-      </c>
-      <c r="Y66">
-        <v>200.6525184</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>4980.47242181818</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5938,82 +4330,58 @@
         <v>6050</v>
       </c>
       <c r="C67">
-        <v>3.88972595</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>2470.704</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>6192.026279999999</v>
+        <v>7113.237479999999</v>
       </c>
       <c r="F67">
         <v>1.04989998</v>
       </c>
       <c r="G67">
-        <v>4054.74605566535</v>
+        <v>1944.30916346</v>
       </c>
       <c r="H67">
-        <v>4973.84446181818</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1420.85275405</v>
+        <v>5680.69083654</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>6566.09295131861</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M67">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N67">
-        <v>1000</v>
+        <v>5680.6908365449</v>
       </c>
       <c r="O67">
-        <v>1218.181818181818</v>
+        <v>5680.69083654</v>
       </c>
       <c r="P67">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q67">
-        <v>174.74248</v>
+        <v>6450</v>
       </c>
       <c r="R67">
-        <v>399.290408186047</v>
+        <v>663.23748</v>
       </c>
       <c r="S67">
-        <v>1716.948755200002</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>500</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>1427.75012076114</v>
-      </c>
-      <c r="Y67">
-        <v>253.7552448</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>4973.84446181818</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6021,82 +4389,58 @@
         <v>6000</v>
       </c>
       <c r="C68">
-        <v>3.3928271</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>2445.024</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>6185.398319999999</v>
+        <v>7098.905519999999</v>
       </c>
       <c r="F68">
         <v>1.04989998</v>
       </c>
       <c r="G68">
-        <v>4013.90710171488</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>4967.21650181818</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1404.3025639</v>
+        <v>7575</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>6220.73035051926</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>1000</v>
+        <v>7650.868345277268</v>
       </c>
       <c r="O68">
-        <v>1218.181818181818</v>
+        <v>7575</v>
       </c>
       <c r="P68">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q68">
-        <v>157.695391</v>
+        <v>6450</v>
       </c>
       <c r="R68">
-        <v>392.131634604651</v>
+        <v>648.90552</v>
       </c>
       <c r="S68">
-        <v>1686.166028799999</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>500</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>1286.00573163073</v>
-      </c>
-      <c r="Y68">
-        <v>258.8579712</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>4967.21650181818</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6104,82 +4448,58 @@
         <v>4945</v>
       </c>
       <c r="C69">
-        <v>3.7841914</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>2374.968</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>6178.77036</v>
+        <v>7089.260759999999</v>
       </c>
       <c r="F69">
         <v>1.04989998</v>
       </c>
       <c r="G69">
-        <v>2965.87982118419</v>
+        <v>787.609720873</v>
       </c>
       <c r="H69">
-        <v>4960.58854181818</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1379.9265954</v>
+        <v>5732.39027913</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>5876.23115622191</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M69">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N69">
-        <v>1000</v>
+        <v>5732.390279127398</v>
       </c>
       <c r="O69">
-        <v>1218.181818181818</v>
+        <v>5732.39027913</v>
       </c>
       <c r="P69">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q69">
-        <v>133.7107868</v>
+        <v>6450</v>
       </c>
       <c r="R69">
-        <v>375.524898232558</v>
+        <v>639.26076</v>
       </c>
       <c r="S69">
-        <v>1614.757062399999</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>500</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>1144.54483127857</v>
-      </c>
-      <c r="Y69">
-        <v>260.2109376</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>4960.58854181818</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6187,82 +4507,58 @@
         <v>4590</v>
       </c>
       <c r="C70">
-        <v>4.1755557</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>2304.912</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>6172.1424</v>
+        <v>7043.616</v>
       </c>
       <c r="F70">
         <v>0.65550003</v>
       </c>
       <c r="G70">
-        <v>3358.63300576977</v>
+        <v>191.6346247</v>
       </c>
       <c r="H70">
-        <v>4953.96058181818</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>730.5506269</v>
+        <v>5973.3653753</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>5532.59320991031</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M70">
-        <v>625</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N70">
-        <v>1000</v>
+        <v>5973.365375300161</v>
       </c>
       <c r="O70">
-        <v>1218.181818181818</v>
+        <v>5973.3653753</v>
       </c>
       <c r="P70">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q70">
-        <v>109.7261826</v>
+        <v>6450</v>
       </c>
       <c r="R70">
-        <v>468.499557209302</v>
+        <v>593.616</v>
       </c>
       <c r="S70">
-        <v>2014.548095999998</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>1003.36685272713</v>
-      </c>
-      <c r="Y70">
-        <v>290.363904</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>4953.96058181818</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6270,31 +4566,31 @@
         <v>4820</v>
       </c>
       <c r="C71">
-        <v>4.19094265</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>2234.880000000001</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>5898.4968</v>
+        <v>6688.9608</v>
       </c>
       <c r="F71">
         <v>0.65550003</v>
       </c>
       <c r="G71">
-        <v>4216.98416982116</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>4680.31498181818</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>80.49037403</v>
+        <v>6395</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>5354.288042675</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6303,49 +4599,25 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>1000</v>
+        <v>8200.42280822947</v>
       </c>
       <c r="O71">
-        <v>1218.181818181818</v>
+        <v>6395</v>
       </c>
       <c r="P71">
-        <v>812.121212121212</v>
+        <v>1500</v>
       </c>
       <c r="Q71">
-        <v>84.68131667999999</v>
+        <v>6450</v>
       </c>
       <c r="R71">
-        <v>447.323653953489</v>
+        <v>238.9608</v>
       </c>
       <c r="S71">
-        <v>1923.491712000003</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>1001.36011902167</v>
-      </c>
-      <c r="Y71">
-        <v>311.388288</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>4680.31498181818</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6353,82 +4625,58 @@
         <v>5050</v>
       </c>
       <c r="C72">
-        <v>4.2063296</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>2164.848</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>5624.8512</v>
+        <v>6394.3056</v>
       </c>
       <c r="F72">
         <v>0.65550003</v>
       </c>
       <c r="G72">
-        <v>4460.85626411512</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>4406.66938181818</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>55.43012115</v>
+        <v>6611.40020465</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>5340.90232256832</v>
+        <v>-0</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N72">
-        <v>1000</v>
+        <v>8153.106256030972</v>
       </c>
       <c r="O72">
-        <v>1218.181818181818</v>
+        <v>6611.40020465</v>
       </c>
       <c r="P72">
-        <v>812.121212121212</v>
+        <v>1487.04781395</v>
       </c>
       <c r="Q72">
-        <v>59.63645075</v>
+        <v>6394.305599985</v>
       </c>
       <c r="R72">
-        <v>437.310541395349</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S72">
-        <v>1880.435328</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>999.357398783631</v>
-      </c>
-      <c r="Y72">
-        <v>284.4126720000008</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>4406.66938181818</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6436,82 +4684,58 @@
         <v>5150</v>
       </c>
       <c r="C73">
-        <v>4.99691885</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>2128.944</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>5351.205599999999</v>
+        <v>6089.459999999999</v>
       </c>
       <c r="F73">
         <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>4858.36459960275</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H73">
-        <v>4133.02378181818</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>6636.96116279</v>
       </c>
       <c r="J73">
-        <v>246.719666319028</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>5327.5500667619</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L73">
-        <v>290.342075149028</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N73">
-        <v>1000</v>
+        <v>8247.679632537796</v>
       </c>
       <c r="O73">
-        <v>1218.181818181818</v>
+        <v>6636.96116279</v>
       </c>
       <c r="P73">
-        <v>812.121212121212</v>
+        <v>1416.15348837</v>
       </c>
       <c r="Q73">
-        <v>48.61932768</v>
+        <v>6089.459999991001</v>
       </c>
       <c r="R73">
-        <v>433.338284651163</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S73">
-        <v>1863.354624000001</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>997.358683986064</v>
-      </c>
-      <c r="Y73">
-        <v>265.589376</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>4133.02378181818</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6519,82 +4743,58 @@
         <v>5250</v>
       </c>
       <c r="C74">
-        <v>5.7875081</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>2093.04</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>4585.889399999999</v>
+        <v>5292.943799999999</v>
       </c>
       <c r="F74">
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>5607.77363355135</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H74">
-        <v>3367.70758181818</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>6542.46302093</v>
       </c>
       <c r="J74">
-        <v>883.527378649028</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>5383.18743444289</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L74">
-        <v>915.342075149028</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N74">
-        <v>1000</v>
+        <v>6929.035047549449</v>
       </c>
       <c r="O74">
-        <v>1218.181818181818</v>
+        <v>6542.46302093</v>
       </c>
       <c r="P74">
-        <v>812.121212121212</v>
+        <v>1230.91716279</v>
       </c>
       <c r="Q74">
-        <v>37.6022046</v>
+        <v>5292.943799997</v>
       </c>
       <c r="R74">
-        <v>447.660747906977</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S74">
-        <v>1924.941216000001</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>995.363966618092</v>
-      </c>
-      <c r="Y74">
-        <v>168.098784</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>3367.70758181818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6602,82 +4802,58 @@
         <v>5250</v>
       </c>
       <c r="C75">
-        <v>6.7020294</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>2065.272</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>4361.614350000001</v>
+        <v>5067.468750000001</v>
       </c>
       <c r="F75">
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5329.08124735465</v>
+        <v>756.467039359</v>
       </c>
       <c r="H75">
-        <v>3143.43253181818</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>4960.11359621</v>
       </c>
       <c r="J75">
-        <v>603.96069535</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>5587.12320870467</v>
+        <v>500</v>
       </c>
       <c r="L75">
-        <v>625</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>406.060606060606</v>
       </c>
       <c r="N75">
-        <v>1000</v>
+        <v>4960.113596211828</v>
       </c>
       <c r="O75">
-        <v>1218.181818181818</v>
+        <v>4960.11359621</v>
       </c>
       <c r="P75">
-        <v>812.121212121212</v>
+        <v>920.552986258</v>
       </c>
       <c r="Q75">
-        <v>27.74133405</v>
+        <v>3958.3778409094</v>
       </c>
       <c r="R75">
-        <v>449.324935813954</v>
+        <v>500</v>
       </c>
       <c r="S75">
-        <v>1932.097224000002</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>993.373238684856</v>
-      </c>
-      <c r="Y75">
-        <v>133.174776</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>3143.43253181818</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6685,82 +4861,58 @@
         <v>5250</v>
       </c>
       <c r="C76">
-        <v>7.6165507</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>2037.504</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>4137.3393</v>
+        <v>4841.9937</v>
       </c>
       <c r="F76">
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>4715.73093630698</v>
+        <v>893.475907771</v>
       </c>
       <c r="H76">
-        <v>2919.15748181818</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>10.2639128</v>
+        <v>4768.04686675</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>5721.59290068291</v>
+        <v>500</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>406.060606060606</v>
       </c>
       <c r="N76">
-        <v>1000</v>
+        <v>4768.046866753723</v>
       </c>
       <c r="O76">
-        <v>1218.181818181818</v>
+        <v>4768.04686675</v>
       </c>
       <c r="P76">
-        <v>812.121212121212</v>
+        <v>868.116928118</v>
       </c>
       <c r="Q76">
-        <v>17.8804635</v>
+        <v>3732.9027909074</v>
       </c>
       <c r="R76">
-        <v>450.98912372093</v>
+        <v>500</v>
       </c>
       <c r="S76">
-        <v>1939.253231999999</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>991.386492207486</v>
-      </c>
-      <c r="Y76">
-        <v>98.2507679999992</v>
-      </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>2919.15748181818</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6768,82 +4920,58 @@
         <v>5775</v>
       </c>
       <c r="C77">
-        <v>9.230342950000001</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>1935.624</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>3913.064249999999</v>
+        <v>4616.518649999999</v>
       </c>
       <c r="F77">
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>4605.11342968023</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H77">
-        <v>2694.88243181818</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>628.6586002499999</v>
+        <v>6902.28943779</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>5707.28891843121</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M77">
-        <v>625</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N77">
-        <v>1000</v>
+        <v>7762.498111808679</v>
       </c>
       <c r="O77">
-        <v>1218.181818181818</v>
+        <v>6902.28943779</v>
       </c>
       <c r="P77">
-        <v>812.121212121212</v>
+        <v>1073.60898837</v>
       </c>
       <c r="Q77">
-        <v>12.8889432</v>
+        <v>4616.518649991</v>
       </c>
       <c r="R77">
-        <v>435.417962790698</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S77">
-        <v>1872.297240000001</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>989.403719223071</v>
-      </c>
-      <c r="Y77">
-        <v>63.32676000000032</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>2694.88243181818</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6851,82 +4979,58 @@
         <v>5800</v>
       </c>
       <c r="C78">
-        <v>10.8441352</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>1833.744</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>3688.7892</v>
+        <v>4391.0436</v>
       </c>
       <c r="F78">
         <v>1.04989998</v>
       </c>
       <c r="G78">
-        <v>3872.40289979767</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>2470.60738181818</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1247.0532877</v>
+        <v>6872.23157674</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>5528.5470119246</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>1000</v>
+        <v>8471.764859456574</v>
       </c>
       <c r="O78">
-        <v>1218.181818181818</v>
+        <v>6872.23157674</v>
       </c>
       <c r="P78">
-        <v>812.121212121212</v>
+        <v>1021.17293023</v>
       </c>
       <c r="Q78">
-        <v>7.8974229</v>
+        <v>4391.043599989</v>
       </c>
       <c r="R78">
-        <v>303.567732093023</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S78">
-        <v>1305.341247999999</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>500</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <v>987.424911784625</v>
-      </c>
-      <c r="Y78">
-        <v>28.402752</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>2470.60738181818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6934,82 +5038,58 @@
         <v>5997</v>
       </c>
       <c r="C79">
-        <v>12.2970332</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>1731.864</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>3464.51415</v>
+        <v>4161.073350000001</v>
       </c>
       <c r="F79">
         <v>1.04989998</v>
       </c>
       <c r="G79">
-        <v>4055.4760231</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>2249.98870181818</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1242.3279769</v>
+        <v>7013.07605058</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>5185.77827597374</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>1000</v>
+        <v>8491.089892520762</v>
       </c>
       <c r="O79">
-        <v>1218.181818181818</v>
+        <v>7013.07605058</v>
       </c>
       <c r="P79">
-        <v>812.121212121212</v>
+        <v>967.6914767440001</v>
       </c>
       <c r="Q79">
-        <v>4.6250101</v>
+        <v>4161.0733499992</v>
       </c>
       <c r="R79">
-        <v>286.48</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S79">
-        <v>1231.864</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>500</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>846.561173072167</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>2249.98870181818</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7017,82 +5097,58 @@
         <v>5840</v>
       </c>
       <c r="C80">
-        <v>13.7499312</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>1629.984</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>3240.2391</v>
+        <v>3951.2343</v>
       </c>
       <c r="F80">
         <v>1.04989998</v>
       </c>
       <c r="G80">
-        <v>3878.3236594814</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>2085.00466181818</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1237.6026661</v>
+        <v>6804.83628256</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>4843.86646186275</v>
+        <v>-0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M80">
-        <v>1250</v>
+        <v>-0</v>
       </c>
       <c r="N80">
-        <v>1000</v>
+        <v>7044.855934752977</v>
       </c>
       <c r="O80">
-        <v>1218.181818181818</v>
+        <v>6804.83628256</v>
       </c>
       <c r="P80">
-        <v>812.121212121212</v>
+        <v>918.8916976740001</v>
       </c>
       <c r="Q80">
-        <v>1.3525973</v>
+        <v>3951.2342999982</v>
       </c>
       <c r="R80">
-        <v>262.786976744186</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S80">
-        <v>1129.984</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>500</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <v>705.979161837133</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>2085.00466181818</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7100,82 +5156,58 @@
         <v>5920</v>
       </c>
       <c r="C81">
-        <v>14.58450715</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>1540.848</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>3015.96405</v>
+        <v>3700.218449999999</v>
       </c>
       <c r="F81">
         <v>1.04989998</v>
       </c>
       <c r="G81">
-        <v>3938.03386091454</v>
+        <v>2408.80417231</v>
       </c>
       <c r="H81">
-        <v>1878.84382181818</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1236.126697225</v>
+        <v>3766.00604117</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>4502.80942728704</v>
+        <v>500</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>609.0909090909089</v>
       </c>
       <c r="M81">
-        <v>1250</v>
+        <v>406.060606060606</v>
       </c>
       <c r="N81">
-        <v>1000</v>
+        <v>3766.006041168267</v>
       </c>
       <c r="O81">
-        <v>1218.181818181818</v>
+        <v>3766.00604117</v>
       </c>
       <c r="P81">
-        <v>812.121212121212</v>
+        <v>718.8668699789999</v>
       </c>
       <c r="Q81">
-        <v>0.711204375</v>
+        <v>3091.1275409097</v>
       </c>
       <c r="R81">
-        <v>242.057674418605</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S81">
-        <v>1040.848000000001</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>500</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>565.67831462457</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>1878.84382181818</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7183,82 +5215,58 @@
         <v>6000</v>
       </c>
       <c r="C82">
-        <v>15.4190831</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>1551.712</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>3138.62</v>
+        <v>3814.1336</v>
       </c>
       <c r="F82">
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>4042.58150855362</v>
+        <v>32.3084598333</v>
       </c>
       <c r="H82">
-        <v>1968.22778181818</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1234.65072835</v>
+        <v>6899.04974482</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>4162.60503529777</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M82">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N82">
-        <v>1000</v>
+        <v>6899.049744817906</v>
       </c>
       <c r="O82">
-        <v>1218.181818181818</v>
+        <v>6899.04974482</v>
       </c>
       <c r="P82">
-        <v>812.121212121212</v>
+        <v>887.007813953</v>
       </c>
       <c r="Q82">
-        <v>0.06981145</v>
+        <v>3814.1335999979</v>
       </c>
       <c r="R82">
-        <v>264.03070181297</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S82">
-        <v>1135.332017795771</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>416.379982204229</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>425.658069106432</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>1968.22778181818</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7266,82 +5274,58 @@
         <v>6100</v>
       </c>
       <c r="C83">
-        <v>16.5040318</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>1562.576</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>3243.049199999999</v>
+        <v>3891.821999999999</v>
       </c>
       <c r="F83">
         <v>1.04989998</v>
       </c>
       <c r="G83">
-        <v>4248.02838188895</v>
+        <v>262.431693988</v>
       </c>
       <c r="H83">
-        <v>2025.03034181818</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1233.530873925</v>
+        <v>6787.89693392</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>3823.25115428847</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M83">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N83">
-        <v>1000</v>
+        <v>6787.89693391917</v>
       </c>
       <c r="O83">
-        <v>1218.181818181818</v>
+        <v>6787.89693392</v>
       </c>
       <c r="P83">
-        <v>812.121212121212</v>
+        <v>905.074883721</v>
       </c>
       <c r="Q83">
-        <v>0.034905725</v>
+        <v>3891.8220000003</v>
       </c>
       <c r="R83">
-        <v>363.38976744186</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S83">
-        <v>1562.575999999998</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>309.145646800378</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>2025.03034181818</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7349,82 +5333,58 @@
         <v>6250</v>
       </c>
       <c r="C84">
-        <v>17.5889805</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>1573.44</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>2959.7544</v>
+        <v>3681.7864</v>
       </c>
       <c r="F84">
         <v>1.04989998</v>
       </c>
       <c r="G84">
-        <v>4401.80107352326</v>
+        <v>819.121045671</v>
       </c>
       <c r="H84">
-        <v>1871.65370181818</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1232.4110195</v>
+        <v>6329.91981945</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>3484.7456579817</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M84">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N84">
-        <v>1000</v>
+        <v>6329.91981944504</v>
       </c>
       <c r="O84">
-        <v>1218.181818181818</v>
+        <v>6329.91981945</v>
       </c>
       <c r="P84">
-        <v>812.121212121212</v>
+        <v>856.229395349</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>3681.7864000007</v>
       </c>
       <c r="R84">
-        <v>365.916279069768</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S84">
-        <v>1573.440000000002</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>308.527355506777</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>1871.65370181818</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7432,82 +5392,58 @@
         <v>5850</v>
       </c>
       <c r="C85">
-        <v>18.5862904</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>1585.303999999996</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>2976.4596</v>
+        <v>3693.4596</v>
       </c>
       <c r="F85">
         <v>1.04989998</v>
       </c>
       <c r="G85">
-        <v>4005.69540667907</v>
+        <v>1214.15216809</v>
       </c>
       <c r="H85">
-        <v>1879.98586181818</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1231.4137096</v>
+        <v>5537.73912958</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>3147.08642541569</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M85">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N85">
-        <v>1000</v>
+        <v>5537.739129583772</v>
       </c>
       <c r="O85">
-        <v>1218.181818181818</v>
+        <v>5537.73912958</v>
       </c>
       <c r="P85">
-        <v>812.121212121212</v>
+        <v>858.9440930230001</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>3693.4595999989</v>
       </c>
       <c r="R85">
-        <v>368.675348837208</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S85">
-        <v>1585.303999999994</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>307.910300795763</v>
-      </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>1879.98586181818</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7515,82 +5451,58 @@
         <v>5950</v>
       </c>
       <c r="C86">
-        <v>19.5836003</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>1580</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>3053.1648</v>
+        <v>3765.1328</v>
       </c>
       <c r="F86">
         <v>1.04989998</v>
       </c>
       <c r="G86">
-        <v>4105.39755378837</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H86">
-        <v>1936.31802181818</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1230.4163997</v>
+        <v>6869.39289302</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>2810.2713409311</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M86">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N86">
-        <v>1000</v>
+        <v>7282.155785225408</v>
       </c>
       <c r="O86">
-        <v>1218.181818181818</v>
+        <v>6869.39289302</v>
       </c>
       <c r="P86">
-        <v>812.121212121212</v>
+        <v>875.61227907</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>3765.132800001</v>
       </c>
       <c r="R86">
-        <v>367.441860465116</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S86">
-        <v>1579.999999999999</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>307.294480194172</v>
-      </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>1936.31802181818</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7598,82 +5510,58 @@
         <v>6150</v>
       </c>
       <c r="C87">
-        <v>19.48325045</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>1574.696000000004</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>3169.87</v>
+        <v>3876.806</v>
       </c>
       <c r="F87">
         <v>1.04989998</v>
       </c>
       <c r="G87">
-        <v>4304.00204114768</v>
+        <v>784.059988561</v>
       </c>
       <c r="H87">
-        <v>2024.65018181818</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1230.51674955</v>
+        <v>6312.60194167</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>2474.29829415772</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M87">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N87">
-        <v>1000</v>
+        <v>6312.601941671176</v>
       </c>
       <c r="O87">
-        <v>1218.181818181818</v>
+        <v>6312.60194167</v>
       </c>
       <c r="P87">
-        <v>812.121212121212</v>
+        <v>901.5827906980001</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>3876.8060000014</v>
       </c>
       <c r="R87">
-        <v>366.208372093024</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S87">
-        <v>1574.696000000003</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <v>306.679891233784</v>
-      </c>
-      <c r="Y87">
-        <v>0</v>
-      </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-      <c r="AA87">
-        <v>2024.65018181818</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7681,82 +5569,58 @@
         <v>5750</v>
       </c>
       <c r="C88">
-        <v>19.3829006</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>1569.392000000008</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>3102.57520000001</v>
+        <v>3804.47920000001</v>
       </c>
       <c r="F88">
         <v>1.04989998</v>
       </c>
       <c r="G88">
-        <v>3902.60652850698</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H88">
-        <v>1965.78234181819</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1230.6170994</v>
+        <v>6679.00073488</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>2139.16518000128</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M88">
-        <v>1250</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N88">
-        <v>1000</v>
+        <v>7329.575966812354</v>
       </c>
       <c r="O88">
-        <v>1218.181818181818</v>
+        <v>6679.00073488</v>
       </c>
       <c r="P88">
-        <v>812.121212121212</v>
+        <v>884.7626046509999</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>3804.479199999299</v>
       </c>
       <c r="R88">
-        <v>364.974883720932</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S88">
-        <v>1569.392000000008</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-      <c r="X88">
-        <v>306.066531451316</v>
-      </c>
-      <c r="Y88">
-        <v>0</v>
-      </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
-      <c r="AA88">
-        <v>1965.78234181819</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7764,82 +5628,58 @@
         <v>5500</v>
       </c>
       <c r="C89">
-        <v>19.49077665</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>1564.088000000012</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>3135.28040000001</v>
+        <v>3832.15240000001</v>
       </c>
       <c r="F89">
         <v>1.04989998</v>
       </c>
       <c r="G89">
-        <v>3651.41924176628</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1986.91450181819</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1230.50922335</v>
+        <v>6435.75814419</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>1804.86989863022</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>1000</v>
+        <v>7217.984698364539</v>
       </c>
       <c r="O89">
-        <v>1218.181818181818</v>
+        <v>6435.75814419</v>
       </c>
       <c r="P89">
-        <v>812.121212121212</v>
+        <v>891.198232558</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>3832.1523999994</v>
       </c>
       <c r="R89">
-        <v>363.74139534884</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S89">
-        <v>1564.088000000012</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <v>305.454398388413</v>
-      </c>
-      <c r="Y89">
-        <v>0</v>
-      </c>
-      <c r="Z89">
-        <v>0</v>
-      </c>
-      <c r="AA89">
-        <v>1986.91450181819</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7847,82 +5687,58 @@
         <v>5750</v>
       </c>
       <c r="C90">
-        <v>19.5986527</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>1558.784000000016</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>3167.98560000002</v>
+        <v>3859.82560000002</v>
       </c>
       <c r="F90">
         <v>0.65550003</v>
       </c>
       <c r="G90">
-        <v>4525.23195502559</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H90">
-        <v>2008.0466618182</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>605.4013473</v>
+        <v>6692.51555349</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>1471.41035546259</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M90">
-        <v>625</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N90">
-        <v>1000</v>
+        <v>9600</v>
       </c>
       <c r="O90">
-        <v>1218.181818181818</v>
+        <v>6692.51555349</v>
       </c>
       <c r="P90">
-        <v>812.121212121212</v>
+        <v>897.633860465</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>3859.8255999995</v>
       </c>
       <c r="R90">
-        <v>362.507906976748</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S90">
-        <v>1558.784000000016</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-      <c r="X90">
-        <v>304.843489591636</v>
-      </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-      <c r="AA90">
-        <v>2008.0466618182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7930,82 +5746,58 @@
         <v>6075</v>
       </c>
       <c r="C91">
-        <v>19.47187745</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>1553.48000000002</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>3200.69080000003</v>
+        <v>3887.49880000003</v>
       </c>
       <c r="F91">
         <v>0.65550003</v>
       </c>
       <c r="G91">
-        <v>5473.81001698489</v>
+        <v>316.007509816</v>
       </c>
       <c r="H91">
-        <v>2029.17882181821</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>6708.26545297</v>
       </c>
       <c r="J91">
-        <v>19.47187745</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>1303.25814536341</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N91">
-        <v>1000</v>
+        <v>6708.265452974983</v>
       </c>
       <c r="O91">
-        <v>1218.181818181818</v>
+        <v>6708.26545297</v>
       </c>
       <c r="P91">
-        <v>812.121212121212</v>
+        <v>904.069488372</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>3887.4987999996</v>
       </c>
       <c r="R91">
-        <v>361.274418604656</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S91">
-        <v>1553.480000000021</v>
-      </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <v>304.233802612453</v>
-      </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
-      <c r="Z91">
-        <v>0</v>
-      </c>
-      <c r="AA91">
-        <v>2029.17882181821</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8013,82 +5805,58 @@
         <v>6400</v>
       </c>
       <c r="C92">
-        <v>19.3451022</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>1548.176000000024</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>3353.39600000004</v>
+        <v>4035.17200000004</v>
       </c>
       <c r="F92">
         <v>0.65550003</v>
       </c>
       <c r="G92">
-        <v>5811.07228947051</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H92">
-        <v>2146.31098181821</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>7385.33269767</v>
       </c>
       <c r="J92">
-        <v>33.0293127263158</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>1300</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L92">
-        <v>13.6842105263158</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N92">
-        <v>1000</v>
+        <v>8422.036651174663</v>
       </c>
       <c r="O92">
-        <v>1218.181818181818</v>
+        <v>7385.33269767</v>
       </c>
       <c r="P92">
-        <v>812.121212121212</v>
+        <v>938.412093023</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>4035.1719999989</v>
       </c>
       <c r="R92">
-        <v>360.040930232564</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S92">
-        <v>1548.176000000025</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>303.625335007228</v>
-      </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
-      <c r="AA92">
-        <v>2146.31098181821</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8096,82 +5864,58 @@
         <v>6025</v>
       </c>
       <c r="C93">
-        <v>19.38959065</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>1542.872000000028</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>3386.10120000004</v>
+        <v>4062.84520000004</v>
       </c>
       <c r="F93">
         <v>0.65550003</v>
       </c>
       <c r="G93">
-        <v>5434.73810699958</v>
+        <v>180.890657284</v>
       </c>
       <c r="H93">
-        <v>2167.91938181822</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>6836.19944969</v>
       </c>
       <c r="J93">
-        <v>33.0738011763158</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>1300</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L93">
-        <v>13.6842105263158</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N93">
-        <v>1000</v>
+        <v>6836.199449693068</v>
       </c>
       <c r="O93">
-        <v>1218.181818181818</v>
+        <v>6836.19944969</v>
       </c>
       <c r="P93">
-        <v>812.121212121212</v>
+        <v>944.84772093</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>4062.845199999</v>
       </c>
       <c r="R93">
-        <v>358.718839069772</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S93">
-        <v>1542.49100800002</v>
-      </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-      <c r="X93">
-        <v>303.018084337214</v>
-      </c>
-      <c r="Y93">
-        <v>0.3809920000065176</v>
-      </c>
-      <c r="Z93">
-        <v>0</v>
-      </c>
-      <c r="AA93">
-        <v>2167.91938181822</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8179,82 +5923,58 @@
         <v>5650</v>
       </c>
       <c r="C94">
-        <v>19.4340791</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1537.568000000032</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>3318.80640000005</v>
+        <v>3990.51840000005</v>
       </c>
       <c r="F94">
         <v>0.65550003</v>
       </c>
       <c r="G94">
-        <v>5058.57094078911</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H94">
-        <v>2108.57530181822</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>6624.42891163</v>
       </c>
       <c r="J94">
-        <v>33.1182896263158</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>1300</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L94">
-        <v>13.6842105263158</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N94">
-        <v>1000</v>
+        <v>7413.779633568434</v>
       </c>
       <c r="O94">
-        <v>1218.181818181818</v>
+        <v>6624.42891163</v>
       </c>
       <c r="P94">
-        <v>812.121212121212</v>
+        <v>928.027534884</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>3990.5184000012</v>
       </c>
       <c r="R94">
-        <v>357.57395348838</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S94">
-        <v>1537.568000000034</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <v>302.412048168539</v>
-      </c>
-      <c r="Y94">
-        <v>0</v>
-      </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-      <c r="AA94">
-        <v>2108.57530181822</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8262,82 +5982,58 @@
         <v>5750</v>
       </c>
       <c r="C95">
-        <v>19.46635825</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>1532.264000000036</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>3451.51160000006</v>
+        <v>4118.19160000006</v>
       </c>
       <c r="F95">
         <v>0.65550003</v>
       </c>
       <c r="G95">
-        <v>5153.16591080423</v>
+        <v>461.025352308</v>
       </c>
       <c r="H95">
-        <v>2233.32978181824</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>6294.57957327</v>
       </c>
       <c r="J95">
-        <v>33.1505687763158</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>1300</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L95">
-        <v>13.6842105263158</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N95">
-        <v>1000</v>
+        <v>6294.579573273255</v>
       </c>
       <c r="O95">
-        <v>1218.181818181818</v>
+        <v>6294.57957327</v>
       </c>
       <c r="P95">
-        <v>812.121212121212</v>
+        <v>957.718976744</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>4118.1915999992</v>
       </c>
       <c r="R95">
-        <v>351.945614883727</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S95">
-        <v>1513.366144000026</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-      <c r="X95">
-        <v>301.807224072202</v>
-      </c>
-      <c r="Y95">
-        <v>18.89785600000944</v>
-      </c>
-      <c r="Z95">
-        <v>0</v>
-      </c>
-      <c r="AA95">
-        <v>2233.32978181824</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8345,82 +6041,58 @@
         <v>5800</v>
       </c>
       <c r="C96">
-        <v>19.4986374</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>1526.96000000004</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>3584.21680000007</v>
+        <v>4245.86480000007</v>
       </c>
       <c r="F96">
         <v>0.65550003</v>
       </c>
       <c r="G96">
-        <v>5196.36673131237</v>
+        <v>2.27373675443e-13</v>
       </c>
       <c r="H96">
-        <v>2366.03498181825</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>6836.78093953</v>
       </c>
       <c r="J96">
-        <v>33.1828479263158</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>1300</v>
+        <v>-2.27373675443e-13</v>
       </c>
       <c r="L96">
-        <v>13.6842105263158</v>
+        <v>-2.769824773578363e-13</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>-1.846549849052242e-13</v>
       </c>
       <c r="N96">
-        <v>1000</v>
+        <v>8622.228898320824</v>
       </c>
       <c r="O96">
-        <v>1218.181818181818</v>
+        <v>6836.78093953</v>
       </c>
       <c r="P96">
-        <v>812.121212121212</v>
+        <v>987.410418605</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>4245.8648000015</v>
       </c>
       <c r="R96">
-        <v>344.838072558146</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S96">
-        <v>1482.803712000028</v>
-      </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <v>301.203609624058</v>
-      </c>
-      <c r="Y96">
-        <v>44.15628800001105</v>
-      </c>
-      <c r="Z96">
-        <v>0</v>
-      </c>
-      <c r="AA96">
-        <v>2366.03498181825</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8428,79 +6100,55 @@
         <v>5850</v>
       </c>
       <c r="C97">
-        <v>19.4986374</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>1521.656000000044</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>3616.92200000008</v>
+        <v>4273.538000000081</v>
       </c>
       <c r="F97">
         <v>0.65550003</v>
       </c>
       <c r="G97">
-        <v>5243.0422494147</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>2398.74018181826</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>6893.53834884</v>
       </c>
       <c r="J97">
-        <v>33.1828479263158</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>13.6842105263158</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1000</v>
+        <v>7638.174713915892</v>
       </c>
       <c r="O97">
-        <v>1218.181818181818</v>
+        <v>6893.53834884</v>
       </c>
       <c r="P97">
-        <v>812.121212121212</v>
+        <v>993.846046512</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>4273.5380000016</v>
       </c>
       <c r="R97">
-        <v>341.451460465124</v>
+        <v>-4.54747350886e-13</v>
       </c>
       <c r="S97">
-        <v>1468.241280000033</v>
-      </c>
-      <c r="T97">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>300.60120240481</v>
-      </c>
-      <c r="Y97">
-        <v>53.41472000001264</v>
-      </c>
-      <c r="Z97">
-        <v>0</v>
-      </c>
-      <c r="AA97">
-        <v>2398.74018181826</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>交流负荷</t>
   </si>
@@ -43,19 +43,25 @@
     <t>直流侧逆变器功率</t>
   </si>
   <si>
-    <t>GT_1机组出力</t>
+    <t>HS_1储热量</t>
   </si>
   <si>
-    <t>GT_1余热锅炉中品位热功率</t>
+    <t>HS_1储热功率</t>
   </si>
   <si>
-    <t>GT_1余热锅炉低品位热功率</t>
+    <t>HS_1供热功率</t>
   </si>
   <si>
     <t>风机最大出力</t>
   </si>
   <si>
     <t>风机实际出力</t>
+  </si>
+  <si>
+    <t>GT_1机组出力</t>
+  </si>
+  <si>
+    <t>GT_1余热锅炉热功率</t>
   </si>
   <si>
     <t>AC_1空调制热耗电功率</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,13 +492,19 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -501,57 +513,63 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4431.8076</v>
+        <v>500</v>
       </c>
       <c r="F2">
         <v>0.35220001</v>
       </c>
       <c r="G2">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6082.18557674</v>
+        <v>420.0091832</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>-2.27373675443e-13</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.846549849052242e-13</v>
+        <v>150</v>
       </c>
       <c r="N2">
-        <v>7200</v>
+        <v>420.0091832</v>
       </c>
       <c r="O2">
-        <v>6082.18557674</v>
+        <v>420.0091832</v>
       </c>
       <c r="P2">
-        <v>1030.65293023</v>
+        <v>85.53004940469999</v>
       </c>
       <c r="Q2">
-        <v>4431.807599989</v>
+        <v>138.9215347906642</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>100.513554862</v>
       </c>
       <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>105.5392326051</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4525</v>
+        <v>362</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -560,57 +578,63 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4460.8316</v>
+        <v>497</v>
       </c>
       <c r="F3">
         <v>0.35220001</v>
       </c>
       <c r="G3">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5614.27283256</v>
+        <v>410.2879002</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>-2.27373675443e-13</v>
+        <v>95.1213157895</v>
       </c>
       <c r="L3">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-1.846549849052242e-13</v>
+        <v>150</v>
       </c>
       <c r="N3">
-        <v>6513.6444947091</v>
+        <v>410.2879002</v>
       </c>
       <c r="O3">
-        <v>5614.27283256</v>
+        <v>410.2879002</v>
       </c>
       <c r="P3">
-        <v>1037.40269767</v>
+        <v>69.09697815049999</v>
       </c>
       <c r="Q3">
-        <v>4460.831599980999</v>
+        <v>112.2302432989939</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>111.795122239</v>
       </c>
       <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>117.38487835095</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4050</v>
+        <v>324</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -619,57 +643,63 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4489.8556</v>
+        <v>494</v>
       </c>
       <c r="F4">
         <v>0.35220001</v>
       </c>
       <c r="G4">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5146.36008837</v>
+        <v>388.6551994</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-2.27373675443e-13</v>
+        <v>55.3622676316</v>
       </c>
       <c r="L4">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>-1.846549849052242e-13</v>
+        <v>150</v>
       </c>
       <c r="N4">
-        <v>8564.630005929352</v>
+        <v>388.6551994</v>
       </c>
       <c r="O4">
-        <v>5146.36008837</v>
+        <v>388.6551994</v>
       </c>
       <c r="P4">
-        <v>1044.15246512</v>
+        <v>59.2370973211</v>
       </c>
       <c r="Q4">
-        <v>4489.855600016</v>
+        <v>96.21540655790787</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>117.992663544</v>
       </c>
       <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>123.8922967212</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4775</v>
+        <v>382</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -678,57 +708,63 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4518.8796</v>
+        <v>491</v>
       </c>
       <c r="F5">
         <v>0.35220001</v>
       </c>
       <c r="G5">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5878.44734419</v>
+        <v>376.8532378</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>-2.27373675443e-13</v>
+        <v>15.7224966182</v>
       </c>
       <c r="L5">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>-1.846549849052242e-13</v>
+        <v>59.5662506876</v>
       </c>
       <c r="N5">
-        <v>7847.230367680063</v>
+        <v>376.8532378</v>
       </c>
       <c r="O5">
-        <v>5878.44734419</v>
+        <v>376.8532378</v>
       </c>
       <c r="P5">
-        <v>1050.90223256</v>
+        <v>121.881271175</v>
       </c>
       <c r="Q5">
-        <v>4518.879600007999</v>
+        <v>197.9647313630303</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>111.175722833</v>
       </c>
       <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>116.73450897465</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5500</v>
+        <v>440</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -737,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4527.9036</v>
+        <v>488</v>
       </c>
       <c r="F6">
         <v>0.35220001</v>
@@ -749,45 +785,51 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6605.65087907</v>
+        <v>372.6496558</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>8482.737726354699</v>
+        <v>372.6496558</v>
       </c>
       <c r="O6">
-        <v>6605.65087907</v>
+        <v>372.6496558</v>
       </c>
       <c r="P6">
-        <v>1053.00083721</v>
+        <v>171.815407334</v>
       </c>
       <c r="Q6">
-        <v>4527.903600003</v>
+        <v>279.0698737303757</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>99.49053631850001</v>
       </c>
       <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>104.465063134425</v>
+      </c>
+      <c r="T6">
+        <v>-0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5275</v>
+        <v>422</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -796,57 +838,63 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4546.9276</v>
+        <v>485</v>
       </c>
       <c r="F7">
         <v>0.35220001</v>
       </c>
       <c r="G7">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6385.29627442</v>
+        <v>369.7703008</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>7238.000554574504</v>
+        <v>369.7703008</v>
       </c>
       <c r="O7">
-        <v>6385.29627442</v>
+        <v>369.7703008</v>
       </c>
       <c r="P7">
-        <v>1057.42502326</v>
+        <v>162.643479492</v>
       </c>
       <c r="Q7">
-        <v>4546.927600018</v>
+        <v>264.172439417309</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>105.15598123</v>
       </c>
       <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>110.4137802915</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5050</v>
+        <v>404</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -855,57 +903,63 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4565.9516</v>
+        <v>482</v>
       </c>
       <c r="F8">
         <v>0.35220001</v>
       </c>
       <c r="G8">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6164.94166977</v>
+        <v>383.7337338</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>6805.040655777953</v>
+        <v>383.7337338</v>
       </c>
       <c r="O8">
-        <v>6164.94166977</v>
+        <v>383.7337338</v>
       </c>
       <c r="P8">
-        <v>1061.8492093</v>
+        <v>144.177036532</v>
       </c>
       <c r="Q8">
-        <v>4565.95159999</v>
+        <v>234.1784593368242</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>118.010257459</v>
       </c>
       <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>123.91077033195</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5017.5</v>
+        <v>401.3999999999999</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -914,57 +968,63 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4434.9756</v>
+        <v>479</v>
       </c>
       <c r="F9">
         <v>0.35220001</v>
       </c>
       <c r="G9">
-        <v>1.13686837722e-12</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6100.45915814</v>
+        <v>364.331743</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>6236.537844018771</v>
+        <v>364.331743</v>
       </c>
       <c r="O9">
-        <v>6100.45915814</v>
+        <v>364.331743</v>
       </c>
       <c r="P9">
-        <v>1031.38967442</v>
+        <v>152.621278946</v>
       </c>
       <c r="Q9">
-        <v>4434.975600006</v>
+        <v>247.8939561062302</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>110.050497092</v>
       </c>
       <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>115.5530219466</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4985</v>
+        <v>398.8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -973,57 +1033,63 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4373.9996</v>
+        <v>476</v>
       </c>
       <c r="F10">
         <v>0.35220001</v>
       </c>
       <c r="G10">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6053.06966977</v>
+        <v>380.2189688</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>8418.83419265317</v>
+        <v>380.2189688</v>
       </c>
       <c r="O10">
-        <v>6053.06966977</v>
+        <v>380.2189688</v>
       </c>
       <c r="P10">
-        <v>1017.2092093</v>
+        <v>141.591538957</v>
       </c>
       <c r="Q10">
-        <v>4373.99959999</v>
+        <v>229.9789844877333</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>117.15286453</v>
       </c>
       <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>123.0105077565</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4957.5</v>
+        <v>396.6000000000001</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1032,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4333.0236</v>
+        <v>473</v>
       </c>
       <c r="F11">
         <v>0.35220001</v>
       </c>
       <c r="G11">
-        <v>374.153456017</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5629.20114398</v>
+        <v>380.076902</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1059,30 +1125,36 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5629.201143982733</v>
+        <v>380.076902</v>
       </c>
       <c r="O11">
-        <v>5629.20114398</v>
+        <v>380.076902</v>
       </c>
       <c r="P11">
-        <v>996.052</v>
+        <v>139.628131003</v>
       </c>
       <c r="Q11">
-        <v>4283.0236</v>
+        <v>226.7899339927515</v>
       </c>
       <c r="R11">
-        <v>50</v>
+        <v>117.242888575</v>
       </c>
       <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>123.10503300375</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4930</v>
+        <v>394.3999999999999</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1091,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4272.0476</v>
+        <v>470</v>
       </c>
       <c r="F12">
         <v>0.35220001</v>
@@ -1103,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5973.17441395</v>
+        <v>420.8509798</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1118,30 +1190,36 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>7779.45277020596</v>
+        <v>420.8509798</v>
       </c>
       <c r="O12">
-        <v>5973.17441395</v>
+        <v>420.8509798</v>
       </c>
       <c r="P12">
-        <v>993.49944186</v>
+        <v>115.085579709</v>
       </c>
       <c r="Q12">
-        <v>4272.047599998</v>
+        <v>186.9268809818909</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>134.796723342</v>
       </c>
       <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>141.5365595091</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5140</v>
+        <v>411.2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1150,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4181.0716</v>
+        <v>467</v>
       </c>
       <c r="F13">
         <v>0.35220001</v>
@@ -1162,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6160.95934419</v>
+        <v>438.2361174</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1177,30 +1255,36 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8282.125214324938</v>
+        <v>438.2361174</v>
       </c>
       <c r="O13">
-        <v>6160.95934419</v>
+        <v>438.2361174</v>
       </c>
       <c r="P13">
-        <v>972.342232558</v>
+        <v>113.934918492</v>
       </c>
       <c r="Q13">
-        <v>4181.0715999994</v>
+        <v>185.057928217309</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>134.258129421</v>
       </c>
       <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>140.97103589205</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5550</v>
+        <v>444</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1209,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4200.0956</v>
+        <v>464</v>
       </c>
       <c r="F14">
         <v>0.35220001</v>
@@ -1221,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6575.60473953</v>
+        <v>428.3858886</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1236,30 +1320,36 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8780.424559704448</v>
+        <v>428.3858886</v>
       </c>
       <c r="O14">
-        <v>6575.60473953</v>
+        <v>428.3858886</v>
       </c>
       <c r="P14">
-        <v>976.766418605</v>
+        <v>136.643238732</v>
       </c>
       <c r="Q14">
-        <v>4200.0956000015</v>
+        <v>221.9417453343999</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>115.265835555</v>
       </c>
       <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>121.02912733275</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5105</v>
+        <v>408.3999999999999</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1268,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4110.9696</v>
+        <v>461</v>
       </c>
       <c r="F15">
         <v>0.35220001</v>
@@ -1280,45 +1370,51 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6108.84141395</v>
+        <v>391.6306388</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12000</v>
+        <v>391.6306388</v>
       </c>
       <c r="O15">
-        <v>6108.84141395</v>
+        <v>391.6306388</v>
       </c>
       <c r="P15">
-        <v>956.03944186</v>
+        <v>136.452991967</v>
       </c>
       <c r="Q15">
-        <v>4110.969599997999</v>
+        <v>221.6327384676121</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>113.984410254</v>
       </c>
       <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>119.6836307667</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4860</v>
+        <v>388.8</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1327,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4219.9436</v>
+        <v>458</v>
       </c>
       <c r="F16">
         <v>0.35220001</v>
@@ -1339,45 +1435,51 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5890.45134419</v>
+        <v>412.0706388</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>7746.844929248936</v>
+        <v>412.0706388</v>
       </c>
       <c r="O16">
-        <v>5890.45134419</v>
+        <v>412.0706388</v>
       </c>
       <c r="P16">
-        <v>981.3822325580001</v>
+        <v>113.529580595</v>
       </c>
       <c r="Q16">
-        <v>4219.9435999994</v>
+        <v>184.3995612088485</v>
       </c>
       <c r="R16">
-        <v>-0</v>
+        <v>130.285923234</v>
       </c>
       <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>136.8002193957</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5355</v>
+        <v>428.3999999999999</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1386,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4228.9176</v>
+        <v>455</v>
       </c>
       <c r="F17">
         <v>0.35220001</v>
       </c>
       <c r="G17">
-        <v>424.777244301</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5950.65612314</v>
+        <v>388.26913</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1413,30 +1515,36 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5950.656123141329</v>
+        <v>388.26913</v>
       </c>
       <c r="O17">
-        <v>5950.65612314</v>
+        <v>388.26913</v>
       </c>
       <c r="P17">
-        <v>971.841302326</v>
+        <v>147.689276087</v>
       </c>
       <c r="Q17">
-        <v>4178.9176000018</v>
+        <v>239.8831878261575</v>
       </c>
       <c r="R17">
-        <v>50</v>
+        <v>102.436577226</v>
       </c>
       <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>107.5584060873</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1445,57 +1553,63 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4256.8916</v>
+        <v>452</v>
       </c>
       <c r="F18">
         <v>0.35220001</v>
       </c>
       <c r="G18">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6139.47353023</v>
+        <v>324.8765484</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>8872.951922217435</v>
+        <v>324.8765484</v>
       </c>
       <c r="O18">
-        <v>6139.47353023</v>
+        <v>324.8765484</v>
       </c>
       <c r="P18">
-        <v>989.974790698</v>
+        <v>170.586520114</v>
       </c>
       <c r="Q18">
-        <v>4256.8916000014</v>
+        <v>277.0738629730424</v>
       </c>
       <c r="R18">
-        <v>-0</v>
+        <v>83.2981604893</v>
       </c>
       <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>87.46306851376501</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5112.5</v>
+        <v>409</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1504,57 +1618,63 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4280.8656</v>
+        <v>449</v>
       </c>
       <c r="F19">
         <v>0.35220001</v>
       </c>
       <c r="G19">
-        <v>1.13686837722e-12</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6157.82764651</v>
+        <v>333.0502856</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>6623.982270344813</v>
+        <v>333.0502856</v>
       </c>
       <c r="O19">
-        <v>6157.82764651</v>
+        <v>333.0502856</v>
       </c>
       <c r="P19">
-        <v>995.550139535</v>
+        <v>165.800009619</v>
       </c>
       <c r="Q19">
-        <v>4280.865600000499</v>
+        <v>269.2994095629818</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>85.5717097321</v>
       </c>
       <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>89.85029521870501</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4475</v>
+        <v>358</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1563,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4277.8396</v>
+        <v>446</v>
       </c>
       <c r="F20">
         <v>0.35220001</v>
       </c>
       <c r="G20">
-        <v>105.662607308</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5413.92613223</v>
+        <v>309.9165686</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1590,30 +1710,36 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5413.926132226758</v>
+        <v>309.9165686</v>
       </c>
       <c r="O20">
-        <v>5413.92613223</v>
+        <v>309.9165686</v>
       </c>
       <c r="P20">
-        <v>994.8464186050001</v>
+        <v>149.594535722</v>
       </c>
       <c r="Q20">
-        <v>4277.8396000015</v>
+        <v>242.9777913545212</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>96.67724221180001</v>
       </c>
       <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>101.51110432239</v>
+      </c>
+      <c r="T20">
+        <v>-0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4435</v>
+        <v>354.8</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1622,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>4208.813599999999</v>
+        <v>443</v>
       </c>
       <c r="F21">
         <v>0.35220001</v>
@@ -1634,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5462.73355349</v>
+        <v>315.3463268</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1649,30 +1775,36 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9582.693598649925</v>
+        <v>315.3463268</v>
       </c>
       <c r="O21">
-        <v>5462.73355349</v>
+        <v>315.3463268</v>
       </c>
       <c r="P21">
-        <v>978.793860465</v>
+        <v>144.004535378</v>
       </c>
       <c r="Q21">
-        <v>4208.813599999499</v>
+        <v>233.8982756442666</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>99.57224969329999</v>
       </c>
       <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>104.550862177965</v>
+      </c>
+      <c r="T21">
+        <v>-0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4395</v>
+        <v>351.6000000000001</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1681,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4219.7876</v>
+        <v>442</v>
       </c>
       <c r="F22">
         <v>0.35220001</v>
@@ -1693,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5425.41325116</v>
+        <v>299.60859</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1708,30 +1840,36 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>7108.005131114832</v>
+        <v>299.60859</v>
       </c>
       <c r="O22">
-        <v>5425.41325116</v>
+        <v>299.60859</v>
       </c>
       <c r="P22">
-        <v>981.345953488</v>
+        <v>150.647433612</v>
       </c>
       <c r="Q22">
-        <v>4219.7875999984</v>
+        <v>244.6879527758545</v>
       </c>
       <c r="R22">
+        <v>93.95811772579999</v>
+      </c>
+      <c r="S22">
+        <v>98.65602361209</v>
+      </c>
+      <c r="T22">
         <v>-0</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4150</v>
+        <v>332</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1740,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>4133.7616</v>
+        <v>441</v>
       </c>
       <c r="F23">
         <v>0.35220001</v>
@@ -1752,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5159.40690233</v>
+        <v>283.6998844</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1767,30 +1905,36 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9600</v>
+        <v>283.6998844</v>
       </c>
       <c r="O23">
-        <v>5159.40690233</v>
+        <v>283.6998844</v>
       </c>
       <c r="P23">
-        <v>961.3399069770001</v>
+        <v>148.334511953</v>
       </c>
       <c r="Q23">
-        <v>4133.7616000011</v>
+        <v>240.9312072933575</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>95.2708536697</v>
       </c>
       <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>100.034396353185</v>
+      </c>
+      <c r="T23">
+        <v>-0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3905</v>
+        <v>312.4</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1799,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4151.7356</v>
+        <v>440</v>
       </c>
       <c r="F24">
         <v>0.35220001</v>
@@ -1811,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4918.79590233</v>
+        <v>257.3609514</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1826,30 +1970,36 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>6927.307687414996</v>
+        <v>257.3609514</v>
       </c>
       <c r="O24">
-        <v>4918.79590233</v>
+        <v>257.3609514</v>
       </c>
       <c r="P24">
-        <v>965.519906977</v>
+        <v>151.777401401</v>
       </c>
       <c r="Q24">
-        <v>4151.7356000011</v>
+        <v>246.5232943967757</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>92.13176457270001</v>
       </c>
       <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>96.73835280133501</v>
+      </c>
+      <c r="T24">
+        <v>-0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4057.5</v>
+        <v>324.6</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1858,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4080.7096</v>
+        <v>439</v>
       </c>
       <c r="F25">
         <v>0.35220001</v>
@@ -1870,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5053.95234419</v>
+        <v>257.3307716</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1885,30 +2035,36 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>6427.925502514936</v>
+        <v>257.3307716</v>
       </c>
       <c r="O25">
-        <v>5053.95234419</v>
+        <v>257.3307716</v>
       </c>
       <c r="P25">
-        <v>949.0022325579999</v>
+        <v>158.250577545</v>
       </c>
       <c r="Q25">
-        <v>4080.709599999399</v>
+        <v>257.0373017094545</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>86.64890394779999</v>
       </c>
       <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>90.98134914518999</v>
+      </c>
+      <c r="T25">
+        <v>-0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4210</v>
+        <v>336.8</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1917,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4109.6836</v>
+        <v>438</v>
       </c>
       <c r="F26">
         <v>0.35220001</v>
@@ -1929,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>5213.5273907</v>
+        <v>224.2587872</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1944,30 +2100,36 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>7374.441618711076</v>
+        <v>224.2587872</v>
       </c>
       <c r="O26">
-        <v>5213.5273907</v>
+        <v>224.2587872</v>
       </c>
       <c r="P26">
-        <v>955.740372093</v>
+        <v>182.957525458</v>
       </c>
       <c r="Q26">
-        <v>4109.6835999999</v>
+        <v>297.1673746832969</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>67.0631549126</v>
       </c>
       <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>70.41631265823</v>
+      </c>
+      <c r="T26">
+        <v>-0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4112.5</v>
+        <v>329</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1976,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>4024.3876</v>
+        <v>437</v>
       </c>
       <c r="F27">
         <v>0.35220001</v>
@@ -1988,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>5095.19929767</v>
+        <v>203.5835858</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2003,30 +2165,36 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>6005.880949784436</v>
+        <v>203.5835858</v>
       </c>
       <c r="O27">
-        <v>5095.19929767</v>
+        <v>203.5835858</v>
       </c>
       <c r="P27">
-        <v>935.904093023</v>
+        <v>189.786649977</v>
       </c>
       <c r="Q27">
-        <v>4024.3875999989</v>
+        <v>308.2595284474908</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>61.3049864539</v>
       </c>
       <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>64.370235776595</v>
+      </c>
+      <c r="T27">
+        <v>-0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4015</v>
+        <v>321.2</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2035,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>3933.2376</v>
+        <v>436</v>
       </c>
       <c r="F28">
         <v>0.35220001</v>
@@ -2047,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>4975.44173953</v>
+        <v>178.7820116</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2062,30 +2230,36 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>7110.850160087859</v>
+        <v>178.7820116</v>
       </c>
       <c r="O28">
-        <v>4975.44173953</v>
+        <v>178.7820116</v>
       </c>
       <c r="P28">
-        <v>914.706418605</v>
+        <v>198.892869853</v>
       </c>
       <c r="Q28">
-        <v>3933.2376000015</v>
+        <v>323.0502370945696</v>
       </c>
       <c r="R28">
-        <v>-4.54747350886e-13</v>
+        <v>53.7856013837</v>
       </c>
       <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>56.474881452885</v>
+      </c>
+      <c r="T28">
+        <v>-0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4007.5</v>
+        <v>320.6</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2094,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3962.0876</v>
+        <v>435</v>
       </c>
       <c r="F29">
         <v>0.35220001</v>
@@ -2106,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>4974.98650698</v>
+        <v>179.5863516</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2121,30 +2295,36 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>7009.485484021054</v>
+        <v>179.5863516</v>
       </c>
       <c r="O29">
-        <v>4974.98650698</v>
+        <v>179.5863516</v>
       </c>
       <c r="P29">
-        <v>921.41572093</v>
+        <v>197.841979886</v>
       </c>
       <c r="Q29">
-        <v>3962.087599999</v>
+        <v>321.3433370269575</v>
       </c>
       <c r="R29">
-        <v>-4.54747350886e-13</v>
+        <v>54.1222204631</v>
       </c>
       <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>56.828331486255</v>
+      </c>
+      <c r="T29">
+        <v>-0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4000</v>
+        <v>320</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2153,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3990.9376</v>
+        <v>434</v>
       </c>
       <c r="F30">
         <v>0.35220001</v>
@@ -2165,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>4974.53127442</v>
+        <v>188.487548</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2180,30 +2360,36 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>7359.966749922081</v>
+        <v>188.487548</v>
       </c>
       <c r="O30">
-        <v>4974.53127442</v>
+        <v>188.487548</v>
       </c>
       <c r="P30">
-        <v>928.125023256</v>
+        <v>192.322925017</v>
       </c>
       <c r="Q30">
-        <v>3990.9376000008</v>
+        <v>312.379053967006</v>
       </c>
       <c r="R30">
-        <v>-4.54747350886e-13</v>
+        <v>57.9147362064</v>
       </c>
       <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>60.81047301672</v>
+      </c>
+      <c r="T30">
+        <v>-0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4310</v>
+        <v>344.8</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2212,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>3919.7876</v>
+        <v>433</v>
       </c>
       <c r="F31">
         <v>0.35220001</v>
@@ -2224,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>5267.15743721</v>
+        <v>182.361776</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2239,30 +2425,36 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>5672.383877961684</v>
+        <v>182.361776</v>
       </c>
       <c r="O31">
-        <v>5267.15743721</v>
+        <v>182.361776</v>
       </c>
       <c r="P31">
-        <v>911.578511628</v>
+        <v>209.113066756</v>
       </c>
       <c r="Q31">
-        <v>3919.7876000004</v>
+        <v>339.6503144885332</v>
       </c>
       <c r="R31">
-        <v>-4.54747350886e-13</v>
+        <v>44.4522311961</v>
       </c>
       <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>46.674842755905</v>
+      </c>
+      <c r="T31">
+        <v>-0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4620</v>
+        <v>369.6000000000001</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2271,57 +2463,63 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>3948.6376</v>
+        <v>432</v>
       </c>
       <c r="F32">
         <v>0.35220001</v>
       </c>
       <c r="G32">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>5584.20220465</v>
+        <v>179.7857656</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>6923.831612263679</v>
+        <v>179.7857656</v>
       </c>
       <c r="O32">
-        <v>5584.20220465</v>
+        <v>179.7857656</v>
       </c>
       <c r="P32">
-        <v>918.287813953</v>
+        <v>223.944309953</v>
       </c>
       <c r="Q32">
-        <v>3948.6375999979</v>
+        <v>363.7398488933575</v>
       </c>
       <c r="R32">
-        <v>-4.54747350886e-13</v>
+        <v>32.5048338602</v>
       </c>
       <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>34.13007555321001</v>
+      </c>
+      <c r="T32">
+        <v>-1.42108547152e-14</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4720</v>
+        <v>377.6000000000001</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2330,57 +2528,63 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>3977.4876</v>
+        <v>431</v>
       </c>
       <c r="F33">
         <v>0.35220001</v>
       </c>
       <c r="G33">
-        <v>468.457632048</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>5222.78934004</v>
+        <v>170.2996296</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>5222.789340044797</v>
+        <v>170.2996296</v>
       </c>
       <c r="O33">
-        <v>5222.78934004</v>
+        <v>170.2996296</v>
       </c>
       <c r="P33">
-        <v>924.997116279</v>
+        <v>233.317930154</v>
       </c>
       <c r="Q33">
-        <v>3977.4875999997</v>
+        <v>378.9648804925575</v>
       </c>
       <c r="R33">
-        <v>-4.54747350886e-13</v>
+        <v>24.778628337</v>
       </c>
       <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>26.01755975385</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4820</v>
+        <v>385.6000000000001</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2389,57 +2593,63 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>3906.3376</v>
+        <v>430</v>
       </c>
       <c r="F34">
         <v>0.65550003</v>
       </c>
       <c r="G34">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>5773.87313488</v>
+        <v>171.2222112</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>7996.166489200961</v>
+        <v>171.2222112</v>
       </c>
       <c r="O34">
-        <v>5773.87313488</v>
+        <v>171.2222112</v>
       </c>
       <c r="P34">
-        <v>908.450604651</v>
+        <v>236.947609204</v>
       </c>
       <c r="Q34">
-        <v>3906.3375999993</v>
+        <v>384.8603591919514</v>
       </c>
       <c r="R34">
-        <v>-4.54747350886e-13</v>
+        <v>21.4950670514</v>
       </c>
       <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>22.56982040397</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4825</v>
+        <v>386</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2448,57 +2658,63 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3835.1876</v>
+        <v>427</v>
       </c>
       <c r="F35">
         <v>0.65550003</v>
       </c>
       <c r="G35">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>5761.49929767</v>
+        <v>185.4332048</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>8478.696270629787</v>
+        <v>185.4332048</v>
       </c>
       <c r="O35">
-        <v>5761.49929767</v>
+        <v>185.4332048</v>
       </c>
       <c r="P35">
-        <v>891.904093023</v>
+        <v>228.498398689</v>
       </c>
       <c r="Q35">
-        <v>3835.1875999989</v>
+        <v>371.1367930221332</v>
       </c>
       <c r="R35">
-        <v>-4.54747350886e-13</v>
+        <v>26.6015271323</v>
       </c>
       <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>27.931603488915</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4830</v>
+        <v>386.3999999999999</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2507,57 +2723,63 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>3764.0376</v>
+        <v>424</v>
       </c>
       <c r="F36">
         <v>0.65550003</v>
       </c>
       <c r="G36">
-        <v>589.934649281</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>5159.19081118</v>
+        <v>186.2463346</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>5159.19081118422</v>
+        <v>186.2463346</v>
       </c>
       <c r="O36">
-        <v>5159.19081118</v>
+        <v>186.2463346</v>
       </c>
       <c r="P36">
-        <v>875.357581395</v>
+        <v>227.442658164</v>
       </c>
       <c r="Q36">
-        <v>3764.0375999985</v>
+        <v>369.4220144724363</v>
       </c>
       <c r="R36">
-        <v>-4.54747350886e-13</v>
+        <v>25.989516918</v>
       </c>
       <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>27.2889927639</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2566,57 +2788,63 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>3692.8876</v>
+        <v>421</v>
       </c>
       <c r="F37">
         <v>0.65550003</v>
       </c>
       <c r="G37">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>6001.75162326</v>
+        <v>166.6965014</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>-2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>8552.157741080768</v>
+        <v>166.6965014</v>
       </c>
       <c r="O37">
-        <v>6001.75162326</v>
+        <v>166.6965014</v>
       </c>
       <c r="P37">
-        <v>858.811069767</v>
+        <v>249.3230009</v>
       </c>
       <c r="Q37">
-        <v>3692.8875999981</v>
+        <v>404.9609954012121</v>
       </c>
       <c r="R37">
-        <v>-4.54747350886e-13</v>
+        <v>7.63762123778</v>
       </c>
       <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>8.019502299669</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2625,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>3821.7376</v>
+        <v>418</v>
       </c>
       <c r="F38">
         <v>0.65550003</v>
@@ -2637,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>6083.21499535</v>
+        <v>175.4459326</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2652,30 +2880,36 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>7660.735990431855</v>
+        <v>175.4459326</v>
       </c>
       <c r="O38">
-        <v>6083.21499535</v>
+        <v>175.4459326</v>
       </c>
       <c r="P38">
-        <v>888.776186047</v>
+        <v>245.87431813</v>
       </c>
       <c r="Q38">
-        <v>3821.7376000021</v>
+        <v>399.3594985384242</v>
       </c>
       <c r="R38">
-        <v>-4.54747350886e-13</v>
+        <v>8.876429267080001</v>
       </c>
       <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>9.320250730434001</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2684,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3908.682</v>
+        <v>415</v>
       </c>
       <c r="F39">
         <v>0.65550003</v>
@@ -2696,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>6104.44560465</v>
+        <v>177.1381474</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2711,30 +2945,36 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>6485.751895098882</v>
+        <v>177.1381474</v>
       </c>
       <c r="O39">
-        <v>6104.44560465</v>
+        <v>177.1381474</v>
       </c>
       <c r="P39">
-        <v>908.995813953</v>
+        <v>244.112728023</v>
       </c>
       <c r="Q39">
-        <v>3908.6819999979</v>
+        <v>396.498249152509</v>
       </c>
       <c r="R39">
-        <v>-4.54747350886e-13</v>
+        <v>8.81035754611</v>
       </c>
       <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>9.250875423415501</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5250</v>
+        <v>420</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2743,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3881.302</v>
+        <v>412</v>
       </c>
       <c r="F40">
         <v>0.65550003</v>
@@ -2755,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>6197.7597907</v>
+        <v>190.763537</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2770,30 +3010,36 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>7070.346563810352</v>
+        <v>190.763537</v>
       </c>
       <c r="O40">
-        <v>6197.7597907</v>
+        <v>190.763537</v>
       </c>
       <c r="P40">
-        <v>902.6283720930001</v>
+        <v>240.180656839</v>
       </c>
       <c r="Q40">
-        <v>3881.3019999999</v>
+        <v>390.1116123203151</v>
       </c>
       <c r="R40">
-        <v>-4.54747350886e-13</v>
+        <v>10.4230417519</v>
       </c>
       <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>10.944193839495</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2802,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>4052.922</v>
+        <v>409</v>
       </c>
       <c r="F41">
         <v>0.65550003</v>
@@ -2814,45 +3060,51 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>6089.667</v>
+        <v>171.062601</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>7698.983460687253</v>
+        <v>171.062601</v>
       </c>
       <c r="O41">
-        <v>6089.667</v>
+        <v>171.062601</v>
       </c>
       <c r="P41">
-        <v>942.54</v>
+        <v>243.602578043</v>
       </c>
       <c r="Q41">
-        <v>4052.922</v>
+        <v>395.6696419122666</v>
       </c>
       <c r="R41">
-        <v>-4.54747350886e-13</v>
+        <v>6.34778956522</v>
       </c>
       <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>6.665179043481</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2861,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>4236.541999999999</v>
+        <v>406</v>
       </c>
       <c r="F42">
         <v>0.65550003</v>
@@ -2873,45 +3125,51 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>6184.50444186</v>
+        <v>167.1295406</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>-0</v>
+        <v>2.76277145382e-10</v>
       </c>
       <c r="N42">
-        <v>6311.588676069295</v>
+        <v>167.1295406</v>
       </c>
       <c r="O42">
-        <v>6184.50444186</v>
+        <v>167.1295406</v>
       </c>
       <c r="P42">
-        <v>985.242325581</v>
+        <v>247.152594652</v>
       </c>
       <c r="Q42">
-        <v>4236.5419999983</v>
+        <v>401.4357294953696</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>2.17346214486</v>
       </c>
       <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>2.282135252103</v>
+      </c>
+      <c r="T42">
+        <v>-3.66149723327e-16</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5300</v>
+        <v>424</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2920,57 +3178,63 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>4414.162</v>
+        <v>403</v>
       </c>
       <c r="F43">
         <v>0.65550003</v>
       </c>
       <c r="G43">
-        <v>544.478543175</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>5062.57369995</v>
+        <v>161.00238102</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>609.0909090909089</v>
+        <v>24.1718902221</v>
       </c>
       <c r="M43">
-        <v>406.060606060606</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>5062.573699954224</v>
+        <v>161.00238102</v>
       </c>
       <c r="O43">
-        <v>5062.57369995</v>
+        <v>161.00238102</v>
       </c>
       <c r="P43">
-        <v>768.621183932</v>
+        <v>262.99761898</v>
       </c>
       <c r="Q43">
-        <v>3305.0710909076</v>
+        <v>427.1718902220606</v>
       </c>
       <c r="R43">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5650</v>
+        <v>452</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2979,43 +3243,43 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>4406.0644</v>
+        <v>400</v>
       </c>
       <c r="F44">
         <v>0.65550003</v>
       </c>
       <c r="G44">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>6725.89944651</v>
+        <v>163.01947998</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>-2.27373675443e-13</v>
+        <v>5.74082392767</v>
       </c>
       <c r="L44">
-        <v>-2.769824773578363e-13</v>
+        <v>69.37442039610001</v>
       </c>
       <c r="M44">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>7135.304560773438</v>
+        <v>163.01947998</v>
       </c>
       <c r="O44">
-        <v>6725.89944651</v>
+        <v>163.01947998</v>
       </c>
       <c r="P44">
-        <v>1024.66613953</v>
+        <v>288.98052002</v>
       </c>
       <c r="Q44">
-        <v>4406.064399979</v>
+        <v>469.3744203961211</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -3023,13 +3287,19 @@
       <c r="S44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5375</v>
+        <v>430</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3038,43 +3308,43 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>4664.6795</v>
+        <v>400</v>
       </c>
       <c r="F45">
         <v>0.65550003</v>
       </c>
       <c r="G45">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>6514.04964535</v>
+        <v>150.4534275</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>-2.27373675443e-13</v>
+        <v>22.2000263</v>
       </c>
       <c r="L45">
-        <v>-2.769824773578363e-13</v>
+        <v>54.0514026061</v>
       </c>
       <c r="M45">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>8341.376710728502</v>
+        <v>150.4534275</v>
       </c>
       <c r="O45">
-        <v>6514.04964535</v>
+        <v>150.4534275</v>
       </c>
       <c r="P45">
-        <v>1084.80918605</v>
+        <v>279.5465725</v>
       </c>
       <c r="Q45">
-        <v>4664.679500015</v>
+        <v>454.0514026060606</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -3082,13 +3352,19 @@
       <c r="S45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>-7.1054273576e-15</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5300</v>
+        <v>424</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3097,43 +3373,43 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>4830.030199999999</v>
+        <v>400</v>
       </c>
       <c r="F46">
         <v>0.65550003</v>
       </c>
       <c r="G46">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>6479.42597907</v>
+        <v>160.3832941</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>-2.27373675443e-13</v>
+        <v>34.97063434</v>
       </c>
       <c r="L46">
-        <v>-2.769824773578363e-13</v>
+        <v>28.1774374618</v>
       </c>
       <c r="M46">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>6866.744410554868</v>
+        <v>160.3832941</v>
       </c>
       <c r="O46">
-        <v>6479.42597907</v>
+        <v>160.3832941</v>
       </c>
       <c r="P46">
-        <v>1123.26283721</v>
+        <v>263.6167059</v>
       </c>
       <c r="Q46">
-        <v>4830.030200003</v>
+        <v>428.177437461818</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3141,13 +3417,19 @@
       <c r="S46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>-3.5527136788e-15</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5625</v>
+        <v>450</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3156,57 +3438,63 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4996.820899999999</v>
+        <v>400</v>
       </c>
       <c r="F47">
         <v>0.65550003</v>
       </c>
       <c r="G47">
-        <v>306.077376202</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>6416.98354124</v>
+        <v>154.38368174</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>41.5578638342</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>80.15256541620001</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>6416.983541240049</v>
+        <v>154.38368174</v>
       </c>
       <c r="O47">
-        <v>6416.98354124</v>
+        <v>154.38368174</v>
       </c>
       <c r="P47">
-        <v>1045.77230233</v>
+        <v>295.61631826</v>
       </c>
       <c r="Q47">
-        <v>4496.820900019</v>
+        <v>480.1525654162423</v>
       </c>
       <c r="R47">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5550</v>
+        <v>444</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3215,57 +3503,63 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>5163.611599999999</v>
+        <v>400</v>
       </c>
       <c r="F48">
         <v>0.65550003</v>
       </c>
       <c r="G48">
-        <v>139.863930504</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>6548.92494857</v>
+        <v>131.39848212</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>60.469424529</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>107.740647223</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>6548.924948566189</v>
+        <v>131.39848212</v>
       </c>
       <c r="O48">
-        <v>6548.92494857</v>
+        <v>131.39848212</v>
       </c>
       <c r="P48">
-        <v>1084.56083721</v>
+        <v>312.60151788</v>
       </c>
       <c r="Q48">
-        <v>4663.611600003</v>
+        <v>507.7406472232727</v>
       </c>
       <c r="R48">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5425</v>
+        <v>434</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3274,57 +3568,63 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>5338.1783</v>
+        <v>400</v>
       </c>
       <c r="F49">
         <v>0.65550003</v>
       </c>
       <c r="G49">
-        <v>716.341487534</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>5825.20099376</v>
+        <v>155.93171074</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>50</v>
+        <v>85.876419971</v>
       </c>
       <c r="L49">
-        <v>60.90909090909089</v>
+        <v>51.6503122526</v>
       </c>
       <c r="M49">
-        <v>40.60606060606059</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>5825.200993755371</v>
+        <v>155.93171074</v>
       </c>
       <c r="O49">
-        <v>5825.20099376</v>
+        <v>155.93171074</v>
       </c>
       <c r="P49">
-        <v>1110.99283932</v>
+        <v>278.06828926</v>
       </c>
       <c r="Q49">
-        <v>4777.269209076</v>
+        <v>451.6503122526059</v>
       </c>
       <c r="R49">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5300</v>
+        <v>424</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3333,43 +3633,43 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>6039.958519999998</v>
+        <v>400</v>
       </c>
       <c r="F50">
         <v>0.65550003</v>
       </c>
       <c r="G50">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>6774.87359209</v>
+        <v>137.66824248</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>-2.27373675443e-13</v>
+        <v>97.885739871</v>
       </c>
       <c r="L50">
-        <v>-2.769824773578363e-13</v>
+        <v>65.07218797189999</v>
       </c>
       <c r="M50">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>8229.663019956488</v>
+        <v>137.66824248</v>
       </c>
       <c r="O50">
-        <v>6774.87359209</v>
+        <v>137.66824248</v>
       </c>
       <c r="P50">
-        <v>1404.64151628</v>
+        <v>286.33175752</v>
       </c>
       <c r="Q50">
-        <v>6039.958520003999</v>
+        <v>465.0721879718787</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -3377,13 +3677,19 @@
       <c r="S50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>-1.42108547152e-14</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3392,57 +3698,63 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>6170.89988</v>
+        <v>400</v>
       </c>
       <c r="F51">
         <v>0.65550003</v>
       </c>
       <c r="G51">
-        <v>3486.0231208</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>2400</v>
+        <v>137.46207734</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>500</v>
+        <v>113.046727295</v>
       </c>
       <c r="L51">
-        <v>609.0909090909089</v>
+        <v>45.9161410478</v>
       </c>
       <c r="M51">
-        <v>406.060606060606</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>2400</v>
+        <v>137.46207734</v>
       </c>
       <c r="O51">
-        <v>2400</v>
+        <v>137.46207734</v>
       </c>
       <c r="P51">
-        <v>1177.16487696</v>
+        <v>274.53792266</v>
       </c>
       <c r="Q51">
-        <v>5061.808970927999</v>
+        <v>445.9161410477575</v>
       </c>
       <c r="R51">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3451,57 +3763,63 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>6261.841240000001</v>
+        <v>400</v>
       </c>
       <c r="F52">
         <v>0.65550003</v>
       </c>
       <c r="G52">
-        <v>1387.51619382</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>4480.59725907</v>
+        <v>147.55246194</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>500</v>
+        <v>123.612670612</v>
       </c>
       <c r="L52">
-        <v>609.0909090909089</v>
+        <v>10.0360012126</v>
       </c>
       <c r="M52">
-        <v>406.060606060606</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>4480.597259074753</v>
+        <v>147.55246194</v>
       </c>
       <c r="O52">
-        <v>4480.59725907</v>
+        <v>147.55246194</v>
       </c>
       <c r="P52">
-        <v>1302.96519323</v>
+        <v>252.44753806</v>
       </c>
       <c r="Q52">
-        <v>5602.750330889</v>
+        <v>410.036001212606</v>
       </c>
       <c r="R52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>-1.7763568394e-15</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3510,57 +3828,63 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>6389.8162</v>
+        <v>400</v>
       </c>
       <c r="F53">
         <v>0.65550003</v>
       </c>
       <c r="G53">
-        <v>1000.18471664</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>5473.15306581</v>
+        <v>151.16428158</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>50</v>
+        <v>125.625382888</v>
       </c>
       <c r="L53">
-        <v>60.90909090909089</v>
+        <v>17.1634699185</v>
       </c>
       <c r="M53">
-        <v>40.60606060606059</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>5473.153065814854</v>
+        <v>151.16428158</v>
       </c>
       <c r="O53">
-        <v>5473.15306581</v>
+        <v>151.16428158</v>
       </c>
       <c r="P53">
-        <v>1355.55979281</v>
+        <v>256.83571842</v>
       </c>
       <c r="Q53">
-        <v>5828.907109083</v>
+        <v>417.1634699185454</v>
       </c>
       <c r="R53">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3569,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>6510.591160000001</v>
+        <v>400</v>
       </c>
       <c r="F54">
         <v>0.65550003</v>
@@ -3581,45 +3905,51 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>6675</v>
+        <v>153.15094344</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>129.324830845</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>13.9366494429</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>7816.159875586818</v>
+        <v>153.15094344</v>
       </c>
       <c r="O54">
-        <v>6675</v>
+        <v>153.15094344</v>
       </c>
       <c r="P54">
-        <v>1500</v>
+        <v>254.84905656</v>
       </c>
       <c r="Q54">
-        <v>6450</v>
+        <v>413.9366494429091</v>
       </c>
       <c r="R54">
-        <v>60.59116</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>-1.7763568394e-15</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3628,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>6631.36612</v>
+        <v>400</v>
       </c>
       <c r="F55">
         <v>0.65550003</v>
@@ -3640,45 +3970,51 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>6725</v>
+        <v>141.36096744</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>132.246810595</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>39.5833983399</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>9388.997212308153</v>
+        <v>141.36096744</v>
       </c>
       <c r="O55">
-        <v>6725</v>
+        <v>141.36096744</v>
       </c>
       <c r="P55">
-        <v>1500</v>
+        <v>270.63903256</v>
       </c>
       <c r="Q55">
-        <v>6450</v>
+        <v>439.5833983398787</v>
       </c>
       <c r="R55">
-        <v>181.36612</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>-7.1054273576e-15</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5200</v>
+        <v>416</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3687,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>6752.141079999999</v>
+        <v>400</v>
       </c>
       <c r="F56">
         <v>0.65550003</v>
@@ -3699,45 +4035,51 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>6775</v>
+        <v>155.72884084</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>141.251127269</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>22.7434585144</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>8326.104166976542</v>
+        <v>155.72884084</v>
       </c>
       <c r="O56">
-        <v>6775</v>
+        <v>155.72884084</v>
       </c>
       <c r="P56">
-        <v>1500</v>
+        <v>260.27115916</v>
       </c>
       <c r="Q56">
-        <v>6450</v>
+        <v>422.7434585144242</v>
       </c>
       <c r="R56">
-        <v>302.14108</v>
+        <v>0</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>-3.5527136788e-15</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5200</v>
+        <v>416</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3746,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>6872.916039999999</v>
+        <v>400</v>
       </c>
       <c r="F57">
         <v>0.65550003</v>
@@ -3758,45 +4100,51 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>6775</v>
+        <v>148.60179992</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>146.228945284</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>34.319500736</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>8670.719008413593</v>
+        <v>148.60179992</v>
       </c>
       <c r="O57">
-        <v>6775</v>
+        <v>148.60179992</v>
       </c>
       <c r="P57">
-        <v>1500</v>
+        <v>267.39820008</v>
       </c>
       <c r="Q57">
-        <v>6450</v>
+        <v>434.3195007359998</v>
       </c>
       <c r="R57">
-        <v>422.91604</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>-7.1054273576e-15</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5800</v>
+        <v>464</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3805,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6992.5726</v>
+        <v>400</v>
       </c>
       <c r="F58">
         <v>1.04989998</v>
@@ -3817,45 +4165,51 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>7375</v>
+        <v>152.20393576</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>153.941139873</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>106.43239525</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>7633.489670020988</v>
+        <v>152.20393576</v>
       </c>
       <c r="O58">
-        <v>7375</v>
+        <v>152.20393576</v>
       </c>
       <c r="P58">
-        <v>1500</v>
+        <v>311.79606424</v>
       </c>
       <c r="Q58">
-        <v>6450</v>
+        <v>506.4323952504242</v>
       </c>
       <c r="R58">
-        <v>542.5726</v>
+        <v>0</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5850</v>
+        <v>468</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3864,57 +4218,63 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>7134.02116</v>
+        <v>400</v>
       </c>
       <c r="F59">
         <v>1.04989998</v>
       </c>
       <c r="G59">
-        <v>818.072268765</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>6606.92773123</v>
+        <v>153.33979818</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>-2.27373675443e-13</v>
+        <v>178.757010326</v>
       </c>
       <c r="L59">
-        <v>-2.769824773578363e-13</v>
+        <v>111.084449017</v>
       </c>
       <c r="M59">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>6606.927731234959</v>
+        <v>153.33979818</v>
       </c>
       <c r="O59">
-        <v>6606.92773123</v>
+        <v>153.33979818</v>
       </c>
       <c r="P59">
-        <v>1500</v>
+        <v>314.66020182</v>
       </c>
       <c r="Q59">
-        <v>6450</v>
+        <v>511.0844490167272</v>
       </c>
       <c r="R59">
-        <v>684.02116</v>
+        <v>0</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5900</v>
+        <v>472</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3923,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>7119.929199999998</v>
+        <v>400</v>
       </c>
       <c r="F60">
         <v>1.04989998</v>
@@ -3935,45 +4295,51 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>7475</v>
+        <v>136.3175312</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>204.603295936</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>145.229706899</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>9595.616371443581</v>
+        <v>136.3175312</v>
       </c>
       <c r="O60">
-        <v>7475</v>
+        <v>136.3175312</v>
       </c>
       <c r="P60">
-        <v>1500</v>
+        <v>335.6824688</v>
       </c>
       <c r="Q60">
-        <v>6450</v>
+        <v>545.2297068993938</v>
       </c>
       <c r="R60">
-        <v>669.9292</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6050</v>
+        <v>484</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3982,57 +4348,63 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>7116.990839999999</v>
+        <v>400</v>
       </c>
       <c r="F61">
         <v>1.04989998</v>
       </c>
       <c r="G61">
-        <v>471.787936918</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>7153.21206308</v>
+        <v>174.7717404</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>-2.27373675443e-13</v>
+        <v>238.481541437</v>
       </c>
       <c r="L61">
-        <v>-2.769824773578363e-13</v>
+        <v>102.261658017</v>
       </c>
       <c r="M61">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>7153.212063081653</v>
+        <v>174.7717404</v>
       </c>
       <c r="O61">
-        <v>7153.21206308</v>
+        <v>174.7717404</v>
       </c>
       <c r="P61">
-        <v>1500</v>
+        <v>309.2282596</v>
       </c>
       <c r="Q61">
-        <v>6450</v>
+        <v>502.2616580169696</v>
       </c>
       <c r="R61">
-        <v>666.99084</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6100</v>
+        <v>488</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4041,57 +4413,63 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>7154.052479999999</v>
+        <v>400</v>
       </c>
       <c r="F62">
         <v>1.04989998</v>
       </c>
       <c r="G62">
-        <v>833.044949908</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>6841.95505009</v>
+        <v>173.1727228</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>-2.27373675443e-13</v>
+        <v>262.053240592</v>
       </c>
       <c r="L62">
-        <v>-2.769824773578363e-13</v>
+        <v>111.355819937</v>
       </c>
       <c r="M62">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>6841.955050091554</v>
+        <v>173.1727228</v>
       </c>
       <c r="O62">
-        <v>6841.95505009</v>
+        <v>173.1727228</v>
       </c>
       <c r="P62">
-        <v>1500</v>
+        <v>314.8272772</v>
       </c>
       <c r="Q62">
-        <v>6450</v>
+        <v>511.3558199369696</v>
       </c>
       <c r="R62">
-        <v>704.0524799999999</v>
+        <v>0</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6150</v>
+        <v>492</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -4100,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>7215.01332</v>
+        <v>400</v>
       </c>
       <c r="F63">
         <v>1.04989998</v>
@@ -4112,45 +4490,51 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>7725</v>
+        <v>192.8243158</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>287.714088105</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>85.9338385794</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>8122.161012728276</v>
+        <v>192.8243158</v>
       </c>
       <c r="O63">
-        <v>7725</v>
+        <v>192.8243158</v>
       </c>
       <c r="P63">
-        <v>1500</v>
+        <v>299.1756842</v>
       </c>
       <c r="Q63">
-        <v>6450</v>
+        <v>485.9338385793938</v>
       </c>
       <c r="R63">
-        <v>765.01332</v>
+        <v>0</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6200</v>
+        <v>496</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4159,57 +4543,63 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>7215.97416</v>
+        <v>400</v>
       </c>
       <c r="F64">
         <v>1.04989998</v>
       </c>
       <c r="G64">
-        <v>713.768138157</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>7061.23186184</v>
+        <v>202.5580042</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>-2.27373675443e-13</v>
+        <v>307.260232503</v>
       </c>
       <c r="L64">
-        <v>-2.769824773578363e-13</v>
+        <v>76.6209386327</v>
       </c>
       <c r="M64">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>7061.231861842561</v>
+        <v>202.5580042</v>
       </c>
       <c r="O64">
-        <v>7061.23186184</v>
+        <v>202.5580042</v>
       </c>
       <c r="P64">
-        <v>1500</v>
+        <v>293.4419958</v>
       </c>
       <c r="Q64">
-        <v>6450</v>
+        <v>476.6209386327271</v>
       </c>
       <c r="R64">
-        <v>765.97416</v>
+        <v>0</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64">
+        <v>-1.42108547152e-14</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6150</v>
+        <v>492</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4218,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>7201.7718</v>
+        <v>400</v>
       </c>
       <c r="F65">
         <v>1.04989998</v>
@@ -4230,45 +4620,51 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>7725</v>
+        <v>198.5158808</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>324.535924731</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>76.6893572461</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>7957.505477248109</v>
+        <v>198.5158808</v>
       </c>
       <c r="O65">
-        <v>7725</v>
+        <v>198.5158808</v>
       </c>
       <c r="P65">
-        <v>1500</v>
+        <v>293.4841192</v>
       </c>
       <c r="Q65">
-        <v>6450</v>
+        <v>476.6893572460606</v>
       </c>
       <c r="R65">
-        <v>751.7718</v>
+        <v>0</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6100</v>
+        <v>488</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4277,57 +4673,63 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>7187.569440000001</v>
+        <v>400</v>
       </c>
       <c r="F66">
         <v>1.04989998</v>
       </c>
       <c r="G66">
-        <v>543.083037512</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>7131.91696249</v>
+        <v>197.6301188</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>-2.27373675443e-13</v>
+        <v>341.776039303</v>
       </c>
       <c r="L66">
-        <v>-2.769824773578363e-13</v>
+        <v>71.63107976729999</v>
       </c>
       <c r="M66">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>7131.916962487612</v>
+        <v>197.6301188</v>
       </c>
       <c r="O66">
-        <v>7131.91696249</v>
+        <v>197.6301188</v>
       </c>
       <c r="P66">
-        <v>1500</v>
+        <v>290.3698812</v>
       </c>
       <c r="Q66">
-        <v>6450</v>
+        <v>471.6310797672726</v>
       </c>
       <c r="R66">
-        <v>737.56944</v>
+        <v>0</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6050</v>
+        <v>484</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4336,57 +4738,63 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>7113.237479999999</v>
+        <v>400</v>
       </c>
       <c r="F67">
         <v>1.04989998</v>
       </c>
       <c r="G67">
-        <v>1944.30916346</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>5680.69083654</v>
+        <v>229.168766</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>-2.27373675443e-13</v>
+        <v>357.763092629</v>
       </c>
       <c r="L67">
-        <v>-2.769824773578363e-13</v>
+        <v>13.9077012848</v>
       </c>
       <c r="M67">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>5680.6908365449</v>
+        <v>229.168766</v>
       </c>
       <c r="O67">
-        <v>5680.69083654</v>
+        <v>229.168766</v>
       </c>
       <c r="P67">
-        <v>1500</v>
+        <v>254.831234</v>
       </c>
       <c r="Q67">
-        <v>6450</v>
+        <v>413.9077012848484</v>
       </c>
       <c r="R67">
-        <v>663.23748</v>
+        <v>0</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6000</v>
+        <v>480</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4395,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>7098.905519999999</v>
+        <v>400</v>
       </c>
       <c r="F68">
         <v>1.04989998</v>
@@ -4407,45 +4815,51 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>7575</v>
+        <v>229.716796</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>359.992882407</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>6.52059801211</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>7650.868345277268</v>
+        <v>229.716796</v>
       </c>
       <c r="O68">
-        <v>7575</v>
+        <v>229.716796</v>
       </c>
       <c r="P68">
-        <v>1500</v>
+        <v>250.283204</v>
       </c>
       <c r="Q68">
-        <v>6450</v>
+        <v>406.5205980121211</v>
       </c>
       <c r="R68">
-        <v>648.90552</v>
+        <v>0</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68">
+        <v>-8.881784197e-16</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4945</v>
+        <v>395.6000000000001</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4454,57 +4868,63 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>7089.260759999999</v>
+        <v>403</v>
       </c>
       <c r="F69">
         <v>1.04989998</v>
       </c>
       <c r="G69">
-        <v>787.609720873</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>5732.39027913</v>
+        <v>241.6140786</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>-2.27373675443e-13</v>
+        <v>360.461545787</v>
       </c>
       <c r="L69">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>-1.846549849052242e-13</v>
+        <v>150</v>
       </c>
       <c r="N69">
-        <v>5732.390279127398</v>
+        <v>241.6140786</v>
       </c>
       <c r="O69">
-        <v>5732.39027913</v>
+        <v>241.6140786</v>
       </c>
       <c r="P69">
-        <v>1500</v>
+        <v>154.783200773</v>
       </c>
       <c r="Q69">
-        <v>6450</v>
+        <v>251.4054412555394</v>
       </c>
       <c r="R69">
-        <v>639.26076</v>
+        <v>0.759313688168</v>
       </c>
       <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>0.7972793725764001</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4590</v>
+        <v>367.2</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4513,57 +4933,63 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>7043.616</v>
+        <v>406</v>
       </c>
       <c r="F70">
         <v>0.65550003</v>
       </c>
       <c r="G70">
-        <v>191.6346247</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>5973.3653753</v>
+        <v>231.6935366</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>-2.27373675443e-13</v>
+        <v>319.90647694</v>
       </c>
       <c r="L70">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>-1.846549849052242e-13</v>
+        <v>150</v>
       </c>
       <c r="N70">
-        <v>5973.365375300161</v>
+        <v>231.6935366</v>
       </c>
       <c r="O70">
-        <v>5973.3653753</v>
+        <v>231.6935366</v>
       </c>
       <c r="P70">
-        <v>1500</v>
+        <v>145.413265756</v>
       </c>
       <c r="Q70">
-        <v>6450</v>
+        <v>236.1863952885333</v>
       </c>
       <c r="R70">
-        <v>593.616</v>
+        <v>9.43504986272</v>
       </c>
       <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>9.906802355856</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4820</v>
+        <v>385.6000000000001</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4572,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>6688.9608</v>
+        <v>409</v>
       </c>
       <c r="F71">
         <v>0.65550003</v>
@@ -4584,45 +5010,51 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>6395</v>
+        <v>257.2820142</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>279.473073298</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N71">
-        <v>8200.42280822947</v>
+        <v>257.2820142</v>
       </c>
       <c r="O71">
-        <v>6395</v>
+        <v>257.2820142</v>
       </c>
       <c r="P71">
-        <v>1500</v>
+        <v>142.274139321</v>
       </c>
       <c r="Q71">
-        <v>6450</v>
+        <v>231.0876929577454</v>
       </c>
       <c r="R71">
-        <v>238.9608</v>
+        <v>13.291574782</v>
       </c>
       <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>13.9561535211</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5050</v>
+        <v>404</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4631,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>6394.3056</v>
+        <v>412</v>
       </c>
       <c r="F72">
         <v>0.65550003</v>
@@ -4643,45 +5075,51 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>6611.40020465</v>
+        <v>285.7940538</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>-0</v>
+        <v>239.160969868</v>
       </c>
       <c r="L72">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>-0</v>
+        <v>150</v>
       </c>
       <c r="N72">
-        <v>8153.106256030972</v>
+        <v>285.7940538</v>
       </c>
       <c r="O72">
-        <v>6611.40020465</v>
+        <v>285.7940538</v>
       </c>
       <c r="P72">
-        <v>1487.04781395</v>
+        <v>137.521675997</v>
       </c>
       <c r="Q72">
-        <v>6394.305599985</v>
+        <v>223.3685404072484</v>
       </c>
       <c r="R72">
-        <v>-4.54747350886e-13</v>
+        <v>18.3959331397</v>
       </c>
       <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>19.315729796685</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4690,57 +5128,63 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>6089.459999999999</v>
+        <v>415</v>
       </c>
       <c r="F73">
         <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>6636.96116279</v>
+        <v>290.6593514</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>-2.27373675443e-13</v>
+        <v>198.969802748</v>
       </c>
       <c r="L73">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>-1.846549849052242e-13</v>
+        <v>150</v>
       </c>
       <c r="N73">
-        <v>8247.679632537796</v>
+        <v>290.6593514</v>
       </c>
       <c r="O73">
-        <v>6636.96116279</v>
+        <v>290.6593514</v>
       </c>
       <c r="P73">
-        <v>1416.15348837</v>
+        <v>140.079287689</v>
       </c>
       <c r="Q73">
-        <v>6089.459999991001</v>
+        <v>227.5227218221333</v>
       </c>
       <c r="R73">
-        <v>-4.54747350886e-13</v>
+        <v>17.8463229419</v>
       </c>
       <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>18.738639088995</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5250</v>
+        <v>420</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4749,57 +5193,63 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>5292.943799999999</v>
+        <v>418</v>
       </c>
       <c r="F74">
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>6542.46302093</v>
+        <v>370.6976132</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>-2.27373675443e-13</v>
+        <v>158.899209129</v>
       </c>
       <c r="L74">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>-1.846549849052242e-13</v>
+        <v>49.5869336138</v>
       </c>
       <c r="N74">
-        <v>6929.035047549449</v>
+        <v>370.6976132</v>
       </c>
       <c r="O74">
-        <v>6542.46302093</v>
+        <v>370.6976132</v>
       </c>
       <c r="P74">
-        <v>1230.91716279</v>
+        <v>128.859437454</v>
       </c>
       <c r="Q74">
-        <v>5292.943799997</v>
+        <v>209.2989650767999</v>
       </c>
       <c r="R74">
-        <v>-4.54747350886e-13</v>
+        <v>75.76861967080001</v>
       </c>
       <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>79.55705065434002</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5250</v>
+        <v>420</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4808,57 +5258,63 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>5067.468750000001</v>
+        <v>421</v>
       </c>
       <c r="F75">
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>756.467039359</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>4960.11359621</v>
+        <v>371.6285064</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>500</v>
+        <v>145.373318445</v>
       </c>
       <c r="L75">
-        <v>609.0909090909089</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>406.060606060606</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>4960.113596211828</v>
+        <v>371.6285064</v>
       </c>
       <c r="O75">
-        <v>4960.11359621</v>
+        <v>371.6285064</v>
       </c>
       <c r="P75">
-        <v>920.552986258</v>
+        <v>142.855506502</v>
       </c>
       <c r="Q75">
-        <v>3958.3778409094</v>
+        <v>232.0319741971878</v>
       </c>
       <c r="R75">
-        <v>500</v>
+        <v>89.98477419210001</v>
       </c>
       <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>94.48401290170501</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5250</v>
+        <v>420</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -4867,57 +5323,63 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>4841.9937</v>
+        <v>424</v>
       </c>
       <c r="F76">
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>893.475907771</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4768.04686675</v>
+        <v>387.4164988</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>500</v>
+        <v>144.93719849</v>
       </c>
       <c r="L76">
-        <v>609.0909090909089</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>406.060606060606</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>4768.046866753723</v>
+        <v>387.4164988</v>
       </c>
       <c r="O76">
-        <v>4768.04686675</v>
+        <v>387.4164988</v>
       </c>
       <c r="P76">
-        <v>868.116928118</v>
+        <v>134.970828421</v>
       </c>
       <c r="Q76">
-        <v>3732.9027909074</v>
+        <v>219.2253455565333</v>
       </c>
       <c r="R76">
-        <v>500</v>
+        <v>97.5117402109</v>
       </c>
       <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>102.387327221445</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5775</v>
+        <v>462</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -4926,57 +5388,63 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>4616.518649999999</v>
+        <v>427</v>
       </c>
       <c r="F77">
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>6902.28943779</v>
+        <v>419.387185</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>-2.27373675443e-13</v>
+        <v>144.502386894</v>
       </c>
       <c r="L77">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>7762.498111808679</v>
+        <v>419.387185</v>
       </c>
       <c r="O77">
-        <v>6902.28943779</v>
+        <v>419.387185</v>
       </c>
       <c r="P77">
-        <v>1073.60898837</v>
+        <v>141.333158779</v>
       </c>
       <c r="Q77">
-        <v>4616.518649991</v>
+        <v>229.5593124410424</v>
       </c>
       <c r="R77">
-        <v>-4.54747350886e-13</v>
+        <v>94.0193750279</v>
       </c>
       <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>98.72034377929501</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5800</v>
+        <v>464</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -4985,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>4391.0436</v>
+        <v>430</v>
       </c>
       <c r="F78">
         <v>1.04989998</v>
@@ -4997,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>6872.23157674</v>
+        <v>450.8663776</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>144.068879734</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -5012,30 +5480,36 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>8471.764859456574</v>
+        <v>450.8663776</v>
       </c>
       <c r="O78">
-        <v>6872.23157674</v>
+        <v>450.8663776</v>
       </c>
       <c r="P78">
-        <v>1021.17293023</v>
+        <v>125.893136107</v>
       </c>
       <c r="Q78">
-        <v>4391.043599989</v>
+        <v>204.4809725859151</v>
       </c>
       <c r="R78">
-        <v>-4.54747350886e-13</v>
+        <v>107.390013054</v>
       </c>
       <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>112.7595137067</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5997</v>
+        <v>479.76</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -5044,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>4161.073350000001</v>
+        <v>433</v>
       </c>
       <c r="F79">
         <v>1.04989998</v>
@@ -5056,13 +5530,13 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>7013.07605058</v>
+        <v>484.9612616</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>143.636673094</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -5071,30 +5545,36 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>8491.089892520762</v>
+        <v>484.9612616</v>
       </c>
       <c r="O79">
-        <v>7013.07605058</v>
+        <v>484.9612616</v>
       </c>
       <c r="P79">
-        <v>967.6914767440001</v>
+        <v>116.602982729</v>
       </c>
       <c r="Q79">
-        <v>4161.0733499992</v>
+        <v>189.3915113416485</v>
       </c>
       <c r="R79">
-        <v>-4.54747350886e-13</v>
+        <v>116.004042218</v>
       </c>
       <c r="S79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>121.8042443289</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5840</v>
+        <v>467.2</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -5103,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>3951.2343</v>
+        <v>436</v>
       </c>
       <c r="F80">
         <v>1.04989998</v>
@@ -5115,45 +5595,51 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>6804.83628256</v>
+        <v>461.5015118</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>-0</v>
+        <v>143.205763075</v>
       </c>
       <c r="L80">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>7044.855934752977</v>
+        <v>461.5015118</v>
       </c>
       <c r="O80">
-        <v>6804.83628256</v>
+        <v>461.5015118</v>
       </c>
       <c r="P80">
-        <v>918.8916976740001</v>
+        <v>123.445654023</v>
       </c>
       <c r="Q80">
-        <v>3951.2342999982</v>
+        <v>200.505668352509</v>
       </c>
       <c r="R80">
-        <v>-4.54747350886e-13</v>
+        <v>112.140157927</v>
       </c>
       <c r="S80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>117.74716582335</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5920</v>
+        <v>473.6000000000001</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -5162,57 +5648,63 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>3700.218449999999</v>
+        <v>439</v>
       </c>
       <c r="F81">
         <v>1.04989998</v>
       </c>
       <c r="G81">
-        <v>2408.80417231</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>3766.00604117</v>
+        <v>488.670786</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>500</v>
+        <v>142.776145786</v>
       </c>
       <c r="L81">
-        <v>609.0909090909089</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>406.060606060606</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>3766.006041168267</v>
+        <v>488.670786</v>
       </c>
       <c r="O81">
-        <v>3766.00604117</v>
+        <v>488.670786</v>
       </c>
       <c r="P81">
-        <v>718.8668699789999</v>
+        <v>112.81210806</v>
       </c>
       <c r="Q81">
-        <v>3091.1275409097</v>
+        <v>183.2342118792727</v>
       </c>
       <c r="R81">
-        <v>-4.54747350886e-13</v>
+        <v>121.793232438</v>
       </c>
       <c r="S81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>127.8828940599</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6000</v>
+        <v>480</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -5221,57 +5713,63 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>3814.1336</v>
+        <v>442</v>
       </c>
       <c r="F82">
         <v>1.04989998</v>
       </c>
       <c r="G82">
-        <v>32.3084598333</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>6899.04974482</v>
+        <v>498.8112582</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>-2.27373675443e-13</v>
+        <v>142.347817349</v>
       </c>
       <c r="L82">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>6899.049744817906</v>
+        <v>498.8112582</v>
       </c>
       <c r="O82">
-        <v>6899.04974482</v>
+        <v>498.8112582</v>
       </c>
       <c r="P82">
-        <v>887.007813953</v>
+        <v>111.57572708</v>
       </c>
       <c r="Q82">
-        <v>3814.1335999979</v>
+        <v>181.2260294390303</v>
       </c>
       <c r="R82">
-        <v>-4.54747350886e-13</v>
+        <v>124.178081219</v>
       </c>
       <c r="S82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>130.38698527995</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6100</v>
+        <v>488</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5280,57 +5778,63 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>3891.821999999999</v>
+        <v>445</v>
       </c>
       <c r="F83">
         <v>1.04989998</v>
       </c>
       <c r="G83">
-        <v>262.431693988</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>6787.89693392</v>
+        <v>503.5564316</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>-2.27373675443e-13</v>
+        <v>141.920773897</v>
       </c>
       <c r="L83">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>6787.89693391917</v>
+        <v>503.5564316</v>
       </c>
       <c r="O83">
-        <v>6787.89693392</v>
+        <v>503.5564316</v>
       </c>
       <c r="P83">
-        <v>905.074883721</v>
+        <v>114.199628047</v>
       </c>
       <c r="Q83">
-        <v>3891.8220000003</v>
+        <v>185.4878807066424</v>
       </c>
       <c r="R83">
-        <v>-4.54747350886e-13</v>
+        <v>123.577199664</v>
       </c>
       <c r="S83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>129.7560596472</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6250</v>
+        <v>500</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5339,57 +5843,63 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>3681.7864</v>
+        <v>448</v>
       </c>
       <c r="F84">
         <v>1.04989998</v>
       </c>
       <c r="G84">
-        <v>819.121045671</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>6329.91981945</v>
+        <v>489.7203518</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>-2.27373675443e-13</v>
+        <v>141.495011575</v>
       </c>
       <c r="L84">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>6329.91981944504</v>
+        <v>489.7203518</v>
       </c>
       <c r="O84">
-        <v>6329.91981945</v>
+        <v>489.7203518</v>
       </c>
       <c r="P84">
-        <v>856.229395349</v>
+        <v>129.284755696</v>
       </c>
       <c r="Q84">
-        <v>3681.7864000007</v>
+        <v>209.9897850092606</v>
       </c>
       <c r="R84">
-        <v>-4.54747350886e-13</v>
+        <v>113.338197615</v>
       </c>
       <c r="S84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>119.00510749575</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5850</v>
+        <v>468</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5398,57 +5908,63 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3693.4596</v>
+        <v>451</v>
       </c>
       <c r="F85">
         <v>1.04989998</v>
       </c>
       <c r="G85">
-        <v>1214.15216809</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>5537.73912958</v>
+        <v>477.7622916</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>-2.27373675443e-13</v>
+        <v>141.07052654</v>
       </c>
       <c r="L85">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>5537.739129583772</v>
+        <v>477.7622916</v>
       </c>
       <c r="O85">
-        <v>5537.73912958</v>
+        <v>477.7622916</v>
       </c>
       <c r="P85">
-        <v>858.9440930230001</v>
+        <v>119.052581559</v>
       </c>
       <c r="Q85">
-        <v>3693.4595999989</v>
+        <v>193.3702536837091</v>
       </c>
       <c r="R85">
-        <v>-4.54747350886e-13</v>
+        <v>122.68083158</v>
       </c>
       <c r="S85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>128.814873159</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5950</v>
+        <v>476</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5457,57 +5973,63 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>3765.1328</v>
+        <v>454</v>
       </c>
       <c r="F86">
         <v>1.04989998</v>
       </c>
       <c r="G86">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>6869.39289302</v>
+        <v>475.9952428</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>-2.27373675443e-13</v>
+        <v>140.647314961</v>
       </c>
       <c r="L86">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>7282.155785225408</v>
+        <v>475.9952428</v>
       </c>
       <c r="O86">
-        <v>6869.39289302</v>
+        <v>475.9952428</v>
       </c>
       <c r="P86">
-        <v>875.61227907</v>
+        <v>125.270183739</v>
       </c>
       <c r="Q86">
-        <v>3765.132800001</v>
+        <v>203.4691469215272</v>
       </c>
       <c r="R86">
-        <v>-4.54747350886e-13</v>
+        <v>119.300406228</v>
       </c>
       <c r="S86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>125.2654265394</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6150</v>
+        <v>492</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5516,57 +6038,63 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>3876.806</v>
+        <v>457</v>
       </c>
       <c r="F87">
         <v>1.04989998</v>
       </c>
       <c r="G87">
-        <v>784.059988561</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>6312.60194167</v>
+        <v>484.7093486</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>-2.27373675443e-13</v>
+        <v>140.225373016</v>
       </c>
       <c r="L87">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>6312.601941671176</v>
+        <v>484.7093486</v>
       </c>
       <c r="O87">
-        <v>6312.60194167</v>
+        <v>484.7093486</v>
       </c>
       <c r="P87">
-        <v>901.5827906980001</v>
+        <v>130.118586893</v>
       </c>
       <c r="Q87">
-        <v>3876.8060000014</v>
+        <v>211.3441290140848</v>
       </c>
       <c r="R87">
-        <v>-4.54747350886e-13</v>
+        <v>116.978986184</v>
       </c>
       <c r="S87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>122.8279354932</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5750</v>
+        <v>460</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5575,57 +6103,63 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>3804.47920000001</v>
+        <v>460</v>
       </c>
       <c r="F88">
         <v>1.04989998</v>
       </c>
       <c r="G88">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>6679.00073488</v>
+        <v>497.0366052</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>-2.27373675443e-13</v>
+        <v>139.804696897</v>
       </c>
       <c r="L88">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>7329.575966812354</v>
+        <v>497.0366052</v>
       </c>
       <c r="O88">
-        <v>6679.00073488</v>
+        <v>497.0366052</v>
       </c>
       <c r="P88">
-        <v>884.7626046509999</v>
+        <v>106.484816528</v>
       </c>
       <c r="Q88">
-        <v>3804.479199999299</v>
+        <v>172.9571565424484</v>
       </c>
       <c r="R88">
-        <v>-4.54747350886e-13</v>
+        <v>136.687068313</v>
       </c>
       <c r="S88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+        <v>143.52142172865</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5500</v>
+        <v>440</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5634,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>3832.15240000001</v>
+        <v>463</v>
       </c>
       <c r="F89">
         <v>1.04989998</v>
@@ -5646,45 +6180,51 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>6435.75814419</v>
+        <v>484.5492802</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>139.385282806</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>2.59519450667</v>
       </c>
       <c r="N89">
-        <v>7217.984698364539</v>
+        <v>484.5492802</v>
       </c>
       <c r="O89">
-        <v>6435.75814419</v>
+        <v>484.5492802</v>
       </c>
       <c r="P89">
-        <v>891.198232558</v>
+        <v>102.4507198</v>
       </c>
       <c r="Q89">
-        <v>3832.1523999994</v>
+        <v>166.4048054933333</v>
       </c>
       <c r="R89">
-        <v>-4.54747350886e-13</v>
+        <v>140</v>
       </c>
       <c r="S89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+        <v>147</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5750</v>
+        <v>460</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -5693,57 +6233,63 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>3859.82560000002</v>
+        <v>466</v>
       </c>
       <c r="F90">
         <v>0.65550003</v>
       </c>
       <c r="G90">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>6692.51555349</v>
+        <v>475.7520808</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>-2.27373675443e-13</v>
+        <v>138.284181035</v>
       </c>
       <c r="L90">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>9600</v>
+        <v>475.7520808</v>
       </c>
       <c r="O90">
-        <v>6692.51555349</v>
+        <v>475.7520808</v>
       </c>
       <c r="P90">
-        <v>897.633860465</v>
+        <v>119.885975478</v>
       </c>
       <c r="Q90">
-        <v>3859.8255999995</v>
+        <v>194.7238874430545</v>
       </c>
       <c r="R90">
-        <v>-4.54747350886e-13</v>
+        <v>129.179101217</v>
       </c>
       <c r="S90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+        <v>135.63805627785</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6075</v>
+        <v>486</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -5752,57 +6298,63 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>3887.49880000003</v>
+        <v>469</v>
       </c>
       <c r="F91">
         <v>0.65550003</v>
       </c>
       <c r="G91">
-        <v>316.007509816</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>6708.26545297</v>
+        <v>471.3570768</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>-2.27373675443e-13</v>
+        <v>137.869328492</v>
       </c>
       <c r="L91">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>6708.265452974983</v>
+        <v>471.3570768</v>
       </c>
       <c r="O91">
-        <v>6708.26545297</v>
+        <v>471.3570768</v>
       </c>
       <c r="P91">
-        <v>904.069488372</v>
+        <v>137.486897418</v>
       </c>
       <c r="Q91">
-        <v>3887.4987999996</v>
+        <v>223.3120515637818</v>
       </c>
       <c r="R91">
-        <v>-4.54747350886e-13</v>
+        <v>116.99426116</v>
       </c>
       <c r="S91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+        <v>122.843974218</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6400</v>
+        <v>512</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -5811,57 +6363,63 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>4035.17200000004</v>
+        <v>472</v>
       </c>
       <c r="F92">
         <v>0.65550003</v>
       </c>
       <c r="G92">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>7385.33269767</v>
+        <v>466.9522012</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>-2.27373675443e-13</v>
+        <v>137.455720506</v>
       </c>
       <c r="L92">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>8422.036651174663</v>
+        <v>466.9522012</v>
       </c>
       <c r="O92">
-        <v>7385.33269767</v>
+        <v>466.9522012</v>
       </c>
       <c r="P92">
-        <v>938.412093023</v>
+        <v>155.093266896</v>
       </c>
       <c r="Q92">
-        <v>4035.1719999989</v>
+        <v>251.9090638068363</v>
       </c>
       <c r="R92">
-        <v>-4.54747350886e-13</v>
+        <v>104.805207711</v>
       </c>
       <c r="S92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+        <v>110.04546809655</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6025</v>
+        <v>482</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -5870,57 +6428,63 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>4062.84520000004</v>
+        <v>475</v>
       </c>
       <c r="F93">
         <v>0.65550003</v>
       </c>
       <c r="G93">
-        <v>180.890657284</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>6836.19944969</v>
+        <v>479.9668292</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>-2.27373675443e-13</v>
+        <v>137.043353345</v>
       </c>
       <c r="L93">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>6836.199449693068</v>
+        <v>479.9668292</v>
       </c>
       <c r="O93">
-        <v>6836.19944969</v>
+        <v>479.9668292</v>
       </c>
       <c r="P93">
-        <v>944.84772093</v>
+        <v>132.183856796</v>
       </c>
       <c r="Q93">
-        <v>4062.845199999</v>
+        <v>214.6986280080484</v>
       </c>
       <c r="R93">
-        <v>-4.54747350886e-13</v>
+        <v>123.953034282</v>
       </c>
       <c r="S93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
+        <v>130.1506859961</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5650</v>
+        <v>452</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5929,57 +6493,63 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>3990.51840000005</v>
+        <v>478</v>
       </c>
       <c r="F94">
         <v>0.65550003</v>
       </c>
       <c r="G94">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>6624.42891163</v>
+        <v>447.9065462</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>-2.27373675443e-13</v>
+        <v>136.632223285</v>
       </c>
       <c r="L94">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>7413.779633568434</v>
+        <v>447.9065462</v>
       </c>
       <c r="O94">
-        <v>6624.42891163</v>
+        <v>447.9065462</v>
       </c>
       <c r="P94">
-        <v>928.027534884</v>
+        <v>134.148561462</v>
       </c>
       <c r="Q94">
-        <v>3990.5184000012</v>
+        <v>217.8897846776727</v>
       </c>
       <c r="R94">
-        <v>-4.54747350886e-13</v>
+        <v>123.862007297</v>
       </c>
       <c r="S94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+        <v>130.05510766185</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5750</v>
+        <v>460</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -5988,57 +6558,63 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>4118.19160000006</v>
+        <v>481</v>
       </c>
       <c r="F95">
         <v>0.65550003</v>
       </c>
       <c r="G95">
-        <v>461.025352308</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>6294.57957327</v>
+        <v>430.988148</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>-2.27373675443e-13</v>
+        <v>136.222326615</v>
       </c>
       <c r="L95">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>6294.579573273255</v>
+        <v>430.988148</v>
       </c>
       <c r="O95">
-        <v>6294.57957327</v>
+        <v>430.988148</v>
       </c>
       <c r="P95">
-        <v>957.718976744</v>
+        <v>148.727276187</v>
       </c>
       <c r="Q95">
-        <v>4118.1915999992</v>
+        <v>241.5691516249454</v>
       </c>
       <c r="R95">
-        <v>-4.54747350886e-13</v>
+        <v>114.014689702</v>
       </c>
       <c r="S95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
+        <v>119.7154241871</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5800</v>
+        <v>464</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -6047,57 +6623,63 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>4245.86480000007</v>
+        <v>484</v>
       </c>
       <c r="F96">
         <v>0.65550003</v>
       </c>
       <c r="G96">
-        <v>2.27373675443e-13</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>6836.78093953</v>
+        <v>350.3649948</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>-2.27373675443e-13</v>
+        <v>135.813659635</v>
       </c>
       <c r="L96">
-        <v>-2.769824773578363e-13</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>-1.846549849052242e-13</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>8622.228898320824</v>
+        <v>350.3649948</v>
       </c>
       <c r="O96">
-        <v>6836.78093953</v>
+        <v>350.3649948</v>
       </c>
       <c r="P96">
-        <v>987.410418605</v>
+        <v>196.253430963</v>
       </c>
       <c r="Q96">
-        <v>4245.8648000015</v>
+        <v>318.7631484732363</v>
       </c>
       <c r="R96">
-        <v>-4.54747350886e-13</v>
+        <v>78.68421501260001</v>
       </c>
       <c r="S96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
+        <v>82.61842576323001</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5850</v>
+        <v>468</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -6106,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>4273.538000000081</v>
+        <v>500</v>
       </c>
       <c r="F97">
         <v>0.65550003</v>
@@ -6118,13 +6700,13 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>6893.53834884</v>
+        <v>287.37646</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>135.406218656</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -6133,21 +6715,27 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>7638.174713915892</v>
+        <v>287.37646</v>
       </c>
       <c r="O97">
-        <v>6893.53834884</v>
+        <v>287.37646</v>
       </c>
       <c r="P97">
-        <v>993.846046512</v>
+        <v>237.63506388</v>
       </c>
       <c r="Q97">
-        <v>4273.5380000016</v>
+        <v>385.9769522414545</v>
       </c>
       <c r="R97">
-        <v>-4.54747350886e-13</v>
+        <v>54.2966894091</v>
       </c>
       <c r="S97">
+        <v>57.011523879555</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -3309,7 +3309,7 @@
         <v>10463.4300667397</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="M35">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -3309,7 +3309,7 @@
         <v>10463.4300667397</v>
       </c>
       <c r="L35">
-        <v>5.6843418860808e-14</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -579,10 +579,10 @@
         <v>50</v>
       </c>
       <c r="O2">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P2">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>360.297674418605</v>
       </c>
       <c r="S2">
-        <v>1549.280000000002</v>
+        <v>1549.28</v>
       </c>
       <c r="T2">
         <v>0.888888888888914</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>2.220446049250313e-15</v>
+        <v>2.22044604925031e-15</v>
       </c>
       <c r="X2">
         <v>300</v>
@@ -662,10 +662,10 @@
         <v>50</v>
       </c>
       <c r="O3">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P3">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>360.762790697674</v>
       </c>
       <c r="S3">
-        <v>1551.279999999998</v>
+        <v>1551.28</v>
       </c>
       <c r="T3">
         <v>0.888888888888942</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>5.773159728050814e-15</v>
+        <v>5.77315972805081e-15</v>
       </c>
       <c r="X3">
         <v>300</v>
@@ -745,10 +745,10 @@
         <v>50</v>
       </c>
       <c r="O4">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P4">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>361.227906976744</v>
       </c>
       <c r="S4">
-        <v>1553.279999999999</v>
+        <v>1553.28</v>
       </c>
       <c r="T4">
         <v>0.888888888888923</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="X4">
         <v>300</v>
@@ -828,10 +828,10 @@
         <v>50</v>
       </c>
       <c r="O5">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P5">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="X5">
         <v>300</v>
@@ -911,10 +911,10 @@
         <v>50</v>
       </c>
       <c r="O6">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P6">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>362.158139534884</v>
       </c>
       <c r="S6">
-        <v>1557.280000000001</v>
+        <v>1557.28</v>
       </c>
       <c r="T6">
         <v>0.888888888888923</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="X6">
         <v>300</v>
@@ -994,10 +994,10 @@
         <v>50</v>
       </c>
       <c r="O7">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P7">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>362.623255813954</v>
       </c>
       <c r="S7">
-        <v>1559.280000000002</v>
+        <v>1559.28</v>
       </c>
       <c r="T7">
         <v>0.888888888888923</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="X7">
         <v>300</v>
@@ -1077,10 +1077,10 @@
         <v>50</v>
       </c>
       <c r="O8">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P8">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>363.088372093023</v>
       </c>
       <c r="S8">
-        <v>1561.279999999999</v>
+        <v>1561.28</v>
       </c>
       <c r="T8">
         <v>0.888888888888923</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="X8">
         <v>300</v>
@@ -1160,10 +1160,10 @@
         <v>50</v>
       </c>
       <c r="O9">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P9">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="X9">
         <v>300</v>
@@ -1243,10 +1243,10 @@
         <v>50</v>
       </c>
       <c r="O10">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P10">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>354.251162790698</v>
       </c>
       <c r="S10">
-        <v>1523.280000000001</v>
+        <v>1523.28</v>
       </c>
       <c r="T10">
         <v>50.7421147707863</v>
@@ -1326,10 +1326,10 @@
         <v>50</v>
       </c>
       <c r="O11">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P11">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>348.204651162791</v>
       </c>
       <c r="S11">
-        <v>1497.280000000001</v>
+        <v>1497.28</v>
       </c>
       <c r="T11">
         <v>166.666666666667</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X11">
         <v>333.650927470281</v>
@@ -1409,10 +1409,10 @@
         <v>50</v>
       </c>
       <c r="O12">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P12">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>347.972093023256</v>
       </c>
       <c r="S12">
-        <v>1496.280000000001</v>
+        <v>1496.28</v>
       </c>
       <c r="T12">
         <v>166.666666666667</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X12">
         <v>445.48362561534</v>
@@ -1492,10 +1492,10 @@
         <v>50</v>
       </c>
       <c r="O13">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P13">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X13">
         <v>557.092658364109</v>
@@ -1575,10 +1575,10 @@
         <v>50</v>
       </c>
       <c r="O14">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P14">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X14">
         <v>668.478473047381</v>
@@ -1658,10 +1658,10 @@
         <v>50</v>
       </c>
       <c r="O15">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P15">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q15">
         <v>0.122170075</v>
@@ -1670,7 +1670,7 @@
         <v>347.274418604651</v>
       </c>
       <c r="S15">
-        <v>1493.279999999999</v>
+        <v>1493.28</v>
       </c>
       <c r="T15">
         <v>166.666666666667</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X15">
         <v>779.641516101286</v>
@@ -1741,10 +1741,10 @@
         <v>50</v>
       </c>
       <c r="O16">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P16">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q16">
         <v>0.24434015</v>
@@ -1753,7 +1753,7 @@
         <v>320.297674418605</v>
       </c>
       <c r="S16">
-        <v>1377.280000000002</v>
+        <v>1377.28</v>
       </c>
       <c r="T16">
         <v>166.666666666667</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X16">
-        <v>890.5822330690841</v>
+        <v>890.582233069084</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>50</v>
       </c>
       <c r="O17">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P17">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q17">
         <v>1.5096731</v>
@@ -1836,7 +1836,7 @@
         <v>319.80064744186</v>
       </c>
       <c r="S17">
-        <v>1375.142783999998</v>
+        <v>1375.142784</v>
       </c>
       <c r="T17">
         <v>166.666666666667</v>
@@ -1848,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X17">
         <v>1001.30106860295</v>
       </c>
       <c r="Y17">
-        <v>4.137216000000264</v>
+        <v>4.13721600000026</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>50</v>
       </c>
       <c r="O18">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P18">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q18">
         <v>2.77500605</v>
@@ -1919,7 +1919,7 @@
         <v>319.442321860465</v>
       </c>
       <c r="S18">
-        <v>1373.601983999999</v>
+        <v>1373.601984</v>
       </c>
       <c r="T18">
         <v>166.666666666667</v>
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X18">
         <v>1111.79846646574</v>
       </c>
       <c r="Y18">
-        <v>7.678016000000209</v>
+        <v>7.67801600000021</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -1990,10 +1990,10 @@
         <v>50</v>
       </c>
       <c r="O19">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P19">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q19">
         <v>5.9601545</v>
@@ -2002,7 +2002,7 @@
         <v>318.339810232558</v>
       </c>
       <c r="S19">
-        <v>1368.861183999999</v>
+        <v>1368.861184</v>
       </c>
       <c r="T19">
         <v>166.666666666667</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X19">
         <v>1222.07486953281</v>
       </c>
       <c r="Y19">
-        <v>14.41881600000016</v>
+        <v>14.4188160000002</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         <v>50</v>
       </c>
       <c r="O20">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P20">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q20">
         <v>9.14530295</v>
@@ -2097,13 +2097,13 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X20">
         <v>1332.13071979374</v>
       </c>
       <c r="Y20">
-        <v>23.55961599999976</v>
+        <v>23.5596159999998</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>50</v>
       </c>
       <c r="O21">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P21">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q21">
         <v>13.94484173</v>
@@ -2168,7 +2168,7 @@
         <v>292.878973023256</v>
       </c>
       <c r="S21">
-        <v>1259.379584000001</v>
+        <v>1259.379584</v>
       </c>
       <c r="T21">
         <v>166.666666666667</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X21">
         <v>1441.96645835416</v>
@@ -2239,10 +2239,10 @@
         <v>50</v>
       </c>
       <c r="O22">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P22">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q22">
         <v>18.7443805</v>
@@ -2263,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X22">
         <v>1551.58252543745</v>
       </c>
       <c r="Y22">
-        <v>45.04121600000033</v>
+        <v>45.0412160000003</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>50</v>
       </c>
       <c r="O23">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P23">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q23">
         <v>26.91668605</v>
@@ -2334,7 +2334,7 @@
         <v>290.115810232558</v>
       </c>
       <c r="S23">
-        <v>1247.497983999999</v>
+        <v>1247.497984</v>
       </c>
       <c r="T23">
         <v>166.666666666667</v>
@@ -2346,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X23">
         <v>1660.97936038657</v>
       </c>
       <c r="Y23">
-        <v>43.78201600000033</v>
+        <v>43.7820160000003</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>50</v>
       </c>
       <c r="O24">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P24">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q24">
         <v>35.0889916</v>
@@ -2417,7 +2417,7 @@
         <v>287.897019534884</v>
       </c>
       <c r="S24">
-        <v>1237.957184000001</v>
+        <v>1237.957184</v>
       </c>
       <c r="T24">
         <v>166.666666666667</v>
@@ -2429,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X24">
         <v>1770.1574016658</v>
       </c>
       <c r="Y24">
-        <v>55.32281600000024</v>
+        <v>55.3228160000002</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>50</v>
       </c>
       <c r="O25">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P25">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q25">
         <v>47.99538765</v>
@@ -2500,7 +2500,7 @@
         <v>291.445670697674</v>
       </c>
       <c r="S25">
-        <v>1253.216383999998</v>
+        <v>1253.216384</v>
       </c>
       <c r="T25">
         <v>166.666666666667</v>
@@ -2512,13 +2512,13 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X25">
         <v>1879.11708686247</v>
       </c>
       <c r="Y25">
-        <v>42.06361599999985</v>
+        <v>42.0636159999998</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2571,10 +2571,10 @@
         <v>50</v>
       </c>
       <c r="O26">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P26">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q26">
         <v>60.9017837</v>
@@ -2595,13 +2595,13 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X26">
         <v>1987.85885268874</v>
       </c>
       <c r="Y26">
-        <v>44.80441599999976</v>
+        <v>44.8044159999998</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>1213.89359807</v>
       </c>
       <c r="K27">
-        <v>8424.569676901219</v>
+        <v>8424.56967690122</v>
       </c>
       <c r="L27">
         <v>1250</v>
@@ -2654,10 +2654,10 @@
         <v>50</v>
       </c>
       <c r="O27">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P27">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q27">
         <v>74.39721408</v>
@@ -2666,7 +2666,7 @@
         <v>292.167159069767</v>
       </c>
       <c r="S27">
-        <v>1256.318783999998</v>
+        <v>1256.318784</v>
       </c>
       <c r="T27">
         <v>166.666666666667</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X27">
         <v>2096.38313498336</v>
       </c>
       <c r="Y27">
-        <v>42.96121600000009</v>
+        <v>42.9612160000001</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2737,19 +2737,19 @@
         <v>50</v>
       </c>
       <c r="O28">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P28">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q28">
-        <v>87.89264445000001</v>
+        <v>87.89264445</v>
       </c>
       <c r="R28">
         <v>291.971810232558</v>
       </c>
       <c r="S28">
-        <v>1255.478783999999</v>
+        <v>1255.478784</v>
       </c>
       <c r="T28">
         <v>166.666666666667</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X28">
         <v>2204.6903687134</v>
       </c>
       <c r="Y28">
-        <v>45.80121600000024</v>
+        <v>45.8012160000002</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>50</v>
       </c>
       <c r="O29">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P29">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q29">
         <v>110.5464674</v>
@@ -2844,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X29">
         <v>2312.78098797597</v>
       </c>
       <c r="Y29">
-        <v>48.64121600000033</v>
+        <v>48.6412160000003</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>50</v>
       </c>
       <c r="O30">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P30">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q30">
         <v>133.2002904</v>
@@ -2915,7 +2915,7 @@
         <v>291.58111255814</v>
       </c>
       <c r="S30">
-        <v>1253.798784000002</v>
+        <v>1253.798784</v>
       </c>
       <c r="T30">
         <v>166.666666666667</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X30">
         <v>2420.65542600002</v>
       </c>
       <c r="Y30">
-        <v>51.48121599999976</v>
+        <v>51.4812159999998</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -2986,10 +2986,10 @@
         <v>50</v>
       </c>
       <c r="O31">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P31">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q31">
         <v>160.9459877</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X31">
         <v>2528.31411514802</v>
       </c>
       <c r="Y31">
-        <v>38.32121599999992</v>
+        <v>38.3212159999999</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>1103.6254961</v>
       </c>
       <c r="K32">
-        <v>9796.759433356079</v>
+        <v>9796.75943335608</v>
       </c>
       <c r="L32">
         <v>1250</v>
@@ -3069,10 +3069,10 @@
         <v>50</v>
       </c>
       <c r="O32">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P32">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q32">
         <v>188.691685</v>
@@ -3081,7 +3081,7 @@
         <v>271.655531162791</v>
       </c>
       <c r="S32">
-        <v>1168.118784000001</v>
+        <v>1168.118784</v>
       </c>
       <c r="T32">
         <v>166.666666666667</v>
@@ -3093,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X32">
         <v>2635.75748691772</v>
       </c>
       <c r="Y32">
-        <v>41.16121600000008</v>
+        <v>41.1612160000001</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3152,10 +3152,10 @@
         <v>50</v>
       </c>
       <c r="O33">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="P33">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="Q33">
         <v>203.3171886</v>
@@ -3164,7 +3164,7 @@
         <v>271.460182325581</v>
       </c>
       <c r="S33">
-        <v>1167.278783999998</v>
+        <v>1167.278784</v>
       </c>
       <c r="T33">
         <v>166.666666666667</v>
@@ -3176,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="X33">
         <v>2742.98597194389</v>
       </c>
       <c r="Y33">
-        <v>44.00121600000024</v>
+        <v>44.0012160000002</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>550</v>
       </c>
       <c r="O34">
-        <v>669.9999999999999</v>
+        <v>670</v>
       </c>
       <c r="P34">
-        <v>446.6666666666666</v>
+        <v>446.666666666667</v>
       </c>
       <c r="Q34">
         <v>217.9426921</v>
@@ -3247,7 +3247,7 @@
         <v>274.98576372093</v>
       </c>
       <c r="S34">
-        <v>1182.438783999999</v>
+        <v>1182.438784</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>2850</v>
       </c>
       <c r="Y34">
-        <v>30.84121600000032</v>
+        <v>30.8412160000003</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -3318,7 +3318,7 @@
         <v>1000</v>
       </c>
       <c r="O35">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P35">
         <v>812.121212121212</v>
@@ -3348,7 +3348,7 @@
         <v>2844.3</v>
       </c>
       <c r="Y35">
-        <v>17.68121599999976</v>
+        <v>17.6812159999998</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>1000</v>
       </c>
       <c r="O36">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P36">
         <v>812.121212121212</v>
@@ -3413,7 +3413,7 @@
         <v>305.700182325581</v>
       </c>
       <c r="S36">
-        <v>1314.510783999998</v>
+        <v>1314.510784</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>2838.6114</v>
       </c>
       <c r="Y36">
-        <v>4.521215999999913</v>
+        <v>4.52121599999991</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>1000</v>
       </c>
       <c r="O37">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P37">
         <v>812.121212121212</v>
@@ -3496,7 +3496,7 @@
         <v>321.157209302326</v>
       </c>
       <c r="S37">
-        <v>1380.976000000002</v>
+        <v>1380.976</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>1000</v>
       </c>
       <c r="O38">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P38">
         <v>812.121212121212</v>
@@ -3597,7 +3597,7 @@
         <v>2827.2683088456</v>
       </c>
       <c r="Y38">
-        <v>10.20121600000024</v>
+        <v>10.2012160000002</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>1000</v>
       </c>
       <c r="O39">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P39">
         <v>812.121212121212</v>
@@ -3662,7 +3662,7 @@
         <v>322.256669767442</v>
       </c>
       <c r="S39">
-        <v>1385.703680000001</v>
+        <v>1385.70368</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>2821.61377222791</v>
       </c>
       <c r="Y39">
-        <v>22.33632000000032</v>
+        <v>22.3363200000003</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>1000</v>
       </c>
       <c r="O40">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P40">
         <v>812.121212121212</v>
@@ -3745,7 +3745,7 @@
         <v>339.790809302326</v>
       </c>
       <c r="S40">
-        <v>1461.100480000002</v>
+        <v>1461.10048</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>2815.97054468345</v>
       </c>
       <c r="Y40">
-        <v>12.33952000000024</v>
+        <v>12.3395200000002</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>1438.944</v>
       </c>
       <c r="E41">
-        <v>3414.041999999999</v>
+        <v>3414.042</v>
       </c>
       <c r="F41">
         <v>0.65550003</v>
@@ -3816,7 +3816,7 @@
         <v>1000</v>
       </c>
       <c r="O41">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P41">
         <v>812.121212121212</v>
@@ -3828,7 +3828,7 @@
         <v>326.465413953488</v>
       </c>
       <c r="S41">
-        <v>1403.801279999998</v>
+        <v>1403.80128</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>2810.33860359409</v>
       </c>
       <c r="Y41">
-        <v>35.14271999999984</v>
+        <v>35.1427199999998</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>1000</v>
       </c>
       <c r="O42">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P42">
         <v>812.121212121212</v>
@@ -3911,7 +3911,7 @@
         <v>361.884204651163</v>
       </c>
       <c r="S42">
-        <v>1556.102080000001</v>
+        <v>1556.10208</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>2804.7179263869</v>
       </c>
       <c r="Y42">
-        <v>48.34592000000048</v>
+        <v>48.3459200000005</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>1000</v>
       </c>
       <c r="O43">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P43">
         <v>812.121212121212</v>
@@ -3994,7 +3994,7 @@
         <v>396.209041860465</v>
       </c>
       <c r="S43">
-        <v>1703.698879999999</v>
+        <v>1703.69888</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>2799.10849053412</v>
       </c>
       <c r="Y43">
-        <v>66.34911999999967</v>
+        <v>66.3491199999997</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>1000</v>
       </c>
       <c r="O44">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P44">
         <v>812.121212121212</v>
@@ -4077,7 +4077,7 @@
         <v>439.676859534884</v>
       </c>
       <c r="S44">
-        <v>1890.610496000001</v>
+        <v>1890.610496</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>2793.51027355306</v>
       </c>
       <c r="Y44">
-        <v>45.03750399999993</v>
+        <v>45.0375039999999</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1000</v>
       </c>
       <c r="O45">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P45">
         <v>812.121212121212</v>
@@ -4160,7 +4160,7 @@
         <v>455.514418604651</v>
       </c>
       <c r="S45">
-        <v>1958.711999999999</v>
+        <v>1958.712</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>1000</v>
       </c>
       <c r="O46">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P46">
         <v>812.121212121212</v>
@@ -4243,7 +4243,7 @@
         <v>458.54015255814</v>
       </c>
       <c r="S46">
-        <v>1971.722656000002</v>
+        <v>1971.722656</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>2782.34740649994</v>
       </c>
       <c r="Y46">
-        <v>10.05334400000032</v>
+        <v>10.0533440000003</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2009.64</v>
       </c>
       <c r="E47">
-        <v>4193.928899999999</v>
+        <v>4193.9289</v>
       </c>
       <c r="F47">
         <v>0.65550003</v>
@@ -4314,7 +4314,7 @@
         <v>1000</v>
       </c>
       <c r="O47">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P47">
         <v>812.121212121212</v>
@@ -4326,7 +4326,7 @@
         <v>460.680226976744</v>
       </c>
       <c r="S47">
-        <v>1980.924975999999</v>
+        <v>1980.924976</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>2776.78271168694</v>
       </c>
       <c r="Y47">
-        <v>28.71502400000024</v>
+        <v>28.7150240000002</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>1000</v>
       </c>
       <c r="O48">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P48">
         <v>812.121212121212</v>
@@ -4409,7 +4409,7 @@
         <v>462.820301395349</v>
       </c>
       <c r="S48">
-        <v>1990.127296000001</v>
+        <v>1990.127296</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>2771.22914626356</v>
       </c>
       <c r="Y48">
-        <v>47.37670400000064</v>
+        <v>47.3767040000006</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>2091.288</v>
       </c>
       <c r="E49">
-        <v>4510.791899999999</v>
+        <v>4510.7919</v>
       </c>
       <c r="F49">
         <v>0.65550003</v>
@@ -4480,7 +4480,7 @@
         <v>1000</v>
       </c>
       <c r="O49">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P49">
         <v>812.121212121212</v>
@@ -4492,7 +4492,7 @@
         <v>472.434980465116</v>
       </c>
       <c r="S49">
-        <v>2031.470415999999</v>
+        <v>2031.470416</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>2765.68668797104</v>
       </c>
       <c r="Y49">
-        <v>59.81758399999961</v>
+        <v>59.8175839999996</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>2145.072</v>
       </c>
       <c r="E50">
-        <v>5196.436919999998</v>
+        <v>5196.43692</v>
       </c>
       <c r="F50">
         <v>0.65550003</v>
@@ -4563,7 +4563,7 @@
         <v>1000</v>
       </c>
       <c r="O50">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P50">
         <v>812.121212121212</v>
@@ -4575,7 +4575,7 @@
         <v>462.43241227907</v>
       </c>
       <c r="S50">
-        <v>1988.459372800001</v>
+        <v>1988.4593728</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>2760.1553145951</v>
       </c>
       <c r="Y50">
-        <v>156.6126271999992</v>
+        <v>156.612627199999</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>1000</v>
       </c>
       <c r="O51">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P51">
         <v>812.121212121212</v>
@@ -4658,7 +4658,7 @@
         <v>471.966605395349</v>
       </c>
       <c r="S51">
-        <v>2029.456403200001</v>
+        <v>2029.4564032</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -4676,7 +4676,7 @@
         <v>2754.63500396591</v>
       </c>
       <c r="Y51">
-        <v>163.7115968000008</v>
+        <v>163.711596800001</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>1000</v>
       </c>
       <c r="O52">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P52">
         <v>812.121212121212</v>
@@ -4741,7 +4741,7 @@
         <v>474.058938046512</v>
       </c>
       <c r="S52">
-        <v>2038.453433600002</v>
+        <v>2038.4534336</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         <v>1000</v>
       </c>
       <c r="O53">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P53">
         <v>812.121212121212</v>
@@ -4824,7 +4824,7 @@
         <v>480.741707906977</v>
       </c>
       <c r="S53">
-        <v>2067.189344000001</v>
+        <v>2067.189344</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>2317.68</v>
       </c>
       <c r="E54">
-        <v>5662.487160000001</v>
+        <v>5662.48716</v>
       </c>
       <c r="F54">
         <v>0.65550003</v>
@@ -4895,7 +4895,7 @@
         <v>1000</v>
       </c>
       <c r="O54">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P54">
         <v>812.121212121212</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>9952.499471301009</v>
+        <v>9952.49947130101</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1000</v>
       </c>
       <c r="O55">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P55">
         <v>812.121212121212</v>
@@ -4990,7 +4990,7 @@
         <v>491.422596465116</v>
       </c>
       <c r="S55">
-        <v>2113.117164799999</v>
+        <v>2113.1171648</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>9927.618222622759</v>
+        <v>9927.61822262276</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1000</v>
       </c>
       <c r="O56">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P56">
         <v>812.121212121212</v>
@@ -5073,7 +5073,7 @@
         <v>496.760250046512</v>
       </c>
       <c r="S56">
-        <v>2136.069075200001</v>
+        <v>2136.0690752</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>2727.19861917589</v>
       </c>
       <c r="Y56">
-        <v>257.9789248000008</v>
+        <v>257.978924800001</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5108,13 +5108,13 @@
         <v>5200</v>
       </c>
       <c r="C57">
-        <v>8.248754549999999</v>
+        <v>8.24875455</v>
       </c>
       <c r="D57">
         <v>2404.416</v>
       </c>
       <c r="E57">
-        <v>6012.024839999999</v>
+        <v>6012.02484</v>
       </c>
       <c r="F57">
         <v>0.65550003</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>9902.799177066199</v>
+        <v>9902.7991770662</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5144,7 +5144,7 @@
         <v>1000</v>
       </c>
       <c r="O57">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P57">
         <v>812.121212121212</v>
@@ -5156,7 +5156,7 @@
         <v>495.629066418605</v>
       </c>
       <c r="S57">
-        <v>2131.204985600002</v>
+        <v>2131.2049856</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>5800</v>
       </c>
       <c r="C58">
-        <v>9.659338399999999</v>
+        <v>9.6593384</v>
       </c>
       <c r="D58">
         <v>2414.784</v>
@@ -5227,7 +5227,7 @@
         <v>1000</v>
       </c>
       <c r="O58">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P58">
         <v>812.121212121212</v>
@@ -5239,7 +5239,7 @@
         <v>378.010738604651</v>
       </c>
       <c r="S58">
-        <v>1625.446175999999</v>
+        <v>1625.446176</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>9360.337205254669</v>
+        <v>9360.33720525467</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5310,7 +5310,7 @@
         <v>1000</v>
       </c>
       <c r="O59">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P59">
         <v>812.121212121212</v>
@@ -5322,7 +5322,7 @@
         <v>381.830922418605</v>
       </c>
       <c r="S59">
-        <v>1641.872966400001</v>
+        <v>1641.8729664</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>2445.024</v>
       </c>
       <c r="E60">
-        <v>6238.421999999998</v>
+        <v>6238.422</v>
       </c>
       <c r="F60">
         <v>1.04989998</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>9007.988993820491</v>
+        <v>9007.98899382049</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>1000</v>
       </c>
       <c r="O60">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P60">
         <v>812.121212121212</v>
@@ -5405,7 +5405,7 @@
         <v>384.205172093023</v>
       </c>
       <c r="S60">
-        <v>1652.082239999999</v>
+        <v>1652.08224</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>2427.94639576262</v>
       </c>
       <c r="Y60">
-        <v>292.9417599999992</v>
+        <v>292.941759999999</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>1000</v>
       </c>
       <c r="O61">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P61">
         <v>812.121212121212</v>
@@ -5488,7 +5488,7 @@
         <v>391.099161302326</v>
       </c>
       <c r="S61">
-        <v>1681.726393600002</v>
+        <v>1681.7263936</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>2496.288</v>
       </c>
       <c r="E62">
-        <v>6225.166079999999</v>
+        <v>6225.16608</v>
       </c>
       <c r="F62">
         <v>1.04989998</v>
@@ -5559,7 +5559,7 @@
         <v>1000</v>
       </c>
       <c r="O62">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P62">
         <v>812.121212121212</v>
@@ -5571,7 +5571,7 @@
         <v>405.435010976744</v>
       </c>
       <c r="S62">
-        <v>1743.370547199999</v>
+        <v>1743.3705472</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>2140.74432196515</v>
       </c>
       <c r="Y62">
-        <v>252.9174527999992</v>
+        <v>252.917452799999</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>6.86442885</v>
       </c>
       <c r="D63">
-        <v>2521.584000000001</v>
+        <v>2521.584</v>
       </c>
       <c r="E63">
         <v>6218.53812</v>
@@ -5642,7 +5642,7 @@
         <v>1000</v>
       </c>
       <c r="O63">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P63">
         <v>812.121212121212</v>
@@ -5654,7 +5654,7 @@
         <v>424.139083906977</v>
       </c>
       <c r="S63">
-        <v>1823.798060800001</v>
+        <v>1823.7980608</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>1997.57394443233</v>
       </c>
       <c r="Y63">
-        <v>197.7859392000008</v>
+        <v>197.785939200001</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>6.1818829</v>
       </c>
       <c r="D64">
-        <v>2546.880000000001</v>
+        <v>2546.88</v>
       </c>
       <c r="E64">
         <v>6211.91016</v>
@@ -5725,7 +5725,7 @@
         <v>1000</v>
       </c>
       <c r="O64">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P64">
         <v>812.121212121212</v>
@@ -5755,7 +5755,7 @@
         <v>1854.68990765458</v>
       </c>
       <c r="Y64">
-        <v>190.6544256000008</v>
+        <v>190.654425600001</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -5808,7 +5808,7 @@
         <v>1000</v>
       </c>
       <c r="O65">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P65">
         <v>812.121212121212</v>
@@ -5820,7 +5820,7 @@
         <v>424.646169302326</v>
       </c>
       <c r="S65">
-        <v>1825.978528000002</v>
+        <v>1825.978528</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>2496.384</v>
       </c>
       <c r="E66">
-        <v>6198.654240000001</v>
+        <v>6198.65424</v>
       </c>
       <c r="F66">
         <v>1.04989998</v>
@@ -5891,7 +5891,7 @@
         <v>1000</v>
       </c>
       <c r="O66">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P66">
         <v>812.121212121212</v>
@@ -5903,7 +5903,7 @@
         <v>417.611972465116</v>
       </c>
       <c r="S66">
-        <v>1795.731481599999</v>
+        <v>1795.7314816</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>2470.704</v>
       </c>
       <c r="E67">
-        <v>6192.026279999999</v>
+        <v>6192.02628</v>
       </c>
       <c r="F67">
         <v>1.04989998</v>
@@ -5974,7 +5974,7 @@
         <v>1000</v>
       </c>
       <c r="O67">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P67">
         <v>812.121212121212</v>
@@ -5986,7 +5986,7 @@
         <v>399.290408186047</v>
       </c>
       <c r="S67">
-        <v>1716.948755200002</v>
+        <v>1716.9487552</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6027,7 +6027,7 @@
         <v>2445.024</v>
       </c>
       <c r="E68">
-        <v>6185.398319999999</v>
+        <v>6185.39832</v>
       </c>
       <c r="F68">
         <v>1.04989998</v>
@@ -6057,7 +6057,7 @@
         <v>1000</v>
       </c>
       <c r="O68">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P68">
         <v>812.121212121212</v>
@@ -6069,7 +6069,7 @@
         <v>392.131634604651</v>
       </c>
       <c r="S68">
-        <v>1686.166028799999</v>
+        <v>1686.1660288</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>1000</v>
       </c>
       <c r="O69">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P69">
         <v>812.121212121212</v>
@@ -6152,7 +6152,7 @@
         <v>375.524898232558</v>
       </c>
       <c r="S69">
-        <v>1614.757062399999</v>
+        <v>1614.7570624</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>1000</v>
       </c>
       <c r="O70">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P70">
         <v>812.121212121212</v>
@@ -6235,7 +6235,7 @@
         <v>468.499557209302</v>
       </c>
       <c r="S70">
-        <v>2014.548095999998</v>
+        <v>2014.548096</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>4.19094265</v>
       </c>
       <c r="D71">
-        <v>2234.880000000001</v>
+        <v>2234.88</v>
       </c>
       <c r="E71">
         <v>5898.4968</v>
@@ -6306,19 +6306,19 @@
         <v>1000</v>
       </c>
       <c r="O71">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P71">
         <v>812.121212121212</v>
       </c>
       <c r="Q71">
-        <v>84.68131667999999</v>
+        <v>84.68131668</v>
       </c>
       <c r="R71">
         <v>447.323653953489</v>
       </c>
       <c r="S71">
-        <v>1923.491712000003</v>
+        <v>1923.491712</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>1000</v>
       </c>
       <c r="O72">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P72">
         <v>812.121212121212</v>
@@ -6419,7 +6419,7 @@
         <v>999.357398783631</v>
       </c>
       <c r="Y72">
-        <v>284.4126720000008</v>
+        <v>284.412672000001</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -6442,7 +6442,7 @@
         <v>2128.944</v>
       </c>
       <c r="E73">
-        <v>5351.205599999999</v>
+        <v>5351.2056</v>
       </c>
       <c r="F73">
         <v>0.65550003</v>
@@ -6472,7 +6472,7 @@
         <v>1000</v>
       </c>
       <c r="O73">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P73">
         <v>812.121212121212</v>
@@ -6484,7 +6484,7 @@
         <v>433.338284651163</v>
       </c>
       <c r="S73">
-        <v>1863.354624000001</v>
+        <v>1863.354624</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>2093.04</v>
       </c>
       <c r="E74">
-        <v>4585.889399999999</v>
+        <v>4585.8894</v>
       </c>
       <c r="F74">
         <v>0.65550003</v>
@@ -6555,7 +6555,7 @@
         <v>1000</v>
       </c>
       <c r="O74">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P74">
         <v>812.121212121212</v>
@@ -6567,7 +6567,7 @@
         <v>447.660747906977</v>
       </c>
       <c r="S74">
-        <v>1924.941216000001</v>
+        <v>1924.941216</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -6608,7 +6608,7 @@
         <v>2065.272</v>
       </c>
       <c r="E75">
-        <v>4361.614350000001</v>
+        <v>4361.61435</v>
       </c>
       <c r="F75">
         <v>0.65550003</v>
@@ -6638,7 +6638,7 @@
         <v>1000</v>
       </c>
       <c r="O75">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P75">
         <v>812.121212121212</v>
@@ -6650,7 +6650,7 @@
         <v>449.324935813954</v>
       </c>
       <c r="S75">
-        <v>1932.097224000002</v>
+        <v>1932.097224</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6721,7 +6721,7 @@
         <v>1000</v>
       </c>
       <c r="O76">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P76">
         <v>812.121212121212</v>
@@ -6733,7 +6733,7 @@
         <v>450.98912372093</v>
       </c>
       <c r="S76">
-        <v>1939.253231999999</v>
+        <v>1939.253232</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -6768,13 +6768,13 @@
         <v>5775</v>
       </c>
       <c r="C77">
-        <v>9.230342950000001</v>
+        <v>9.23034295</v>
       </c>
       <c r="D77">
         <v>1935.624</v>
       </c>
       <c r="E77">
-        <v>3913.064249999999</v>
+        <v>3913.06425</v>
       </c>
       <c r="F77">
         <v>0.65550003</v>
@@ -6786,7 +6786,7 @@
         <v>2694.88243181818</v>
       </c>
       <c r="I77">
-        <v>628.6586002499999</v>
+        <v>628.65860025</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>1000</v>
       </c>
       <c r="O77">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P77">
         <v>812.121212121212</v>
@@ -6816,7 +6816,7 @@
         <v>435.417962790698</v>
       </c>
       <c r="S77">
-        <v>1872.297240000001</v>
+        <v>1872.29724</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>989.403719223071</v>
       </c>
       <c r="Y77">
-        <v>63.32676000000032</v>
+        <v>63.3267600000003</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>1000</v>
       </c>
       <c r="O78">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P78">
         <v>812.121212121212</v>
@@ -6899,7 +6899,7 @@
         <v>303.567732093023</v>
       </c>
       <c r="S78">
-        <v>1305.341247999999</v>
+        <v>1305.341248</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>1000</v>
       </c>
       <c r="O79">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P79">
         <v>812.121212121212</v>
@@ -7053,7 +7053,7 @@
         <v>1000</v>
       </c>
       <c r="O80">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P80">
         <v>812.121212121212</v>
@@ -7136,7 +7136,7 @@
         <v>1000</v>
       </c>
       <c r="O81">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P81">
         <v>812.121212121212</v>
@@ -7148,7 +7148,7 @@
         <v>242.057674418605</v>
       </c>
       <c r="S81">
-        <v>1040.848000000001</v>
+        <v>1040.848</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>1000</v>
       </c>
       <c r="O82">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P82">
         <v>812.121212121212</v>
@@ -7231,7 +7231,7 @@
         <v>264.03070181297</v>
       </c>
       <c r="S82">
-        <v>1135.332017795771</v>
+        <v>1135.33201779577</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -7272,7 +7272,7 @@
         <v>1562.576</v>
       </c>
       <c r="E83">
-        <v>3243.049199999999</v>
+        <v>3243.0492</v>
       </c>
       <c r="F83">
         <v>1.04989998</v>
@@ -7302,7 +7302,7 @@
         <v>1000</v>
       </c>
       <c r="O83">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P83">
         <v>812.121212121212</v>
@@ -7314,7 +7314,7 @@
         <v>363.38976744186</v>
       </c>
       <c r="S83">
-        <v>1562.575999999998</v>
+        <v>1562.576</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -7385,7 +7385,7 @@
         <v>1000</v>
       </c>
       <c r="O84">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P84">
         <v>812.121212121212</v>
@@ -7397,7 +7397,7 @@
         <v>365.916279069768</v>
       </c>
       <c r="S84">
-        <v>1573.440000000002</v>
+        <v>1573.44</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>18.5862904</v>
       </c>
       <c r="D85">
-        <v>1585.303999999996</v>
+        <v>1585.304</v>
       </c>
       <c r="E85">
         <v>2976.4596</v>
@@ -7468,7 +7468,7 @@
         <v>1000</v>
       </c>
       <c r="O85">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P85">
         <v>812.121212121212</v>
@@ -7480,7 +7480,7 @@
         <v>368.675348837208</v>
       </c>
       <c r="S85">
-        <v>1585.303999999994</v>
+        <v>1585.30399999999</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -7551,7 +7551,7 @@
         <v>1000</v>
       </c>
       <c r="O86">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P86">
         <v>812.121212121212</v>
@@ -7563,7 +7563,7 @@
         <v>367.441860465116</v>
       </c>
       <c r="S86">
-        <v>1579.999999999999</v>
+        <v>1580</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>19.48325045</v>
       </c>
       <c r="D87">
-        <v>1574.696000000004</v>
+        <v>1574.696</v>
       </c>
       <c r="E87">
         <v>3169.87</v>
@@ -7634,7 +7634,7 @@
         <v>1000</v>
       </c>
       <c r="O87">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P87">
         <v>812.121212121212</v>
@@ -7646,7 +7646,7 @@
         <v>366.208372093024</v>
       </c>
       <c r="S87">
-        <v>1574.696000000003</v>
+        <v>1574.696</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7684,7 +7684,7 @@
         <v>19.3829006</v>
       </c>
       <c r="D88">
-        <v>1569.392000000008</v>
+        <v>1569.39200000001</v>
       </c>
       <c r="E88">
         <v>3102.57520000001</v>
@@ -7717,7 +7717,7 @@
         <v>1000</v>
       </c>
       <c r="O88">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P88">
         <v>812.121212121212</v>
@@ -7729,7 +7729,7 @@
         <v>364.974883720932</v>
       </c>
       <c r="S88">
-        <v>1569.392000000008</v>
+        <v>1569.39200000001</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -7767,7 +7767,7 @@
         <v>19.49077665</v>
       </c>
       <c r="D89">
-        <v>1564.088000000012</v>
+        <v>1564.08800000001</v>
       </c>
       <c r="E89">
         <v>3135.28040000001</v>
@@ -7800,7 +7800,7 @@
         <v>1000</v>
       </c>
       <c r="O89">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P89">
         <v>812.121212121212</v>
@@ -7812,7 +7812,7 @@
         <v>363.74139534884</v>
       </c>
       <c r="S89">
-        <v>1564.088000000012</v>
+        <v>1564.08800000001</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -7850,7 +7850,7 @@
         <v>19.5986527</v>
       </c>
       <c r="D90">
-        <v>1558.784000000016</v>
+        <v>1558.78400000002</v>
       </c>
       <c r="E90">
         <v>3167.98560000002</v>
@@ -7883,7 +7883,7 @@
         <v>1000</v>
       </c>
       <c r="O90">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P90">
         <v>812.121212121212</v>
@@ -7895,7 +7895,7 @@
         <v>362.507906976748</v>
       </c>
       <c r="S90">
-        <v>1558.784000000016</v>
+        <v>1558.78400000002</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -7966,7 +7966,7 @@
         <v>1000</v>
       </c>
       <c r="O91">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P91">
         <v>812.121212121212</v>
@@ -7978,7 +7978,7 @@
         <v>361.274418604656</v>
       </c>
       <c r="S91">
-        <v>1553.480000000021</v>
+        <v>1553.48000000002</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>19.3451022</v>
       </c>
       <c r="D92">
-        <v>1548.176000000024</v>
+        <v>1548.17600000002</v>
       </c>
       <c r="E92">
         <v>3353.39600000004</v>
@@ -8049,7 +8049,7 @@
         <v>1000</v>
       </c>
       <c r="O92">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P92">
         <v>812.121212121212</v>
@@ -8061,7 +8061,7 @@
         <v>360.040930232564</v>
       </c>
       <c r="S92">
-        <v>1548.176000000025</v>
+        <v>1548.17600000003</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -8099,7 +8099,7 @@
         <v>19.38959065</v>
       </c>
       <c r="D93">
-        <v>1542.872000000028</v>
+        <v>1542.87200000003</v>
       </c>
       <c r="E93">
         <v>3386.10120000004</v>
@@ -8132,7 +8132,7 @@
         <v>1000</v>
       </c>
       <c r="O93">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P93">
         <v>812.121212121212</v>
@@ -8162,7 +8162,7 @@
         <v>303.018084337214</v>
       </c>
       <c r="Y93">
-        <v>0.3809920000065176</v>
+        <v>0.380992000006518</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8182,7 +8182,7 @@
         <v>19.4340791</v>
       </c>
       <c r="D94">
-        <v>1537.568000000032</v>
+        <v>1537.56800000003</v>
       </c>
       <c r="E94">
         <v>3318.80640000005</v>
@@ -8215,7 +8215,7 @@
         <v>1000</v>
       </c>
       <c r="O94">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P94">
         <v>812.121212121212</v>
@@ -8227,7 +8227,7 @@
         <v>357.57395348838</v>
       </c>
       <c r="S94">
-        <v>1537.568000000034</v>
+        <v>1537.56800000003</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>19.46635825</v>
       </c>
       <c r="D95">
-        <v>1532.264000000036</v>
+        <v>1532.26400000004</v>
       </c>
       <c r="E95">
         <v>3451.51160000006</v>
@@ -8298,7 +8298,7 @@
         <v>1000</v>
       </c>
       <c r="O95">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P95">
         <v>812.121212121212</v>
@@ -8310,7 +8310,7 @@
         <v>351.945614883727</v>
       </c>
       <c r="S95">
-        <v>1513.366144000026</v>
+        <v>1513.36614400003</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>301.807224072202</v>
       </c>
       <c r="Y95">
-        <v>18.89785600000944</v>
+        <v>18.8978560000094</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -8381,7 +8381,7 @@
         <v>1000</v>
       </c>
       <c r="O96">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P96">
         <v>812.121212121212</v>
@@ -8393,7 +8393,7 @@
         <v>344.838072558146</v>
       </c>
       <c r="S96">
-        <v>1482.803712000028</v>
+        <v>1482.80371200003</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>301.203609624058</v>
       </c>
       <c r="Y96">
-        <v>44.15628800001105</v>
+        <v>44.156288000011</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>19.4986374</v>
       </c>
       <c r="D97">
-        <v>1521.656000000044</v>
+        <v>1521.65600000004</v>
       </c>
       <c r="E97">
         <v>3616.92200000008</v>
@@ -8464,7 +8464,7 @@
         <v>1000</v>
       </c>
       <c r="O97">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="P97">
         <v>812.121212121212</v>
@@ -8476,7 +8476,7 @@
         <v>341.451460465124</v>
       </c>
       <c r="S97">
-        <v>1468.241280000033</v>
+        <v>1468.24128000003</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>300.60120240481</v>
       </c>
       <c r="Y97">
-        <v>53.41472000001264</v>
+        <v>53.4147200000126</v>
       </c>
       <c r="Z97">
         <v>0</v>
